--- a/Documentation/translation.xlsx
+++ b/Documentation/translation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1918" uniqueCount="1451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="1464">
   <si>
     <t>$this.Text</t>
   </si>
@@ -251,12 +251,6 @@
     <t>Завершение работы в командной строке:</t>
   </si>
   <si>
-    <t>Label10.Text</t>
-  </si>
-  <si>
-    <t>Label11.Text</t>
-  </si>
-  <si>
     <t>Label2.Text</t>
   </si>
   <si>
@@ -264,9 +258,6 @@
   </si>
   <si>
     <t>Label3.Text</t>
-  </si>
-  <si>
-    <t>Label9.Text</t>
   </si>
   <si>
     <t>MAC-адрес</t>
@@ -4370,6 +4361,54 @@
   </si>
   <si>
     <t>Показать кнопки</t>
+  </si>
+  <si>
+    <t>lbName.Text</t>
+  </si>
+  <si>
+    <t>lbMAC.Text</t>
+  </si>
+  <si>
+    <t>lbIP.Text</t>
+  </si>
+  <si>
+    <t>lbBroadcast.Text</t>
+  </si>
+  <si>
+    <t>Broadcast</t>
+  </si>
+  <si>
+    <t>lbNetbios.Text</t>
+  </si>
+  <si>
+    <t>lbGroup.Text</t>
+  </si>
+  <si>
+    <t>lbShutdownCommand.Text</t>
+  </si>
+  <si>
+    <t>lbUDP.Text</t>
+  </si>
+  <si>
+    <t>lbTTL.Text</t>
+  </si>
+  <si>
+    <t>TTL</t>
+  </si>
+  <si>
+    <t>(Time To Live)</t>
+  </si>
+  <si>
+    <t>(User Datagram Port)</t>
+  </si>
+  <si>
+    <t>bCalcBroadcast.Text</t>
+  </si>
+  <si>
+    <t>Calculate</t>
+  </si>
+  <si>
+    <t>calculate subnet button</t>
   </si>
 </sst>
 </file>
@@ -4789,11 +4828,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IX353"/>
+  <dimension ref="A1:IX356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A240" sqref="A240:XFD240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4808,66 +4847,66 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="B2" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>1151</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>411</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4875,34 +4914,34 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D6" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -4910,61 +4949,61 @@
         <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D7" t="s">
         <v>72</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="G7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H7" t="s">
         <v>72</v>
       </c>
       <c r="I7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D8" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D9" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4976,10 +5015,10 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="F10" s="13"/>
     </row>
@@ -4992,10 +5031,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="F11" s="13"/>
     </row>
@@ -5005,7 +5044,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B13" s="1"/>
     </row>
@@ -5014,19 +5053,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D14" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="F14" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G14" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H14" t="s">
         <v>1</v>
@@ -5037,19 +5076,19 @@
         <v>2</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="G15" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H15" t="s">
         <v>3</v>
@@ -5057,7 +5096,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B17" s="1"/>
     </row>
@@ -5066,19 +5105,19 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D18" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="F18" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="G18" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="H18" t="s">
         <v>5</v>
@@ -5089,19 +5128,19 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D19" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="F19" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G19" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="H19" t="s">
         <v>7</v>
@@ -5112,19 +5151,19 @@
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D20" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="F20" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="G20" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H20" t="s">
         <v>9</v>
@@ -5132,25 +5171,25 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C21" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D21" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="F21" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G21" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H21" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -5158,19 +5197,19 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D22" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="G22" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="H22" t="s">
         <v>11</v>
@@ -5178,25 +5217,25 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C23" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D23" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="F23" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="G23" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -5204,22 +5243,22 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="C24" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="F24" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G24" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
@@ -5227,48 +5266,48 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C25" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D25" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="F25" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G25" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="H25" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C26" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D26" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="F26" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="G26" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="H26" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -5276,19 +5315,19 @@
         <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="F27" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="G27" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="H27" t="s">
         <v>15</v>
@@ -5299,19 +5338,19 @@
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="F28" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="G28" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="H28" t="s">
         <v>17</v>
@@ -5322,22 +5361,22 @@
         <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="C29" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="D29" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="G29" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="H29" t="s">
         <v>19</v>
@@ -5348,22 +5387,22 @@
         <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="C30" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="D30" t="s">
         <v>21</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="F30" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="G30" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="H30" t="s">
         <v>21</v>
@@ -5374,19 +5413,19 @@
         <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D31" t="s">
         <v>23</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F31" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G31" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="H31" t="s">
         <v>23</v>
@@ -5397,19 +5436,19 @@
         <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D32" t="s">
         <v>25</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="F32" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="G32" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H32" t="s">
         <v>25</v>
@@ -5417,20 +5456,20 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D33" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="F33" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -5438,19 +5477,19 @@
         <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D34" t="s">
         <v>25</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="F34" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G34" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="H34" t="s">
         <v>25</v>
@@ -5461,19 +5500,19 @@
         <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D35" t="s">
         <v>28</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="F35" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="G35" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="H35" t="s">
         <v>28</v>
@@ -5484,22 +5523,22 @@
         <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="C36" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="D36" t="s">
         <v>30</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="F36" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G36" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="H36" t="s">
         <v>30</v>
@@ -5510,22 +5549,22 @@
         <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="C37" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="D37" t="s">
         <v>32</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="F37" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="G37" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="H37" t="s">
         <v>32</v>
@@ -5536,19 +5575,19 @@
         <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D38" t="s">
         <v>34</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="F38" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G38" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H38" t="s">
         <v>34</v>
@@ -5559,19 +5598,19 @@
         <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D39" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="F39" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="G39" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H39" t="s">
         <v>36</v>
@@ -5579,20 +5618,20 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D40" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="F40" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -5600,19 +5639,19 @@
         <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D41" t="s">
         <v>38</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="F41" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G41" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H41" t="s">
         <v>38</v>
@@ -5623,19 +5662,19 @@
         <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D42" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="F42" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="G42" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H42" t="s">
         <v>40</v>
@@ -5646,22 +5685,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="C43" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D43" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="F43" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G43" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="H43" t="s">
         <v>42</v>
@@ -5672,19 +5711,19 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D44" t="s">
         <v>44</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F44" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="G44" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="H44" t="s">
         <v>44</v>
@@ -5692,25 +5731,25 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C45" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D45" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="F45" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G45" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="H45" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -5718,19 +5757,19 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D46" t="s">
         <v>46</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="F46" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="G46" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H46" t="s">
         <v>46</v>
@@ -5738,48 +5777,48 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C47" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="D47" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="G47" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="H47" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C48" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="D48" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="F48" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="G48" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H48" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -5787,19 +5826,19 @@
         <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D49" t="s">
         <v>48</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="F49" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G49" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H49" t="s">
         <v>48</v>
@@ -5810,22 +5849,22 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="C50" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="D50" t="s">
         <v>50</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="F50" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="G50" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H50" t="s">
         <v>50</v>
@@ -5833,25 +5872,25 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C51" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="D51" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="F51" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G51" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="H51" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -5859,19 +5898,19 @@
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D52" t="s">
         <v>36</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="F52" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="G52" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H52" t="s">
         <v>36</v>
@@ -5882,19 +5921,19 @@
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D53" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="F53" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="G53" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H53" t="s">
         <v>53</v>
@@ -5905,19 +5944,19 @@
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="D54" t="s">
         <v>55</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="F54" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="G54" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H54" t="s">
         <v>55</v>
@@ -5925,25 +5964,25 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C55" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="D55" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="F55" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="G55" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H55" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -5951,19 +5990,19 @@
         <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D56" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="F56" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="G56" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H56" t="s">
         <v>25</v>
@@ -5974,19 +6013,19 @@
         <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D57" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="F57" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G57" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H57" t="s">
         <v>25</v>
@@ -5998,19 +6037,19 @@
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D58" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="F58" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="G58" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H58" t="s">
         <v>59</v>
@@ -6021,19 +6060,19 @@
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D59" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="F59" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G59" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H59" t="s">
         <v>61</v>
@@ -6045,19 +6084,19 @@
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="D60" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="F60" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G60" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H60" t="s">
         <v>63</v>
@@ -6068,19 +6107,19 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D61" t="s">
         <v>65</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="F61" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="G61" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H61" t="s">
         <v>65</v>
@@ -6091,19 +6130,19 @@
         <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="D62" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="F62" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G62" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H62" t="s">
         <v>36</v>
@@ -6111,22 +6150,22 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C63" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="D63" t="s">
         <v>72</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="F63" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="G63" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H63" t="s">
         <v>72</v>
@@ -6137,22 +6176,22 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="C64" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="D64" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="F64" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="G64" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H64" t="s">
         <v>68</v>
@@ -6163,19 +6202,19 @@
         <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D65" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="F65" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G65" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H65" t="s">
         <v>70</v>
@@ -6183,289 +6222,289 @@
     </row>
     <row r="66" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D66" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="67" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>981</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="G67" s="6" t="s">
         <v>550</v>
-      </c>
-      <c r="D67" t="s">
-        <v>1449</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>984</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>657</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="68" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D68" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="69" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D69" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="70" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D70" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="71" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="6" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D71" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="72" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="6" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D72" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="73" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="6" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D73" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="74" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="6" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="D74" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="E74" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="H74" s="14"/>
     </row>
     <row r="75" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="D75" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="E75" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="G75" s="14" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="H75" s="14"/>
     </row>
     <row r="76" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="C76" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="D76" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="E76" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="G76" s="14" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="H76" s="14"/>
     </row>
     <row r="77" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="C77" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="D77" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="E77" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="G77" s="14" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="H77" s="14"/>
     </row>
     <row r="78" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="D78" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="E78" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="G78" s="14" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="H78" s="14"/>
     </row>
     <row r="79" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="D79" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
@@ -6723,14 +6762,14 @@
     </row>
     <row r="80" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D80" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
@@ -6988,14 +7027,14 @@
     </row>
     <row r="81" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D81" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
@@ -7253,14 +7292,14 @@
     </row>
     <row r="82" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D82" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
@@ -7518,14 +7557,14 @@
     </row>
     <row r="83" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D83" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
@@ -7783,14 +7822,14 @@
     </row>
     <row r="84" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D84" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -8048,87 +8087,87 @@
     </row>
     <row r="85" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D85" t="s">
         <v>1447</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>1448</v>
-      </c>
-      <c r="D85" t="s">
-        <v>1450</v>
       </c>
     </row>
     <row r="87" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B87" s="1"/>
     </row>
     <row r="88" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D88" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="89" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D89" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="90" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D90" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="G90" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="92" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B92" s="1"/>
     </row>
@@ -8138,19 +8177,19 @@
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D93" t="s">
         <v>48</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G93" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="94" spans="1:258" x14ac:dyDescent="0.25">
@@ -8158,19 +8197,19 @@
         <v>73</v>
       </c>
       <c r="C94" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D94" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="G94" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H94" t="s">
         <v>74</v>
@@ -8181,19 +8220,19 @@
         <v>75</v>
       </c>
       <c r="C95" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D95" t="s">
         <v>15</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="G95" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H95" t="s">
         <v>15</v>
@@ -8201,2583 +8240,2547 @@
     </row>
     <row r="96" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>76</v>
+        <v>1455</v>
       </c>
       <c r="C96" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D96" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="G96" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H96" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>78</v>
+        <v>1448</v>
       </c>
       <c r="C97" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D97" t="s">
         <v>38</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G97" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H97" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>79</v>
+        <v>1453</v>
       </c>
       <c r="C98" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D98" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="G98" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H98" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>80</v>
+        <v>1454</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="C99" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D99" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="G99" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H99" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>82</v>
+        <v>1450</v>
       </c>
       <c r="C100" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D100" t="s">
         <v>34</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G100" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H100" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C101" t="s">
+        <v>348</v>
+      </c>
+      <c r="D101" t="s">
+        <v>81</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="G101" t="s">
+        <v>450</v>
+      </c>
+      <c r="H101" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>82</v>
+      </c>
+      <c r="C102" t="s">
+        <v>349</v>
+      </c>
+      <c r="D102" t="s">
+        <v>87</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="F102" t="s">
+        <v>666</v>
+      </c>
+      <c r="G102" t="s">
+        <v>451</v>
+      </c>
+      <c r="H102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>83</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C103" t="s">
+        <v>350</v>
+      </c>
+      <c r="D103" t="s">
+        <v>84</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="F103" t="s">
+        <v>667</v>
+      </c>
+      <c r="G103" t="s">
+        <v>452</v>
+      </c>
+      <c r="H103" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C104" t="s">
+        <v>304</v>
+      </c>
+      <c r="D104" t="s">
+        <v>303</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F104" t="s">
+        <v>304</v>
+      </c>
+      <c r="G104" t="s">
+        <v>516</v>
+      </c>
+      <c r="H104" t="s">
+        <v>303</v>
+      </c>
+      <c r="I104" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="9" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B105" s="9"/>
+      <c r="C105" s="9" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="9" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="9" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B109" s="1"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="C110" t="s">
+        <v>338</v>
+      </c>
+      <c r="D110" t="s">
+        <v>53</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="G110" t="s">
+        <v>434</v>
+      </c>
+      <c r="H110" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>88</v>
+      </c>
+      <c r="C111" t="s">
         <v>351</v>
       </c>
-      <c r="D101" t="s">
-        <v>84</v>
-      </c>
-      <c r="E101" s="6" t="s">
+      <c r="D111" t="s">
+        <v>89</v>
+      </c>
+      <c r="E111" s="3" t="s">
         <v>997</v>
       </c>
-      <c r="F101" s="6" t="s">
+      <c r="F111" t="s">
         <v>668</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G111" t="s">
         <v>453</v>
       </c>
-      <c r="H101" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>85</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="H111" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>90</v>
+      </c>
+      <c r="C112" t="s">
         <v>352</v>
       </c>
-      <c r="D102" t="s">
-        <v>90</v>
-      </c>
-      <c r="E102" s="3" t="s">
+      <c r="D112" t="s">
+        <v>91</v>
+      </c>
+      <c r="E112" s="3" t="s">
         <v>998</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F112" t="s">
         <v>669</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G112" t="s">
         <v>454</v>
       </c>
-      <c r="H102" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>86</v>
-      </c>
-      <c r="C103" t="s">
-        <v>353</v>
-      </c>
-      <c r="D103" t="s">
-        <v>87</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>999</v>
-      </c>
-      <c r="F103" t="s">
-        <v>670</v>
-      </c>
-      <c r="G103" t="s">
-        <v>455</v>
-      </c>
-      <c r="H103" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B104" s="9"/>
-      <c r="C104" s="9" t="s">
-        <v>637</v>
-      </c>
-      <c r="D104" t="s">
-        <v>1255</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>973</v>
-      </c>
-      <c r="F104" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>0</v>
-      </c>
-      <c r="C107" t="s">
-        <v>341</v>
-      </c>
-      <c r="D107" t="s">
-        <v>53</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>979</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>832</v>
-      </c>
-      <c r="G107" t="s">
-        <v>437</v>
-      </c>
-      <c r="H107" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="H112" t="s">
         <v>91</v>
-      </c>
-      <c r="C108" t="s">
-        <v>354</v>
-      </c>
-      <c r="D108" t="s">
-        <v>92</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F108" t="s">
-        <v>671</v>
-      </c>
-      <c r="G108" t="s">
-        <v>456</v>
-      </c>
-      <c r="H108" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>93</v>
-      </c>
-      <c r="C109" t="s">
-        <v>355</v>
-      </c>
-      <c r="D109" t="s">
-        <v>94</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>1001</v>
-      </c>
-      <c r="F109" t="s">
-        <v>672</v>
-      </c>
-      <c r="G109" t="s">
-        <v>457</v>
-      </c>
-      <c r="H109" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>95</v>
-      </c>
-      <c r="C110" t="s">
-        <v>356</v>
-      </c>
-      <c r="D110" t="s">
-        <v>96</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>1002</v>
-      </c>
-      <c r="F110" t="s">
-        <v>673</v>
-      </c>
-      <c r="G110" t="s">
-        <v>458</v>
-      </c>
-      <c r="H110" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>97</v>
-      </c>
-      <c r="C111" t="s">
-        <v>357</v>
-      </c>
-      <c r="D111" t="s">
-        <v>98</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F111" t="s">
-        <v>357</v>
-      </c>
-      <c r="G111" t="s">
-        <v>459</v>
-      </c>
-      <c r="H111" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>99</v>
-      </c>
-      <c r="C112" t="s">
-        <v>333</v>
-      </c>
-      <c r="D112" t="s">
-        <v>34</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>969</v>
-      </c>
-      <c r="F112" t="s">
-        <v>634</v>
-      </c>
-      <c r="G112" t="s">
-        <v>427</v>
-      </c>
-      <c r="H112" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C113" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D113" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="F113" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="G113" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H113" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B114" s="2"/>
+      <c r="A114" t="s">
+        <v>94</v>
+      </c>
       <c r="C114" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="D114" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="F114" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="G114" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="H114" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C115" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="D115" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>1004</v>
+        <v>966</v>
       </c>
       <c r="F115" t="s">
-        <v>674</v>
+        <v>631</v>
       </c>
       <c r="G115" t="s">
-        <v>460</v>
+        <v>424</v>
       </c>
       <c r="H115" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C116" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="D116" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>1005</v>
+        <v>994</v>
       </c>
       <c r="F116" t="s">
-        <v>646</v>
+        <v>665</v>
       </c>
       <c r="G116" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="H116" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>76</v>
-      </c>
+      <c r="A117" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B117" s="2"/>
       <c r="C117" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="D117" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>1006</v>
+        <v>992</v>
       </c>
       <c r="F117" t="s">
-        <v>675</v>
+        <v>346</v>
       </c>
       <c r="G117" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="H117" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C118" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D118" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="F118" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="G118" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="H118" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="C119" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="D119" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>1008</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>833</v>
+        <v>1002</v>
+      </c>
+      <c r="F119" t="s">
+        <v>643</v>
       </c>
       <c r="G119" t="s">
-        <v>463</v>
+        <v>434</v>
       </c>
       <c r="H119" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="6" t="s">
+      <c r="A120" t="s">
+        <v>76</v>
+      </c>
+      <c r="C120" t="s">
+        <v>356</v>
+      </c>
+      <c r="D120" t="s">
+        <v>103</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F120" t="s">
+        <v>672</v>
+      </c>
+      <c r="G120" t="s">
+        <v>458</v>
+      </c>
+      <c r="H120" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>78</v>
+      </c>
+      <c r="C121" t="s">
+        <v>357</v>
+      </c>
+      <c r="D121" t="s">
+        <v>104</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F121" t="s">
+        <v>673</v>
+      </c>
+      <c r="G121" t="s">
+        <v>459</v>
+      </c>
+      <c r="H121" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>80</v>
+      </c>
+      <c r="C122" t="s">
+        <v>358</v>
+      </c>
+      <c r="D122" t="s">
+        <v>105</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="G122" t="s">
+        <v>460</v>
+      </c>
+      <c r="H122" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="B123" s="6"/>
+      <c r="C123" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="B120" s="6"/>
-      <c r="C120" s="6" t="s">
+      <c r="B124" s="6"/>
+      <c r="C124" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="D120" t="s">
-        <v>1283</v>
-      </c>
-      <c r="E120" s="6" t="s">
-        <v>1009</v>
-      </c>
-      <c r="F120" s="6" t="s">
-        <v>677</v>
-      </c>
-      <c r="G120" s="6" t="s">
+      <c r="D124" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="G124" s="6" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="6" t="s">
-        <v>573</v>
-      </c>
-      <c r="B121" s="6"/>
-      <c r="C121" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="D121" t="s">
-        <v>1284</v>
-      </c>
-      <c r="E121" s="6" t="s">
-        <v>1010</v>
-      </c>
-      <c r="F121" s="6" t="s">
-        <v>678</v>
-      </c>
-      <c r="G121" s="6" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B123" s="1"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>0</v>
-      </c>
-      <c r="C124" t="s">
-        <v>344</v>
-      </c>
-      <c r="D124" t="s">
-        <v>1285</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>981</v>
-      </c>
-      <c r="F124" t="s">
-        <v>679</v>
-      </c>
-      <c r="G124" t="s">
-        <v>442</v>
-      </c>
-      <c r="H124" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>110</v>
-      </c>
-      <c r="C125" t="s">
-        <v>317</v>
-      </c>
-      <c r="D125" t="s">
-        <v>1286</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>955</v>
-      </c>
-      <c r="F125" t="s">
-        <v>680</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="H125" t="s">
-        <v>111</v>
-      </c>
-    </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>112</v>
-      </c>
-      <c r="C126" t="s">
-        <v>372</v>
-      </c>
-      <c r="D126" t="s">
-        <v>1287</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>972</v>
-      </c>
-      <c r="F126" t="s">
-        <v>681</v>
-      </c>
-      <c r="G126" t="s">
-        <v>429</v>
-      </c>
-      <c r="H126" t="s">
-        <v>113</v>
-      </c>
+      <c r="A126" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B126" s="1"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="C127" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D127" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="F127" t="s">
-        <v>345</v>
+        <v>676</v>
       </c>
       <c r="G127" t="s">
-        <v>345</v>
+        <v>439</v>
       </c>
       <c r="H127" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C128" t="s">
+        <v>314</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="F128" t="s">
+        <v>677</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="H128" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>109</v>
+      </c>
+      <c r="C129" t="s">
+        <v>369</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="F129" t="s">
+        <v>678</v>
+      </c>
+      <c r="G129" t="s">
+        <v>426</v>
+      </c>
+      <c r="H129" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>111</v>
+      </c>
+      <c r="C130" t="s">
+        <v>342</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="F130" t="s">
+        <v>342</v>
+      </c>
+      <c r="G130" t="s">
+        <v>342</v>
+      </c>
+      <c r="H130" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>102</v>
+      </c>
+      <c r="C131" t="s">
+        <v>370</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F131" t="s">
+        <v>679</v>
+      </c>
+      <c r="G131" t="s">
+        <v>461</v>
+      </c>
+      <c r="H131" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>113</v>
+      </c>
+      <c r="C132" t="s">
+        <v>371</v>
+      </c>
+      <c r="D132" t="s">
+        <v>114</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F132" t="s">
+        <v>680</v>
+      </c>
+      <c r="G132" t="s">
+        <v>462</v>
+      </c>
+      <c r="H132" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B133" s="2"/>
+      <c r="C133" t="s">
+        <v>372</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F133" t="s">
+        <v>681</v>
+      </c>
+      <c r="G133" t="s">
+        <v>463</v>
+      </c>
+      <c r="H133" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>117</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C134" t="s">
         <v>373</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D134" t="s">
+        <v>118</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F134" t="s">
+        <v>682</v>
+      </c>
+      <c r="G134" t="s">
+        <v>464</v>
+      </c>
+      <c r="H134" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>119</v>
+      </c>
+      <c r="C135" t="s">
+        <v>294</v>
+      </c>
+      <c r="D135" t="s">
+        <v>295</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F135" t="s">
+        <v>683</v>
+      </c>
+      <c r="G135" t="s">
+        <v>465</v>
+      </c>
+      <c r="H135" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>121</v>
+      </c>
+      <c r="C136" t="s">
+        <v>288</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F136" t="s">
+        <v>684</v>
+      </c>
+      <c r="G136" t="s">
+        <v>466</v>
+      </c>
+      <c r="H136" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>123</v>
+      </c>
+      <c r="C137" t="s">
+        <v>374</v>
+      </c>
+      <c r="D137" t="s">
         <v>1289</v>
       </c>
-      <c r="E128" s="3" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F128" t="s">
-        <v>682</v>
-      </c>
-      <c r="G128" t="s">
-        <v>464</v>
-      </c>
-      <c r="H128" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>116</v>
-      </c>
-      <c r="C129" t="s">
-        <v>374</v>
-      </c>
-      <c r="D129" t="s">
-        <v>117</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>1012</v>
-      </c>
-      <c r="F129" t="s">
-        <v>683</v>
-      </c>
-      <c r="G129" t="s">
-        <v>465</v>
-      </c>
-      <c r="H129" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B130" s="2"/>
-      <c r="C130" t="s">
+      <c r="E137" s="3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F137" t="s">
+        <v>685</v>
+      </c>
+      <c r="G137" t="s">
+        <v>467</v>
+      </c>
+      <c r="H137" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>125</v>
+      </c>
+      <c r="C138" t="s">
         <v>375</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D138" t="s">
         <v>1290</v>
       </c>
-      <c r="E130" s="3" t="s">
-        <v>1013</v>
-      </c>
-      <c r="F130" t="s">
-        <v>684</v>
-      </c>
-      <c r="G130" t="s">
-        <v>466</v>
-      </c>
-      <c r="H130" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>120</v>
-      </c>
-      <c r="B131" t="s">
-        <v>1213</v>
-      </c>
-      <c r="C131" t="s">
+      <c r="E138" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F138" t="s">
+        <v>686</v>
+      </c>
+      <c r="G138" t="s">
+        <v>468</v>
+      </c>
+      <c r="H138" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>127</v>
+      </c>
+      <c r="C139" t="s">
+        <v>263</v>
+      </c>
+      <c r="D139" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="F139" t="s">
+        <v>676</v>
+      </c>
+      <c r="G139" t="s">
+        <v>439</v>
+      </c>
+      <c r="H139" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B141" s="1"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>76</v>
+      </c>
+      <c r="C142" t="s">
         <v>376</v>
       </c>
-      <c r="D131" t="s">
-        <v>121</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F131" t="s">
-        <v>685</v>
-      </c>
-      <c r="G131" t="s">
-        <v>467</v>
-      </c>
-      <c r="H131" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>122</v>
-      </c>
-      <c r="C132" t="s">
-        <v>297</v>
-      </c>
-      <c r="D132" t="s">
-        <v>298</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>1015</v>
-      </c>
-      <c r="F132" t="s">
-        <v>686</v>
-      </c>
-      <c r="G132" t="s">
-        <v>468</v>
-      </c>
-      <c r="H132" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>124</v>
-      </c>
-      <c r="C133" t="s">
-        <v>291</v>
-      </c>
-      <c r="D133" t="s">
-        <v>1291</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>1016</v>
-      </c>
-      <c r="F133" t="s">
-        <v>687</v>
-      </c>
-      <c r="G133" t="s">
-        <v>469</v>
-      </c>
-      <c r="H133" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>126</v>
-      </c>
-      <c r="C134" t="s">
-        <v>377</v>
-      </c>
-      <c r="D134" t="s">
-        <v>1292</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>1017</v>
-      </c>
-      <c r="F134" t="s">
-        <v>688</v>
-      </c>
-      <c r="G134" t="s">
-        <v>470</v>
-      </c>
-      <c r="H134" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>128</v>
-      </c>
-      <c r="C135" t="s">
-        <v>378</v>
-      </c>
-      <c r="D135" t="s">
-        <v>1293</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>1018</v>
-      </c>
-      <c r="F135" t="s">
-        <v>689</v>
-      </c>
-      <c r="G135" t="s">
-        <v>471</v>
-      </c>
-      <c r="H135" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>130</v>
-      </c>
-      <c r="C136" t="s">
-        <v>266</v>
-      </c>
-      <c r="D136" t="s">
-        <v>1285</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>981</v>
-      </c>
-      <c r="F136" t="s">
-        <v>679</v>
-      </c>
-      <c r="G136" t="s">
-        <v>442</v>
-      </c>
-      <c r="H136" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B138" s="1"/>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>76</v>
-      </c>
-      <c r="C139" t="s">
-        <v>379</v>
-      </c>
-      <c r="D139" t="s">
-        <v>222</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="F139" t="s">
-        <v>379</v>
-      </c>
-      <c r="G139" t="s">
-        <v>379</v>
-      </c>
-      <c r="H139" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B141" s="1"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>132</v>
-      </c>
-      <c r="B142" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C142" t="s">
-        <v>133</v>
-      </c>
       <c r="D142" t="s">
-        <v>1294</v>
-      </c>
-      <c r="E142" s="11" t="s">
-        <v>1144</v>
+        <v>219</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>376</v>
       </c>
       <c r="F142" t="s">
-        <v>690</v>
+        <v>376</v>
       </c>
       <c r="G142" t="s">
-        <v>527</v>
+        <v>376</v>
       </c>
       <c r="H142" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>134</v>
-      </c>
-      <c r="C143" t="s">
-        <v>223</v>
-      </c>
-      <c r="D143" t="s">
-        <v>1295</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>1019</v>
-      </c>
-      <c r="F143" t="s">
-        <v>691</v>
-      </c>
-      <c r="G143" t="s">
-        <v>472</v>
-      </c>
-      <c r="H143" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>136</v>
-      </c>
-      <c r="C144" t="s">
-        <v>224</v>
-      </c>
-      <c r="D144" t="s">
-        <v>137</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>1020</v>
-      </c>
-      <c r="F144" t="s">
-        <v>692</v>
-      </c>
-      <c r="G144" t="s">
-        <v>473</v>
-      </c>
-      <c r="H144" t="s">
-        <v>137</v>
-      </c>
-      <c r="I144" t="s">
-        <v>405</v>
-      </c>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B144" s="1"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>138</v>
+        <v>129</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1224</v>
       </c>
       <c r="C145" t="s">
-        <v>225</v>
+        <v>130</v>
       </c>
       <c r="D145" t="s">
-        <v>1296</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>1021</v>
+        <v>1291</v>
+      </c>
+      <c r="E145" s="11" t="s">
+        <v>1141</v>
       </c>
       <c r="F145" t="s">
-        <v>693</v>
-      </c>
-      <c r="G145" s="6" t="s">
-        <v>546</v>
+        <v>687</v>
+      </c>
+      <c r="G145" t="s">
+        <v>524</v>
       </c>
       <c r="H145" t="s">
-        <v>139</v>
-      </c>
-      <c r="I145" t="s">
-        <v>406</v>
+        <v>130</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>140</v>
-      </c>
-      <c r="B146" t="s">
-        <v>1228</v>
+        <v>131</v>
       </c>
       <c r="C146" t="s">
-        <v>1214</v>
+        <v>220</v>
       </c>
       <c r="D146" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>1149</v>
+        <v>1016</v>
       </c>
       <c r="F146" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G146" t="s">
-        <v>528</v>
+        <v>469</v>
       </c>
       <c r="H146" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C147" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D147" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="F147" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="G147" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="H147" t="s">
-        <v>143</v>
+        <v>134</v>
+      </c>
+      <c r="I147" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C148" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D148" t="s">
-        <v>145</v>
+        <v>1293</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="F148" t="s">
-        <v>696</v>
-      </c>
-      <c r="G148" t="s">
-        <v>475</v>
+        <v>690</v>
+      </c>
+      <c r="G148" s="6" t="s">
+        <v>543</v>
       </c>
       <c r="H148" t="s">
-        <v>145</v>
+        <v>136</v>
+      </c>
+      <c r="I148" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>146</v>
+        <v>137</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1225</v>
       </c>
       <c r="C149" t="s">
-        <v>228</v>
+        <v>1211</v>
       </c>
       <c r="D149" t="s">
-        <v>147</v>
+        <v>1294</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>1024</v>
+        <v>1146</v>
       </c>
       <c r="F149" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="G149" t="s">
-        <v>476</v>
+        <v>525</v>
       </c>
       <c r="H149" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C150" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D150" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="F150" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="G150" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="H150" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C151" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D151" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="F151" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="G151" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="H151" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>231</v>
+        <v>143</v>
       </c>
       <c r="C152" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D152" t="s">
-        <v>1298</v>
+        <v>144</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="F152" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="G152" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="H152" t="s">
-        <v>232</v>
+        <v>144</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>234</v>
+        <v>145</v>
       </c>
       <c r="C153" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D153" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>1028</v>
-      </c>
-      <c r="F153" s="3" t="s">
-        <v>834</v>
+        <v>1022</v>
+      </c>
+      <c r="F153" t="s">
+        <v>695</v>
       </c>
       <c r="G153" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="H153" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C154" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="D154" t="s">
-        <v>1299</v>
+        <v>148</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>1150</v>
+        <v>1023</v>
       </c>
       <c r="F154" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G154" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="H154" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="B155" s="6"/>
-      <c r="C155" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="E155" s="6" t="s">
-        <v>1029</v>
-      </c>
-      <c r="F155" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="G155" s="6" t="s">
-        <v>577</v>
+      <c r="A155" t="s">
+        <v>228</v>
+      </c>
+      <c r="C155" t="s">
+        <v>230</v>
+      </c>
+      <c r="D155" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F155" t="s">
+        <v>697</v>
+      </c>
+      <c r="G155" t="s">
+        <v>476</v>
+      </c>
+      <c r="H155" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>154</v>
+        <v>231</v>
       </c>
       <c r="C156" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D156" t="s">
-        <v>1300</v>
+        <v>195</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>1030</v>
-      </c>
-      <c r="F156" t="s">
-        <v>703</v>
+        <v>1025</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>831</v>
       </c>
       <c r="G156" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="H156" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C157" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D157" t="s">
-        <v>157</v>
+        <v>1296</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>1031</v>
+        <v>1147</v>
       </c>
       <c r="F157" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="G157" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="H157" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>539</v>
-      </c>
-      <c r="C158" t="s">
-        <v>545</v>
-      </c>
-      <c r="D158" t="s">
-        <v>1301</v>
-      </c>
-      <c r="E158" s="3" t="s">
-        <v>1032</v>
-      </c>
-      <c r="F158" t="s">
-        <v>705</v>
+      <c r="A158" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="B158" s="6"/>
+      <c r="C158" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="E158" s="6" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F158" s="6" t="s">
+        <v>699</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>543</v>
+        <v>151</v>
       </c>
       <c r="C159" t="s">
-        <v>544</v>
+        <v>234</v>
       </c>
       <c r="D159" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="F159" t="s">
-        <v>706</v>
-      </c>
-      <c r="G159" s="6" t="s">
-        <v>568</v>
+        <v>700</v>
+      </c>
+      <c r="G159" t="s">
+        <v>479</v>
       </c>
       <c r="H159" t="s">
-        <v>542</v>
+        <v>152</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>540</v>
+        <v>153</v>
       </c>
       <c r="C160" t="s">
-        <v>541</v>
+        <v>235</v>
+      </c>
+      <c r="D160" t="s">
+        <v>154</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="F160" t="s">
-        <v>707</v>
-      </c>
-      <c r="G160" s="6" t="s">
-        <v>567</v>
+        <v>701</v>
+      </c>
+      <c r="G160" t="s">
+        <v>480</v>
+      </c>
+      <c r="H160" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>158</v>
+        <v>536</v>
       </c>
       <c r="C161" t="s">
-        <v>239</v>
+        <v>542</v>
       </c>
       <c r="D161" t="s">
-        <v>159</v>
+        <v>1298</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="F161" t="s">
-        <v>708</v>
-      </c>
-      <c r="G161" t="s">
-        <v>484</v>
-      </c>
-      <c r="H161" t="s">
-        <v>159</v>
+        <v>702</v>
+      </c>
+      <c r="G161" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>160</v>
+        <v>540</v>
       </c>
       <c r="C162" t="s">
-        <v>1183</v>
+        <v>541</v>
       </c>
       <c r="D162" t="s">
-        <v>161</v>
-      </c>
-      <c r="E162" s="14" t="s">
-        <v>1184</v>
+        <v>1299</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>1030</v>
       </c>
       <c r="F162" t="s">
-        <v>709</v>
-      </c>
-      <c r="G162" t="s">
-        <v>485</v>
+        <v>703</v>
+      </c>
+      <c r="G162" s="6" t="s">
+        <v>565</v>
       </c>
       <c r="H162" t="s">
-        <v>161</v>
+        <v>539</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>162</v>
+        <v>537</v>
       </c>
       <c r="C163" t="s">
-        <v>240</v>
-      </c>
-      <c r="D163" t="s">
-        <v>1303</v>
+        <v>538</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="F163" t="s">
-        <v>710</v>
-      </c>
-      <c r="G163" t="s">
-        <v>486</v>
-      </c>
-      <c r="H163" t="s">
-        <v>163</v>
+        <v>704</v>
+      </c>
+      <c r="G163" s="6" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C164" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D164" t="s">
-        <v>1304</v>
+        <v>156</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="F164" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="G164" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="H164" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C165" t="s">
-        <v>242</v>
+        <v>1180</v>
       </c>
       <c r="D165" t="s">
-        <v>167</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>1038</v>
+        <v>158</v>
+      </c>
+      <c r="E165" s="14" t="s">
+        <v>1181</v>
       </c>
       <c r="F165" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="G165" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="H165" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C166" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D166" t="s">
-        <v>169</v>
+        <v>1300</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="F166" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="G166" t="s">
-        <v>431</v>
+        <v>483</v>
       </c>
       <c r="H166" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C167" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D167" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="F167" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="G167" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="H167" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C168" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D168" t="s">
-        <v>1306</v>
+        <v>164</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="F168" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="G168" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="H168" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>246</v>
+        <v>165</v>
       </c>
       <c r="C169" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D169" t="s">
-        <v>247</v>
+        <v>166</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="F169" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="G169" t="s">
-        <v>491</v>
+        <v>428</v>
       </c>
       <c r="H169" t="s">
-        <v>247</v>
+        <v>166</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>249</v>
+        <v>167</v>
       </c>
       <c r="C170" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D170" t="s">
-        <v>250</v>
+        <v>1302</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="F170" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="G170" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="H170" t="s">
-        <v>250</v>
+        <v>168</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C171" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D171" t="s">
-        <v>175</v>
+        <v>1303</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="F171" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G171" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="H171" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="B172" s="6"/>
-      <c r="C172" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="E172" s="6" t="s">
-        <v>1045</v>
-      </c>
-      <c r="F172" s="6" t="s">
-        <v>719</v>
-      </c>
-      <c r="G172" s="6" t="s">
-        <v>580</v>
+      <c r="A172" t="s">
+        <v>243</v>
+      </c>
+      <c r="C172" t="s">
+        <v>245</v>
+      </c>
+      <c r="D172" t="s">
+        <v>244</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F172" t="s">
+        <v>713</v>
+      </c>
+      <c r="G172" t="s">
+        <v>488</v>
+      </c>
+      <c r="H172" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c r="C173" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D173" t="s">
-        <v>177</v>
+        <v>247</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="F173" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G173" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="H173" t="s">
-        <v>177</v>
+        <v>247</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>178</v>
-      </c>
-      <c r="B174" t="s">
-        <v>1229</v>
+        <v>171</v>
       </c>
       <c r="C174" t="s">
-        <v>1215</v>
+        <v>249</v>
       </c>
       <c r="D174" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>1145</v>
+        <v>1041</v>
       </c>
       <c r="F174" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="G174" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="H174" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>180</v>
-      </c>
-      <c r="C175" t="s">
-        <v>254</v>
-      </c>
-      <c r="D175" t="s">
-        <v>181</v>
-      </c>
-      <c r="E175" s="3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="F175" t="s">
-        <v>722</v>
-      </c>
-      <c r="G175" t="s">
-        <v>496</v>
-      </c>
-      <c r="H175" t="s">
-        <v>181</v>
+      <c r="A175" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="B175" s="6"/>
+      <c r="C175" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F175" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="G175" s="6" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>182</v>
-      </c>
-      <c r="B176" t="s">
-        <v>1230</v>
+        <v>173</v>
       </c>
       <c r="C176" t="s">
-        <v>1216</v>
+        <v>250</v>
       </c>
       <c r="D176" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>1146</v>
+        <v>1043</v>
       </c>
       <c r="F176" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="G176" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="H176" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="C177" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="D177" t="s">
-        <v>1307</v>
+        <v>176</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="F177" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="G177" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="H177" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>186</v>
-      </c>
-      <c r="B178" t="s">
-        <v>1232</v>
+        <v>177</v>
       </c>
       <c r="C178" t="s">
-        <v>1218</v>
+        <v>251</v>
       </c>
       <c r="D178" t="s">
-        <v>1308</v>
+        <v>178</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>1148</v>
+        <v>1044</v>
       </c>
       <c r="F178" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="G178" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="H178" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>188</v>
+        <v>179</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1227</v>
       </c>
       <c r="C179" t="s">
-        <v>255</v>
+        <v>1213</v>
       </c>
       <c r="D179" t="s">
-        <v>1309</v>
+        <v>180</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>1048</v>
+        <v>1143</v>
       </c>
       <c r="F179" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="G179" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="H179" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>190</v>
+        <v>181</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1228</v>
       </c>
       <c r="C180" t="s">
-        <v>547</v>
+        <v>1214</v>
       </c>
       <c r="D180" t="s">
-        <v>191</v>
+        <v>1304</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>1049</v>
+        <v>1144</v>
       </c>
       <c r="F180" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="G180" t="s">
-        <v>548</v>
+        <v>495</v>
       </c>
       <c r="H180" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>192</v>
+        <v>183</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1229</v>
       </c>
       <c r="C181" t="s">
-        <v>256</v>
+        <v>1215</v>
       </c>
       <c r="D181" t="s">
-        <v>193</v>
+        <v>1305</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>1050</v>
+        <v>1145</v>
       </c>
       <c r="F181" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="G181" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="H181" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C182" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D182" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="F182" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="G182" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="H182" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C183" t="s">
-        <v>196</v>
+        <v>544</v>
       </c>
       <c r="D183" t="s">
-        <v>1311</v>
+        <v>188</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="F183" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="G183" t="s">
-        <v>503</v>
+        <v>545</v>
       </c>
       <c r="H183" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C184" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D184" t="s">
-        <v>1312</v>
+        <v>190</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>258</v>
+        <v>1047</v>
       </c>
       <c r="F184" t="s">
-        <v>258</v>
+        <v>725</v>
       </c>
       <c r="G184" t="s">
-        <v>258</v>
+        <v>498</v>
       </c>
       <c r="H184" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C185" t="s">
-        <v>824</v>
+        <v>254</v>
       </c>
       <c r="D185" t="s">
-        <v>202</v>
+        <v>1307</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>824</v>
+        <v>1048</v>
       </c>
       <c r="F185" t="s">
-        <v>824</v>
+        <v>726</v>
       </c>
       <c r="G185" t="s">
-        <v>825</v>
+        <v>499</v>
       </c>
       <c r="H185" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C186" t="s">
-        <v>259</v>
+        <v>193</v>
       </c>
       <c r="D186" t="s">
-        <v>1313</v>
+        <v>1308</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="F186" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="G186" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H186" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>1233</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>908</v>
+      <c r="A187" t="s">
+        <v>196</v>
+      </c>
+      <c r="C187" t="s">
+        <v>255</v>
+      </c>
+      <c r="D187" t="s">
+        <v>1309</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>1054</v>
+        <v>255</v>
+      </c>
+      <c r="F187" t="s">
+        <v>255</v>
+      </c>
+      <c r="G187" t="s">
+        <v>255</v>
+      </c>
+      <c r="H187" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="B188" s="3"/>
-      <c r="C188" s="3" t="s">
-        <v>891</v>
+      <c r="A188" t="s">
+        <v>198</v>
+      </c>
+      <c r="C188" t="s">
+        <v>821</v>
       </c>
       <c r="D188" t="s">
-        <v>1314</v>
+        <v>199</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>1055</v>
+        <v>821</v>
+      </c>
+      <c r="F188" t="s">
+        <v>821</v>
+      </c>
+      <c r="G188" t="s">
+        <v>822</v>
+      </c>
+      <c r="H188" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="3" t="s">
-        <v>916</v>
-      </c>
-      <c r="B189" s="3"/>
-      <c r="C189" s="9" t="s">
-        <v>892</v>
+      <c r="A189" t="s">
+        <v>200</v>
+      </c>
+      <c r="C189" t="s">
+        <v>256</v>
       </c>
       <c r="D189" t="s">
-        <v>1315</v>
+        <v>1310</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
+      </c>
+      <c r="F189" t="s">
+        <v>728</v>
+      </c>
+      <c r="G189" t="s">
+        <v>502</v>
+      </c>
+      <c r="H189" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>917</v>
-      </c>
-      <c r="B190" s="3"/>
+        <v>920</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>1230</v>
+      </c>
       <c r="C190" s="3" t="s">
-        <v>893</v>
-      </c>
-      <c r="D190" t="s">
-        <v>1316</v>
+        <v>905</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B191" s="3"/>
       <c r="C191" s="3" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="D191" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B192" s="3"/>
-      <c r="C192" s="3" t="s">
-        <v>895</v>
+      <c r="C192" s="9" t="s">
+        <v>889</v>
       </c>
       <c r="D192" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>919</v>
-      </c>
-      <c r="B193" s="3" t="s">
-        <v>1219</v>
-      </c>
+        <v>914</v>
+      </c>
+      <c r="B193" s="3"/>
       <c r="C193" s="3" t="s">
-        <v>900</v>
+        <v>890</v>
+      </c>
+      <c r="D193" t="s">
+        <v>1313</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="B194" s="3"/>
       <c r="C194" s="3" t="s">
-        <v>901</v>
+        <v>891</v>
+      </c>
+      <c r="D194" t="s">
+        <v>1314</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
       <c r="B195" s="3"/>
       <c r="C195" s="3" t="s">
-        <v>902</v>
+        <v>892</v>
+      </c>
+      <c r="D195" t="s">
+        <v>1315</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>910</v>
-      </c>
-      <c r="B196" s="3"/>
+        <v>916</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>1216</v>
+      </c>
       <c r="C196" s="3" t="s">
-        <v>903</v>
-      </c>
-      <c r="D196" t="s">
-        <v>1319</v>
+        <v>897</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="B197" s="3"/>
       <c r="C197" s="3" t="s">
-        <v>904</v>
-      </c>
-      <c r="D197" t="s">
-        <v>1320</v>
+        <v>898</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>911</v>
+        <v>918</v>
       </c>
       <c r="B198" s="3"/>
       <c r="C198" s="3" t="s">
-        <v>905</v>
-      </c>
-      <c r="D198" t="s">
-        <v>1321</v>
+        <v>899</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="B199" s="3"/>
       <c r="C199" s="3" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="D199" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B200" s="3"/>
       <c r="C200" s="3" t="s">
-        <v>414</v>
+        <v>901</v>
       </c>
       <c r="D200" t="s">
-        <v>1280</v>
+        <v>1317</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>992</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B201" s="3"/>
       <c r="C201" s="3" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="D201" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>930</v>
+        <v>909</v>
       </c>
       <c r="B202" s="3"/>
       <c r="C202" s="3" t="s">
-        <v>924</v>
+        <v>903</v>
       </c>
       <c r="D202" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>931</v>
+        <v>910</v>
       </c>
       <c r="B203" s="3"/>
       <c r="C203" s="3" t="s">
-        <v>925</v>
+        <v>411</v>
       </c>
       <c r="D203" t="s">
-        <v>1325</v>
+        <v>1277</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>960</v>
+        <v>989</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>932</v>
+        <v>906</v>
       </c>
       <c r="B204" s="3"/>
       <c r="C204" s="3" t="s">
-        <v>926</v>
+        <v>904</v>
       </c>
       <c r="D204" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="B205" s="3"/>
       <c r="C205" s="3" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="D205" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="B206" s="3"/>
       <c r="C206" s="3" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="D206" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>1071</v>
+        <v>957</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="B207" s="3"/>
       <c r="C207" s="3" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="D207" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>1072</v>
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="B208" s="3"/>
+      <c r="C208" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="D208" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A209" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B209" s="1"/>
+      <c r="A209" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="B209" s="3"/>
+      <c r="C209" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="D209" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>1068</v>
+      </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="B210" s="2"/>
-      <c r="C210" t="s">
-        <v>201</v>
+      <c r="A210" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="B210" s="3"/>
+      <c r="C210" s="3" t="s">
+        <v>926</v>
       </c>
       <c r="D210" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="F210" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B212" s="1"/>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B213" s="2"/>
+      <c r="C213" t="s">
+        <v>198</v>
+      </c>
+      <c r="D213" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F213" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B214" s="2"/>
+      <c r="C214" t="s">
         <v>523</v>
       </c>
-      <c r="B211" s="2"/>
-      <c r="C211" t="s">
-        <v>526</v>
-      </c>
-      <c r="D211" t="s">
-        <v>1331</v>
-      </c>
-      <c r="E211" s="3" t="s">
-        <v>1073</v>
-      </c>
-      <c r="F211" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>260</v>
-      </c>
-      <c r="C212" t="s">
-        <v>248</v>
-      </c>
-      <c r="D212" t="s">
-        <v>247</v>
-      </c>
-      <c r="E212" s="3" t="s">
-        <v>1042</v>
-      </c>
-      <c r="F212" t="s">
-        <v>716</v>
-      </c>
-      <c r="G212" t="s">
-        <v>506</v>
-      </c>
-      <c r="H212" t="s">
-        <v>247</v>
-      </c>
-      <c r="I212" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>261</v>
-      </c>
-      <c r="C213" t="s">
-        <v>251</v>
-      </c>
-      <c r="D213" t="s">
-        <v>250</v>
-      </c>
-      <c r="E213" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="F213" t="s">
-        <v>733</v>
-      </c>
-      <c r="G213" t="s">
-        <v>492</v>
-      </c>
-      <c r="H213" t="s">
-        <v>250</v>
-      </c>
-      <c r="I213" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>524</v>
-      </c>
-      <c r="C214" t="s">
-        <v>525</v>
-      </c>
       <c r="D214" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="F214" t="s">
-        <v>734</v>
-      </c>
-      <c r="G214" s="6" t="s">
-        <v>581</v>
+        <v>729</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C215" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="D215" t="s">
-        <v>1333</v>
+        <v>244</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>1075</v>
+        <v>1039</v>
       </c>
       <c r="F215" t="s">
-        <v>735</v>
+        <v>713</v>
       </c>
       <c r="G215" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="H215" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="I215" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C216" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="D216" t="s">
-        <v>1334</v>
+        <v>247</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>1076</v>
+        <v>1040</v>
       </c>
       <c r="F216" t="s">
-        <v>679</v>
+        <v>730</v>
       </c>
       <c r="G216" t="s">
-        <v>442</v>
+        <v>489</v>
       </c>
       <c r="H216" t="s">
-        <v>131</v>
+        <v>247</v>
       </c>
       <c r="I216" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>267</v>
+        <v>521</v>
       </c>
       <c r="C217" t="s">
-        <v>269</v>
+        <v>522</v>
       </c>
       <c r="D217" t="s">
-        <v>269</v>
+        <v>1329</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>269</v>
+        <v>1071</v>
       </c>
       <c r="F217" t="s">
-        <v>269</v>
-      </c>
-      <c r="G217" t="s">
-        <v>269</v>
-      </c>
-      <c r="H217" t="s">
-        <v>268</v>
-      </c>
-      <c r="I217" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="B218" s="3"/>
-      <c r="C218" s="3" t="s">
-        <v>792</v>
+        <v>731</v>
+      </c>
+      <c r="G217" s="6" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>259</v>
+      </c>
+      <c r="C218" t="s">
+        <v>261</v>
       </c>
       <c r="D218" t="s">
-        <v>1335</v>
+        <v>1330</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>1077</v>
-      </c>
-      <c r="F218" s="3" t="s">
-        <v>835</v>
+        <v>1072</v>
+      </c>
+      <c r="F218" t="s">
+        <v>732</v>
+      </c>
+      <c r="G218" t="s">
+        <v>504</v>
+      </c>
+      <c r="H218" t="s">
+        <v>260</v>
+      </c>
+      <c r="I218" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C219" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D219" t="s">
-        <v>271</v>
+        <v>1331</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="F219" t="s">
-        <v>736</v>
+        <v>676</v>
       </c>
       <c r="G219" t="s">
-        <v>508</v>
+        <v>439</v>
       </c>
       <c r="H219" t="s">
-        <v>271</v>
+        <v>128</v>
       </c>
       <c r="I219" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C220" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="D220" t="s">
-        <v>1336</v>
+        <v>266</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>1079</v>
-      </c>
-      <c r="F220" s="3" t="s">
-        <v>836</v>
+        <v>266</v>
+      </c>
+      <c r="F220" t="s">
+        <v>266</v>
       </c>
       <c r="G220" t="s">
-        <v>509</v>
+        <v>266</v>
       </c>
       <c r="H220" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="I220" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>276</v>
-      </c>
-      <c r="C221" t="s">
-        <v>272</v>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="B221" s="3"/>
+      <c r="C221" s="3" t="s">
+        <v>789</v>
       </c>
       <c r="D221" t="s">
-        <v>271</v>
+        <v>1332</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>1078</v>
-      </c>
-      <c r="F221" t="s">
-        <v>736</v>
-      </c>
-      <c r="G221" t="s">
-        <v>508</v>
-      </c>
-      <c r="H221" t="s">
-        <v>271</v>
-      </c>
-      <c r="I221" s="5" t="s">
-        <v>392</v>
+        <v>1074</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C222" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="D222" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="F222" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="G222" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="H222" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="I222" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>154</v>
+        <v>270</v>
       </c>
       <c r="C223" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D223" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>1081</v>
-      </c>
-      <c r="F223" t="s">
-        <v>738</v>
+        <v>1076</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>833</v>
       </c>
       <c r="G223" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="H223" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="I223" t="s">
         <v>390</v>
@@ -10785,51 +10788,51 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C224" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="D224" t="s">
-        <v>1338</v>
+        <v>268</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F224" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="G224" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="H224" t="s">
-        <v>283</v>
-      </c>
-      <c r="I224" t="s">
+        <v>268</v>
+      </c>
+      <c r="I224" s="5" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="C225" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D225" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="F225" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="G225" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="H225" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="I225" t="s">
         <v>388</v>
@@ -10837,25 +10840,25 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>288</v>
+        <v>151</v>
       </c>
       <c r="C226" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="D226" t="s">
-        <v>289</v>
+        <v>1334</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="F226" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="G226" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="H226" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="I226" t="s">
         <v>387</v>
@@ -10863,25 +10866,25 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="C227" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="D227" t="s">
-        <v>292</v>
+        <v>1335</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F227" t="s">
-        <v>742</v>
-      </c>
-      <c r="G227" s="6" t="s">
-        <v>515</v>
+        <v>736</v>
+      </c>
+      <c r="G227" t="s">
+        <v>509</v>
       </c>
       <c r="H227" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="I227" t="s">
         <v>386</v>
@@ -10889,1104 +10892,1128 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C228" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D228" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F228" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="G228" s="6" t="s">
-        <v>516</v>
+        <v>1080</v>
+      </c>
+      <c r="F228" t="s">
+        <v>737</v>
+      </c>
+      <c r="G228" t="s">
+        <v>510</v>
       </c>
       <c r="H228" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="I228" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="C229" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="D229" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>1015</v>
+        <v>1081</v>
       </c>
       <c r="F229" t="s">
-        <v>743</v>
-      </c>
-      <c r="G229" s="3" t="s">
-        <v>468</v>
+        <v>738</v>
+      </c>
+      <c r="G229" t="s">
+        <v>511</v>
       </c>
       <c r="H229" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="I229" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C230" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="D230" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="F230" t="s">
-        <v>744</v>
-      </c>
-      <c r="G230" s="3" t="s">
-        <v>517</v>
+        <v>739</v>
+      </c>
+      <c r="G230" s="6" t="s">
+        <v>512</v>
       </c>
       <c r="H230" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="I230" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="C231" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="D231" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>1081</v>
-      </c>
-      <c r="F231" t="s">
-        <v>738</v>
+        <v>1083</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>834</v>
       </c>
       <c r="G231" s="6" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="H231" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="I231" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C232" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="D232" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>1088</v>
+        <v>1012</v>
       </c>
       <c r="F232" t="s">
-        <v>745</v>
-      </c>
-      <c r="G232" s="6" t="s">
-        <v>518</v>
+        <v>740</v>
+      </c>
+      <c r="G232" s="3" t="s">
+        <v>465</v>
       </c>
       <c r="H232" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="I232" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C233" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="D233" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="F233" t="s">
-        <v>307</v>
-      </c>
-      <c r="G233" t="s">
-        <v>519</v>
+        <v>741</v>
+      </c>
+      <c r="G233" s="3" t="s">
+        <v>514</v>
       </c>
       <c r="H233" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="I233" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>308</v>
+        <v>263</v>
       </c>
       <c r="C234" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="D234" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>1090</v>
+        <v>1078</v>
       </c>
       <c r="F234" t="s">
-        <v>746</v>
-      </c>
-      <c r="G234" t="s">
-        <v>520</v>
+        <v>735</v>
+      </c>
+      <c r="G234" s="6" t="s">
+        <v>508</v>
       </c>
       <c r="H234" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="I234" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="B235" s="6"/>
-      <c r="C235" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="D235" s="3" t="s">
-        <v>1339</v>
-      </c>
-      <c r="E235" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="F235" s="6" t="s">
-        <v>747</v>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>299</v>
+      </c>
+      <c r="C235" t="s">
+        <v>301</v>
+      </c>
+      <c r="D235" t="s">
+        <v>300</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F235" t="s">
+        <v>742</v>
       </c>
       <c r="G235" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="B236" s="6"/>
-      <c r="C236" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="D236" s="3" t="s">
-        <v>1253</v>
-      </c>
-      <c r="E236" s="6" t="s">
-        <v>970</v>
-      </c>
-      <c r="F236" s="6" t="s">
-        <v>748</v>
-      </c>
-      <c r="G236" s="6" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="6" t="s">
-        <v>584</v>
-      </c>
-      <c r="B237" s="6"/>
-      <c r="C237" s="6" t="s">
-        <v>584</v>
-      </c>
-      <c r="D237" s="3" t="s">
-        <v>1254</v>
-      </c>
-      <c r="E237" s="6" t="s">
-        <v>1091</v>
-      </c>
-      <c r="F237" s="6" t="s">
-        <v>749</v>
-      </c>
-      <c r="G237" s="6" t="s">
-        <v>585</v>
+        <v>515</v>
+      </c>
+      <c r="H235" t="s">
+        <v>300</v>
+      </c>
+      <c r="I235" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>302</v>
+      </c>
+      <c r="C236" t="s">
+        <v>304</v>
+      </c>
+      <c r="D236" t="s">
+        <v>303</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F236" t="s">
+        <v>304</v>
+      </c>
+      <c r="G236" t="s">
+        <v>516</v>
+      </c>
+      <c r="H236" t="s">
+        <v>303</v>
+      </c>
+      <c r="I236" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>305</v>
+      </c>
+      <c r="C237" t="s">
+        <v>307</v>
+      </c>
+      <c r="D237" t="s">
+        <v>306</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F237" t="s">
+        <v>743</v>
+      </c>
+      <c r="G237" t="s">
+        <v>517</v>
+      </c>
+      <c r="H237" t="s">
+        <v>306</v>
+      </c>
+      <c r="I237" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="238" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
-        <v>522</v>
+        <v>579</v>
       </c>
       <c r="B238" s="6"/>
       <c r="C238" s="6" t="s">
-        <v>201</v>
+        <v>579</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>1330</v>
+        <v>1336</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>201</v>
+        <v>579</v>
       </c>
       <c r="F238" s="6" t="s">
-        <v>201</v>
+        <v>744</v>
       </c>
       <c r="G238" s="6" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B240" s="1"/>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="B239" s="6"/>
+      <c r="C239" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E239" s="6" t="s">
+        <v>967</v>
+      </c>
+      <c r="F239" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="G239" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="B240" s="6"/>
+      <c r="C240" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E240" s="6" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F240" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="G240" s="6" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="B241" s="6"/>
+      <c r="C241" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E241" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F241" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G241" s="6" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B243" s="1"/>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
         <v>0</v>
       </c>
-      <c r="C241" t="s">
-        <v>337</v>
-      </c>
-      <c r="D241" t="s">
+      <c r="C244" t="s">
+        <v>334</v>
+      </c>
+      <c r="D244" t="s">
         <v>44</v>
       </c>
-      <c r="E241" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="F241" s="6" t="s">
-        <v>750</v>
-      </c>
-      <c r="G241" t="s">
-        <v>432</v>
-      </c>
-      <c r="H241" t="s">
+      <c r="E244" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="F244" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="G244" t="s">
+        <v>429</v>
+      </c>
+      <c r="H244" t="s">
         <v>44</v>
       </c>
-      <c r="I241" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>311</v>
-      </c>
-      <c r="C242" t="s">
-        <v>380</v>
-      </c>
-      <c r="D242" t="s">
-        <v>1340</v>
-      </c>
-      <c r="E242" s="6" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F242" s="6" t="s">
-        <v>751</v>
-      </c>
-      <c r="G242" t="s">
-        <v>521</v>
-      </c>
-      <c r="H242" t="s">
-        <v>312</v>
-      </c>
-      <c r="I242" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="B244" s="1"/>
+      <c r="I244" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>529</v>
+        <v>308</v>
       </c>
       <c r="C245" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="D245" t="s">
-        <v>38</v>
-      </c>
-      <c r="E245" s="3" t="s">
-        <v>995</v>
-      </c>
-      <c r="F245" t="s">
-        <v>349</v>
+        <v>1337</v>
+      </c>
+      <c r="E245" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F245" s="6" t="s">
+        <v>748</v>
       </c>
       <c r="G245" t="s">
-        <v>451</v>
+        <v>518</v>
       </c>
       <c r="H245" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>530</v>
-      </c>
-      <c r="C246" t="s">
-        <v>333</v>
-      </c>
-      <c r="D246" t="s">
-        <v>34</v>
-      </c>
-      <c r="E246" s="3" t="s">
-        <v>969</v>
-      </c>
-      <c r="F246" t="s">
-        <v>634</v>
-      </c>
-      <c r="G246" t="s">
-        <v>427</v>
-      </c>
-      <c r="H246" t="s">
-        <v>34</v>
+        <v>309</v>
+      </c>
+      <c r="I245" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>531</v>
-      </c>
-      <c r="C247" t="s">
-        <v>351</v>
-      </c>
-      <c r="D247" t="s">
-        <v>84</v>
-      </c>
-      <c r="E247" s="3" t="s">
-        <v>997</v>
-      </c>
-      <c r="F247" t="s">
-        <v>668</v>
-      </c>
-      <c r="G247" t="s">
-        <v>453</v>
-      </c>
-      <c r="H247" t="s">
-        <v>84</v>
-      </c>
+      <c r="A247" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B247" s="1"/>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="C248" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="D248" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>973</v>
+        <v>992</v>
       </c>
       <c r="F248" t="s">
-        <v>637</v>
+        <v>346</v>
       </c>
       <c r="G248" t="s">
-        <v>430</v>
+        <v>448</v>
       </c>
       <c r="H248" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C249" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="D249" t="s">
-        <v>1341</v>
+        <v>34</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>1093</v>
+        <v>966</v>
       </c>
       <c r="F249" t="s">
-        <v>664</v>
+        <v>631</v>
       </c>
       <c r="G249" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="H249" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
+        <v>528</v>
+      </c>
+      <c r="C250" t="s">
+        <v>348</v>
+      </c>
+      <c r="D250" t="s">
+        <v>81</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="F250" t="s">
+        <v>665</v>
+      </c>
+      <c r="G250" t="s">
+        <v>450</v>
+      </c>
+      <c r="H250" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>529</v>
+      </c>
+      <c r="C251" t="s">
+        <v>333</v>
+      </c>
+      <c r="D251" t="s">
+        <v>40</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="F251" t="s">
+        <v>634</v>
+      </c>
+      <c r="G251" t="s">
+        <v>427</v>
+      </c>
+      <c r="H251" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>530</v>
+      </c>
+      <c r="C252" t="s">
+        <v>344</v>
+      </c>
+      <c r="D252" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F252" t="s">
+        <v>661</v>
+      </c>
+      <c r="G252" t="s">
+        <v>446</v>
+      </c>
+      <c r="H252" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>531</v>
+      </c>
+      <c r="C253" t="s">
+        <v>533</v>
+      </c>
+      <c r="D253" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F253" t="s">
+        <v>749</v>
+      </c>
+      <c r="G253" t="s">
+        <v>532</v>
+      </c>
+      <c r="H253" t="s">
         <v>534</v>
       </c>
-      <c r="C250" t="s">
-        <v>536</v>
-      </c>
-      <c r="D250" t="s">
-        <v>1342</v>
-      </c>
-      <c r="E250" s="3" t="s">
-        <v>1094</v>
-      </c>
-      <c r="F250" t="s">
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A255" s="10" t="s">
         <v>752</v>
       </c>
-      <c r="G250" t="s">
-        <v>535</v>
-      </c>
-      <c r="H250" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A252" s="10" t="s">
-        <v>755</v>
-      </c>
-      <c r="B252" s="10"/>
-      <c r="C252" s="3"/>
-      <c r="F252" s="3"/>
-    </row>
-    <row r="253" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="3" t="s">
+      <c r="B255" s="10"/>
+      <c r="C255" s="3"/>
+      <c r="F255" s="3"/>
+    </row>
+    <row r="256" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B253" s="3"/>
-      <c r="C253" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="E253" s="3" t="s">
-        <v>1095</v>
-      </c>
-      <c r="F253" s="3" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A254" s="8"/>
-      <c r="B254" s="8"/>
-      <c r="C254" s="8"/>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A255" s="8"/>
-      <c r="B255" s="8"/>
-      <c r="C255" s="8"/>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A256" s="10" t="s">
-        <v>761</v>
-      </c>
-      <c r="B256" s="10"/>
-      <c r="C256" s="3"/>
-      <c r="F256" s="3"/>
+      <c r="B256" s="3"/>
+      <c r="C256" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F256" s="3" t="s">
+        <v>835</v>
+      </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B257" s="3"/>
-      <c r="C257" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="D257" t="s">
-        <v>1343</v>
-      </c>
-      <c r="E257" s="3" t="s">
-        <v>1096</v>
-      </c>
-      <c r="F257" s="3" t="s">
-        <v>877</v>
-      </c>
+      <c r="A257" s="8"/>
+      <c r="B257" s="8"/>
+      <c r="C257" s="8"/>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B258" s="3"/>
-      <c r="C258" s="3" t="s">
+      <c r="A258" s="8"/>
+      <c r="B258" s="8"/>
+      <c r="C258" s="8"/>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="10" t="s">
         <v>758</v>
       </c>
-      <c r="D258" t="s">
-        <v>1344</v>
-      </c>
-      <c r="E258" s="3" t="s">
-        <v>758</v>
-      </c>
-      <c r="F258" s="3" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" s="3" t="s">
-        <v>1236</v>
-      </c>
-      <c r="B259" s="3"/>
-      <c r="C259" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="D259" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E259" s="3" t="s">
-        <v>1097</v>
-      </c>
-      <c r="F259" s="3" t="s">
-        <v>840</v>
-      </c>
+      <c r="B259" s="10"/>
+      <c r="C259" s="3"/>
+      <c r="F259" s="3"/>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
-        <v>1238</v>
+        <v>0</v>
       </c>
       <c r="B260" s="3"/>
       <c r="C260" s="3" t="s">
-        <v>291</v>
+        <v>873</v>
       </c>
       <c r="D260" t="s">
-        <v>1291</v>
+        <v>1340</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>1016</v>
+        <v>1093</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>687</v>
+        <v>874</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
-        <v>936</v>
+        <v>76</v>
       </c>
       <c r="B261" s="3"/>
       <c r="C261" s="3" t="s">
-        <v>937</v>
+        <v>755</v>
       </c>
       <c r="D261" t="s">
-        <v>1346</v>
+        <v>1341</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>1098</v>
+        <v>755</v>
+      </c>
+      <c r="F261" s="3" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
-        <v>773</v>
+        <v>1233</v>
       </c>
       <c r="B262" s="3"/>
       <c r="C262" s="3" t="s">
-        <v>938</v>
+        <v>756</v>
       </c>
       <c r="D262" t="s">
-        <v>1347</v>
+        <v>1342</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>1099</v>
+        <v>1094</v>
+      </c>
+      <c r="F262" s="3" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
-        <v>778</v>
+        <v>1235</v>
       </c>
       <c r="B263" s="3"/>
       <c r="C263" s="3" t="s">
-        <v>939</v>
+        <v>288</v>
       </c>
       <c r="D263" t="s">
-        <v>1348</v>
+        <v>1288</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>1100</v>
+        <v>1013</v>
+      </c>
+      <c r="F263" s="3" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="B264" s="3"/>
       <c r="C264" s="3" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="D264" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
-        <v>942</v>
+        <v>770</v>
       </c>
       <c r="B265" s="3"/>
       <c r="C265" s="3" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="D265" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="B266" s="3"/>
       <c r="C266" s="3" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="D266" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>944</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="B267" s="3"/>
       <c r="C267" s="3" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="D267" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
-        <v>947</v>
-      </c>
-      <c r="B268" s="3" t="s">
-        <v>1220</v>
-      </c>
+        <v>939</v>
+      </c>
+      <c r="B268" s="3"/>
       <c r="C268" s="3" t="s">
-        <v>1221</v>
-      </c>
-      <c r="D268" s="3" t="s">
-        <v>1353</v>
+        <v>940</v>
+      </c>
+      <c r="D268" t="s">
+        <v>1347</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>1166</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B269" s="3"/>
       <c r="C269" s="3" t="s">
-        <v>1239</v>
+        <v>941</v>
       </c>
       <c r="D269" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="B270" s="3"/>
       <c r="C270" s="3" t="s">
-        <v>337</v>
+        <v>943</v>
       </c>
       <c r="D270" t="s">
-        <v>1354</v>
-      </c>
-      <c r="E270" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="F270" s="6" t="s">
-        <v>750</v>
+        <v>1349</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>1100</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B271" s="3"/>
+        <v>944</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>1217</v>
+      </c>
       <c r="C271" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D271" t="s">
-        <v>1291</v>
+        <v>1218</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>1350</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>1016</v>
-      </c>
-      <c r="F271" t="s">
-        <v>687</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A272" s="8"/>
-      <c r="B272" s="8"/>
-      <c r="C272" s="8"/>
+      <c r="A272" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="B272" s="3"/>
+      <c r="C272" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D272" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E272" s="3" t="s">
+        <v>941</v>
+      </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" s="10" t="s">
-        <v>760</v>
-      </c>
-      <c r="B273" s="10"/>
-      <c r="C273" s="3"/>
-      <c r="F273" s="3"/>
+      <c r="A273" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="B273" s="3"/>
+      <c r="C273" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D273" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E273" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="F273" s="6" t="s">
+        <v>747</v>
+      </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
-        <v>0</v>
+        <v>1234</v>
       </c>
       <c r="B274" s="3"/>
       <c r="C274" s="3" t="s">
-        <v>762</v>
+        <v>288</v>
       </c>
       <c r="D274" t="s">
-        <v>1355</v>
+        <v>1288</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>1104</v>
-      </c>
-      <c r="F274" s="3" t="s">
-        <v>841</v>
+        <v>1013</v>
+      </c>
+      <c r="F274" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275" s="9" t="s">
-        <v>890</v>
-      </c>
-      <c r="B275" s="9"/>
-      <c r="C275" s="9" t="s">
-        <v>882</v>
-      </c>
-      <c r="D275" t="s">
-        <v>1356</v>
-      </c>
-      <c r="E275" s="3" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F275" s="3" t="s">
-        <v>883</v>
-      </c>
+      <c r="A275" s="8"/>
+      <c r="B275" s="8"/>
+      <c r="C275" s="8"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" s="9" t="s">
-        <v>1394</v>
-      </c>
-      <c r="B276" s="9"/>
-      <c r="C276" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D276" t="s">
-        <v>15</v>
-      </c>
+      <c r="A276" s="10" t="s">
+        <v>757</v>
+      </c>
+      <c r="B276" s="10"/>
+      <c r="C276" s="3"/>
       <c r="F276" s="3"/>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" s="9" t="s">
-        <v>1395</v>
-      </c>
-      <c r="B277" s="9"/>
-      <c r="C277" s="9" t="s">
-        <v>777</v>
+      <c r="A277" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B277" s="3"/>
+      <c r="C277" s="3" t="s">
+        <v>759</v>
       </c>
       <c r="D277" t="s">
-        <v>1366</v>
-      </c>
-      <c r="F277" s="3"/>
+        <v>1352</v>
+      </c>
+      <c r="E277" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F277" s="3" t="s">
+        <v>838</v>
+      </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="9" t="s">
-        <v>1396</v>
+        <v>887</v>
       </c>
       <c r="B278" s="9"/>
       <c r="C278" s="9" t="s">
-        <v>776</v>
+        <v>879</v>
       </c>
       <c r="D278" t="s">
-        <v>1365</v>
-      </c>
-      <c r="F278" s="3"/>
+        <v>1353</v>
+      </c>
+      <c r="E278" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F278" s="3" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="9" t="s">
-        <v>1397</v>
+        <v>1391</v>
       </c>
       <c r="B279" s="9"/>
       <c r="C279" s="9" t="s">
-        <v>314</v>
+        <v>149</v>
       </c>
       <c r="D279" t="s">
+        <v>15</v>
+      </c>
+      <c r="F279" s="3"/>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" s="9" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B280" s="9"/>
+      <c r="C280" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="D280" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F280" s="3"/>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" s="9" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B281" s="9"/>
+      <c r="C281" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="D281" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F281" s="3"/>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" s="9" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B282" s="9"/>
+      <c r="C282" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="D282" t="s">
         <v>72</v>
       </c>
-      <c r="F279" s="3"/>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A280" s="3" t="s">
-        <v>1403</v>
-      </c>
-      <c r="B280" s="3"/>
-      <c r="C280" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="D280" t="s">
-        <v>1357</v>
-      </c>
-      <c r="E280" s="3" t="s">
-        <v>1106</v>
-      </c>
-      <c r="F280" s="3" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A281" s="3" t="s">
-        <v>766</v>
-      </c>
-      <c r="B281" s="3"/>
-      <c r="C281" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="D281" t="s">
-        <v>38</v>
-      </c>
-      <c r="E281" s="3" t="s">
-        <v>995</v>
-      </c>
-      <c r="F281" s="3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A282" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B282" s="3"/>
-      <c r="C282" s="3" t="s">
-        <v>767</v>
-      </c>
-      <c r="D282" t="s">
-        <v>1358</v>
-      </c>
-      <c r="E282" s="3" t="s">
-        <v>767</v>
-      </c>
-      <c r="F282" s="3" t="s">
-        <v>843</v>
-      </c>
+      <c r="F282" s="3"/>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
-        <v>105</v>
+        <v>1400</v>
       </c>
       <c r="B283" s="3"/>
       <c r="C283" s="3" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="D283" t="s">
-        <v>1359</v>
+        <v>1354</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="F283" s="3" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
-        <v>76</v>
+        <v>763</v>
       </c>
       <c r="B284" s="3"/>
       <c r="C284" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D284" t="s">
         <v>38</v>
       </c>
-      <c r="F284" s="3"/>
+      <c r="E284" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="F284" s="3" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B285" s="3"/>
       <c r="C285" s="3" t="s">
-        <v>1409</v>
+        <v>764</v>
       </c>
       <c r="D285" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>1108</v>
+        <v>764</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>770</v>
+        <v>840</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
-        <v>1400</v>
+        <v>102</v>
       </c>
       <c r="B286" s="3"/>
       <c r="C286" s="3" t="s">
-        <v>1410</v>
+        <v>765</v>
       </c>
       <c r="D286" t="s">
-        <v>1361</v>
+        <v>1356</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>772</v>
+        <v>841</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
-        <v>1404</v>
+        <v>76</v>
       </c>
       <c r="B287" s="3"/>
       <c r="C287" s="3" t="s">
-        <v>764</v>
+        <v>346</v>
       </c>
       <c r="D287" t="s">
-        <v>1362</v>
-      </c>
-      <c r="E287" s="11" t="s">
-        <v>1110</v>
-      </c>
-      <c r="F287" s="3" t="s">
-        <v>845</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F287" s="3"/>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
-        <v>815</v>
+        <v>80</v>
       </c>
       <c r="B288" s="3"/>
       <c r="C288" s="3" t="s">
-        <v>774</v>
+        <v>1406</v>
       </c>
       <c r="D288" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>846</v>
+        <v>767</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B289" s="3"/>
       <c r="C289" s="3" t="s">
-        <v>775</v>
+        <v>1407</v>
       </c>
       <c r="D289" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="F289" s="3" t="s">
-        <v>845</v>
+        <v>769</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="B290" s="3"/>
       <c r="C290" s="3" t="s">
-        <v>559</v>
+        <v>761</v>
       </c>
       <c r="D290" t="s">
-        <v>1269</v>
-      </c>
-      <c r="E290" s="3" t="s">
-        <v>986</v>
+        <v>1359</v>
+      </c>
+      <c r="E290" s="11" t="s">
+        <v>1107</v>
       </c>
       <c r="F290" s="3" t="s">
-        <v>559</v>
+        <v>842</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
-        <v>1408</v>
+        <v>812</v>
       </c>
       <c r="B291" s="3"/>
       <c r="C291" s="3" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="D291" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="F291" s="3" t="s">
-        <v>826</v>
+        <v>843</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
-        <v>1407</v>
+        <v>1395</v>
       </c>
       <c r="B292" s="3"/>
       <c r="C292" s="3" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="D292" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="E292" s="3" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="F292" s="3" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
-        <v>1406</v>
+        <v>1396</v>
       </c>
       <c r="B293" s="3"/>
       <c r="C293" s="3" t="s">
-        <v>152</v>
+        <v>556</v>
       </c>
       <c r="D293" t="s">
-        <v>15</v>
+        <v>1266</v>
       </c>
       <c r="E293" s="3" t="s">
-        <v>963</v>
+        <v>983</v>
       </c>
       <c r="F293" s="3" t="s">
-        <v>665</v>
+        <v>556</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
@@ -11995,949 +12022,1003 @@
       </c>
       <c r="B294" s="3"/>
       <c r="C294" s="3" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
       <c r="D294" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
       <c r="E294" s="3" t="s">
-        <v>765</v>
+        <v>1110</v>
       </c>
       <c r="F294" s="3" t="s">
-        <v>848</v>
+        <v>823</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
-        <v>1401</v>
+        <v>1404</v>
       </c>
       <c r="B295" s="3"/>
       <c r="C295" s="3" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="D295" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="E295" s="3" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="F295" s="3" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="B296" s="3"/>
       <c r="C296" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="F296" s="3"/>
+        <v>149</v>
+      </c>
+      <c r="D296" t="s">
+        <v>15</v>
+      </c>
+      <c r="E296" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="F296" s="3" t="s">
+        <v>662</v>
+      </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
-        <v>112</v>
+        <v>1402</v>
       </c>
       <c r="B297" s="3"/>
       <c r="C297" s="3" t="s">
-        <v>780</v>
+        <v>762</v>
       </c>
       <c r="D297" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="E297" s="3" t="s">
-        <v>780</v>
+        <v>762</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
-        <v>114</v>
+        <v>1398</v>
       </c>
       <c r="B298" s="3"/>
       <c r="C298" s="3" t="s">
-        <v>559</v>
+        <v>776</v>
       </c>
       <c r="D298" t="s">
-        <v>1269</v>
+        <v>1365</v>
       </c>
       <c r="E298" s="3" t="s">
-        <v>986</v>
+        <v>1112</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>559</v>
+        <v>846</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A299" s="8"/>
-      <c r="B299" s="8"/>
-      <c r="C299" s="8"/>
+      <c r="A299" s="3" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B299" s="3"/>
+      <c r="C299" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F299" s="3"/>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A300" s="10" t="s">
-        <v>756</v>
-      </c>
-      <c r="B300" s="10"/>
-      <c r="C300" s="3"/>
-      <c r="F300" s="3"/>
+      <c r="A300" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B300" s="3"/>
+      <c r="C300" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="D300" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E300" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="F300" s="3" t="s">
+        <v>847</v>
+      </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="B301" s="3"/>
       <c r="C301" s="3" t="s">
-        <v>782</v>
+        <v>556</v>
       </c>
       <c r="D301" t="s">
-        <v>1370</v>
+        <v>1266</v>
       </c>
       <c r="E301" s="3" t="s">
-        <v>1116</v>
+        <v>983</v>
       </c>
       <c r="F301" s="3" t="s">
-        <v>851</v>
+        <v>556</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A302" s="3" t="s">
-        <v>1418</v>
-      </c>
-      <c r="B302" s="3"/>
-      <c r="C302" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="D302" t="s">
-        <v>38</v>
-      </c>
-      <c r="E302" s="3" t="s">
-        <v>995</v>
-      </c>
-      <c r="F302" s="3" t="s">
-        <v>349</v>
-      </c>
+      <c r="A302" s="8"/>
+      <c r="B302" s="8"/>
+      <c r="C302" s="8"/>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A303" s="3" t="s">
-        <v>1424</v>
-      </c>
-      <c r="B303" s="3"/>
-      <c r="C303" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="D303" t="s">
-        <v>1288</v>
-      </c>
-      <c r="E303" s="3" t="s">
-        <v>982</v>
-      </c>
-      <c r="F303" s="3" t="s">
-        <v>345</v>
-      </c>
+      <c r="A303" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="B303" s="10"/>
+      <c r="C303" s="3"/>
+      <c r="F303" s="3"/>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
-        <v>1417</v>
+        <v>0</v>
       </c>
       <c r="B304" s="3"/>
       <c r="C304" s="3" t="s">
-        <v>764</v>
+        <v>779</v>
       </c>
       <c r="D304" t="s">
-        <v>1362</v>
+        <v>1367</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="F304" s="3" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
-        <v>1423</v>
+        <v>1415</v>
       </c>
       <c r="B305" s="3"/>
       <c r="C305" s="3" t="s">
-        <v>783</v>
+        <v>346</v>
       </c>
       <c r="D305" t="s">
-        <v>1262</v>
+        <v>38</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>1117</v>
+        <v>992</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="B306" s="3"/>
       <c r="C306" s="3" t="s">
-        <v>784</v>
+        <v>342</v>
       </c>
       <c r="D306" t="s">
-        <v>1371</v>
+        <v>1285</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>1118</v>
+        <v>979</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>852</v>
+        <v>342</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
       <c r="B307" s="3"/>
       <c r="C307" s="3" t="s">
-        <v>785</v>
+        <v>761</v>
       </c>
       <c r="D307" t="s">
-        <v>1372</v>
+        <v>1359</v>
       </c>
       <c r="E307" s="3" t="s">
-        <v>1119</v>
+        <v>1107</v>
       </c>
       <c r="F307" s="3" t="s">
-        <v>853</v>
+        <v>842</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B308" s="3"/>
       <c r="C308" s="3" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="D308" t="s">
-        <v>1373</v>
+        <v>1259</v>
       </c>
       <c r="E308" s="3" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>854</v>
+        <v>342</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
       <c r="B309" s="3"/>
       <c r="C309" s="3" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="D309" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
       <c r="E309" s="3" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="F309" s="3" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
-        <v>1427</v>
+        <v>1416</v>
       </c>
       <c r="B310" s="3"/>
       <c r="C310" s="3" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="D310" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="E310" s="3" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="F310" s="3" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
-        <v>1425</v>
+        <v>1418</v>
       </c>
       <c r="B311" s="3"/>
       <c r="C311" s="3" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="D311" t="s">
-        <v>1261</v>
+        <v>1370</v>
       </c>
       <c r="E311" s="3" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="F311" s="3" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
-        <v>1426</v>
+        <v>1419</v>
       </c>
       <c r="B312" s="3"/>
       <c r="C312" s="3" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="D312" t="s">
-        <v>1376</v>
+        <v>1371</v>
       </c>
       <c r="E312" s="3" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="F312" s="3" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
-        <v>14</v>
+        <v>1424</v>
       </c>
       <c r="B313" s="3"/>
       <c r="C313" s="3" t="s">
-        <v>152</v>
+        <v>785</v>
       </c>
       <c r="D313" t="s">
-        <v>15</v>
+        <v>1372</v>
       </c>
       <c r="E313" s="3" t="s">
-        <v>963</v>
+        <v>1119</v>
       </c>
       <c r="F313" s="3" t="s">
-        <v>665</v>
+        <v>853</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
-        <v>41</v>
+        <v>1422</v>
       </c>
       <c r="B314" s="3"/>
       <c r="C314" s="3" t="s">
-        <v>243</v>
+        <v>786</v>
       </c>
       <c r="D314" t="s">
-        <v>169</v>
+        <v>1258</v>
       </c>
       <c r="E314" s="3" t="s">
-        <v>1039</v>
+        <v>1120</v>
       </c>
       <c r="F314" s="3" t="s">
-        <v>713</v>
+        <v>854</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
-        <v>897</v>
-      </c>
+      <c r="A315" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B315" s="3"/>
       <c r="C315" s="3" t="s">
-        <v>899</v>
+        <v>787</v>
       </c>
       <c r="D315" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="E315" s="3" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="F315" s="3" t="s">
-        <v>898</v>
+        <v>855</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
-        <v>1413</v>
-      </c>
-      <c r="C316" t="s">
-        <v>790</v>
+      <c r="A316" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B316" s="3"/>
+      <c r="C316" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="D316" t="s">
-        <v>1376</v>
+        <v>15</v>
       </c>
       <c r="E316" s="3" t="s">
-        <v>1124</v>
+        <v>960</v>
       </c>
       <c r="F316" s="3" t="s">
-        <v>858</v>
+        <v>662</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
-        <v>1412</v>
-      </c>
-      <c r="C317" t="s">
-        <v>789</v>
+      <c r="A317" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B317" s="3"/>
+      <c r="C317" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="D317" t="s">
-        <v>1261</v>
+        <v>166</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>1123</v>
+        <v>1036</v>
       </c>
       <c r="F317" s="3" t="s">
-        <v>857</v>
+        <v>710</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>1415</v>
-      </c>
-      <c r="C318" t="s">
-        <v>787</v>
+        <v>894</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>896</v>
       </c>
       <c r="D318" t="s">
         <v>1374</v>
       </c>
       <c r="E318" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F318" s="3" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C319" t="s">
+        <v>787</v>
+      </c>
+      <c r="D319" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E319" s="3" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A319" s="9" t="s">
-        <v>896</v>
-      </c>
-      <c r="B319" s="9"/>
-      <c r="C319" s="9" t="s">
-        <v>884</v>
-      </c>
-      <c r="D319" t="s">
-        <v>1378</v>
-      </c>
-      <c r="E319" s="3" t="s">
-        <v>884</v>
-      </c>
-      <c r="F319" t="s">
-        <v>885</v>
+      <c r="F319" s="3" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>1414</v>
+        <v>1409</v>
       </c>
       <c r="C320" t="s">
-        <v>176</v>
+        <v>786</v>
       </c>
       <c r="D320" t="s">
-        <v>48</v>
+        <v>1258</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>976</v>
-      </c>
-      <c r="F320" t="s">
-        <v>642</v>
+        <v>1120</v>
+      </c>
+      <c r="F320" s="3" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C321" t="s">
+        <v>784</v>
+      </c>
+      <c r="D321" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E321" s="3" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A322" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="B322" s="9"/>
+      <c r="C322" s="9" t="s">
+        <v>881</v>
+      </c>
+      <c r="D322" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E322" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="F322" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
         <v>1411</v>
       </c>
-      <c r="C321" t="s">
-        <v>152</v>
-      </c>
-      <c r="D321" t="s">
+      <c r="C323" t="s">
+        <v>173</v>
+      </c>
+      <c r="D323" t="s">
+        <v>48</v>
+      </c>
+      <c r="E323" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="F323" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C324" t="s">
+        <v>149</v>
+      </c>
+      <c r="D324" t="s">
         <v>15</v>
       </c>
-      <c r="E321" s="3" t="s">
-        <v>963</v>
-      </c>
-      <c r="F321" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
-        <v>1416</v>
-      </c>
-      <c r="C322" t="s">
-        <v>765</v>
-      </c>
-      <c r="D322" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A323" s="3"/>
-      <c r="B323" s="3"/>
-      <c r="C323" s="3"/>
-      <c r="F323" s="3"/>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A324" s="10" t="s">
-        <v>781</v>
-      </c>
-      <c r="B324" s="10"/>
-      <c r="C324" s="3"/>
-      <c r="F324" s="3"/>
+      <c r="E324" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="F324" t="s">
+        <v>662</v>
+      </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A325" s="3" t="s">
+      <c r="A325" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C325" t="s">
+        <v>762</v>
+      </c>
+      <c r="D325" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A326" s="3"/>
+      <c r="B326" s="3"/>
+      <c r="C326" s="3"/>
+      <c r="F326" s="3"/>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A327" s="10" t="s">
+        <v>778</v>
+      </c>
+      <c r="B327" s="10"/>
+      <c r="C327" s="3"/>
+      <c r="F327" s="3"/>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A328" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B325" s="3"/>
-      <c r="C325" s="3" t="s">
-        <v>793</v>
-      </c>
-      <c r="D325" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E325" s="3" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F325" s="3" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
+      <c r="B328" s="3"/>
+      <c r="C328" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="D328" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E328" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F328" s="3" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
         <v>71</v>
-      </c>
-      <c r="B326" s="9"/>
-      <c r="C326" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="D326" t="s">
-        <v>72</v>
-      </c>
-      <c r="E326" s="3" t="s">
-        <v>950</v>
-      </c>
-      <c r="F326" s="3" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A327" s="9" t="s">
-        <v>794</v>
-      </c>
-      <c r="B327" s="9"/>
-      <c r="C327" s="9" t="s">
-        <v>795</v>
-      </c>
-      <c r="D327" t="s">
-        <v>1380</v>
-      </c>
-      <c r="E327" s="3" t="s">
-        <v>1127</v>
-      </c>
-      <c r="F327" s="3" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A328" s="9" t="s">
-        <v>796</v>
-      </c>
-      <c r="B328" s="9"/>
-      <c r="C328" s="9" t="s">
-        <v>797</v>
-      </c>
-      <c r="D328" t="s">
-        <v>1381</v>
-      </c>
-      <c r="E328" s="3" t="s">
-        <v>1128</v>
-      </c>
-      <c r="F328" s="3" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A329" s="9" t="s">
-        <v>798</v>
       </c>
       <c r="B329" s="9"/>
       <c r="C329" s="9" t="s">
-        <v>799</v>
+        <v>311</v>
       </c>
       <c r="D329" t="s">
-        <v>1382</v>
+        <v>72</v>
       </c>
       <c r="E329" s="3" t="s">
-        <v>1129</v>
+        <v>947</v>
       </c>
       <c r="F329" s="3" t="s">
-        <v>862</v>
+        <v>610</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="9" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="B330" s="9"/>
       <c r="C330" s="9" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="D330" t="s">
-        <v>1383</v>
+        <v>1377</v>
       </c>
       <c r="E330" s="3" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="F330" s="3" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="9" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="B331" s="9"/>
       <c r="C331" s="9" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="D331" t="s">
-        <v>1384</v>
+        <v>1378</v>
       </c>
       <c r="E331" s="3" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="F331" s="3" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="9" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="B332" s="9"/>
       <c r="C332" s="9" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="D332" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
       <c r="E332" s="3" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="F332" s="3" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="9" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="B333" s="9"/>
       <c r="C333" s="9" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="D333" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="E333" s="3" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="F333" s="3" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="9" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="B334" s="9"/>
       <c r="C334" s="9" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="D334" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
       <c r="E334" s="3" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="F334" s="3" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="9" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="B335" s="9"/>
       <c r="C335" s="9" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="D335" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
       <c r="E335" s="3" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="F335" s="3" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="9" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="B336" s="9"/>
       <c r="C336" s="9" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="D336" t="s">
-        <v>1354</v>
+        <v>1383</v>
       </c>
       <c r="E336" s="3" t="s">
-        <v>337</v>
+        <v>1130</v>
       </c>
       <c r="F336" s="3" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="9" t="s">
-        <v>76</v>
+        <v>805</v>
       </c>
       <c r="B337" s="9"/>
       <c r="C337" s="9" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="D337" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
       <c r="E337" s="3" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="F337" s="3" t="s">
-        <v>814</v>
+        <v>864</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B338" s="9" t="s">
-        <v>1432</v>
-      </c>
+        <v>807</v>
+      </c>
+      <c r="B338" s="9"/>
       <c r="C338" s="9" t="s">
-        <v>1431</v>
+        <v>808</v>
       </c>
       <c r="D338" t="s">
-        <v>1434</v>
+        <v>1385</v>
       </c>
       <c r="E338" s="3" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F338" s="3" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="9" t="s">
-        <v>82</v>
+        <v>809</v>
       </c>
       <c r="B339" s="9"/>
       <c r="C339" s="9" t="s">
-        <v>1429</v>
+        <v>810</v>
       </c>
       <c r="D339" t="s">
-        <v>1435</v>
-      </c>
-      <c r="F339" s="3"/>
+        <v>1351</v>
+      </c>
+      <c r="E339" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F339" s="3" t="s">
+        <v>866</v>
+      </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="9" t="s">
-        <v>1400</v>
+        <v>76</v>
       </c>
       <c r="B340" s="9"/>
       <c r="C340" s="9" t="s">
-        <v>1430</v>
+        <v>811</v>
       </c>
       <c r="D340" t="s">
-        <v>1436</v>
-      </c>
-      <c r="F340" s="3"/>
+        <v>1386</v>
+      </c>
+      <c r="E340" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F340" s="3" t="s">
+        <v>811</v>
+      </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="9" t="s">
-        <v>815</v>
+        <v>78</v>
       </c>
       <c r="B341" s="9" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="C341" s="9" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D341" t="s">
         <v>1431</v>
       </c>
-      <c r="D341" t="s">
-        <v>1434</v>
-      </c>
       <c r="E341" s="3" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="F341" s="3" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="9" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B342" s="9"/>
       <c r="C342" s="9" t="s">
-        <v>313</v>
+        <v>1426</v>
       </c>
       <c r="D342" t="s">
-        <v>1241</v>
-      </c>
-      <c r="E342" s="3" t="s">
-        <v>1139</v>
-      </c>
-      <c r="F342" s="3" t="s">
-        <v>313</v>
-      </c>
+        <v>1432</v>
+      </c>
+      <c r="F342" s="3"/>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="9" t="s">
-        <v>816</v>
+        <v>1397</v>
       </c>
       <c r="B343" s="9"/>
       <c r="C343" s="9" t="s">
-        <v>817</v>
+        <v>1427</v>
       </c>
       <c r="D343" t="s">
-        <v>1390</v>
-      </c>
-      <c r="E343" s="3" t="s">
-        <v>1140</v>
-      </c>
-      <c r="F343" s="3" t="s">
-        <v>872</v>
-      </c>
+        <v>1433</v>
+      </c>
+      <c r="F343" s="3"/>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="9" t="s">
-        <v>818</v>
-      </c>
-      <c r="B344" s="9"/>
+        <v>812</v>
+      </c>
+      <c r="B344" s="9" t="s">
+        <v>1430</v>
+      </c>
       <c r="C344" s="9" t="s">
-        <v>819</v>
+        <v>1428</v>
       </c>
       <c r="D344" t="s">
-        <v>1391</v>
+        <v>1431</v>
       </c>
       <c r="E344" s="3" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="F344" s="3" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="9" t="s">
-        <v>820</v>
+        <v>85</v>
       </c>
       <c r="B345" s="9"/>
       <c r="C345" s="9" t="s">
-        <v>821</v>
+        <v>310</v>
       </c>
       <c r="D345" t="s">
-        <v>1392</v>
+        <v>1238</v>
       </c>
       <c r="E345" s="3" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="F345" s="3" t="s">
-        <v>874</v>
+        <v>310</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="9" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="B346" s="9"/>
       <c r="C346" s="9" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="D346" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
       <c r="E346" s="3" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F346" s="3" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A347" s="15" t="s">
-        <v>1394</v>
-      </c>
-      <c r="B347" s="15"/>
-      <c r="C347" s="4" t="s">
-        <v>152</v>
+      <c r="A347" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="B347" s="9"/>
+      <c r="C347" s="9" t="s">
+        <v>816</v>
       </c>
       <c r="D347" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+      <c r="E347" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F347" s="3" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="9" t="s">
-        <v>1395</v>
+        <v>817</v>
       </c>
       <c r="B348" s="9"/>
       <c r="C348" s="9" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D348" s="14" t="s">
-        <v>1437</v>
+        <v>818</v>
+      </c>
+      <c r="D348" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E348" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F348" s="3" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
-        <v>112</v>
-      </c>
+      <c r="A349" s="9" t="s">
+        <v>819</v>
+      </c>
+      <c r="B349" s="9"/>
       <c r="C349" s="9" t="s">
-        <v>780</v>
-      </c>
-      <c r="D349" s="14" t="s">
-        <v>1369</v>
+        <v>820</v>
+      </c>
+      <c r="D349" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E349" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F349" s="3" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
-        <v>114</v>
-      </c>
-      <c r="C350" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="D350" s="14" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
-        <v>1398</v>
-      </c>
+      <c r="A350" s="15" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B350" s="15"/>
+      <c r="C350" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D350" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="9" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B351" s="9"/>
       <c r="C351" s="9" t="s">
-        <v>775</v>
+        <v>1425</v>
       </c>
       <c r="D351" s="14" t="s">
-        <v>1364</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>1399</v>
-      </c>
-      <c r="C352" t="s">
-        <v>559</v>
+        <v>109</v>
+      </c>
+      <c r="C352" s="9" t="s">
+        <v>777</v>
       </c>
       <c r="D352" s="14" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="353" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C353" s="9"/>
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>111</v>
+      </c>
+      <c r="C353" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="D353" s="14" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C354" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="D354" s="14" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C355" t="s">
+        <v>556</v>
+      </c>
+      <c r="D355" s="14" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C356" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12961,50 +13042,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">

--- a/Documentation/translation.xlsx
+++ b/Documentation/translation.xlsx
@@ -10,12 +10,12 @@
     <sheet name="Matrix" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="1731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="1751">
   <si>
     <t>$this.Text</t>
   </si>
@@ -4420,9 +4420,6 @@
     <t>Lisätietoja ohjelmasta Wake On LAN</t>
   </si>
   <si>
-    <t>lähiverkossa hätätapauksessa.</t>
-  </si>
-  <si>
     <t>Peruuta sammutus</t>
   </si>
   <si>
@@ -4459,9 +4456,6 @@
     <t>Poistu</t>
   </si>
   <si>
-    <t>Vie</t>
-  </si>
-  <si>
     <t>Tiedosto</t>
   </si>
   <si>
@@ -5210,13 +5204,79 @@
   </si>
   <si>
     <t>[Listener]</t>
+  </si>
+  <si>
+    <t>Lähettää "magic pakets" -komentoja Ethernet-korteille "herättääkseen" tietokoneet etänä. Sulje tietokoneita etänä. Suorita "yleinen hätäsammutus" kaikille LAN-verkkoon kytketyille tietokoneille.</t>
+  </si>
+  <si>
+    <t>Vie (tallenna)</t>
+  </si>
+  <si>
+    <t>klo {0} joka {1}</t>
+  </si>
+  <si>
+    <t>klo {0} joka {1} päivä</t>
+  </si>
+  <si>
+    <t>klo {0} joka {2} viikon {1}, alkaen {3}</t>
+  </si>
+  <si>
+    <t>Väärä</t>
+  </si>
+  <si>
+    <t>Useita laukaisimia määritelty</t>
+  </si>
+  <si>
+    <t>Hae päivityksiä automaattisesti</t>
+  </si>
+  <si>
+    <t>Palauta oletukset</t>
+  </si>
+  <si>
+    <t>Verkko-/käyttäjätunnus</t>
+  </si>
+  <si>
+    <t>Palauta oletu</t>
+  </si>
+  <si>
+    <t>Laske aliverkko</t>
+  </si>
+  <si>
+    <t>Tämä toiminto auttaa sinua löytämään IP- ja aliverkko-osoitteen avulla käytettävän ”Broadcast osoitteen.”</t>
+  </si>
+  <si>
+    <t>Suositeltu ”Broadcast osoite:”</t>
+  </si>
+  <si>
+    <t>Aliverkko</t>
+  </si>
+  <si>
+    <t>Kuuntelija</t>
+  </si>
+  <si>
+    <t>Tyhjennä</t>
+  </si>
+  <si>
+    <t>Aika</t>
+  </si>
+  <si>
+    <t>Verkkoasetukset</t>
+  </si>
+  <si>
+    <t>UDP-portti 9</t>
+  </si>
+  <si>
+    <t>WakeOnLAN -paketteja vastaanotettu...</t>
+  </si>
+  <si>
+    <t>Kuuntelee:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5272,13 +5332,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -5313,19 +5366,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5335,11 +5389,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -5354,6 +5403,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="34"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -5364,15 +5425,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5401,26 +5463,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5431,14 +5477,28 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Excel Built-in Neutral" xfId="5"/>
-    <cellStyle name="Excel Built-in Normal" xfId="4"/>
+  <cellStyles count="7">
+    <cellStyle name="Excel Built-in Bad" xfId="6"/>
+    <cellStyle name="Excel Built-in Neutral" xfId="4"/>
+    <cellStyle name="Excel Built-in Normal" xfId="3"/>
+    <cellStyle name="Excel Built-in Normal 1" xfId="5"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -5740,8 +5800,8 @@
   <dimension ref="A1:XFD379"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A251" sqref="A251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5749,7 +5809,7 @@
     <col min="1" max="1" width="40.7109375" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
     <col min="3" max="3" width="34.28515625" customWidth="1"/>
-    <col min="4" max="4" width="54.85546875" customWidth="1"/>
+    <col min="4" max="4" width="55.140625" customWidth="1"/>
     <col min="5" max="5" width="58.7109375" customWidth="1"/>
     <col min="6" max="6" width="60.42578125" style="3" customWidth="1"/>
     <col min="7" max="10" width="36.7109375" customWidth="1"/>
@@ -5765,7 +5825,7 @@
       <c r="C1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="24" t="s">
         <v>1462</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -5804,7 +5864,7 @@
       <c r="C3" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="24" t="s">
         <v>1463</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -5827,7 +5887,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="18"/>
+      <c r="D4" s="24"/>
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -5844,7 +5904,7 @@
       <c r="C6" t="s">
         <v>310</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="25" t="s">
         <v>310</v>
       </c>
       <c r="E6" t="s">
@@ -5873,7 +5933,7 @@
       <c r="C7" t="s">
         <v>311</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="25" t="s">
         <v>1464</v>
       </c>
       <c r="E7" t="s">
@@ -5903,7 +5963,7 @@
       <c r="C8" t="s">
         <v>204</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="25" t="s">
         <v>1465</v>
       </c>
       <c r="E8" t="s">
@@ -5918,13 +5978,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s">
         <v>753</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="25" t="s">
         <v>1465</v>
       </c>
       <c r="E9" t="s">
@@ -5990,7 +6050,7 @@
       <c r="C14" t="s">
         <v>312</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="25" t="s">
         <v>1466</v>
       </c>
       <c r="E14" t="s">
@@ -6013,11 +6073,11 @@
       <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="23" t="s">
         <v>313</v>
       </c>
-      <c r="D15" s="29" t="s">
-        <v>1467</v>
+      <c r="D15" t="s">
+        <v>1729</v>
       </c>
       <c r="E15" t="s">
         <v>3</v>
@@ -6049,8 +6109,8 @@
       <c r="C18" t="s">
         <v>314</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>1468</v>
+      <c r="D18" s="25" t="s">
+        <v>1467</v>
       </c>
       <c r="E18" t="s">
         <v>1241</v>
@@ -6075,8 +6135,8 @@
       <c r="C19" t="s">
         <v>315</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>1469</v>
+      <c r="D19" s="25" t="s">
+        <v>1468</v>
       </c>
       <c r="E19" t="s">
         <v>1242</v>
@@ -6101,8 +6161,8 @@
       <c r="C20" t="s">
         <v>316</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>1470</v>
+      <c r="D20" s="25" t="s">
+        <v>1469</v>
       </c>
       <c r="E20" t="s">
         <v>1243</v>
@@ -6127,8 +6187,8 @@
       <c r="C21" t="s">
         <v>323</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>1471</v>
+      <c r="D21" s="25" t="s">
+        <v>1470</v>
       </c>
       <c r="E21" t="s">
         <v>1244</v>
@@ -6153,8 +6213,8 @@
       <c r="C22" t="s">
         <v>317</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>1472</v>
+      <c r="D22" s="25" t="s">
+        <v>1471</v>
       </c>
       <c r="E22" t="s">
         <v>1245</v>
@@ -6179,8 +6239,8 @@
       <c r="C23" t="s">
         <v>322</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>1473</v>
+      <c r="D23" s="25" t="s">
+        <v>1472</v>
       </c>
       <c r="E23" t="s">
         <v>1246</v>
@@ -6208,8 +6268,8 @@
       <c r="C24" t="s">
         <v>1192</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>1474</v>
+      <c r="D24" s="25" t="s">
+        <v>1473</v>
       </c>
       <c r="E24" t="s">
         <v>13</v>
@@ -6234,8 +6294,8 @@
       <c r="C25" t="s">
         <v>325</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>1475</v>
+      <c r="D25" s="25" t="s">
+        <v>1474</v>
       </c>
       <c r="E25" t="s">
         <v>206</v>
@@ -6260,8 +6320,8 @@
       <c r="C26" t="s">
         <v>324</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>1476</v>
+      <c r="D26" s="25" t="s">
+        <v>1475</v>
       </c>
       <c r="E26" t="s">
         <v>1247</v>
@@ -6286,8 +6346,8 @@
       <c r="C27" t="s">
         <v>149</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>1477</v>
+      <c r="D27" s="25" t="s">
+        <v>1476</v>
       </c>
       <c r="E27" t="s">
         <v>15</v>
@@ -6312,8 +6372,8 @@
       <c r="C28" t="s">
         <v>326</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>1478</v>
+      <c r="D28" s="25" t="s">
+        <v>1477</v>
       </c>
       <c r="E28" t="s">
         <v>17</v>
@@ -6341,8 +6401,8 @@
       <c r="C29" t="s">
         <v>1175</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>1479</v>
+      <c r="D29" s="25" t="s">
+        <v>1478</v>
       </c>
       <c r="E29" t="s">
         <v>19</v>
@@ -6370,8 +6430,8 @@
       <c r="C30" t="s">
         <v>1193</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>1480</v>
+      <c r="D30" s="25" t="s">
+        <v>1730</v>
       </c>
       <c r="E30" t="s">
         <v>21</v>
@@ -6396,8 +6456,8 @@
       <c r="C31" t="s">
         <v>327</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>1481</v>
+      <c r="D31" s="25" t="s">
+        <v>1479</v>
       </c>
       <c r="E31" t="s">
         <v>23</v>
@@ -6422,8 +6482,8 @@
       <c r="C32" t="s">
         <v>328</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>1482</v>
+      <c r="D32" s="25" t="s">
+        <v>1480</v>
       </c>
       <c r="E32" t="s">
         <v>25</v>
@@ -6449,8 +6509,8 @@
       <c r="C33" s="9" t="s">
         <v>876</v>
       </c>
-      <c r="D33" s="21" t="s">
-        <v>1483</v>
+      <c r="D33" s="26" t="s">
+        <v>1481</v>
       </c>
       <c r="E33" t="s">
         <v>1248</v>
@@ -6469,8 +6529,8 @@
       <c r="C34" t="s">
         <v>328</v>
       </c>
-      <c r="D34" s="17" t="s">
-        <v>1482</v>
+      <c r="D34" s="25" t="s">
+        <v>1480</v>
       </c>
       <c r="E34" t="s">
         <v>25</v>
@@ -6495,8 +6555,8 @@
       <c r="C35" t="s">
         <v>329</v>
       </c>
-      <c r="D35" s="17" t="s">
-        <v>1484</v>
+      <c r="D35" s="25" t="s">
+        <v>1482</v>
       </c>
       <c r="E35" t="s">
         <v>28</v>
@@ -6524,8 +6584,8 @@
       <c r="C36" t="s">
         <v>1194</v>
       </c>
-      <c r="D36" s="17" t="s">
-        <v>1485</v>
+      <c r="D36" s="25" t="s">
+        <v>1483</v>
       </c>
       <c r="E36" t="s">
         <v>30</v>
@@ -6543,32 +6603,32 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
+    <row r="37" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="18" t="s">
         <v>1222</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="18" t="s">
         <v>1160</v>
       </c>
-      <c r="D37" s="26" t="s">
-        <v>1486</v>
-      </c>
-      <c r="E37" s="25" t="s">
+      <c r="D37" s="27" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E37" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="27" t="s">
+      <c r="F37" s="19" t="s">
         <v>1160</v>
       </c>
-      <c r="G37" s="25" t="s">
+      <c r="G37" s="18" t="s">
         <v>630</v>
       </c>
-      <c r="H37" s="25" t="s">
+      <c r="H37" s="18" t="s">
         <v>596</v>
       </c>
-      <c r="I37" s="25" t="s">
+      <c r="I37" s="18" t="s">
         <v>32</v>
       </c>
     </row>
@@ -6579,8 +6639,8 @@
       <c r="C38" t="s">
         <v>330</v>
       </c>
-      <c r="D38" s="17" t="s">
-        <v>1487</v>
+      <c r="D38" s="25" t="s">
+        <v>1485</v>
       </c>
       <c r="E38" t="s">
         <v>34</v>
@@ -6605,8 +6665,8 @@
       <c r="C39" t="s">
         <v>331</v>
       </c>
-      <c r="D39" s="17" t="s">
-        <v>1488</v>
+      <c r="D39" s="25" t="s">
+        <v>1486</v>
       </c>
       <c r="E39" t="s">
         <v>1249</v>
@@ -6632,8 +6692,8 @@
       <c r="C40" s="9" t="s">
         <v>884</v>
       </c>
-      <c r="D40" s="21" t="s">
-        <v>1489</v>
+      <c r="D40" s="26" t="s">
+        <v>1487</v>
       </c>
       <c r="E40" t="s">
         <v>1250</v>
@@ -6652,8 +6712,8 @@
       <c r="C41" t="s">
         <v>332</v>
       </c>
-      <c r="D41" s="17" t="s">
-        <v>1490</v>
+      <c r="D41" s="25" t="s">
+        <v>1488</v>
       </c>
       <c r="E41" t="s">
         <v>38</v>
@@ -6678,8 +6738,8 @@
       <c r="C42" t="s">
         <v>333</v>
       </c>
-      <c r="D42" s="17" t="s">
-        <v>1491</v>
+      <c r="D42" s="25" t="s">
+        <v>1489</v>
       </c>
       <c r="E42" t="s">
         <v>1251</v>
@@ -6707,8 +6767,8 @@
       <c r="C43" t="s">
         <v>240</v>
       </c>
-      <c r="D43" s="17" t="s">
-        <v>1492</v>
+      <c r="D43" s="25" t="s">
+        <v>1490</v>
       </c>
       <c r="E43" t="s">
         <v>1252</v>
@@ -6733,8 +6793,8 @@
       <c r="C44" t="s">
         <v>334</v>
       </c>
-      <c r="D44" s="17" t="s">
-        <v>1493</v>
+      <c r="D44" s="25" t="s">
+        <v>1682</v>
       </c>
       <c r="E44" t="s">
         <v>44</v>
@@ -6759,8 +6819,8 @@
       <c r="C45" t="s">
         <v>335</v>
       </c>
-      <c r="D45" s="17" t="s">
-        <v>1494</v>
+      <c r="D45" s="25" t="s">
+        <v>1492</v>
       </c>
       <c r="E45" t="s">
         <v>210</v>
@@ -6785,8 +6845,8 @@
       <c r="C46" t="s">
         <v>874</v>
       </c>
-      <c r="D46" s="17" t="s">
-        <v>1495</v>
+      <c r="D46" s="25" t="s">
+        <v>1493</v>
       </c>
       <c r="E46" t="s">
         <v>46</v>
@@ -6811,8 +6871,8 @@
       <c r="C47" t="s">
         <v>1196</v>
       </c>
-      <c r="D47" s="17" t="s">
-        <v>1496</v>
+      <c r="D47" s="25" t="s">
+        <v>1494</v>
       </c>
       <c r="E47" t="s">
         <v>212</v>
@@ -6837,8 +6897,8 @@
       <c r="C48" t="s">
         <v>1197</v>
       </c>
-      <c r="D48" s="17" t="s">
-        <v>1497</v>
+      <c r="D48" s="25" t="s">
+        <v>1495</v>
       </c>
       <c r="E48" t="s">
         <v>212</v>
@@ -6863,8 +6923,8 @@
       <c r="C49" t="s">
         <v>173</v>
       </c>
-      <c r="D49" s="17" t="s">
-        <v>1498</v>
+      <c r="D49" s="25" t="s">
+        <v>1496</v>
       </c>
       <c r="E49" t="s">
         <v>48</v>
@@ -6892,8 +6952,8 @@
       <c r="C50" t="s">
         <v>1199</v>
       </c>
-      <c r="D50" s="17" t="s">
-        <v>1499</v>
+      <c r="D50" s="25" t="s">
+        <v>1497</v>
       </c>
       <c r="E50" t="s">
         <v>50</v>
@@ -6918,8 +6978,8 @@
       <c r="C51" t="s">
         <v>1200</v>
       </c>
-      <c r="D51" s="17" t="s">
-        <v>1500</v>
+      <c r="D51" s="25" t="s">
+        <v>1498</v>
       </c>
       <c r="E51" t="s">
         <v>215</v>
@@ -6944,8 +7004,8 @@
       <c r="C52" t="s">
         <v>337</v>
       </c>
-      <c r="D52" s="17" t="s">
-        <v>1501</v>
+      <c r="D52" s="25" t="s">
+        <v>1499</v>
       </c>
       <c r="E52" t="s">
         <v>36</v>
@@ -6970,8 +7030,8 @@
       <c r="C53" t="s">
         <v>338</v>
       </c>
-      <c r="D53" s="17" t="s">
-        <v>1502</v>
+      <c r="D53" s="25" t="s">
+        <v>1500</v>
       </c>
       <c r="E53" t="s">
         <v>1253</v>
@@ -6996,8 +7056,8 @@
       <c r="C54" t="s">
         <v>1201</v>
       </c>
-      <c r="D54" s="17" t="s">
-        <v>1503</v>
+      <c r="D54" s="25" t="s">
+        <v>1501</v>
       </c>
       <c r="E54" t="s">
         <v>55</v>
@@ -7022,8 +7082,8 @@
       <c r="C55" t="s">
         <v>1202</v>
       </c>
-      <c r="D55" s="17" t="s">
-        <v>1504</v>
+      <c r="D55" s="25" t="s">
+        <v>1502</v>
       </c>
       <c r="E55" t="s">
         <v>1254</v>
@@ -7048,8 +7108,8 @@
       <c r="C56" t="s">
         <v>339</v>
       </c>
-      <c r="D56" s="17" t="s">
-        <v>1505</v>
+      <c r="D56" s="25" t="s">
+        <v>1503</v>
       </c>
       <c r="E56" t="s">
         <v>1255</v>
@@ -7074,8 +7134,8 @@
       <c r="C57" t="s">
         <v>340</v>
       </c>
-      <c r="D57" s="17" t="s">
-        <v>1506</v>
+      <c r="D57" s="25" t="s">
+        <v>1504</v>
       </c>
       <c r="E57" t="s">
         <v>1256</v>
@@ -7101,8 +7161,8 @@
       <c r="C58" t="s">
         <v>341</v>
       </c>
-      <c r="D58" s="17" t="s">
-        <v>1507</v>
+      <c r="D58" s="25" t="s">
+        <v>1505</v>
       </c>
       <c r="E58" t="s">
         <v>1257</v>
@@ -7127,8 +7187,8 @@
       <c r="C59" t="s">
         <v>342</v>
       </c>
-      <c r="D59" s="17" t="s">
-        <v>1508</v>
+      <c r="D59" s="25" t="s">
+        <v>1506</v>
       </c>
       <c r="E59" t="s">
         <v>1258</v>
@@ -7154,8 +7214,8 @@
       <c r="C60" t="s">
         <v>1203</v>
       </c>
-      <c r="D60" s="17" t="s">
-        <v>1509</v>
+      <c r="D60" s="25" t="s">
+        <v>1507</v>
       </c>
       <c r="E60" t="s">
         <v>1259</v>
@@ -7180,8 +7240,8 @@
       <c r="C61" t="s">
         <v>650</v>
       </c>
-      <c r="D61" s="17" t="s">
-        <v>1510</v>
+      <c r="D61" s="25" t="s">
+        <v>1508</v>
       </c>
       <c r="E61" t="s">
         <v>65</v>
@@ -7206,8 +7266,8 @@
       <c r="C62" t="s">
         <v>1204</v>
       </c>
-      <c r="D62" s="17" t="s">
-        <v>1511</v>
+      <c r="D62" s="25" t="s">
+        <v>1509</v>
       </c>
       <c r="E62" t="s">
         <v>1260</v>
@@ -7232,8 +7292,8 @@
       <c r="C63" t="s">
         <v>1205</v>
       </c>
-      <c r="D63" s="17" t="s">
-        <v>1512</v>
+      <c r="D63" s="25" t="s">
+        <v>1510</v>
       </c>
       <c r="E63" t="s">
         <v>72</v>
@@ -7261,8 +7321,8 @@
       <c r="C64" t="s">
         <v>1206</v>
       </c>
-      <c r="D64" s="17" t="s">
-        <v>1513</v>
+      <c r="D64" s="25" t="s">
+        <v>1511</v>
       </c>
       <c r="E64" t="s">
         <v>1261</v>
@@ -7287,8 +7347,8 @@
       <c r="C65" t="s">
         <v>343</v>
       </c>
-      <c r="D65" s="17" t="s">
-        <v>1514</v>
+      <c r="D65" s="25" t="s">
+        <v>1512</v>
       </c>
       <c r="E65" t="s">
         <v>1262</v>
@@ -7314,8 +7374,8 @@
       <c r="C66" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="D66" s="22" t="s">
-        <v>1515</v>
+      <c r="D66" s="28" t="s">
+        <v>1513</v>
       </c>
       <c r="E66" t="s">
         <v>1444</v>
@@ -7338,8 +7398,8 @@
       <c r="C67" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="D67" s="22" t="s">
-        <v>1515</v>
+      <c r="D67" s="28" t="s">
+        <v>1513</v>
       </c>
       <c r="E67" t="s">
         <v>1444</v>
@@ -7362,7 +7422,7 @@
       <c r="C68" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="D68" s="22" t="s">
+      <c r="D68" s="28" t="s">
         <v>553</v>
       </c>
       <c r="E68" t="s">
@@ -7386,7 +7446,7 @@
       <c r="C69" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="D69" s="22" t="s">
+      <c r="D69" s="28" t="s">
         <v>555</v>
       </c>
       <c r="E69" t="s">
@@ -7410,8 +7470,8 @@
       <c r="C70" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="D70" s="22" t="s">
-        <v>1516</v>
+      <c r="D70" s="28" t="s">
+        <v>1514</v>
       </c>
       <c r="E70" t="s">
         <v>1265</v>
@@ -7434,8 +7494,8 @@
       <c r="C71" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="D71" s="22" t="s">
-        <v>1517</v>
+      <c r="D71" s="28" t="s">
+        <v>1515</v>
       </c>
       <c r="E71" t="s">
         <v>1266</v>
@@ -7458,8 +7518,8 @@
       <c r="C72" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="D72" s="22" t="s">
-        <v>1518</v>
+      <c r="D72" s="28" t="s">
+        <v>1516</v>
       </c>
       <c r="E72" t="s">
         <v>1267</v>
@@ -7482,8 +7542,8 @@
       <c r="C73" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="D73" s="22" t="s">
-        <v>1519</v>
+      <c r="D73" s="28" t="s">
+        <v>1517</v>
       </c>
       <c r="E73" t="s">
         <v>1268</v>
@@ -7506,8 +7566,8 @@
       <c r="C74" s="6" t="s">
         <v>1166</v>
       </c>
-      <c r="D74" s="22" t="s">
-        <v>1520</v>
+      <c r="D74" s="28" t="s">
+        <v>1518</v>
       </c>
       <c r="E74" t="s">
         <v>1269</v>
@@ -7531,8 +7591,8 @@
       <c r="C75" s="6" t="s">
         <v>1170</v>
       </c>
-      <c r="D75" s="22" t="s">
-        <v>1521</v>
+      <c r="D75" s="28" t="s">
+        <v>1519</v>
       </c>
       <c r="E75" t="s">
         <v>1270</v>
@@ -7555,8 +7615,8 @@
       <c r="C76" t="s">
         <v>1173</v>
       </c>
-      <c r="D76" s="17" t="s">
-        <v>1522</v>
+      <c r="D76" s="25" t="s">
+        <v>1520</v>
       </c>
       <c r="E76" t="s">
         <v>1271</v>
@@ -7579,8 +7639,8 @@
       <c r="C77" t="s">
         <v>1175</v>
       </c>
-      <c r="D77" s="17" t="s">
-        <v>1479</v>
+      <c r="D77" s="25" t="s">
+        <v>1478</v>
       </c>
       <c r="E77" t="s">
         <v>1272</v>
@@ -7603,8 +7663,8 @@
       <c r="C78" s="6" t="s">
         <v>1176</v>
       </c>
-      <c r="D78" s="22" t="s">
-        <v>1523</v>
+      <c r="D78" s="28" t="s">
+        <v>1521</v>
       </c>
       <c r="E78" t="s">
         <v>1273</v>
@@ -7628,8 +7688,8 @@
       <c r="C79" s="3" t="s">
         <v>1436</v>
       </c>
-      <c r="D79" s="22" t="s">
-        <v>1524</v>
+      <c r="D79" s="28" t="s">
+        <v>1522</v>
       </c>
       <c r="E79" t="s">
         <v>1261</v>
@@ -7896,8 +7956,8 @@
       <c r="C80" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="D80" s="22" t="s">
-        <v>1525</v>
+      <c r="D80" s="28" t="s">
+        <v>1523</v>
       </c>
       <c r="E80" t="s">
         <v>1264</v>
@@ -8164,8 +8224,8 @@
       <c r="C81" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="D81" s="22" t="s">
-        <v>1526</v>
+      <c r="D81" s="28" t="s">
+        <v>1524</v>
       </c>
       <c r="E81" t="s">
         <v>1265</v>
@@ -8432,8 +8492,8 @@
       <c r="C82" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="D82" s="22" t="s">
-        <v>1517</v>
+      <c r="D82" s="28" t="s">
+        <v>1515</v>
       </c>
       <c r="E82" t="s">
         <v>1266</v>
@@ -8700,8 +8760,8 @@
       <c r="C83" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="D83" s="22" t="s">
-        <v>1518</v>
+      <c r="D83" s="28" t="s">
+        <v>1516</v>
       </c>
       <c r="E83" t="s">
         <v>1267</v>
@@ -8968,8 +9028,8 @@
       <c r="C84" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="D84" s="22" t="s">
-        <v>1519</v>
+      <c r="D84" s="28" t="s">
+        <v>1517</v>
       </c>
       <c r="E84" t="s">
         <v>1268</v>
@@ -9235,8 +9295,8 @@
       <c r="C85" s="3" t="s">
         <v>1443</v>
       </c>
-      <c r="D85" s="22" t="s">
-        <v>1527</v>
+      <c r="D85" s="28" t="s">
+        <v>1525</v>
       </c>
       <c r="E85" t="s">
         <v>1445</v>
@@ -9257,8 +9317,8 @@
       <c r="C88" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="D88" s="19" t="s">
-        <v>1528</v>
+      <c r="D88" s="25" t="s">
+        <v>1526</v>
       </c>
       <c r="E88" t="s">
         <v>1274</v>
@@ -9281,8 +9341,8 @@
       <c r="C89" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="D89" s="19" t="s">
-        <v>1529</v>
+      <c r="D89" s="25" t="s">
+        <v>1527</v>
       </c>
       <c r="E89" t="s">
         <v>1275</v>
@@ -9305,8 +9365,8 @@
       <c r="C90" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="D90" s="19" t="s">
-        <v>1530</v>
+      <c r="D90" s="25" t="s">
+        <v>1528</v>
       </c>
       <c r="E90" t="s">
         <v>1276</v>
@@ -9336,8 +9396,8 @@
       <c r="C93" t="s">
         <v>173</v>
       </c>
-      <c r="D93" s="17" t="s">
-        <v>1498</v>
+      <c r="D93" s="25" t="s">
+        <v>1496</v>
       </c>
       <c r="E93" t="s">
         <v>48</v>
@@ -9359,8 +9419,8 @@
       <c r="C94" t="s">
         <v>344</v>
       </c>
-      <c r="D94" s="17" t="s">
-        <v>1531</v>
+      <c r="D94" s="25" t="s">
+        <v>1529</v>
       </c>
       <c r="E94" t="s">
         <v>1277</v>
@@ -9385,8 +9445,8 @@
       <c r="C95" t="s">
         <v>149</v>
       </c>
-      <c r="D95" s="17" t="s">
-        <v>1477</v>
+      <c r="D95" s="25" t="s">
+        <v>1476</v>
       </c>
       <c r="E95" t="s">
         <v>15</v>
@@ -9411,8 +9471,8 @@
       <c r="C96" t="s">
         <v>345</v>
       </c>
-      <c r="D96" s="17" t="s">
-        <v>1532</v>
+      <c r="D96" s="25" t="s">
+        <v>1530</v>
       </c>
       <c r="E96" t="s">
         <v>1278</v>
@@ -9437,8 +9497,8 @@
       <c r="C97" t="s">
         <v>346</v>
       </c>
-      <c r="D97" s="17" t="s">
-        <v>1533</v>
+      <c r="D97" s="25" t="s">
+        <v>1531</v>
       </c>
       <c r="E97" t="s">
         <v>38</v>
@@ -9463,8 +9523,8 @@
       <c r="C98" t="s">
         <v>333</v>
       </c>
-      <c r="D98" s="17" t="s">
-        <v>1491</v>
+      <c r="D98" s="25" t="s">
+        <v>1489</v>
       </c>
       <c r="E98" t="s">
         <v>1251</v>
@@ -9492,8 +9552,8 @@
       <c r="C99" t="s">
         <v>347</v>
       </c>
-      <c r="D99" s="17" t="s">
-        <v>1534</v>
+      <c r="D99" s="25" t="s">
+        <v>1532</v>
       </c>
       <c r="E99" t="s">
         <v>79</v>
@@ -9518,8 +9578,8 @@
       <c r="C100" t="s">
         <v>330</v>
       </c>
-      <c r="D100" s="17" t="s">
-        <v>1487</v>
+      <c r="D100" s="25" t="s">
+        <v>1485</v>
       </c>
       <c r="E100" t="s">
         <v>34</v>
@@ -9544,8 +9604,8 @@
       <c r="C101" t="s">
         <v>348</v>
       </c>
-      <c r="D101" s="17" t="s">
-        <v>1535</v>
+      <c r="D101" s="25" t="s">
+        <v>1533</v>
       </c>
       <c r="E101" t="s">
         <v>81</v>
@@ -9571,7 +9631,7 @@
         <v>349</v>
       </c>
       <c r="D102" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="E102" t="s">
         <v>87</v>
@@ -9596,8 +9656,8 @@
       <c r="C103" t="s">
         <v>350</v>
       </c>
-      <c r="D103" s="17" t="s">
-        <v>1537</v>
+      <c r="D103" s="25" t="s">
+        <v>1535</v>
       </c>
       <c r="E103" t="s">
         <v>84</v>
@@ -9625,8 +9685,8 @@
       <c r="C104" t="s">
         <v>304</v>
       </c>
-      <c r="D104" s="17" t="s">
-        <v>1538</v>
+      <c r="D104" s="25" t="s">
+        <v>1536</v>
       </c>
       <c r="E104" t="s">
         <v>303</v>
@@ -9655,8 +9715,8 @@
       <c r="C105" s="9" t="s">
         <v>1450</v>
       </c>
-      <c r="D105" s="21" t="s">
-        <v>1539</v>
+      <c r="D105" s="26" t="s">
+        <v>1537</v>
       </c>
     </row>
     <row r="106" spans="1:16384" x14ac:dyDescent="0.25">
@@ -9669,8 +9729,8 @@
       <c r="C106" s="9" t="s">
         <v>1456</v>
       </c>
-      <c r="D106" s="21" t="s">
-        <v>1540</v>
+      <c r="D106" s="26" t="s">
+        <v>1538</v>
       </c>
     </row>
     <row r="107" spans="1:16384" x14ac:dyDescent="0.25">
@@ -9683,20 +9743,20 @@
       <c r="C107" s="9" t="s">
         <v>1460</v>
       </c>
-      <c r="D107" s="21" t="s">
-        <v>1541</v>
+      <c r="D107" s="26" t="s">
+        <v>1539</v>
       </c>
     </row>
     <row r="108" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A108" s="17" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="B108" s="17"/>
       <c r="C108" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="D108" s="17" t="s">
-        <v>1484</v>
+      <c r="D108" s="25" t="s">
+        <v>1482</v>
       </c>
       <c r="E108" s="17"/>
       <c r="F108" s="17"/>
@@ -26093,8 +26153,8 @@
       <c r="C111" t="s">
         <v>338</v>
       </c>
-      <c r="D111" s="17" t="s">
-        <v>1502</v>
+      <c r="D111" s="25" t="s">
+        <v>1500</v>
       </c>
       <c r="E111" t="s">
         <v>53</v>
@@ -26119,8 +26179,8 @@
       <c r="C112" t="s">
         <v>351</v>
       </c>
-      <c r="D112" s="17" t="s">
-        <v>1504</v>
+      <c r="D112" s="25" t="s">
+        <v>1502</v>
       </c>
       <c r="E112" t="s">
         <v>89</v>
@@ -26145,8 +26205,8 @@
       <c r="C113" t="s">
         <v>352</v>
       </c>
-      <c r="D113" s="17" t="s">
-        <v>1542</v>
+      <c r="D113" s="25" t="s">
+        <v>1540</v>
       </c>
       <c r="E113" t="s">
         <v>91</v>
@@ -26171,8 +26231,8 @@
       <c r="C114" t="s">
         <v>353</v>
       </c>
-      <c r="D114" s="17" t="s">
-        <v>1543</v>
+      <c r="D114" s="25" t="s">
+        <v>1541</v>
       </c>
       <c r="E114" t="s">
         <v>93</v>
@@ -26197,8 +26257,8 @@
       <c r="C115" t="s">
         <v>354</v>
       </c>
-      <c r="D115" s="17" t="s">
-        <v>1544</v>
+      <c r="D115" s="25" t="s">
+        <v>1542</v>
       </c>
       <c r="E115" t="s">
         <v>95</v>
@@ -26223,8 +26283,8 @@
       <c r="C116" t="s">
         <v>330</v>
       </c>
-      <c r="D116" s="17" t="s">
-        <v>1487</v>
+      <c r="D116" s="25" t="s">
+        <v>1485</v>
       </c>
       <c r="E116" t="s">
         <v>34</v>
@@ -26249,8 +26309,8 @@
       <c r="C117" t="s">
         <v>348</v>
       </c>
-      <c r="D117" s="17" t="s">
-        <v>1535</v>
+      <c r="D117" s="25" t="s">
+        <v>1533</v>
       </c>
       <c r="E117" t="s">
         <v>81</v>
@@ -26276,8 +26336,8 @@
       <c r="C118" t="s">
         <v>346</v>
       </c>
-      <c r="D118" s="17" t="s">
-        <v>1533</v>
+      <c r="D118" s="25" t="s">
+        <v>1531</v>
       </c>
       <c r="E118" t="s">
         <v>99</v>
@@ -26302,8 +26362,8 @@
       <c r="C119" t="s">
         <v>355</v>
       </c>
-      <c r="D119" s="17" t="s">
-        <v>1545</v>
+      <c r="D119" s="25" t="s">
+        <v>1543</v>
       </c>
       <c r="E119" t="s">
         <v>101</v>
@@ -26328,8 +26388,8 @@
       <c r="C120" t="s">
         <v>338</v>
       </c>
-      <c r="D120" s="17" t="s">
-        <v>1502</v>
+      <c r="D120" s="25" t="s">
+        <v>1500</v>
       </c>
       <c r="E120" t="s">
         <v>53</v>
@@ -26354,8 +26414,8 @@
       <c r="C121" t="s">
         <v>356</v>
       </c>
-      <c r="D121" s="17" t="s">
-        <v>1546</v>
+      <c r="D121" s="25" t="s">
+        <v>1544</v>
       </c>
       <c r="E121" t="s">
         <v>103</v>
@@ -26380,8 +26440,8 @@
       <c r="C122" t="s">
         <v>357</v>
       </c>
-      <c r="D122" s="17" t="s">
-        <v>1547</v>
+      <c r="D122" s="25" t="s">
+        <v>1545</v>
       </c>
       <c r="E122" t="s">
         <v>104</v>
@@ -26406,8 +26466,8 @@
       <c r="C123" t="s">
         <v>358</v>
       </c>
-      <c r="D123" s="17" t="s">
-        <v>1548</v>
+      <c r="D123" s="25" t="s">
+        <v>1546</v>
       </c>
       <c r="E123" t="s">
         <v>105</v>
@@ -26433,8 +26493,8 @@
       <c r="C124" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="D124" s="22" t="s">
-        <v>1549</v>
+      <c r="D124" s="28" t="s">
+        <v>1547</v>
       </c>
       <c r="E124" t="s">
         <v>1279</v>
@@ -26457,8 +26517,8 @@
       <c r="C125" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="D125" s="22" t="s">
-        <v>1550</v>
+      <c r="D125" s="28" t="s">
+        <v>1548</v>
       </c>
       <c r="E125" t="s">
         <v>1280</v>
@@ -26487,8 +26547,8 @@
       <c r="C128" t="s">
         <v>341</v>
       </c>
-      <c r="D128" s="17" t="s">
-        <v>1507</v>
+      <c r="D128" s="25" t="s">
+        <v>1505</v>
       </c>
       <c r="E128" t="s">
         <v>1281</v>
@@ -26513,8 +26573,8 @@
       <c r="C129" t="s">
         <v>314</v>
       </c>
-      <c r="D129" s="17" t="s">
-        <v>1468</v>
+      <c r="D129" s="25" t="s">
+        <v>1467</v>
       </c>
       <c r="E129" t="s">
         <v>1282</v>
@@ -26539,8 +26599,8 @@
       <c r="C130" t="s">
         <v>369</v>
       </c>
-      <c r="D130" s="17" t="s">
-        <v>1551</v>
+      <c r="D130" s="25" t="s">
+        <v>1549</v>
       </c>
       <c r="E130" t="s">
         <v>1283</v>
@@ -26565,8 +26625,8 @@
       <c r="C131" t="s">
         <v>342</v>
       </c>
-      <c r="D131" s="17" t="s">
-        <v>1508</v>
+      <c r="D131" s="25" t="s">
+        <v>1506</v>
       </c>
       <c r="E131" t="s">
         <v>1284</v>
@@ -26591,8 +26651,8 @@
       <c r="C132" t="s">
         <v>370</v>
       </c>
-      <c r="D132" s="17" t="s">
-        <v>1552</v>
+      <c r="D132" s="25" t="s">
+        <v>1550</v>
       </c>
       <c r="E132" t="s">
         <v>1285</v>
@@ -26617,8 +26677,8 @@
       <c r="C133" t="s">
         <v>371</v>
       </c>
-      <c r="D133" s="17" t="s">
-        <v>1553</v>
+      <c r="D133" s="25" t="s">
+        <v>1551</v>
       </c>
       <c r="E133" t="s">
         <v>114</v>
@@ -26644,8 +26704,8 @@
       <c r="C134" t="s">
         <v>372</v>
       </c>
-      <c r="D134" s="17" t="s">
-        <v>1554</v>
+      <c r="D134" s="25" t="s">
+        <v>1552</v>
       </c>
       <c r="E134" t="s">
         <v>1286</v>
@@ -26673,8 +26733,8 @@
       <c r="C135" t="s">
         <v>373</v>
       </c>
-      <c r="D135" s="17" t="s">
-        <v>1555</v>
+      <c r="D135" s="25" t="s">
+        <v>1553</v>
       </c>
       <c r="E135" t="s">
         <v>118</v>
@@ -26699,8 +26759,8 @@
       <c r="C136" t="s">
         <v>294</v>
       </c>
-      <c r="D136" s="17" t="s">
-        <v>1556</v>
+      <c r="D136" s="25" t="s">
+        <v>1554</v>
       </c>
       <c r="E136" t="s">
         <v>295</v>
@@ -26725,8 +26785,8 @@
       <c r="C137" t="s">
         <v>288</v>
       </c>
-      <c r="D137" s="17" t="s">
-        <v>1557</v>
+      <c r="D137" s="25" t="s">
+        <v>1555</v>
       </c>
       <c r="E137" t="s">
         <v>1287</v>
@@ -26751,8 +26811,8 @@
       <c r="C138" t="s">
         <v>374</v>
       </c>
-      <c r="D138" s="17" t="s">
-        <v>1558</v>
+      <c r="D138" s="25" t="s">
+        <v>1556</v>
       </c>
       <c r="E138" t="s">
         <v>1288</v>
@@ -26777,8 +26837,8 @@
       <c r="C139" t="s">
         <v>375</v>
       </c>
-      <c r="D139" s="17" t="s">
-        <v>1559</v>
+      <c r="D139" s="25" t="s">
+        <v>1557</v>
       </c>
       <c r="E139" t="s">
         <v>1289</v>
@@ -26803,8 +26863,8 @@
       <c r="C140" t="s">
         <v>263</v>
       </c>
-      <c r="D140" s="17" t="s">
-        <v>1507</v>
+      <c r="D140" s="25" t="s">
+        <v>1505</v>
       </c>
       <c r="E140" t="s">
         <v>1281</v>
@@ -26836,7 +26896,7 @@
       <c r="C143" t="s">
         <v>376</v>
       </c>
-      <c r="D143" s="17" t="s">
+      <c r="D143" s="25" t="s">
         <v>376</v>
       </c>
       <c r="E143" t="s">
@@ -26872,8 +26932,8 @@
       <c r="C146" t="s">
         <v>130</v>
       </c>
-      <c r="D146" s="17" t="s">
-        <v>1560</v>
+      <c r="D146" s="25" t="s">
+        <v>1558</v>
       </c>
       <c r="E146" t="s">
         <v>1290</v>
@@ -26898,8 +26958,8 @@
       <c r="C147" t="s">
         <v>220</v>
       </c>
-      <c r="D147" s="17" t="s">
-        <v>1561</v>
+      <c r="D147" s="25" t="s">
+        <v>1559</v>
       </c>
       <c r="E147" t="s">
         <v>1291</v>
@@ -26924,8 +26984,8 @@
       <c r="C148" t="s">
         <v>221</v>
       </c>
-      <c r="D148" s="17" t="s">
-        <v>1562</v>
+      <c r="D148" s="25" t="s">
+        <v>1560</v>
       </c>
       <c r="E148" t="s">
         <v>134</v>
@@ -26953,8 +27013,8 @@
       <c r="C149" t="s">
         <v>222</v>
       </c>
-      <c r="D149" s="17" t="s">
-        <v>1563</v>
+      <c r="D149" s="25" t="s">
+        <v>1561</v>
       </c>
       <c r="E149" t="s">
         <v>1292</v>
@@ -26985,8 +27045,8 @@
       <c r="C150" t="s">
         <v>1210</v>
       </c>
-      <c r="D150" s="17" t="s">
-        <v>1564</v>
+      <c r="D150" s="25" t="s">
+        <v>1562</v>
       </c>
       <c r="E150" t="s">
         <v>1293</v>
@@ -27012,8 +27072,8 @@
       <c r="C151" s="3" t="s">
         <v>925</v>
       </c>
-      <c r="D151" s="22" t="s">
-        <v>1615</v>
+      <c r="D151" s="28" t="s">
+        <v>1613</v>
       </c>
       <c r="E151" t="s">
         <v>1325</v>
@@ -27030,8 +27090,8 @@
       <c r="C152" s="3" t="s">
         <v>924</v>
       </c>
-      <c r="D152" s="22" t="s">
-        <v>1614</v>
+      <c r="D152" s="28" t="s">
+        <v>1612</v>
       </c>
       <c r="E152" t="s">
         <v>1324</v>
@@ -27048,8 +27108,8 @@
       <c r="C153" s="3" t="s">
         <v>922</v>
       </c>
-      <c r="D153" s="22" t="s">
-        <v>1612</v>
+      <c r="D153" s="28" t="s">
+        <v>1610</v>
       </c>
       <c r="E153" t="s">
         <v>1322</v>
@@ -27066,8 +27126,8 @@
       <c r="C154" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="D154" s="22" t="s">
-        <v>1613</v>
+      <c r="D154" s="28" t="s">
+        <v>1611</v>
       </c>
       <c r="E154" t="s">
         <v>1323</v>
@@ -27084,8 +27144,8 @@
       <c r="C155" s="3" t="s">
         <v>920</v>
       </c>
-      <c r="D155" s="22" t="s">
-        <v>1611</v>
+      <c r="D155" s="28" t="s">
+        <v>1609</v>
       </c>
       <c r="E155" t="s">
         <v>1320</v>
@@ -27102,8 +27162,8 @@
       <c r="C156" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="D156" s="22" t="s">
-        <v>1473</v>
+      <c r="D156" s="28" t="s">
+        <v>1472</v>
       </c>
       <c r="E156" t="s">
         <v>1321</v>
@@ -27119,8 +27179,8 @@
       <c r="C157" t="s">
         <v>223</v>
       </c>
-      <c r="D157" s="17" t="s">
-        <v>1565</v>
+      <c r="D157" s="25" t="s">
+        <v>1563</v>
       </c>
       <c r="E157" t="s">
         <v>140</v>
@@ -27145,8 +27205,8 @@
       <c r="C158" t="s">
         <v>224</v>
       </c>
-      <c r="D158" s="17" t="s">
-        <v>1566</v>
+      <c r="D158" s="25" t="s">
+        <v>1564</v>
       </c>
       <c r="E158" t="s">
         <v>142</v>
@@ -27171,8 +27231,8 @@
       <c r="C159" t="s">
         <v>225</v>
       </c>
-      <c r="D159" s="17" t="s">
-        <v>1567</v>
+      <c r="D159" s="25" t="s">
+        <v>1565</v>
       </c>
       <c r="E159" t="s">
         <v>144</v>
@@ -27197,8 +27257,8 @@
       <c r="C160" t="s">
         <v>226</v>
       </c>
-      <c r="D160" s="17" t="s">
-        <v>1568</v>
+      <c r="D160" s="25" t="s">
+        <v>1566</v>
       </c>
       <c r="E160" t="s">
         <v>146</v>
@@ -27223,8 +27283,8 @@
       <c r="C161" t="s">
         <v>227</v>
       </c>
-      <c r="D161" s="17" t="s">
-        <v>1569</v>
+      <c r="D161" s="25" t="s">
+        <v>1567</v>
       </c>
       <c r="E161" t="s">
         <v>148</v>
@@ -27249,8 +27309,8 @@
       <c r="C162" t="s">
         <v>230</v>
       </c>
-      <c r="D162" s="17" t="s">
-        <v>1570</v>
+      <c r="D162" s="25" t="s">
+        <v>1568</v>
       </c>
       <c r="E162" t="s">
         <v>1294</v>
@@ -27275,8 +27335,8 @@
       <c r="C163" t="s">
         <v>232</v>
       </c>
-      <c r="D163" s="17" t="s">
-        <v>1571</v>
+      <c r="D163" s="25" t="s">
+        <v>1569</v>
       </c>
       <c r="E163" t="s">
         <v>195</v>
@@ -27301,8 +27361,8 @@
       <c r="C164" t="s">
         <v>233</v>
       </c>
-      <c r="D164" s="17" t="s">
-        <v>1572</v>
+      <c r="D164" s="25" t="s">
+        <v>1570</v>
       </c>
       <c r="E164" t="s">
         <v>1295</v>
@@ -27328,8 +27388,8 @@
       <c r="C165" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="D165" s="22" t="s">
-        <v>1573</v>
+      <c r="D165" s="28" t="s">
+        <v>1571</v>
       </c>
       <c r="F165" s="6" t="s">
         <v>1025</v>
@@ -27348,8 +27408,8 @@
       <c r="C166" t="s">
         <v>234</v>
       </c>
-      <c r="D166" s="17" t="s">
-        <v>1574</v>
+      <c r="D166" s="25" t="s">
+        <v>1572</v>
       </c>
       <c r="E166" t="s">
         <v>1296</v>
@@ -27374,8 +27434,8 @@
       <c r="C167" t="s">
         <v>542</v>
       </c>
-      <c r="D167" s="17" t="s">
-        <v>1576</v>
+      <c r="D167" s="25" t="s">
+        <v>1574</v>
       </c>
       <c r="E167" t="s">
         <v>1297</v>
@@ -27397,8 +27457,8 @@
       <c r="C168" t="s">
         <v>541</v>
       </c>
-      <c r="D168" s="17" t="s">
-        <v>1577</v>
+      <c r="D168" s="25" t="s">
+        <v>1575</v>
       </c>
       <c r="E168" t="s">
         <v>1298</v>
@@ -27423,8 +27483,8 @@
       <c r="C169" t="s">
         <v>538</v>
       </c>
-      <c r="D169" s="17" t="s">
-        <v>1578</v>
+      <c r="D169" s="25" t="s">
+        <v>1576</v>
       </c>
       <c r="F169" s="3" t="s">
         <v>1030</v>
@@ -27443,8 +27503,8 @@
       <c r="C170" t="s">
         <v>235</v>
       </c>
-      <c r="D170" s="17" t="s">
-        <v>1575</v>
+      <c r="D170" s="25" t="s">
+        <v>1573</v>
       </c>
       <c r="E170" t="s">
         <v>154</v>
@@ -27469,8 +27529,8 @@
       <c r="C171" t="s">
         <v>236</v>
       </c>
-      <c r="D171" s="17" t="s">
-        <v>1579</v>
+      <c r="D171" s="25" t="s">
+        <v>1577</v>
       </c>
       <c r="E171" t="s">
         <v>156</v>
@@ -27495,8 +27555,8 @@
       <c r="C172" t="s">
         <v>1179</v>
       </c>
-      <c r="D172" s="17" t="s">
-        <v>1580</v>
+      <c r="D172" s="25" t="s">
+        <v>1578</v>
       </c>
       <c r="E172" t="s">
         <v>158</v>
@@ -27521,8 +27581,8 @@
       <c r="C173" t="s">
         <v>237</v>
       </c>
-      <c r="D173" s="17" t="s">
-        <v>1581</v>
+      <c r="D173" s="25" t="s">
+        <v>1579</v>
       </c>
       <c r="E173" t="s">
         <v>1299</v>
@@ -27547,8 +27607,8 @@
       <c r="C174" t="s">
         <v>238</v>
       </c>
-      <c r="D174" s="17" t="s">
-        <v>1582</v>
+      <c r="D174" s="25" t="s">
+        <v>1580</v>
       </c>
       <c r="E174" t="s">
         <v>1300</v>
@@ -27573,8 +27633,8 @@
       <c r="C175" t="s">
         <v>239</v>
       </c>
-      <c r="D175" s="17" t="s">
-        <v>1583</v>
+      <c r="D175" s="25" t="s">
+        <v>1581</v>
       </c>
       <c r="E175" t="s">
         <v>164</v>
@@ -27599,8 +27659,8 @@
       <c r="C176" t="s">
         <v>240</v>
       </c>
-      <c r="D176" s="17" t="s">
-        <v>1492</v>
+      <c r="D176" s="25" t="s">
+        <v>1490</v>
       </c>
       <c r="E176" t="s">
         <v>166</v>
@@ -27628,7 +27688,9 @@
       <c r="C177" s="3" t="s">
         <v>896</v>
       </c>
-      <c r="D177" s="28"/>
+      <c r="D177" s="29" t="s">
+        <v>1731</v>
+      </c>
       <c r="F177" s="3" t="s">
         <v>1056</v>
       </c>
@@ -27641,7 +27703,9 @@
       <c r="C178" s="3" t="s">
         <v>897</v>
       </c>
-      <c r="D178" s="28"/>
+      <c r="D178" s="29" t="s">
+        <v>1732</v>
+      </c>
       <c r="F178" s="3" t="s">
         <v>1057</v>
       </c>
@@ -27654,7 +27718,9 @@
       <c r="C179" s="3" t="s">
         <v>898</v>
       </c>
-      <c r="D179" s="28"/>
+      <c r="D179" s="29" t="s">
+        <v>1733</v>
+      </c>
       <c r="F179" s="3" t="s">
         <v>1058</v>
       </c>
@@ -27667,8 +27733,8 @@
       <c r="C180" s="3" t="s">
         <v>899</v>
       </c>
-      <c r="D180" s="22" t="s">
-        <v>1606</v>
+      <c r="D180" s="28" t="s">
+        <v>1604</v>
       </c>
       <c r="E180" t="s">
         <v>1315</v>
@@ -27679,13 +27745,15 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="B181" s="3"/>
       <c r="C181" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="D181" s="28"/>
+      <c r="D181" t="s">
+        <v>1669</v>
+      </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
@@ -27695,8 +27763,8 @@
       <c r="C182" s="3" t="s">
         <v>903</v>
       </c>
-      <c r="D182" s="22" t="s">
-        <v>1610</v>
+      <c r="D182" s="28" t="s">
+        <v>1608</v>
       </c>
       <c r="E182" t="s">
         <v>1319</v>
@@ -27707,13 +27775,15 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="B183" s="3"/>
-      <c r="C183" s="30" t="b">
+      <c r="C183" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="D183" s="28"/>
+      <c r="D183" t="s">
+        <v>1734</v>
+      </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
@@ -27723,8 +27793,8 @@
       <c r="C184" s="3" t="s">
         <v>889</v>
       </c>
-      <c r="D184" s="22" t="s">
-        <v>1603</v>
+      <c r="D184" s="28" t="s">
+        <v>1601</v>
       </c>
       <c r="E184" t="s">
         <v>1312</v>
@@ -27741,7 +27811,9 @@
       <c r="C185" s="3" t="s">
         <v>887</v>
       </c>
-      <c r="D185" s="28"/>
+      <c r="D185" t="s">
+        <v>1735</v>
+      </c>
       <c r="E185" t="s">
         <v>1310</v>
       </c>
@@ -27757,8 +27829,8 @@
       <c r="C186" s="3" t="s">
         <v>891</v>
       </c>
-      <c r="D186" s="22" t="s">
-        <v>1605</v>
+      <c r="D186" s="28" t="s">
+        <v>1603</v>
       </c>
       <c r="E186" t="s">
         <v>1314</v>
@@ -27775,8 +27847,8 @@
       <c r="C187" s="9" t="s">
         <v>888</v>
       </c>
-      <c r="D187" s="22" t="s">
-        <v>1602</v>
+      <c r="D187" s="28" t="s">
+        <v>1600</v>
       </c>
       <c r="E187" t="s">
         <v>1311</v>
@@ -27795,7 +27867,7 @@
       <c r="C188" s="3" t="s">
         <v>904</v>
       </c>
-      <c r="D188" s="28"/>
+      <c r="D188" s="30"/>
       <c r="F188" s="3" t="s">
         <v>1050</v>
       </c>
@@ -27808,8 +27880,8 @@
       <c r="C189" s="3" t="s">
         <v>890</v>
       </c>
-      <c r="D189" s="22" t="s">
-        <v>1604</v>
+      <c r="D189" s="28" t="s">
+        <v>1602</v>
       </c>
       <c r="E189" t="s">
         <v>1313</v>
@@ -27826,8 +27898,8 @@
       <c r="C190" s="3" t="s">
         <v>900</v>
       </c>
-      <c r="D190" s="22" t="s">
-        <v>1607</v>
+      <c r="D190" s="28" t="s">
+        <v>1605</v>
       </c>
       <c r="E190" t="s">
         <v>1316</v>
@@ -27844,8 +27916,8 @@
       <c r="C191" s="3" t="s">
         <v>901</v>
       </c>
-      <c r="D191" s="22" t="s">
-        <v>1608</v>
+      <c r="D191" s="28" t="s">
+        <v>1606</v>
       </c>
       <c r="E191" t="s">
         <v>1317</v>
@@ -27862,8 +27934,8 @@
       <c r="C192" s="3" t="s">
         <v>902</v>
       </c>
-      <c r="D192" s="22" t="s">
-        <v>1609</v>
+      <c r="D192" s="28" t="s">
+        <v>1607</v>
       </c>
       <c r="E192" t="s">
         <v>1318</v>
@@ -27874,13 +27946,13 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="B193" s="3"/>
-      <c r="C193" s="31" t="b">
+      <c r="C193" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="D193" s="22"/>
+      <c r="D193" s="28"/>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
@@ -27890,8 +27962,8 @@
       <c r="C194" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="D194" s="22" t="s">
-        <v>1530</v>
+      <c r="D194" s="28" t="s">
+        <v>1528</v>
       </c>
       <c r="E194" t="s">
         <v>1276</v>
@@ -27907,8 +27979,8 @@
       <c r="C195" t="s">
         <v>241</v>
       </c>
-      <c r="D195" s="17" t="s">
-        <v>1584</v>
+      <c r="D195" s="25" t="s">
+        <v>1582</v>
       </c>
       <c r="E195" t="s">
         <v>1301</v>
@@ -27933,8 +28005,8 @@
       <c r="C196" t="s">
         <v>242</v>
       </c>
-      <c r="D196" s="17" t="s">
-        <v>1585</v>
+      <c r="D196" s="25" t="s">
+        <v>1583</v>
       </c>
       <c r="E196" t="s">
         <v>1302</v>
@@ -27959,8 +28031,8 @@
       <c r="C197" t="s">
         <v>245</v>
       </c>
-      <c r="D197" s="17" t="s">
-        <v>1539</v>
+      <c r="D197" s="25" t="s">
+        <v>1537</v>
       </c>
       <c r="E197" t="s">
         <v>244</v>
@@ -27985,8 +28057,8 @@
       <c r="C198" t="s">
         <v>248</v>
       </c>
-      <c r="D198" s="17" t="s">
-        <v>1586</v>
+      <c r="D198" s="25" t="s">
+        <v>1584</v>
       </c>
       <c r="E198" t="s">
         <v>247</v>
@@ -28011,8 +28083,8 @@
       <c r="C199" t="s">
         <v>249</v>
       </c>
-      <c r="D199" s="17" t="s">
-        <v>1587</v>
+      <c r="D199" s="25" t="s">
+        <v>1585</v>
       </c>
       <c r="E199" t="s">
         <v>172</v>
@@ -28038,8 +28110,8 @@
       <c r="C200" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="D200" s="22" t="s">
-        <v>1588</v>
+      <c r="D200" s="28" t="s">
+        <v>1586</v>
       </c>
       <c r="F200" s="6" t="s">
         <v>1041</v>
@@ -28058,8 +28130,8 @@
       <c r="C201" t="s">
         <v>250</v>
       </c>
-      <c r="D201" s="17" t="s">
-        <v>1589</v>
+      <c r="D201" s="25" t="s">
+        <v>1587</v>
       </c>
       <c r="E201" t="s">
         <v>174</v>
@@ -28087,8 +28159,8 @@
       <c r="C202" t="s">
         <v>1211</v>
       </c>
-      <c r="D202" s="23" t="s">
-        <v>1590</v>
+      <c r="D202" s="25" t="s">
+        <v>1588</v>
       </c>
       <c r="E202" t="s">
         <v>176</v>
@@ -28113,8 +28185,8 @@
       <c r="C203" t="s">
         <v>251</v>
       </c>
-      <c r="D203" s="17" t="s">
-        <v>1591</v>
+      <c r="D203" s="25" t="s">
+        <v>1589</v>
       </c>
       <c r="E203" t="s">
         <v>178</v>
@@ -28142,8 +28214,8 @@
       <c r="C204" t="s">
         <v>1212</v>
       </c>
-      <c r="D204" s="17" t="s">
-        <v>1592</v>
+      <c r="D204" s="25" t="s">
+        <v>1590</v>
       </c>
       <c r="E204" t="s">
         <v>180</v>
@@ -28171,8 +28243,8 @@
       <c r="C205" t="s">
         <v>1213</v>
       </c>
-      <c r="D205" s="17" t="s">
-        <v>1593</v>
+      <c r="D205" s="25" t="s">
+        <v>1591</v>
       </c>
       <c r="E205" t="s">
         <v>1303</v>
@@ -28200,8 +28272,8 @@
       <c r="C206" t="s">
         <v>1214</v>
       </c>
-      <c r="D206" s="17" t="s">
-        <v>1594</v>
+      <c r="D206" s="25" t="s">
+        <v>1592</v>
       </c>
       <c r="E206" t="s">
         <v>1304</v>
@@ -28226,8 +28298,8 @@
       <c r="C207" t="s">
         <v>252</v>
       </c>
-      <c r="D207" s="17" t="s">
-        <v>1595</v>
+      <c r="D207" s="25" t="s">
+        <v>1593</v>
       </c>
       <c r="E207" t="s">
         <v>1305</v>
@@ -28252,8 +28324,8 @@
       <c r="C208" t="s">
         <v>544</v>
       </c>
-      <c r="D208" s="17" t="s">
-        <v>1596</v>
+      <c r="D208" s="25" t="s">
+        <v>1594</v>
       </c>
       <c r="E208" t="s">
         <v>188</v>
@@ -28278,8 +28350,8 @@
       <c r="C209" t="s">
         <v>253</v>
       </c>
-      <c r="D209" s="17" t="s">
-        <v>1597</v>
+      <c r="D209" s="25" t="s">
+        <v>1595</v>
       </c>
       <c r="E209" t="s">
         <v>190</v>
@@ -28304,8 +28376,8 @@
       <c r="C210" t="s">
         <v>254</v>
       </c>
-      <c r="D210" s="17" t="s">
-        <v>1598</v>
+      <c r="D210" s="25" t="s">
+        <v>1596</v>
       </c>
       <c r="E210" t="s">
         <v>1306</v>
@@ -28330,8 +28402,8 @@
       <c r="C211" t="s">
         <v>193</v>
       </c>
-      <c r="D211" s="17" t="s">
-        <v>1599</v>
+      <c r="D211" s="25" t="s">
+        <v>1597</v>
       </c>
       <c r="E211" t="s">
         <v>1307</v>
@@ -28356,7 +28428,7 @@
       <c r="C212" t="s">
         <v>255</v>
       </c>
-      <c r="D212" s="17" t="s">
+      <c r="D212" s="25" t="s">
         <v>255</v>
       </c>
       <c r="E212" t="s">
@@ -28382,8 +28454,8 @@
       <c r="C213" t="s">
         <v>820</v>
       </c>
-      <c r="D213" s="17" t="s">
-        <v>1600</v>
+      <c r="D213" s="25" t="s">
+        <v>1598</v>
       </c>
       <c r="E213" t="s">
         <v>199</v>
@@ -28408,8 +28480,8 @@
       <c r="C214" t="s">
         <v>256</v>
       </c>
-      <c r="D214" s="17" t="s">
-        <v>1601</v>
+      <c r="D214" s="25" t="s">
+        <v>1599</v>
       </c>
       <c r="E214" t="s">
         <v>1309</v>
@@ -28442,8 +28514,8 @@
       <c r="C217" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D217" s="22" t="s">
-        <v>1616</v>
+      <c r="D217" s="28" t="s">
+        <v>1614</v>
       </c>
       <c r="E217" s="3" t="s">
         <v>1326</v>
@@ -28466,8 +28538,8 @@
       <c r="C218" t="s">
         <v>523</v>
       </c>
-      <c r="D218" s="17" t="s">
-        <v>1617</v>
+      <c r="D218" s="25" t="s">
+        <v>1615</v>
       </c>
       <c r="E218" t="s">
         <v>1327</v>
@@ -28481,13 +28553,15 @@
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s">
-        <v>1697</v>
-      </c>
-      <c r="D219" s="28"/>
+        <v>1695</v>
+      </c>
+      <c r="D219" t="s">
+        <v>1736</v>
+      </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
@@ -28496,8 +28570,8 @@
       <c r="C220" t="s">
         <v>245</v>
       </c>
-      <c r="D220" s="17" t="s">
-        <v>1539</v>
+      <c r="D220" s="25" t="s">
+        <v>1537</v>
       </c>
       <c r="E220" t="s">
         <v>244</v>
@@ -28525,8 +28599,8 @@
       <c r="C221" t="s">
         <v>248</v>
       </c>
-      <c r="D221" s="17" t="s">
-        <v>1586</v>
+      <c r="D221" s="25" t="s">
+        <v>1584</v>
       </c>
       <c r="E221" t="s">
         <v>247</v>
@@ -28554,8 +28628,8 @@
       <c r="C222" t="s">
         <v>522</v>
       </c>
-      <c r="D222" s="17" t="s">
-        <v>1618</v>
+      <c r="D222" s="25" t="s">
+        <v>1616</v>
       </c>
       <c r="E222" t="s">
         <v>1328</v>
@@ -28577,8 +28651,8 @@
       <c r="C223" t="s">
         <v>261</v>
       </c>
-      <c r="D223" s="17" t="s">
-        <v>1619</v>
+      <c r="D223" s="25" t="s">
+        <v>1617</v>
       </c>
       <c r="E223" t="s">
         <v>1329</v>
@@ -28606,8 +28680,8 @@
       <c r="C224" t="s">
         <v>263</v>
       </c>
-      <c r="D224" s="17" t="s">
-        <v>1620</v>
+      <c r="D224" s="25" t="s">
+        <v>1618</v>
       </c>
       <c r="E224" t="s">
         <v>1330</v>
@@ -28635,7 +28709,7 @@
       <c r="C225" t="s">
         <v>266</v>
       </c>
-      <c r="D225" s="17" t="s">
+      <c r="D225" s="25" t="s">
         <v>266</v>
       </c>
       <c r="E225" t="s">
@@ -28665,8 +28739,8 @@
       <c r="C226" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="D226" s="22" t="s">
-        <v>1635</v>
+      <c r="D226" s="28" t="s">
+        <v>1633</v>
       </c>
       <c r="E226" s="3" t="s">
         <v>1335</v>
@@ -28689,8 +28763,8 @@
       <c r="C227" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="D227" s="22" t="s">
-        <v>1621</v>
+      <c r="D227" s="28" t="s">
+        <v>1619</v>
       </c>
       <c r="E227" t="s">
         <v>1331</v>
@@ -28709,8 +28783,8 @@
       <c r="C228" t="s">
         <v>269</v>
       </c>
-      <c r="D228" s="17" t="s">
-        <v>1622</v>
+      <c r="D228" s="25" t="s">
+        <v>1620</v>
       </c>
       <c r="E228" t="s">
         <v>268</v>
@@ -28738,8 +28812,8 @@
       <c r="C229" t="s">
         <v>272</v>
       </c>
-      <c r="D229" s="17" t="s">
-        <v>1623</v>
+      <c r="D229" s="25" t="s">
+        <v>1621</v>
       </c>
       <c r="E229" t="s">
         <v>1332</v>
@@ -28767,8 +28841,8 @@
       <c r="C230" t="s">
         <v>269</v>
       </c>
-      <c r="D230" s="17" t="s">
-        <v>1622</v>
+      <c r="D230" s="25" t="s">
+        <v>1620</v>
       </c>
       <c r="E230" t="s">
         <v>268</v>
@@ -28796,8 +28870,8 @@
       <c r="C231" t="s">
         <v>276</v>
       </c>
-      <c r="D231" s="17" t="s">
-        <v>1624</v>
+      <c r="D231" s="25" t="s">
+        <v>1622</v>
       </c>
       <c r="E231" t="s">
         <v>275</v>
@@ -28825,8 +28899,8 @@
       <c r="C232" t="s">
         <v>278</v>
       </c>
-      <c r="D232" s="17" t="s">
-        <v>1625</v>
+      <c r="D232" s="25" t="s">
+        <v>1623</v>
       </c>
       <c r="E232" t="s">
         <v>1333</v>
@@ -28854,8 +28928,8 @@
       <c r="C233" t="s">
         <v>281</v>
       </c>
-      <c r="D233" s="17" t="s">
-        <v>1626</v>
+      <c r="D233" s="25" t="s">
+        <v>1624</v>
       </c>
       <c r="E233" t="s">
         <v>1334</v>
@@ -28883,8 +28957,8 @@
       <c r="C234" t="s">
         <v>284</v>
       </c>
-      <c r="D234" s="17" t="s">
-        <v>1627</v>
+      <c r="D234" s="25" t="s">
+        <v>1625</v>
       </c>
       <c r="E234" t="s">
         <v>283</v>
@@ -28912,8 +28986,8 @@
       <c r="C235" t="s">
         <v>287</v>
       </c>
-      <c r="D235" s="17" t="s">
-        <v>1628</v>
+      <c r="D235" s="25" t="s">
+        <v>1626</v>
       </c>
       <c r="E235" t="s">
         <v>286</v>
@@ -28941,8 +29015,8 @@
       <c r="C236" t="s">
         <v>290</v>
       </c>
-      <c r="D236" s="17" t="s">
-        <v>1629</v>
+      <c r="D236" s="25" t="s">
+        <v>1627</v>
       </c>
       <c r="E236" t="s">
         <v>289</v>
@@ -28970,8 +29044,8 @@
       <c r="C237" t="s">
         <v>293</v>
       </c>
-      <c r="D237" s="17" t="s">
-        <v>1630</v>
+      <c r="D237" s="25" t="s">
+        <v>1628</v>
       </c>
       <c r="E237" t="s">
         <v>292</v>
@@ -29000,8 +29074,8 @@
       <c r="C238" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="D238" s="22" t="s">
-        <v>1488</v>
+      <c r="D238" s="28" t="s">
+        <v>1486</v>
       </c>
       <c r="E238" s="3" t="s">
         <v>1249</v>
@@ -29024,8 +29098,8 @@
       <c r="C239" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="D239" s="22" t="s">
-        <v>1489</v>
+      <c r="D239" s="28" t="s">
+        <v>1487</v>
       </c>
       <c r="E239" s="3" t="s">
         <v>1250</v>
@@ -29047,8 +29121,8 @@
       <c r="C240" t="s">
         <v>294</v>
       </c>
-      <c r="D240" s="17" t="s">
-        <v>1631</v>
+      <c r="D240" s="25" t="s">
+        <v>1629</v>
       </c>
       <c r="E240" t="s">
         <v>295</v>
@@ -29076,8 +29150,8 @@
       <c r="C241" t="s">
         <v>298</v>
       </c>
-      <c r="D241" s="17" t="s">
-        <v>1632</v>
+      <c r="D241" s="25" t="s">
+        <v>1630</v>
       </c>
       <c r="E241" t="s">
         <v>297</v>
@@ -29105,8 +29179,8 @@
       <c r="C242" t="s">
         <v>278</v>
       </c>
-      <c r="D242" s="17" t="s">
-        <v>1625</v>
+      <c r="D242" s="25" t="s">
+        <v>1623</v>
       </c>
       <c r="E242" t="s">
         <v>277</v>
@@ -29134,8 +29208,8 @@
       <c r="C243" t="s">
         <v>301</v>
       </c>
-      <c r="D243" s="17" t="s">
-        <v>1633</v>
+      <c r="D243" s="25" t="s">
+        <v>1631</v>
       </c>
       <c r="E243" t="s">
         <v>300</v>
@@ -29163,8 +29237,8 @@
       <c r="C244" t="s">
         <v>304</v>
       </c>
-      <c r="D244" s="17" t="s">
-        <v>1538</v>
+      <c r="D244" s="25" t="s">
+        <v>1536</v>
       </c>
       <c r="E244" t="s">
         <v>303</v>
@@ -29192,8 +29266,8 @@
       <c r="C245" t="s">
         <v>307</v>
       </c>
-      <c r="D245" s="17" t="s">
-        <v>1634</v>
+      <c r="D245" s="25" t="s">
+        <v>1632</v>
       </c>
       <c r="E245" t="s">
         <v>306</v>
@@ -29228,8 +29302,8 @@
       <c r="C248" t="s">
         <v>334</v>
       </c>
-      <c r="D248" s="17" t="s">
-        <v>1493</v>
+      <c r="D248" s="25" t="s">
+        <v>1491</v>
       </c>
       <c r="E248" t="s">
         <v>44</v>
@@ -29257,7 +29331,9 @@
       <c r="C249" t="s">
         <v>377</v>
       </c>
-      <c r="D249" s="28"/>
+      <c r="D249" t="s">
+        <v>1737</v>
+      </c>
       <c r="E249" t="s">
         <v>1336</v>
       </c>
@@ -29291,8 +29367,8 @@
       <c r="C252" t="s">
         <v>344</v>
       </c>
-      <c r="D252" s="17" t="s">
-        <v>1531</v>
+      <c r="D252" s="25" t="s">
+        <v>1529</v>
       </c>
       <c r="E252" t="s">
         <v>1337</v>
@@ -29317,8 +29393,8 @@
       <c r="C253" t="s">
         <v>330</v>
       </c>
-      <c r="D253" s="17" t="s">
-        <v>1487</v>
+      <c r="D253" s="25" t="s">
+        <v>1485</v>
       </c>
       <c r="E253" t="s">
         <v>34</v>
@@ -29343,8 +29419,8 @@
       <c r="C254" t="s">
         <v>348</v>
       </c>
-      <c r="D254" s="17" t="s">
-        <v>1535</v>
+      <c r="D254" s="25" t="s">
+        <v>1533</v>
       </c>
       <c r="E254" t="s">
         <v>81</v>
@@ -29369,8 +29445,8 @@
       <c r="C255" t="s">
         <v>346</v>
       </c>
-      <c r="D255" s="17" t="s">
-        <v>1533</v>
+      <c r="D255" s="25" t="s">
+        <v>1531</v>
       </c>
       <c r="E255" t="s">
         <v>38</v>
@@ -29395,8 +29471,8 @@
       <c r="C256" t="s">
         <v>333</v>
       </c>
-      <c r="D256" s="17" t="s">
-        <v>1491</v>
+      <c r="D256" s="25" t="s">
+        <v>1489</v>
       </c>
       <c r="E256" t="s">
         <v>40</v>
@@ -29421,8 +29497,8 @@
       <c r="C257" t="s">
         <v>533</v>
       </c>
-      <c r="D257" s="17" t="s">
-        <v>1636</v>
+      <c r="D257" s="25" t="s">
+        <v>1634</v>
       </c>
       <c r="E257" t="s">
         <v>1338</v>
@@ -29446,7 +29522,7 @@
       </c>
       <c r="B259" s="10"/>
       <c r="C259" s="3"/>
-      <c r="D259" s="22"/>
+      <c r="D259" s="28"/>
       <c r="G259" s="3"/>
     </row>
     <row r="260" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -29457,8 +29533,8 @@
       <c r="C260" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="D260" s="22" t="s">
-        <v>1637</v>
+      <c r="D260" s="28" t="s">
+        <v>1635</v>
       </c>
       <c r="F260" s="3" t="s">
         <v>1091</v>
@@ -29471,7 +29547,7 @@
       <c r="A261" s="8"/>
       <c r="B261" s="8"/>
       <c r="C261" s="8"/>
-      <c r="D261" s="24"/>
+      <c r="D261" s="31"/>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="10" t="s">
@@ -29479,7 +29555,7 @@
       </c>
       <c r="B262" s="10"/>
       <c r="C262" s="3"/>
-      <c r="D262" s="22"/>
+      <c r="D262" s="28"/>
       <c r="G262" s="3"/>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
@@ -29490,8 +29566,8 @@
       <c r="C263" s="3" t="s">
         <v>872</v>
       </c>
-      <c r="D263" s="22" t="s">
-        <v>1638</v>
+      <c r="D263" s="28" t="s">
+        <v>1636</v>
       </c>
       <c r="E263" t="s">
         <v>1339</v>
@@ -29511,8 +29587,8 @@
       <c r="C264" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="D264" s="22" t="s">
-        <v>1493</v>
+      <c r="D264" s="28" t="s">
+        <v>1491</v>
       </c>
       <c r="E264" t="s">
         <v>1350</v>
@@ -29532,8 +29608,8 @@
       <c r="C265" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="D265" s="22" t="s">
-        <v>1640</v>
+      <c r="D265" s="28" t="s">
+        <v>1638</v>
       </c>
       <c r="E265" t="s">
         <v>1341</v>
@@ -29553,8 +29629,8 @@
       <c r="C266" s="3" t="s">
         <v>933</v>
       </c>
-      <c r="D266" s="22" t="s">
-        <v>1641</v>
+      <c r="D266" s="28" t="s">
+        <v>1639</v>
       </c>
       <c r="E266" t="s">
         <v>1342</v>
@@ -29571,8 +29647,8 @@
       <c r="C267" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="D267" s="22" t="s">
-        <v>1557</v>
+      <c r="D267" s="28" t="s">
+        <v>1555</v>
       </c>
       <c r="E267" t="s">
         <v>1287</v>
@@ -29592,8 +29668,8 @@
       <c r="C268" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="D268" s="22" t="s">
-        <v>1557</v>
+      <c r="D268" s="28" t="s">
+        <v>1555</v>
       </c>
       <c r="E268" t="s">
         <v>1287</v>
@@ -29613,8 +29689,8 @@
       <c r="C269" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="D269" s="22" t="s">
-        <v>1639</v>
+      <c r="D269" s="28" t="s">
+        <v>1637</v>
       </c>
       <c r="E269" t="s">
         <v>1340</v>
@@ -29636,8 +29712,8 @@
       <c r="C270" s="3" t="s">
         <v>1217</v>
       </c>
-      <c r="D270" s="22" t="s">
-        <v>1648</v>
+      <c r="D270" s="28" t="s">
+        <v>1646</v>
       </c>
       <c r="E270" s="3" t="s">
         <v>1349</v>
@@ -29654,8 +29730,8 @@
       <c r="C271" s="3" t="s">
         <v>1235</v>
       </c>
-      <c r="D271" s="22" t="s">
-        <v>1646</v>
+      <c r="D271" s="28" t="s">
+        <v>1644</v>
       </c>
       <c r="E271" t="s">
         <v>1347</v>
@@ -29672,8 +29748,8 @@
       <c r="C272" s="3" t="s">
         <v>940</v>
       </c>
-      <c r="D272" s="22" t="s">
-        <v>1646</v>
+      <c r="D272" s="28" t="s">
+        <v>1644</v>
       </c>
       <c r="E272" t="s">
         <v>1347</v>
@@ -29690,8 +29766,8 @@
       <c r="C273" s="3" t="s">
         <v>934</v>
       </c>
-      <c r="D273" s="22" t="s">
-        <v>1642</v>
+      <c r="D273" s="28" t="s">
+        <v>1640</v>
       </c>
       <c r="E273" t="s">
         <v>1343</v>
@@ -29708,8 +29784,8 @@
       <c r="C274" s="3" t="s">
         <v>935</v>
       </c>
-      <c r="D274" s="22" t="s">
-        <v>1643</v>
+      <c r="D274" s="28" t="s">
+        <v>1641</v>
       </c>
       <c r="E274" t="s">
         <v>1344</v>
@@ -29726,8 +29802,8 @@
       <c r="C275" s="3" t="s">
         <v>937</v>
       </c>
-      <c r="D275" s="22" t="s">
-        <v>1644</v>
+      <c r="D275" s="28" t="s">
+        <v>1642</v>
       </c>
       <c r="E275" t="s">
         <v>1345</v>
@@ -29744,8 +29820,8 @@
       <c r="C276" s="3" t="s">
         <v>939</v>
       </c>
-      <c r="D276" s="22" t="s">
-        <v>1645</v>
+      <c r="D276" s="28" t="s">
+        <v>1643</v>
       </c>
       <c r="E276" t="s">
         <v>1346</v>
@@ -29762,8 +29838,8 @@
       <c r="C277" s="3" t="s">
         <v>942</v>
       </c>
-      <c r="D277" s="22" t="s">
-        <v>1647</v>
+      <c r="D277" s="28" t="s">
+        <v>1645</v>
       </c>
       <c r="E277" t="s">
         <v>1348</v>
@@ -29776,7 +29852,7 @@
       <c r="A278" s="8"/>
       <c r="B278" s="8"/>
       <c r="C278" s="8"/>
-      <c r="D278" s="24"/>
+      <c r="D278" s="31"/>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="10" t="s">
@@ -29784,7 +29860,7 @@
       </c>
       <c r="B279" s="10"/>
       <c r="C279" s="3"/>
-      <c r="D279" s="22"/>
+      <c r="D279" s="28"/>
       <c r="G279" s="3"/>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
@@ -29795,8 +29871,8 @@
       <c r="C280" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="D280" s="22" t="s">
-        <v>1649</v>
+      <c r="D280" s="28" t="s">
+        <v>1647</v>
       </c>
       <c r="E280" t="s">
         <v>1351</v>
@@ -29816,8 +29892,8 @@
       <c r="C281" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="D281" s="21" t="s">
-        <v>1477</v>
+      <c r="D281" s="26" t="s">
+        <v>1476</v>
       </c>
       <c r="E281" t="s">
         <v>15</v>
@@ -29832,8 +29908,8 @@
       <c r="C282" s="9" t="s">
         <v>773</v>
       </c>
-      <c r="D282" s="21" t="s">
-        <v>1651</v>
+      <c r="D282" s="26" t="s">
+        <v>1649</v>
       </c>
       <c r="E282" t="s">
         <v>1362</v>
@@ -29848,8 +29924,8 @@
       <c r="C283" s="9" t="s">
         <v>772</v>
       </c>
-      <c r="D283" s="21" t="s">
-        <v>1652</v>
+      <c r="D283" s="26" t="s">
+        <v>1650</v>
       </c>
       <c r="E283" t="s">
         <v>1361</v>
@@ -29864,8 +29940,8 @@
       <c r="C284" s="9" t="s">
         <v>878</v>
       </c>
-      <c r="D284" s="21" t="s">
-        <v>1650</v>
+      <c r="D284" s="26" t="s">
+        <v>1648</v>
       </c>
       <c r="E284" t="s">
         <v>1352</v>
@@ -29885,7 +29961,7 @@
       <c r="C285" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="D285" s="21" t="s">
+      <c r="D285" s="26" t="s">
         <v>1464</v>
       </c>
       <c r="E285" t="s">
@@ -29901,8 +29977,8 @@
       <c r="C286" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="D286" s="22" t="s">
-        <v>1639</v>
+      <c r="D286" s="28" t="s">
+        <v>1637</v>
       </c>
       <c r="E286" t="s">
         <v>1365</v>
@@ -29922,8 +29998,8 @@
       <c r="C287" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="D287" s="22" t="s">
-        <v>1526</v>
+      <c r="D287" s="28" t="s">
+        <v>1524</v>
       </c>
       <c r="E287" t="s">
         <v>1265</v>
@@ -29943,8 +30019,8 @@
       <c r="C288" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="D288" s="22" t="s">
-        <v>1660</v>
+      <c r="D288" s="28" t="s">
+        <v>1658</v>
       </c>
       <c r="E288" t="s">
         <v>1360</v>
@@ -29964,8 +30040,8 @@
       <c r="C289" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="D289" s="22" t="s">
-        <v>1526</v>
+      <c r="D289" s="28" t="s">
+        <v>1524</v>
       </c>
       <c r="E289" t="s">
         <v>1265</v>
@@ -29985,8 +30061,8 @@
       <c r="C290" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="D290" s="22" t="s">
-        <v>1655</v>
+      <c r="D290" s="28" t="s">
+        <v>1653</v>
       </c>
       <c r="E290" t="s">
         <v>1355</v>
@@ -30006,8 +30082,8 @@
       <c r="C291" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="D291" s="22" t="s">
-        <v>1533</v>
+      <c r="D291" s="28" t="s">
+        <v>1531</v>
       </c>
       <c r="E291" t="s">
         <v>38</v>
@@ -30022,8 +30098,8 @@
       <c r="C292" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="D292" s="22" t="s">
-        <v>1654</v>
+      <c r="D292" s="28" t="s">
+        <v>1652</v>
       </c>
       <c r="E292" t="s">
         <v>1354</v>
@@ -30043,8 +30119,8 @@
       <c r="C293" s="3" t="s">
         <v>1405</v>
       </c>
-      <c r="D293" s="22" t="s">
-        <v>1656</v>
+      <c r="D293" s="28" t="s">
+        <v>1654</v>
       </c>
       <c r="E293" t="s">
         <v>1356</v>
@@ -30064,8 +30140,8 @@
       <c r="C294" s="3" t="s">
         <v>1406</v>
       </c>
-      <c r="D294" s="22" t="s">
-        <v>1657</v>
+      <c r="D294" s="28" t="s">
+        <v>1655</v>
       </c>
       <c r="E294" t="s">
         <v>1357</v>
@@ -30085,8 +30161,8 @@
       <c r="C295" s="3" t="s">
         <v>770</v>
       </c>
-      <c r="D295" s="22" t="s">
-        <v>1659</v>
+      <c r="D295" s="28" t="s">
+        <v>1657</v>
       </c>
       <c r="E295" t="s">
         <v>1359</v>
@@ -30106,8 +30182,8 @@
       <c r="C296" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="D296" s="22" t="s">
-        <v>1662</v>
+      <c r="D296" s="28" t="s">
+        <v>1660</v>
       </c>
       <c r="E296" t="s">
         <v>1364</v>
@@ -30121,13 +30197,15 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="B297" s="3"/>
       <c r="C297" s="3" t="s">
-        <v>1699</v>
-      </c>
-      <c r="D297" s="28"/>
+        <v>1697</v>
+      </c>
+      <c r="D297" t="s">
+        <v>1738</v>
+      </c>
       <c r="G297" s="3"/>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
@@ -30138,8 +30216,8 @@
       <c r="C298" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="D298" s="22" t="s">
-        <v>1533</v>
+      <c r="D298" s="28" t="s">
+        <v>1739</v>
       </c>
       <c r="E298" t="s">
         <v>38</v>
@@ -30159,8 +30237,8 @@
       <c r="C299" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D299" s="22" t="s">
-        <v>1663</v>
+      <c r="D299" s="28" t="s">
+        <v>1661</v>
       </c>
       <c r="G299" s="3"/>
     </row>
@@ -30172,8 +30250,8 @@
       <c r="C300" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="D300" s="22" t="s">
-        <v>1653</v>
+      <c r="D300" s="28" t="s">
+        <v>1651</v>
       </c>
       <c r="E300" t="s">
         <v>1353</v>
@@ -30193,8 +30271,8 @@
       <c r="C301" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="D301" s="22" t="s">
-        <v>1658</v>
+      <c r="D301" s="28" t="s">
+        <v>1656</v>
       </c>
       <c r="E301" t="s">
         <v>1358</v>
@@ -30214,8 +30292,8 @@
       <c r="C302" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="D302" s="22" t="s">
-        <v>1661</v>
+      <c r="D302" s="28" t="s">
+        <v>1659</v>
       </c>
       <c r="E302" t="s">
         <v>1363</v>
@@ -30235,8 +30313,8 @@
       <c r="C303" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D303" s="22" t="s">
-        <v>1477</v>
+      <c r="D303" s="28" t="s">
+        <v>1476</v>
       </c>
       <c r="E303" t="s">
         <v>15</v>
@@ -30256,8 +30334,8 @@
       <c r="C304" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="D304" s="22" t="s">
-        <v>1651</v>
+      <c r="D304" s="28" t="s">
+        <v>1649</v>
       </c>
       <c r="E304" t="s">
         <v>1362</v>
@@ -30277,8 +30355,8 @@
       <c r="C305" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="D305" s="22" t="s">
-        <v>1652</v>
+      <c r="D305" s="28" t="s">
+        <v>1650</v>
       </c>
       <c r="E305" t="s">
         <v>1361</v>
@@ -30294,7 +30372,7 @@
       <c r="A306" s="8"/>
       <c r="B306" s="8"/>
       <c r="C306" s="8"/>
-      <c r="D306" s="24"/>
+      <c r="D306" s="31"/>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="10" t="s">
@@ -30302,7 +30380,7 @@
       </c>
       <c r="B307" s="10"/>
       <c r="C307" s="3"/>
-      <c r="D307" s="22"/>
+      <c r="D307" s="28"/>
       <c r="G307" s="3"/>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
@@ -30313,8 +30391,8 @@
       <c r="C308" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="D308" s="22" t="s">
-        <v>1664</v>
+      <c r="D308" s="28" t="s">
+        <v>1662</v>
       </c>
       <c r="E308" t="s">
         <v>1366</v>
@@ -30334,8 +30412,8 @@
       <c r="C309" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D309" s="22" t="s">
-        <v>1477</v>
+      <c r="D309" s="28" t="s">
+        <v>1476</v>
       </c>
       <c r="E309" t="s">
         <v>15</v>
@@ -30355,8 +30433,8 @@
       <c r="C310" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="D310" s="22" t="s">
-        <v>1606</v>
+      <c r="D310" s="28" t="s">
+        <v>1604</v>
       </c>
       <c r="E310" t="s">
         <v>1257</v>
@@ -30376,8 +30454,8 @@
       <c r="C311" s="3" t="s">
         <v>786</v>
       </c>
-      <c r="D311" s="22" t="s">
-        <v>1671</v>
+      <c r="D311" s="28" t="s">
+        <v>1669</v>
       </c>
       <c r="E311" t="s">
         <v>1372</v>
@@ -30397,8 +30475,8 @@
       <c r="C312" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="D312" s="22" t="s">
-        <v>1670</v>
+      <c r="D312" s="28" t="s">
+        <v>1668</v>
       </c>
       <c r="E312" t="s">
         <v>1371</v>
@@ -30418,8 +30496,8 @@
       <c r="C313" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="D313" s="22" t="s">
-        <v>1667</v>
+      <c r="D313" s="28" t="s">
+        <v>1665</v>
       </c>
       <c r="E313" t="s">
         <v>1368</v>
@@ -30439,8 +30517,8 @@
       <c r="C314" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="D314" s="22" t="s">
-        <v>1533</v>
+      <c r="D314" s="28" t="s">
+        <v>1531</v>
       </c>
       <c r="E314" t="s">
         <v>38</v>
@@ -30460,8 +30538,8 @@
       <c r="C315" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D315" s="22" t="s">
-        <v>1672</v>
+      <c r="D315" s="28" t="s">
+        <v>1670</v>
       </c>
       <c r="E315" t="s">
         <v>166</v>
@@ -30481,8 +30559,8 @@
       <c r="C316" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="D316" s="22" t="s">
-        <v>1666</v>
+      <c r="D316" s="28" t="s">
+        <v>1664</v>
       </c>
       <c r="E316" t="s">
         <v>1367</v>
@@ -30502,8 +30580,8 @@
       <c r="C317" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="D317" s="22" t="s">
-        <v>1668</v>
+      <c r="D317" s="28" t="s">
+        <v>1666</v>
       </c>
       <c r="E317" t="s">
         <v>1369</v>
@@ -30523,8 +30601,8 @@
       <c r="C318" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="D318" s="22" t="s">
-        <v>1669</v>
+      <c r="D318" s="28" t="s">
+        <v>1667</v>
       </c>
       <c r="E318" t="s">
         <v>1370</v>
@@ -30544,8 +30622,8 @@
       <c r="C319" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="D319" s="22" t="s">
-        <v>1508</v>
+      <c r="D319" s="28" t="s">
+        <v>1506</v>
       </c>
       <c r="E319" t="s">
         <v>1258</v>
@@ -30565,8 +30643,8 @@
       <c r="C320" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="D320" s="22" t="s">
-        <v>1665</v>
+      <c r="D320" s="28" t="s">
+        <v>1663</v>
       </c>
       <c r="E320" t="s">
         <v>1284</v>
@@ -30585,8 +30663,8 @@
       <c r="C321" s="3" t="s">
         <v>895</v>
       </c>
-      <c r="D321" s="22" t="s">
-        <v>1673</v>
+      <c r="D321" s="28" t="s">
+        <v>1671</v>
       </c>
       <c r="E321" t="s">
         <v>1373</v>
@@ -30605,8 +30683,8 @@
       <c r="C322" t="s">
         <v>149</v>
       </c>
-      <c r="D322" s="17" t="s">
-        <v>1477</v>
+      <c r="D322" s="25" t="s">
+        <v>1476</v>
       </c>
       <c r="E322" t="s">
         <v>15</v>
@@ -30625,8 +30703,8 @@
       <c r="C323" t="s">
         <v>785</v>
       </c>
-      <c r="D323" s="17" t="s">
-        <v>1606</v>
+      <c r="D323" s="25" t="s">
+        <v>1604</v>
       </c>
       <c r="E323" t="s">
         <v>1257</v>
@@ -30645,8 +30723,8 @@
       <c r="C324" t="s">
         <v>786</v>
       </c>
-      <c r="D324" s="17" t="s">
-        <v>1671</v>
+      <c r="D324" s="25" t="s">
+        <v>1669</v>
       </c>
       <c r="E324" t="s">
         <v>1372</v>
@@ -30665,8 +30743,8 @@
       <c r="C325" t="s">
         <v>173</v>
       </c>
-      <c r="D325" s="17" t="s">
-        <v>1498</v>
+      <c r="D325" s="25" t="s">
+        <v>1496</v>
       </c>
       <c r="E325" t="s">
         <v>48</v>
@@ -30685,8 +30763,8 @@
       <c r="C326" t="s">
         <v>783</v>
       </c>
-      <c r="D326" s="17" t="s">
-        <v>1669</v>
+      <c r="D326" s="25" t="s">
+        <v>1667</v>
       </c>
       <c r="E326" t="s">
         <v>1370</v>
@@ -30703,8 +30781,8 @@
       <c r="C327" s="9" t="s">
         <v>880</v>
       </c>
-      <c r="D327" s="21" t="s">
-        <v>1674</v>
+      <c r="D327" s="26" t="s">
+        <v>1672</v>
       </c>
       <c r="E327" t="s">
         <v>1374</v>
@@ -30723,8 +30801,8 @@
       <c r="C328" t="s">
         <v>761</v>
       </c>
-      <c r="D328" s="17" t="s">
-        <v>1661</v>
+      <c r="D328" s="25" t="s">
+        <v>1659</v>
       </c>
       <c r="E328" t="s">
         <v>1365</v>
@@ -30738,8 +30816,8 @@
       <c r="C329" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="D329" s="22" t="s">
-        <v>1658</v>
+      <c r="D329" s="28" t="s">
+        <v>1656</v>
       </c>
       <c r="E329" t="s">
         <v>1358</v>
@@ -30755,7 +30833,7 @@
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
-      <c r="D330" s="22"/>
+      <c r="D330" s="28"/>
       <c r="G330" s="3"/>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
@@ -30764,7 +30842,7 @@
       </c>
       <c r="B331" s="10"/>
       <c r="C331" s="3"/>
-      <c r="D331" s="22"/>
+      <c r="D331" s="28"/>
       <c r="G331" s="3"/>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
@@ -30775,8 +30853,8 @@
       <c r="C332" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="D332" s="22" t="s">
-        <v>1675</v>
+      <c r="D332" s="28" t="s">
+        <v>1673</v>
       </c>
       <c r="E332" t="s">
         <v>1375</v>
@@ -30796,8 +30874,8 @@
       <c r="C333" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D333" s="20" t="s">
-        <v>1477</v>
+      <c r="D333" s="32" t="s">
+        <v>1476</v>
       </c>
       <c r="E333" t="s">
         <v>15</v>
@@ -30811,8 +30889,8 @@
       <c r="C334" s="9" t="s">
         <v>1424</v>
       </c>
-      <c r="D334" s="21" t="s">
-        <v>1652</v>
+      <c r="D334" s="26" t="s">
+        <v>1650</v>
       </c>
       <c r="E334" s="14" t="s">
         <v>1432</v>
@@ -30826,7 +30904,7 @@
       <c r="C335" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="D335" s="21" t="s">
+      <c r="D335" s="26" t="s">
         <v>1464</v>
       </c>
       <c r="E335" t="s">
@@ -30847,8 +30925,8 @@
       <c r="C336" s="9" t="s">
         <v>791</v>
       </c>
-      <c r="D336" s="21" t="s">
-        <v>1676</v>
+      <c r="D336" s="26" t="s">
+        <v>1674</v>
       </c>
       <c r="E336" t="s">
         <v>1376</v>
@@ -30868,8 +30946,8 @@
       <c r="C337" s="9" t="s">
         <v>793</v>
       </c>
-      <c r="D337" s="21" t="s">
-        <v>1677</v>
+      <c r="D337" s="26" t="s">
+        <v>1675</v>
       </c>
       <c r="E337" t="s">
         <v>1377</v>
@@ -30889,8 +30967,8 @@
       <c r="C338" s="9" t="s">
         <v>795</v>
       </c>
-      <c r="D338" s="21" t="s">
-        <v>1678</v>
+      <c r="D338" s="26" t="s">
+        <v>1676</v>
       </c>
       <c r="E338" t="s">
         <v>1378</v>
@@ -30910,8 +30988,8 @@
       <c r="C339" s="9" t="s">
         <v>797</v>
       </c>
-      <c r="D339" s="21" t="s">
-        <v>1679</v>
+      <c r="D339" s="26" t="s">
+        <v>1677</v>
       </c>
       <c r="E339" t="s">
         <v>1379</v>
@@ -30931,8 +31009,8 @@
       <c r="C340" s="9" t="s">
         <v>799</v>
       </c>
-      <c r="D340" s="21" t="s">
-        <v>1680</v>
+      <c r="D340" s="26" t="s">
+        <v>1678</v>
       </c>
       <c r="E340" t="s">
         <v>1380</v>
@@ -30952,8 +31030,8 @@
       <c r="C341" s="9" t="s">
         <v>801</v>
       </c>
-      <c r="D341" s="21" t="s">
-        <v>1681</v>
+      <c r="D341" s="26" t="s">
+        <v>1679</v>
       </c>
       <c r="E341" t="s">
         <v>1381</v>
@@ -30973,8 +31051,8 @@
       <c r="C342" s="9" t="s">
         <v>803</v>
       </c>
-      <c r="D342" s="21" t="s">
-        <v>1682</v>
+      <c r="D342" s="26" t="s">
+        <v>1680</v>
       </c>
       <c r="E342" t="s">
         <v>1382</v>
@@ -30994,8 +31072,8 @@
       <c r="C343" s="9" t="s">
         <v>805</v>
       </c>
-      <c r="D343" s="21" t="s">
-        <v>1671</v>
+      <c r="D343" s="26" t="s">
+        <v>1669</v>
       </c>
       <c r="E343" t="s">
         <v>1383</v>
@@ -31014,8 +31092,8 @@
       <c r="C344" s="9" t="s">
         <v>776</v>
       </c>
-      <c r="D344" s="21" t="s">
-        <v>1661</v>
+      <c r="D344" s="26" t="s">
+        <v>1659</v>
       </c>
       <c r="E344" s="14" t="s">
         <v>1365</v>
@@ -31028,8 +31106,8 @@
       <c r="C345" s="9" t="s">
         <v>556</v>
       </c>
-      <c r="D345" s="21" t="s">
-        <v>1526</v>
+      <c r="D345" s="26" t="s">
+        <v>1524</v>
       </c>
       <c r="E345" s="14" t="s">
         <v>1265</v>
@@ -31042,8 +31120,8 @@
       <c r="C346" s="9" t="s">
         <v>771</v>
       </c>
-      <c r="D346" s="21" t="s">
-        <v>1658</v>
+      <c r="D346" s="26" t="s">
+        <v>1656</v>
       </c>
       <c r="E346" s="14" t="s">
         <v>1360</v>
@@ -31056,8 +31134,8 @@
       <c r="C347" t="s">
         <v>556</v>
       </c>
-      <c r="D347" s="17" t="s">
-        <v>1526</v>
+      <c r="D347" s="25" t="s">
+        <v>1524</v>
       </c>
       <c r="E347" s="14" t="s">
         <v>1265</v>
@@ -31071,8 +31149,8 @@
       <c r="C348" s="9" t="s">
         <v>807</v>
       </c>
-      <c r="D348" s="21" t="s">
-        <v>1683</v>
+      <c r="D348" s="26" t="s">
+        <v>1681</v>
       </c>
       <c r="E348" t="s">
         <v>1384</v>
@@ -31092,8 +31170,8 @@
       <c r="C349" s="9" t="s">
         <v>809</v>
       </c>
-      <c r="D349" s="21" t="s">
-        <v>1684</v>
+      <c r="D349" s="26" t="s">
+        <v>1682</v>
       </c>
       <c r="E349" t="s">
         <v>1350</v>
@@ -31113,8 +31191,8 @@
       <c r="C350" s="9" t="s">
         <v>810</v>
       </c>
-      <c r="D350" s="21" t="s">
-        <v>1685</v>
+      <c r="D350" s="26" t="s">
+        <v>1683</v>
       </c>
       <c r="E350" t="s">
         <v>1385</v>
@@ -31131,13 +31209,13 @@
         <v>78</v>
       </c>
       <c r="B351" s="9" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="C351" s="9" t="s">
         <v>1427</v>
       </c>
-      <c r="D351" s="21" t="s">
-        <v>1686</v>
+      <c r="D351" s="26" t="s">
+        <v>1684</v>
       </c>
       <c r="E351" t="s">
         <v>1429</v>
@@ -31157,8 +31235,8 @@
       <c r="C352" s="9" t="s">
         <v>1425</v>
       </c>
-      <c r="D352" s="21" t="s">
-        <v>1687</v>
+      <c r="D352" s="26" t="s">
+        <v>1685</v>
       </c>
       <c r="E352" t="s">
         <v>1430</v>
@@ -31173,8 +31251,8 @@
       <c r="C353" s="9" t="s">
         <v>1426</v>
       </c>
-      <c r="D353" s="21" t="s">
-        <v>1688</v>
+      <c r="D353" s="26" t="s">
+        <v>1686</v>
       </c>
       <c r="E353" t="s">
         <v>1431</v>
@@ -31191,8 +31269,8 @@
       <c r="C354" s="9" t="s">
         <v>1427</v>
       </c>
-      <c r="D354" s="21" t="s">
-        <v>1689</v>
+      <c r="D354" s="26" t="s">
+        <v>1687</v>
       </c>
       <c r="E354" t="s">
         <v>1429</v>
@@ -31212,8 +31290,8 @@
       <c r="C355" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="D355" s="21" t="s">
-        <v>1663</v>
+      <c r="D355" s="26" t="s">
+        <v>1661</v>
       </c>
       <c r="E355" t="s">
         <v>1237</v>
@@ -31233,8 +31311,8 @@
       <c r="C356" s="9" t="s">
         <v>813</v>
       </c>
-      <c r="D356" s="21" t="s">
-        <v>1690</v>
+      <c r="D356" s="26" t="s">
+        <v>1688</v>
       </c>
       <c r="E356" t="s">
         <v>1386</v>
@@ -31254,8 +31332,8 @@
       <c r="C357" s="9" t="s">
         <v>815</v>
       </c>
-      <c r="D357" s="21" t="s">
-        <v>1691</v>
+      <c r="D357" s="26" t="s">
+        <v>1689</v>
       </c>
       <c r="E357" t="s">
         <v>1387</v>
@@ -31275,8 +31353,8 @@
       <c r="C358" s="9" t="s">
         <v>817</v>
       </c>
-      <c r="D358" s="21" t="s">
-        <v>1692</v>
+      <c r="D358" s="26" t="s">
+        <v>1690</v>
       </c>
       <c r="E358" t="s">
         <v>1388</v>
@@ -31296,8 +31374,8 @@
       <c r="C359" s="9" t="s">
         <v>819</v>
       </c>
-      <c r="D359" s="21" t="s">
-        <v>1693</v>
+      <c r="D359" s="26" t="s">
+        <v>1691</v>
       </c>
       <c r="E359" t="s">
         <v>1389</v>
@@ -31311,11 +31389,11 @@
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C360" s="9"/>
-      <c r="D360" s="21"/>
+      <c r="D360" s="26"/>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A361" s="32" t="s">
-        <v>1729</v>
+      <c r="A361" s="22" t="s">
+        <v>1727</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
@@ -31323,70 +31401,81 @@
         <v>0</v>
       </c>
       <c r="C362" t="s">
-        <v>1703</v>
-      </c>
-      <c r="D362" s="28"/>
+        <v>1701</v>
+      </c>
+      <c r="D362" t="s">
+        <v>1740</v>
+      </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="C363" t="s">
         <v>1460</v>
       </c>
-      <c r="D363" s="28"/>
+      <c r="D363" t="s">
+        <v>1539</v>
+      </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="C364" t="s">
         <v>310</v>
       </c>
-      <c r="D364" s="28"/>
+      <c r="D364" t="s">
+        <v>1661</v>
+      </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="C365" t="s">
-        <v>1708</v>
-      </c>
-      <c r="D365" s="28"/>
+        <v>1706</v>
+      </c>
+      <c r="D365" t="s">
+        <v>1741</v>
+      </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="C366" t="s">
         <v>330</v>
       </c>
-      <c r="D366" s="28"/>
+      <c r="D366" t="s">
+        <v>1485</v>
+      </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="C367" t="s">
-        <v>1707</v>
-      </c>
-      <c r="D367" s="28"/>
+        <v>1705</v>
+      </c>
+      <c r="D367" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="C368" t="s">
-        <v>1706</v>
-      </c>
-      <c r="D368" s="28"/>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D369" s="28"/>
+        <v>1704</v>
+      </c>
+      <c r="D368" t="s">
+        <v>1743</v>
+      </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -31394,84 +31483,102 @@
         <v>0</v>
       </c>
       <c r="B371" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="C371" t="s">
-        <v>1713</v>
-      </c>
-      <c r="D371" s="28"/>
+        <v>1711</v>
+      </c>
+      <c r="D371" t="s">
+        <v>1744</v>
+      </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="C372" t="s">
-        <v>1715</v>
-      </c>
-      <c r="D372" s="28"/>
+        <v>1713</v>
+      </c>
+      <c r="D372" t="s">
+        <v>1745</v>
+      </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="C373" t="s">
-        <v>1717</v>
-      </c>
-      <c r="D373" s="28"/>
+        <v>1715</v>
+      </c>
+      <c r="D373" t="s">
+        <v>1715</v>
+      </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="C374" t="s">
         <v>346</v>
       </c>
-      <c r="D374" s="28"/>
+      <c r="D374" t="s">
+        <v>1531</v>
+      </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="C375" t="s">
-        <v>1720</v>
-      </c>
-      <c r="D375" s="28"/>
+        <v>1718</v>
+      </c>
+      <c r="D375" t="s">
+        <v>1746</v>
+      </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>102</v>
       </c>
       <c r="C376" t="s">
-        <v>1721</v>
-      </c>
-      <c r="D376" s="28"/>
+        <v>1719</v>
+      </c>
+      <c r="D376" t="s">
+        <v>1747</v>
+      </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>76</v>
       </c>
       <c r="C377" t="s">
-        <v>1722</v>
-      </c>
-      <c r="D377" s="28"/>
+        <v>1720</v>
+      </c>
+      <c r="D377" t="s">
+        <v>1748</v>
+      </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="C378" t="s">
-        <v>1724</v>
-      </c>
-      <c r="D378" s="28"/>
+        <v>1722</v>
+      </c>
+      <c r="D378" t="s">
+        <v>1749</v>
+      </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="C379" t="s">
-        <v>1726</v>
-      </c>
-      <c r="D379" s="28"/>
+        <v>1724</v>
+      </c>
+      <c r="D379" t="s">
+        <v>1750</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A146:XFD214">

--- a/Documentation/translation.xlsx
+++ b/Documentation/translation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\WakeOnLan\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WakeOnLan\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2152" uniqueCount="1714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="1722">
   <si>
     <t>$this.Text</t>
   </si>
@@ -5164,6 +5164,30 @@
   </si>
   <si>
     <t>трансляция IP</t>
+  </si>
+  <si>
+    <t>actions_sleep</t>
+  </si>
+  <si>
+    <t>Sleep computer</t>
+  </si>
+  <si>
+    <t>actions_sleepAll</t>
+  </si>
+  <si>
+    <t>Sleep All Computers</t>
+  </si>
+  <si>
+    <t>actions_hibernate</t>
+  </si>
+  <si>
+    <t>Hibernate computer</t>
+  </si>
+  <si>
+    <t>actions_hibernateAll</t>
+  </si>
+  <si>
+    <t>Hibernate All Computers</t>
   </si>
 </sst>
 </file>
@@ -5696,11 +5720,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFC384"/>
+  <dimension ref="A1:XFC388"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A158" sqref="A158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26763,4304 +26787,4344 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>878</v>
+        <v>1718</v>
       </c>
       <c r="B157" s="3"/>
       <c r="C157" s="3" t="s">
-        <v>872</v>
-      </c>
-      <c r="D157" s="28" t="s">
-        <v>1559</v>
-      </c>
-      <c r="E157" t="s">
-        <v>1271</v>
-      </c>
-      <c r="F157" s="3" t="s">
-        <v>1015</v>
-      </c>
+        <v>1719</v>
+      </c>
+      <c r="D157" s="28"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>876</v>
+        <v>1720</v>
       </c>
       <c r="B158" s="3"/>
       <c r="C158" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="D158" s="28" t="s">
-        <v>1557</v>
-      </c>
-      <c r="E158" t="s">
-        <v>1269</v>
-      </c>
-      <c r="F158" s="3" t="s">
-        <v>1013</v>
-      </c>
+        <v>1721</v>
+      </c>
+      <c r="D158" s="28"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B159" s="3"/>
       <c r="C159" s="3" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D159" s="28" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="E159" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="B160" s="3"/>
       <c r="C160" s="3" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="D160" s="28" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="E160" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="B161" s="3"/>
       <c r="C161" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="D161" s="28" t="s">
+        <v>1558</v>
+      </c>
+      <c r="E161" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="B162" s="3"/>
+      <c r="C162" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="D162" s="28" t="s">
+        <v>1556</v>
+      </c>
+      <c r="E162" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="B163" s="3"/>
+      <c r="C163" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="D161" s="28" t="s">
+      <c r="D163" s="28" t="s">
         <v>1419</v>
       </c>
-      <c r="E161" t="s">
+      <c r="E163" t="s">
         <v>1268</v>
       </c>
-      <c r="F161" s="3" t="s">
+      <c r="F163" s="3" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>112</v>
-      </c>
-      <c r="C162" t="s">
-        <v>181</v>
-      </c>
-      <c r="D162" s="25" t="s">
-        <v>1510</v>
-      </c>
-      <c r="E162" t="s">
-        <v>113</v>
-      </c>
-      <c r="F162" s="3" t="s">
-        <v>966</v>
-      </c>
-      <c r="G162" t="s">
-        <v>640</v>
-      </c>
-      <c r="H162" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>114</v>
-      </c>
-      <c r="C163" t="s">
-        <v>182</v>
-      </c>
-      <c r="D163" s="25" t="s">
-        <v>1511</v>
-      </c>
-      <c r="E163" t="s">
-        <v>115</v>
-      </c>
-      <c r="F163" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="G163" t="s">
-        <v>641</v>
-      </c>
-      <c r="H163" t="s">
-        <v>422</v>
-      </c>
-    </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>116</v>
-      </c>
-      <c r="C164" t="s">
-        <v>183</v>
-      </c>
-      <c r="D164" s="25" t="s">
-        <v>1512</v>
-      </c>
-      <c r="E164" t="s">
-        <v>117</v>
-      </c>
-      <c r="F164" s="3" t="s">
-        <v>968</v>
-      </c>
-      <c r="G164" t="s">
-        <v>642</v>
-      </c>
-      <c r="H164" t="s">
-        <v>423</v>
-      </c>
+      <c r="A164" s="3" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B164" s="3"/>
+      <c r="C164" s="3" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D164" s="28"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>118</v>
-      </c>
-      <c r="C165" t="s">
-        <v>184</v>
-      </c>
-      <c r="D165" s="25" t="s">
-        <v>1513</v>
-      </c>
-      <c r="E165" t="s">
-        <v>119</v>
-      </c>
-      <c r="F165" s="3" t="s">
-        <v>969</v>
-      </c>
-      <c r="G165" t="s">
-        <v>643</v>
-      </c>
-      <c r="H165" t="s">
-        <v>424</v>
-      </c>
+      <c r="A165" s="3" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B165" s="3"/>
+      <c r="C165" s="3" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D165" s="28"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C166" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D166" s="25" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="E166" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="G166" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="H166" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>186</v>
+        <v>114</v>
       </c>
       <c r="C167" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D167" s="25" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="E167" t="s">
-        <v>1241</v>
+        <v>115</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="G167" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="H167" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>188</v>
+        <v>116</v>
       </c>
       <c r="C168" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D168" s="25" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="E168" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>972</v>
-      </c>
-      <c r="G168" s="3" t="s">
-        <v>778</v>
+        <v>968</v>
+      </c>
+      <c r="G168" t="s">
+        <v>642</v>
       </c>
       <c r="H168" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C169" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D169" s="25" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="E169" t="s">
-        <v>1242</v>
+        <v>119</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>1094</v>
+        <v>969</v>
       </c>
       <c r="G169" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="H169" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="B170" s="6"/>
-      <c r="C170" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="D170" s="28" t="s">
-        <v>1518</v>
-      </c>
-      <c r="F170" s="6" t="s">
-        <v>973</v>
-      </c>
-      <c r="G170" s="6" t="s">
-        <v>647</v>
-      </c>
-      <c r="H170" s="6" t="s">
-        <v>522</v>
+      <c r="A170" t="s">
+        <v>120</v>
+      </c>
+      <c r="C170" t="s">
+        <v>185</v>
+      </c>
+      <c r="D170" s="25" t="s">
+        <v>1514</v>
+      </c>
+      <c r="E170" t="s">
+        <v>121</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="G170" t="s">
+        <v>644</v>
+      </c>
+      <c r="H170" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="C171" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D171" s="25" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="E171" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="G171" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="H171" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>485</v>
+        <v>188</v>
       </c>
       <c r="C172" t="s">
-        <v>490</v>
+        <v>189</v>
       </c>
       <c r="D172" s="25" t="s">
-        <v>1521</v>
+        <v>1516</v>
       </c>
       <c r="E172" t="s">
-        <v>1244</v>
+        <v>157</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>976</v>
-      </c>
-      <c r="G172" t="s">
-        <v>650</v>
-      </c>
-      <c r="H172" s="6" t="s">
-        <v>514</v>
+        <v>972</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="H172" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>488</v>
+        <v>122</v>
       </c>
       <c r="C173" t="s">
-        <v>489</v>
+        <v>190</v>
       </c>
       <c r="D173" s="25" t="s">
-        <v>1522</v>
+        <v>1517</v>
       </c>
       <c r="E173" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>977</v>
+        <v>1094</v>
       </c>
       <c r="G173" t="s">
-        <v>651</v>
-      </c>
-      <c r="H173" s="6" t="s">
-        <v>513</v>
+        <v>646</v>
+      </c>
+      <c r="H173" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>486</v>
-      </c>
-      <c r="C174" t="s">
-        <v>487</v>
-      </c>
-      <c r="D174" s="25" t="s">
-        <v>1523</v>
-      </c>
-      <c r="F174" s="3" t="s">
-        <v>978</v>
-      </c>
-      <c r="G174" t="s">
-        <v>652</v>
+      <c r="A174" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="B174" s="6"/>
+      <c r="C174" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="D174" s="28" t="s">
+        <v>1518</v>
+      </c>
+      <c r="F174" s="6" t="s">
+        <v>973</v>
+      </c>
+      <c r="G174" s="6" t="s">
+        <v>647</v>
       </c>
       <c r="H174" s="6" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C175" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D175" s="25" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="E175" t="s">
-        <v>125</v>
+        <v>1243</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="G175" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H175" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>126</v>
+        <v>485</v>
       </c>
       <c r="C176" t="s">
-        <v>193</v>
+        <v>490</v>
       </c>
       <c r="D176" s="25" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="E176" t="s">
-        <v>127</v>
+        <v>1244</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="G176" t="s">
-        <v>653</v>
-      </c>
-      <c r="H176" t="s">
-        <v>431</v>
+        <v>650</v>
+      </c>
+      <c r="H176" s="6" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>128</v>
+        <v>488</v>
       </c>
       <c r="C177" t="s">
-        <v>1127</v>
+        <v>489</v>
       </c>
       <c r="D177" s="25" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="E177" t="s">
-        <v>129</v>
-      </c>
-      <c r="F177" t="s">
-        <v>1128</v>
+        <v>1245</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>977</v>
       </c>
       <c r="G177" t="s">
-        <v>654</v>
-      </c>
-      <c r="H177" t="s">
-        <v>432</v>
+        <v>651</v>
+      </c>
+      <c r="H177" s="6" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>130</v>
+        <v>486</v>
       </c>
       <c r="C178" t="s">
-        <v>194</v>
+        <v>487</v>
       </c>
       <c r="D178" s="25" t="s">
-        <v>1526</v>
-      </c>
-      <c r="E178" t="s">
-        <v>1246</v>
+        <v>1523</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="G178" t="s">
-        <v>655</v>
-      </c>
-      <c r="H178" t="s">
-        <v>433</v>
+        <v>652</v>
+      </c>
+      <c r="H178" s="6" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C179" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D179" s="25" t="s">
-        <v>1527</v>
+        <v>1520</v>
       </c>
       <c r="E179" t="s">
-        <v>1247</v>
+        <v>125</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="G179" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="H179" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C180" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D180" s="25" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="E180" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="G180" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="H180" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>128</v>
+      </c>
+      <c r="C181" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D181" s="25" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E181" t="s">
+        <v>129</v>
+      </c>
+      <c r="F181" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G181" t="s">
+        <v>654</v>
+      </c>
+      <c r="H181" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>130</v>
+      </c>
+      <c r="C182" t="s">
+        <v>194</v>
+      </c>
+      <c r="D182" s="25" t="s">
+        <v>1526</v>
+      </c>
+      <c r="E182" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="G182" t="s">
+        <v>655</v>
+      </c>
+      <c r="H182" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>131</v>
+      </c>
+      <c r="C183" t="s">
+        <v>195</v>
+      </c>
+      <c r="D183" s="25" t="s">
+        <v>1527</v>
+      </c>
+      <c r="E183" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="G183" t="s">
+        <v>656</v>
+      </c>
+      <c r="H183" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>132</v>
+      </c>
+      <c r="C184" t="s">
+        <v>196</v>
+      </c>
+      <c r="D184" s="25" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E184" t="s">
+        <v>133</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="G184" t="s">
+        <v>657</v>
+      </c>
+      <c r="H184" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>134</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C185" t="s">
         <v>197</v>
       </c>
-      <c r="D181" s="25" t="s">
+      <c r="D185" s="25" t="s">
         <v>1437</v>
       </c>
-      <c r="E181" t="s">
+      <c r="E185" t="s">
         <v>135</v>
       </c>
-      <c r="F181" s="3" t="s">
+      <c r="F185" s="3" t="s">
         <v>983</v>
       </c>
-      <c r="G181" t="s">
+      <c r="G185" t="s">
         <v>658</v>
       </c>
-      <c r="H181" t="s">
+      <c r="H185" t="s">
         <v>378</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="3" t="s">
-        <v>863</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="D182" s="29" t="s">
-        <v>1678</v>
-      </c>
-      <c r="F182" s="3" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="3" t="s">
-        <v>864</v>
-      </c>
-      <c r="B183" s="3"/>
-      <c r="C183" s="3" t="s">
-        <v>845</v>
-      </c>
-      <c r="D183" s="29" t="s">
-        <v>1679</v>
-      </c>
-      <c r="F183" s="3" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="3" t="s">
-        <v>865</v>
-      </c>
-      <c r="B184" s="3"/>
-      <c r="C184" s="3" t="s">
-        <v>846</v>
-      </c>
-      <c r="D184" s="29" t="s">
-        <v>1680</v>
-      </c>
-      <c r="F184" s="3" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="3" t="s">
-        <v>854</v>
-      </c>
-      <c r="B185" s="3"/>
-      <c r="C185" s="3" t="s">
-        <v>847</v>
-      </c>
-      <c r="D185" s="28" t="s">
-        <v>1551</v>
-      </c>
-      <c r="E185" t="s">
-        <v>1262</v>
-      </c>
-      <c r="F185" s="3" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>1645</v>
-      </c>
-      <c r="B186" s="3"/>
+        <v>863</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>1163</v>
+      </c>
       <c r="C186" s="3" t="s">
-        <v>753</v>
-      </c>
-      <c r="D186" t="s">
-        <v>1616</v>
+        <v>844</v>
+      </c>
+      <c r="D186" s="29" t="s">
+        <v>1678</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>853</v>
+        <v>864</v>
       </c>
       <c r="B187" s="3"/>
       <c r="C187" s="3" t="s">
-        <v>851</v>
-      </c>
-      <c r="D187" s="28" t="s">
-        <v>1555</v>
-      </c>
-      <c r="E187" t="s">
-        <v>1266</v>
+        <v>845</v>
+      </c>
+      <c r="D187" s="29" t="s">
+        <v>1679</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>1646</v>
+        <v>865</v>
       </c>
       <c r="B188" s="3"/>
-      <c r="C188" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="D188" t="s">
-        <v>1681</v>
+      <c r="C188" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="D188" s="29" t="s">
+        <v>1680</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="B189" s="3"/>
       <c r="C189" s="3" t="s">
-        <v>837</v>
+        <v>847</v>
       </c>
       <c r="D189" s="28" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="E189" t="s">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>866</v>
+        <v>1645</v>
       </c>
       <c r="B190" s="3"/>
       <c r="C190" s="3" t="s">
-        <v>835</v>
+        <v>753</v>
       </c>
       <c r="D190" t="s">
-        <v>1682</v>
-      </c>
-      <c r="E190" t="s">
-        <v>1257</v>
-      </c>
-      <c r="F190" s="3" t="s">
-        <v>999</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="B191" s="3"/>
       <c r="C191" s="3" t="s">
-        <v>839</v>
+        <v>851</v>
       </c>
       <c r="D191" s="28" t="s">
-        <v>1550</v>
+        <v>1555</v>
       </c>
       <c r="E191" t="s">
-        <v>1261</v>
+        <v>1266</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>1003</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>860</v>
+        <v>1646</v>
       </c>
       <c r="B192" s="3"/>
-      <c r="C192" s="9" t="s">
-        <v>836</v>
-      </c>
-      <c r="D192" s="28" t="s">
-        <v>1547</v>
-      </c>
-      <c r="E192" t="s">
-        <v>1258</v>
-      </c>
-      <c r="F192" s="3" t="s">
-        <v>1000</v>
+      <c r="C192" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D192" t="s">
+        <v>1681</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="B193" s="3" t="s">
-        <v>1177</v>
-      </c>
+        <v>861</v>
+      </c>
+      <c r="B193" s="3"/>
       <c r="C193" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="D193" s="30"/>
+        <v>837</v>
+      </c>
+      <c r="D193" s="28" t="s">
+        <v>1548</v>
+      </c>
+      <c r="E193" t="s">
+        <v>1259</v>
+      </c>
       <c r="F193" s="3" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="B194" s="3"/>
       <c r="C194" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="D194" s="28" t="s">
-        <v>1549</v>
+        <v>835</v>
+      </c>
+      <c r="D194" t="s">
+        <v>1682</v>
       </c>
       <c r="E194" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B195" s="3"/>
       <c r="C195" s="3" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="D195" s="28" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="E195" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="B196" s="3"/>
-      <c r="C196" s="3" t="s">
-        <v>849</v>
+      <c r="C196" s="9" t="s">
+        <v>836</v>
       </c>
       <c r="D196" s="28" t="s">
-        <v>1553</v>
+        <v>1547</v>
       </c>
       <c r="E196" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>1009</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="B197" s="3"/>
+        <v>867</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>1177</v>
+      </c>
       <c r="C197" s="3" t="s">
-        <v>850</v>
-      </c>
-      <c r="D197" s="28" t="s">
-        <v>1554</v>
-      </c>
-      <c r="E197" t="s">
-        <v>1265</v>
-      </c>
+        <v>852</v>
+      </c>
+      <c r="D197" s="30"/>
       <c r="F197" s="3" t="s">
-        <v>1010</v>
+        <v>998</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>1647</v>
+        <v>862</v>
       </c>
       <c r="B198" s="3"/>
-      <c r="C198" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="D198" s="28"/>
+      <c r="C198" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="D198" s="28" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E198" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>1002</v>
+      </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B199" s="3"/>
       <c r="C199" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="D199" s="28" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E199" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="B200" s="3"/>
+      <c r="C200" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="D200" s="28" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E200" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F200" s="3" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="B201" s="3"/>
+      <c r="C201" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="D201" s="28" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E201" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B202" s="3"/>
+      <c r="C202" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D202" s="28"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="B203" s="3"/>
+      <c r="C203" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D199" s="28" t="s">
+      <c r="D203" s="28" t="s">
         <v>1475</v>
       </c>
-      <c r="E199" t="s">
+      <c r="E203" t="s">
         <v>1223</v>
       </c>
-      <c r="F199" s="3" t="s">
+      <c r="F203" s="3" t="s">
         <v>936</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>136</v>
-      </c>
-      <c r="C200" t="s">
-        <v>198</v>
-      </c>
-      <c r="D200" s="25" t="s">
-        <v>1529</v>
-      </c>
-      <c r="E200" t="s">
-        <v>1248</v>
-      </c>
-      <c r="F200" s="3" t="s">
-        <v>984</v>
-      </c>
-      <c r="G200" t="s">
-        <v>659</v>
-      </c>
-      <c r="H200" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>137</v>
-      </c>
-      <c r="C201" t="s">
-        <v>199</v>
-      </c>
-      <c r="D201" s="25" t="s">
-        <v>1530</v>
-      </c>
-      <c r="E201" t="s">
-        <v>1249</v>
-      </c>
-      <c r="F201" s="3" t="s">
-        <v>985</v>
-      </c>
-      <c r="G201" t="s">
-        <v>660</v>
-      </c>
-      <c r="H201" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>200</v>
-      </c>
-      <c r="C202" t="s">
-        <v>202</v>
-      </c>
-      <c r="D202" s="25" t="s">
-        <v>1484</v>
-      </c>
-      <c r="E202" t="s">
-        <v>201</v>
-      </c>
-      <c r="F202" s="3" t="s">
-        <v>986</v>
-      </c>
-      <c r="G202" t="s">
-        <v>661</v>
-      </c>
-      <c r="H202" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>203</v>
-      </c>
-      <c r="C203" t="s">
-        <v>205</v>
-      </c>
-      <c r="D203" s="25" t="s">
-        <v>1531</v>
-      </c>
-      <c r="E203" t="s">
-        <v>204</v>
-      </c>
-      <c r="F203" s="3" t="s">
-        <v>987</v>
-      </c>
-      <c r="G203" t="s">
-        <v>662</v>
-      </c>
-      <c r="H203" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C204" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D204" s="25" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="E204" t="s">
-        <v>139</v>
+        <v>1248</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="G204" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="H204" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A205" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="B205" s="6"/>
-      <c r="C205" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="D205" s="28" t="s">
-        <v>1533</v>
-      </c>
-      <c r="F205" s="6" t="s">
-        <v>989</v>
-      </c>
-      <c r="G205" s="6" t="s">
-        <v>664</v>
-      </c>
-      <c r="H205" s="6" t="s">
-        <v>525</v>
+      <c r="A205" t="s">
+        <v>137</v>
+      </c>
+      <c r="C205" t="s">
+        <v>199</v>
+      </c>
+      <c r="D205" s="25" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E205" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="G205" t="s">
+        <v>660</v>
+      </c>
+      <c r="H205" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="C206" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D206" s="25" t="s">
-        <v>1534</v>
+        <v>1484</v>
       </c>
       <c r="E206" t="s">
-        <v>141</v>
+        <v>201</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="G206" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="H206" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>142</v>
-      </c>
-      <c r="B207" t="s">
-        <v>1173</v>
+        <v>203</v>
       </c>
       <c r="C207" t="s">
-        <v>1159</v>
+        <v>205</v>
       </c>
       <c r="D207" s="25" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="E207" t="s">
-        <v>143</v>
+        <v>204</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>1089</v>
+        <v>987</v>
       </c>
       <c r="G207" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="H207" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C208" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D208" s="25" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="E208" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="G208" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="H208" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>146</v>
-      </c>
-      <c r="B209" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C209" t="s">
-        <v>1160</v>
-      </c>
-      <c r="D209" s="25" t="s">
-        <v>1537</v>
-      </c>
-      <c r="E209" t="s">
-        <v>147</v>
-      </c>
-      <c r="F209" s="3" t="s">
-        <v>1090</v>
-      </c>
-      <c r="G209" t="s">
-        <v>668</v>
-      </c>
-      <c r="H209" t="s">
-        <v>444</v>
+      <c r="A209" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="B209" s="6"/>
+      <c r="C209" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="D209" s="28" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F209" s="6" t="s">
+        <v>989</v>
+      </c>
+      <c r="G209" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="H209" s="6" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>148</v>
-      </c>
-      <c r="B210" t="s">
-        <v>1175</v>
+        <v>140</v>
       </c>
       <c r="C210" t="s">
-        <v>1161</v>
+        <v>207</v>
       </c>
       <c r="D210" s="25" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="E210" t="s">
-        <v>1250</v>
+        <v>141</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>1091</v>
+        <v>990</v>
       </c>
       <c r="G210" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="H210" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B211" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="C211" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="D211" s="25" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="E211" t="s">
-        <v>1251</v>
+        <v>143</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="G211" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="H211" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C212" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D212" s="25" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="E212" t="s">
-        <v>1252</v>
+        <v>145</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G212" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="H212" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>151</v>
+        <v>146</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1174</v>
       </c>
       <c r="C213" t="s">
-        <v>492</v>
+        <v>1160</v>
       </c>
       <c r="D213" s="25" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="E213" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>993</v>
+        <v>1090</v>
       </c>
       <c r="G213" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="H213" t="s">
-        <v>493</v>
+        <v>444</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>153</v>
+        <v>148</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1175</v>
       </c>
       <c r="C214" t="s">
-        <v>210</v>
+        <v>1161</v>
       </c>
       <c r="D214" s="25" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="E214" t="s">
-        <v>154</v>
+        <v>1250</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>994</v>
+        <v>1091</v>
       </c>
       <c r="G214" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="H214" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>155</v>
+        <v>149</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1176</v>
       </c>
       <c r="C215" t="s">
-        <v>211</v>
+        <v>1162</v>
       </c>
       <c r="D215" s="25" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="E215" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>995</v>
+        <v>1092</v>
       </c>
       <c r="G215" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="H215" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C216" t="s">
-        <v>156</v>
+        <v>209</v>
       </c>
       <c r="D216" s="25" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="E216" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="G216" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="H216" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C217" t="s">
-        <v>212</v>
+        <v>492</v>
       </c>
       <c r="D217" s="25" t="s">
-        <v>212</v>
+        <v>1541</v>
       </c>
       <c r="E217" t="s">
-        <v>1255</v>
+        <v>152</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>212</v>
+        <v>993</v>
       </c>
       <c r="G217" t="s">
-        <v>212</v>
+        <v>672</v>
       </c>
       <c r="H217" t="s">
-        <v>212</v>
+        <v>493</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C218" t="s">
-        <v>768</v>
+        <v>210</v>
       </c>
       <c r="D218" s="25" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="E218" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>768</v>
+        <v>994</v>
       </c>
       <c r="G218" t="s">
-        <v>768</v>
+        <v>673</v>
       </c>
       <c r="H218" t="s">
-        <v>769</v>
+        <v>448</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
+        <v>155</v>
+      </c>
+      <c r="C219" t="s">
+        <v>211</v>
+      </c>
+      <c r="D219" s="25" t="s">
+        <v>1543</v>
+      </c>
+      <c r="E219" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="G219" t="s">
+        <v>674</v>
+      </c>
+      <c r="H219" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>156</v>
+      </c>
+      <c r="C220" t="s">
+        <v>156</v>
+      </c>
+      <c r="D220" s="25" t="s">
+        <v>1544</v>
+      </c>
+      <c r="E220" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="G220" t="s">
+        <v>675</v>
+      </c>
+      <c r="H220" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>158</v>
+      </c>
+      <c r="C221" t="s">
+        <v>212</v>
+      </c>
+      <c r="D221" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="E221" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G221" t="s">
+        <v>212</v>
+      </c>
+      <c r="H221" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>159</v>
+      </c>
+      <c r="C222" t="s">
+        <v>768</v>
+      </c>
+      <c r="D222" s="25" t="s">
+        <v>1545</v>
+      </c>
+      <c r="E222" t="s">
+        <v>160</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="G222" t="s">
+        <v>768</v>
+      </c>
+      <c r="H222" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
         <v>161</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C223" t="s">
         <v>213</v>
       </c>
-      <c r="D219" s="25" t="s">
+      <c r="D223" s="25" t="s">
         <v>1546</v>
       </c>
-      <c r="E219" t="s">
+      <c r="E223" t="s">
         <v>1256</v>
       </c>
-      <c r="F219" s="3" t="s">
+      <c r="F223" s="3" t="s">
         <v>997</v>
       </c>
-      <c r="G219" t="s">
+      <c r="G223" t="s">
         <v>676</v>
       </c>
-      <c r="H219" t="s">
+      <c r="H223" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="s">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B221" s="1"/>
-      <c r="D221" s="16"/>
-    </row>
-    <row r="222" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="6" t="s">
+      <c r="B225" s="1"/>
+      <c r="D225" s="16"/>
+    </row>
+    <row r="226" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="B222" s="6"/>
-      <c r="C222" s="6" t="s">
+      <c r="B226" s="6"/>
+      <c r="C226" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D222" s="28" t="s">
+      <c r="D226" s="28" t="s">
         <v>1561</v>
       </c>
-      <c r="E222" s="3" t="s">
+      <c r="E226" s="3" t="s">
         <v>1273</v>
       </c>
-      <c r="F222" s="6" t="s">
+      <c r="F226" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="G222" s="6" t="s">
+      <c r="G226" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="H222" s="6" t="s">
+      <c r="H226" s="6" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A223" s="2" t="s">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="B223" s="2"/>
-      <c r="C223" t="s">
+      <c r="B227" s="2"/>
+      <c r="C227" t="s">
         <v>473</v>
       </c>
-      <c r="D223" s="25" t="s">
+      <c r="D227" s="25" t="s">
         <v>1562</v>
       </c>
-      <c r="E223" t="s">
+      <c r="E227" t="s">
         <v>1274</v>
       </c>
-      <c r="F223" s="3" t="s">
+      <c r="F227" s="3" t="s">
         <v>1017</v>
       </c>
-      <c r="G223" t="s">
+      <c r="G227" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A224" s="2" t="s">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
         <v>1641</v>
       </c>
-      <c r="B224" s="2"/>
-      <c r="C224" t="s">
+      <c r="B228" s="2"/>
+      <c r="C228" t="s">
         <v>1642</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D228" t="s">
         <v>1683</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>214</v>
-      </c>
-      <c r="C225" t="s">
-        <v>202</v>
-      </c>
-      <c r="D225" s="25" t="s">
-        <v>1484</v>
-      </c>
-      <c r="E225" t="s">
-        <v>201</v>
-      </c>
-      <c r="F225" s="3" t="s">
-        <v>986</v>
-      </c>
-      <c r="G225" t="s">
-        <v>661</v>
-      </c>
-      <c r="H225" t="s">
-        <v>453</v>
-      </c>
-      <c r="I225" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>215</v>
-      </c>
-      <c r="C226" t="s">
-        <v>205</v>
-      </c>
-      <c r="D226" s="25" t="s">
-        <v>1531</v>
-      </c>
-      <c r="E226" t="s">
-        <v>204</v>
-      </c>
-      <c r="F226" s="3" t="s">
-        <v>987</v>
-      </c>
-      <c r="G226" t="s">
-        <v>678</v>
-      </c>
-      <c r="H226" t="s">
-        <v>439</v>
-      </c>
-      <c r="I226" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>471</v>
-      </c>
-      <c r="C227" t="s">
-        <v>472</v>
-      </c>
-      <c r="D227" s="25" t="s">
-        <v>1563</v>
-      </c>
-      <c r="E227" t="s">
-        <v>1275</v>
-      </c>
-      <c r="F227" s="3" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G227" t="s">
-        <v>679</v>
-      </c>
-      <c r="H227" s="6" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>216</v>
-      </c>
-      <c r="C228" t="s">
-        <v>217</v>
-      </c>
-      <c r="D228" s="25" t="s">
-        <v>1564</v>
-      </c>
-      <c r="E228" t="s">
-        <v>1276</v>
-      </c>
-      <c r="F228" s="3" t="s">
-        <v>1019</v>
-      </c>
-      <c r="G228" t="s">
-        <v>680</v>
-      </c>
-      <c r="H228" t="s">
-        <v>454</v>
-      </c>
-      <c r="I228" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C229" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="D229" s="25" t="s">
-        <v>1565</v>
+        <v>1484</v>
       </c>
       <c r="E229" t="s">
-        <v>1277</v>
+        <v>201</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>1020</v>
+        <v>986</v>
       </c>
       <c r="G229" t="s">
-        <v>624</v>
+        <v>661</v>
       </c>
       <c r="H229" t="s">
-        <v>389</v>
+        <v>453</v>
       </c>
       <c r="I229" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C230" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="D230" s="25" t="s">
-        <v>221</v>
+        <v>1531</v>
       </c>
       <c r="E230" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>221</v>
+        <v>987</v>
       </c>
       <c r="G230" t="s">
-        <v>221</v>
+        <v>678</v>
       </c>
       <c r="H230" t="s">
-        <v>221</v>
+        <v>439</v>
       </c>
       <c r="I230" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="B231" s="6"/>
-      <c r="C231" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="D231" s="28" t="s">
-        <v>1580</v>
-      </c>
-      <c r="E231" s="3" t="s">
-        <v>1282</v>
-      </c>
-      <c r="F231" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="G231" s="6" t="s">
-        <v>692</v>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>471</v>
+      </c>
+      <c r="C231" t="s">
+        <v>472</v>
+      </c>
+      <c r="D231" s="25" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E231" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G231" t="s">
+        <v>679</v>
       </c>
       <c r="H231" s="6" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="B232" s="3"/>
-      <c r="C232" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="D232" s="28" t="s">
-        <v>1566</v>
+        <v>526</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>216</v>
+      </c>
+      <c r="C232" t="s">
+        <v>217</v>
+      </c>
+      <c r="D232" s="25" t="s">
+        <v>1564</v>
       </c>
       <c r="E232" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>1021</v>
-      </c>
-      <c r="G232" s="3" t="s">
-        <v>779</v>
+        <v>1019</v>
+      </c>
+      <c r="G232" t="s">
+        <v>680</v>
+      </c>
+      <c r="H232" t="s">
+        <v>454</v>
+      </c>
+      <c r="I232" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C233" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D233" s="25" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="E233" t="s">
-        <v>223</v>
+        <v>1277</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="G233" t="s">
-        <v>681</v>
+        <v>624</v>
       </c>
       <c r="H233" t="s">
-        <v>455</v>
+        <v>389</v>
       </c>
       <c r="I233" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C234" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D234" s="25" t="s">
-        <v>1568</v>
+        <v>221</v>
       </c>
       <c r="E234" t="s">
-        <v>1279</v>
+        <v>221</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>1023</v>
-      </c>
-      <c r="G234" s="3" t="s">
-        <v>780</v>
+        <v>221</v>
+      </c>
+      <c r="G234" t="s">
+        <v>221</v>
       </c>
       <c r="H234" t="s">
-        <v>456</v>
+        <v>221</v>
       </c>
       <c r="I234" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>227</v>
-      </c>
-      <c r="C235" t="s">
-        <v>224</v>
-      </c>
-      <c r="D235" s="25" t="s">
-        <v>1567</v>
-      </c>
-      <c r="E235" t="s">
-        <v>223</v>
-      </c>
-      <c r="F235" s="3" t="s">
-        <v>1022</v>
-      </c>
-      <c r="G235" t="s">
-        <v>681</v>
-      </c>
-      <c r="H235" t="s">
-        <v>455</v>
-      </c>
-      <c r="I235" s="5" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>228</v>
-      </c>
-      <c r="C236" t="s">
-        <v>230</v>
-      </c>
-      <c r="D236" s="25" t="s">
-        <v>1569</v>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="B235" s="6"/>
+      <c r="C235" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="D235" s="28" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F235" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="G235" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="H235" s="6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="B236" s="3"/>
+      <c r="C236" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="D236" s="28" t="s">
+        <v>1566</v>
       </c>
       <c r="E236" t="s">
-        <v>229</v>
+        <v>1278</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>1024</v>
-      </c>
-      <c r="G236" t="s">
-        <v>682</v>
-      </c>
-      <c r="H236" t="s">
-        <v>457</v>
-      </c>
-      <c r="I236" t="s">
-        <v>338</v>
+        <v>1021</v>
+      </c>
+      <c r="G236" s="3" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>123</v>
+        <v>222</v>
       </c>
       <c r="C237" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D237" s="25" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="E237" t="s">
-        <v>1280</v>
+        <v>223</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="G237" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H237" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I237" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C238" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D238" s="25" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="E238" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>1026</v>
-      </c>
-      <c r="G238" t="s">
-        <v>684</v>
+        <v>1023</v>
+      </c>
+      <c r="G238" s="3" t="s">
+        <v>780</v>
       </c>
       <c r="H238" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="I238" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C239" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="D239" s="25" t="s">
-        <v>1572</v>
+        <v>1567</v>
       </c>
       <c r="E239" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="G239" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="H239" t="s">
-        <v>460</v>
-      </c>
-      <c r="I239" t="s">
-        <v>335</v>
+        <v>455</v>
+      </c>
+      <c r="I239" s="5" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C240" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D240" s="25" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="E240" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="G240" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="H240" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="I240" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>241</v>
+        <v>123</v>
       </c>
       <c r="C241" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D241" s="25" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="E241" t="s">
-        <v>242</v>
+        <v>1280</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="G241" t="s">
-        <v>687</v>
-      </c>
-      <c r="H241" s="6" t="s">
-        <v>462</v>
+        <v>683</v>
+      </c>
+      <c r="H241" t="s">
+        <v>458</v>
       </c>
       <c r="I241" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
+        <v>233</v>
+      </c>
+      <c r="C242" t="s">
+        <v>234</v>
+      </c>
+      <c r="D242" s="25" t="s">
+        <v>1571</v>
+      </c>
+      <c r="E242" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F242" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G242" t="s">
+        <v>684</v>
+      </c>
+      <c r="H242" t="s">
+        <v>459</v>
+      </c>
+      <c r="I242" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>235</v>
+      </c>
+      <c r="C243" t="s">
+        <v>237</v>
+      </c>
+      <c r="D243" s="25" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E243" t="s">
+        <v>236</v>
+      </c>
+      <c r="F243" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G243" t="s">
+        <v>685</v>
+      </c>
+      <c r="H243" t="s">
+        <v>460</v>
+      </c>
+      <c r="I243" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>238</v>
+      </c>
+      <c r="C244" t="s">
+        <v>240</v>
+      </c>
+      <c r="D244" s="25" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E244" t="s">
+        <v>239</v>
+      </c>
+      <c r="F244" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G244" t="s">
+        <v>686</v>
+      </c>
+      <c r="H244" t="s">
+        <v>461</v>
+      </c>
+      <c r="I244" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>241</v>
+      </c>
+      <c r="C245" t="s">
+        <v>243</v>
+      </c>
+      <c r="D245" s="25" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E245" t="s">
+        <v>242</v>
+      </c>
+      <c r="F245" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G245" t="s">
+        <v>687</v>
+      </c>
+      <c r="H245" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="I245" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
         <v>244</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C246" t="s">
         <v>246</v>
       </c>
-      <c r="D242" s="25" t="s">
+      <c r="D246" s="25" t="s">
         <v>1575</v>
       </c>
-      <c r="E242" t="s">
+      <c r="E246" t="s">
         <v>245</v>
       </c>
-      <c r="F242" s="3" t="s">
+      <c r="F246" s="3" t="s">
         <v>1030</v>
       </c>
-      <c r="G242" s="3" t="s">
+      <c r="G246" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="H242" s="6" t="s">
+      <c r="H246" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="I242" t="s">
+      <c r="I246" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="243" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="6" t="s">
+    <row r="247" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="B243" s="6"/>
-      <c r="C243" s="6" t="s">
+      <c r="B247" s="6"/>
+      <c r="C247" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D243" s="28" t="s">
+      <c r="D247" s="28" t="s">
         <v>1433</v>
       </c>
-      <c r="E243" s="3" t="s">
+      <c r="E247" s="3" t="s">
         <v>1196</v>
       </c>
-      <c r="F243" s="6" t="s">
+      <c r="F247" s="6" t="s">
         <v>914</v>
       </c>
-      <c r="G243" s="6" t="s">
+      <c r="G247" s="6" t="s">
         <v>693</v>
       </c>
-      <c r="H243" s="6" t="s">
+      <c r="H247" s="6" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="244" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="6" t="s">
+    <row r="248" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="B244" s="6"/>
-      <c r="C244" s="6" t="s">
+      <c r="B248" s="6"/>
+      <c r="C248" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="D244" s="28" t="s">
+      <c r="D248" s="28" t="s">
         <v>1434</v>
       </c>
-      <c r="E244" s="3" t="s">
+      <c r="E248" s="3" t="s">
         <v>1197</v>
       </c>
-      <c r="F244" s="6" t="s">
+      <c r="F248" s="6" t="s">
         <v>1035</v>
       </c>
-      <c r="G244" s="6" t="s">
+      <c r="G248" s="6" t="s">
         <v>694</v>
       </c>
-      <c r="H244" s="6" t="s">
+      <c r="H248" s="6" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+    <row r="249" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
         <v>247</v>
       </c>
-      <c r="C245" t="s">
+      <c r="C249" t="s">
         <v>247</v>
       </c>
-      <c r="D245" s="25" t="s">
+      <c r="D249" s="25" t="s">
         <v>1576</v>
       </c>
-      <c r="E245" t="s">
+      <c r="E249" t="s">
         <v>248</v>
       </c>
-      <c r="F245" s="3" t="s">
+      <c r="F249" s="3" t="s">
         <v>959</v>
       </c>
-      <c r="G245" t="s">
+      <c r="G249" t="s">
         <v>688</v>
       </c>
-      <c r="H245" s="3" t="s">
+      <c r="H249" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="I245" t="s">
+      <c r="I249" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+    <row r="250" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
         <v>249</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C250" t="s">
         <v>251</v>
       </c>
-      <c r="D246" s="25" t="s">
+      <c r="D250" s="25" t="s">
         <v>1577</v>
       </c>
-      <c r="E246" t="s">
+      <c r="E250" t="s">
         <v>250</v>
       </c>
-      <c r="F246" s="3" t="s">
+      <c r="F250" s="3" t="s">
         <v>1031</v>
       </c>
-      <c r="G246" t="s">
+      <c r="G250" t="s">
         <v>689</v>
       </c>
-      <c r="H246" s="3" t="s">
+      <c r="H250" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="I246" t="s">
+      <c r="I250" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
         <v>219</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C251" t="s">
         <v>232</v>
       </c>
-      <c r="D247" s="25" t="s">
+      <c r="D251" s="25" t="s">
         <v>1570</v>
       </c>
-      <c r="E247" t="s">
+      <c r="E251" t="s">
         <v>231</v>
       </c>
-      <c r="F247" s="3" t="s">
+      <c r="F251" s="3" t="s">
         <v>1025</v>
       </c>
-      <c r="G247" t="s">
+      <c r="G251" t="s">
         <v>683</v>
       </c>
-      <c r="H247" s="6" t="s">
+      <c r="H251" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="I247" t="s">
+      <c r="I251" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
         <v>252</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C252" t="s">
         <v>254</v>
       </c>
-      <c r="D248" s="25" t="s">
+      <c r="D252" s="25" t="s">
         <v>1578</v>
       </c>
-      <c r="E248" t="s">
+      <c r="E252" t="s">
         <v>253</v>
       </c>
-      <c r="F248" s="3" t="s">
+      <c r="F252" s="3" t="s">
         <v>1032</v>
       </c>
-      <c r="G248" t="s">
+      <c r="G252" t="s">
         <v>690</v>
       </c>
-      <c r="H248" s="6" t="s">
+      <c r="H252" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="I248" t="s">
+      <c r="I252" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>255</v>
-      </c>
-      <c r="C249" t="s">
-        <v>257</v>
-      </c>
-      <c r="D249" s="25" t="s">
-        <v>1483</v>
-      </c>
-      <c r="E249" t="s">
-        <v>256</v>
-      </c>
-      <c r="F249" s="3" t="s">
-        <v>1033</v>
-      </c>
-      <c r="G249" t="s">
-        <v>257</v>
-      </c>
-      <c r="H249" t="s">
-        <v>466</v>
-      </c>
-      <c r="I249" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>258</v>
-      </c>
-      <c r="C250" t="s">
-        <v>260</v>
-      </c>
-      <c r="D250" s="25" t="s">
-        <v>1579</v>
-      </c>
-      <c r="E250" t="s">
-        <v>259</v>
-      </c>
-      <c r="F250" s="3" t="s">
-        <v>1034</v>
-      </c>
-      <c r="G250" t="s">
-        <v>691</v>
-      </c>
-      <c r="H250" t="s">
-        <v>467</v>
-      </c>
-      <c r="I250" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A252" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B252" s="1"/>
-      <c r="D252" s="16"/>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="C253" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="D253" s="25" t="s">
-        <v>1438</v>
+        <v>1483</v>
       </c>
       <c r="E253" t="s">
-        <v>38</v>
-      </c>
-      <c r="F253" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="G253" s="6" t="s">
-        <v>695</v>
+        <v>256</v>
+      </c>
+      <c r="F253" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G253" t="s">
+        <v>257</v>
       </c>
       <c r="H253" t="s">
-        <v>379</v>
+        <v>466</v>
       </c>
       <c r="I253" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C254" t="s">
-        <v>327</v>
-      </c>
-      <c r="D254" t="s">
-        <v>1684</v>
+        <v>260</v>
+      </c>
+      <c r="D254" s="25" t="s">
+        <v>1579</v>
       </c>
       <c r="E254" t="s">
-        <v>1283</v>
-      </c>
-      <c r="F254" s="6" t="s">
-        <v>1036</v>
-      </c>
-      <c r="G254" s="6" t="s">
-        <v>696</v>
+        <v>259</v>
+      </c>
+      <c r="F254" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G254" t="s">
+        <v>691</v>
       </c>
       <c r="H254" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I254" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>484</v>
+        <v>318</v>
       </c>
       <c r="B256" s="1"/>
       <c r="D256" s="16"/>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
+        <v>0</v>
+      </c>
+      <c r="C257" t="s">
+        <v>284</v>
+      </c>
+      <c r="D257" s="25" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E257" t="s">
+        <v>38</v>
+      </c>
+      <c r="F257" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="G257" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="H257" t="s">
+        <v>379</v>
+      </c>
+      <c r="I257" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>261</v>
+      </c>
+      <c r="C258" t="s">
+        <v>327</v>
+      </c>
+      <c r="D258" t="s">
+        <v>1684</v>
+      </c>
+      <c r="E258" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F258" s="6" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G258" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="H258" t="s">
+        <v>468</v>
+      </c>
+      <c r="I258" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B260" s="1"/>
+      <c r="D260" s="16"/>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
         <v>480</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C261" t="s">
         <v>294</v>
       </c>
-      <c r="D257" s="25" t="s">
+      <c r="D261" s="25" t="s">
         <v>1476</v>
       </c>
-      <c r="E257" t="s">
+      <c r="E261" t="s">
         <v>1284</v>
       </c>
-      <c r="F257" s="3" t="s">
+      <c r="F261" s="3" t="s">
         <v>1037</v>
       </c>
-      <c r="G257" t="s">
+      <c r="G261" t="s">
         <v>609</v>
       </c>
-      <c r="H257" t="s">
+      <c r="H261" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
         <v>477</v>
       </c>
-      <c r="C258" t="s">
+      <c r="C262" t="s">
         <v>280</v>
       </c>
-      <c r="D258" s="25" t="s">
+      <c r="D262" s="25" t="s">
         <v>1432</v>
       </c>
-      <c r="E258" t="s">
+      <c r="E262" t="s">
         <v>29</v>
       </c>
-      <c r="F258" s="3" t="s">
+      <c r="F262" s="3" t="s">
         <v>913</v>
       </c>
-      <c r="G258" t="s">
+      <c r="G262" t="s">
         <v>579</v>
       </c>
-      <c r="H258" t="s">
+      <c r="H262" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
         <v>478</v>
       </c>
-      <c r="C259" t="s">
+      <c r="C263" t="s">
         <v>298</v>
       </c>
-      <c r="D259" s="25" t="s">
+      <c r="D263" s="25" t="s">
         <v>1480</v>
       </c>
-      <c r="E259" t="s">
+      <c r="E263" t="s">
         <v>68</v>
       </c>
-      <c r="F259" s="3" t="s">
+      <c r="F263" s="3" t="s">
         <v>941</v>
       </c>
-      <c r="G259" t="s">
+      <c r="G263" t="s">
         <v>613</v>
       </c>
-      <c r="H259" t="s">
+      <c r="H263" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
         <v>476</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C264" t="s">
         <v>296</v>
       </c>
-      <c r="D260" s="25" t="s">
+      <c r="D264" s="25" t="s">
         <v>1478</v>
       </c>
-      <c r="E260" t="s">
+      <c r="E264" t="s">
         <v>33</v>
       </c>
-      <c r="F260" s="3" t="s">
+      <c r="F264" s="3" t="s">
         <v>939</v>
       </c>
-      <c r="G260" t="s">
+      <c r="G264" t="s">
         <v>296</v>
       </c>
-      <c r="H260" t="s">
+      <c r="H264" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
         <v>479</v>
       </c>
-      <c r="C261" t="s">
+      <c r="C265" t="s">
         <v>283</v>
       </c>
-      <c r="D261" s="25" t="s">
+      <c r="D265" s="25" t="s">
         <v>1436</v>
       </c>
-      <c r="E261" t="s">
+      <c r="E265" t="s">
         <v>35</v>
       </c>
-      <c r="F261" s="3" t="s">
+      <c r="F265" s="3" t="s">
         <v>917</v>
       </c>
-      <c r="G261" t="s">
+      <c r="G265" t="s">
         <v>582</v>
       </c>
-      <c r="H261" t="s">
+      <c r="H265" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
         <v>481</v>
       </c>
-      <c r="C262" t="s">
+      <c r="C266" t="s">
         <v>483</v>
       </c>
-      <c r="D262" s="25" t="s">
+      <c r="D266" s="25" t="s">
         <v>1581</v>
       </c>
-      <c r="E262" t="s">
+      <c r="E266" t="s">
         <v>1285</v>
       </c>
-      <c r="F262" s="3" t="s">
+      <c r="F266" s="3" t="s">
         <v>1038</v>
       </c>
-      <c r="G262" t="s">
+      <c r="G266" t="s">
         <v>697</v>
       </c>
-      <c r="H262" t="s">
+      <c r="H266" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A264" s="10" t="s">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A268" s="10" t="s">
         <v>699</v>
       </c>
-      <c r="B264" s="10"/>
-      <c r="C264" s="3"/>
-      <c r="D264" s="28"/>
-      <c r="G264" s="3"/>
-    </row>
-    <row r="265" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="3" t="s">
+      <c r="B268" s="10"/>
+      <c r="C268" s="3"/>
+      <c r="D268" s="28"/>
+      <c r="G268" s="3"/>
+    </row>
+    <row r="269" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="B265" s="3"/>
-      <c r="C265" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="D265" s="28" t="s">
-        <v>1582</v>
-      </c>
-      <c r="F265" s="3" t="s">
-        <v>1039</v>
-      </c>
-      <c r="G265" s="3" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A266" s="8"/>
-      <c r="B266" s="8"/>
-      <c r="C266" s="8"/>
-      <c r="D266" s="31"/>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A267" s="10" t="s">
-        <v>705</v>
-      </c>
-      <c r="B267" s="10"/>
-      <c r="C267" s="3"/>
-      <c r="D267" s="28"/>
-      <c r="G267" s="3"/>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A268" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B268" s="3"/>
-      <c r="C268" s="3" t="s">
-        <v>820</v>
-      </c>
-      <c r="D268" s="28" t="s">
-        <v>1583</v>
-      </c>
-      <c r="E268" t="s">
-        <v>1286</v>
-      </c>
-      <c r="F268" s="3" t="s">
-        <v>1040</v>
-      </c>
-      <c r="G268" s="3" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A269" s="3" t="s">
-        <v>892</v>
       </c>
       <c r="B269" s="3"/>
       <c r="C269" s="3" t="s">
-        <v>284</v>
+        <v>698</v>
       </c>
       <c r="D269" s="28" t="s">
-        <v>1438</v>
-      </c>
-      <c r="E269" t="s">
-        <v>1297</v>
-      </c>
-      <c r="F269" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="G269" s="6" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A270" s="3" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B270" s="3"/>
-      <c r="C270" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="D270" s="28" t="s">
-        <v>1585</v>
-      </c>
-      <c r="E270" t="s">
-        <v>1288</v>
-      </c>
-      <c r="F270" s="3" t="s">
-        <v>1041</v>
-      </c>
-      <c r="G270" s="3" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A271" s="3" t="s">
-        <v>880</v>
-      </c>
-      <c r="B271" s="3"/>
-      <c r="C271" s="3" t="s">
-        <v>881</v>
-      </c>
-      <c r="D271" s="28" t="s">
-        <v>1586</v>
-      </c>
-      <c r="E271" t="s">
-        <v>1289</v>
-      </c>
-      <c r="F271" s="3" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1582</v>
+      </c>
+      <c r="F269" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G269" s="3" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A270" s="8"/>
+      <c r="B270" s="8"/>
+      <c r="C270" s="8"/>
+      <c r="D270" s="31"/>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A271" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="B271" s="10"/>
+      <c r="C271" s="3"/>
+      <c r="D271" s="28"/>
+      <c r="G271" s="3"/>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
-        <v>1181</v>
+        <v>0</v>
       </c>
       <c r="B272" s="3"/>
       <c r="C272" s="3" t="s">
-        <v>241</v>
+        <v>820</v>
       </c>
       <c r="D272" s="28" t="s">
-        <v>1502</v>
+        <v>1583</v>
       </c>
       <c r="E272" t="s">
-        <v>1234</v>
+        <v>1286</v>
       </c>
       <c r="F272" s="3" t="s">
-        <v>960</v>
-      </c>
-      <c r="G272" t="s">
-        <v>632</v>
+        <v>1040</v>
+      </c>
+      <c r="G272" s="3" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
-        <v>1182</v>
+        <v>892</v>
       </c>
       <c r="B273" s="3"/>
       <c r="C273" s="3" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="D273" s="28" t="s">
-        <v>1502</v>
+        <v>1438</v>
       </c>
       <c r="E273" t="s">
-        <v>1234</v>
-      </c>
-      <c r="F273" s="3" t="s">
-        <v>960</v>
-      </c>
-      <c r="G273" s="3" t="s">
-        <v>632</v>
+        <v>1297</v>
+      </c>
+      <c r="F273" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="G273" s="6" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
-        <v>64</v>
+        <v>1180</v>
       </c>
       <c r="B274" s="3"/>
       <c r="C274" s="3" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D274" s="28" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="E274" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="F274" s="3" t="s">
-        <v>702</v>
+        <v>1041</v>
       </c>
       <c r="G274" s="3" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
-        <v>891</v>
-      </c>
-      <c r="B275" s="3" t="s">
-        <v>1164</v>
-      </c>
+        <v>880</v>
+      </c>
+      <c r="B275" s="3"/>
       <c r="C275" s="3" t="s">
-        <v>1165</v>
+        <v>881</v>
       </c>
       <c r="D275" s="28" t="s">
-        <v>1593</v>
-      </c>
-      <c r="E275" s="3" t="s">
-        <v>1296</v>
+        <v>1586</v>
+      </c>
+      <c r="E275" t="s">
+        <v>1289</v>
       </c>
       <c r="F275" s="3" t="s">
-        <v>1110</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
-        <v>713</v>
+        <v>1181</v>
       </c>
       <c r="B276" s="3"/>
       <c r="C276" s="3" t="s">
-        <v>1183</v>
+        <v>241</v>
       </c>
       <c r="D276" s="28" t="s">
-        <v>1591</v>
+        <v>1502</v>
       </c>
       <c r="E276" t="s">
-        <v>1294</v>
+        <v>1234</v>
       </c>
       <c r="F276" s="3" t="s">
-        <v>888</v>
+        <v>960</v>
+      </c>
+      <c r="G276" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
-        <v>715</v>
+        <v>1182</v>
       </c>
       <c r="B277" s="3"/>
       <c r="C277" s="3" t="s">
-        <v>888</v>
+        <v>241</v>
       </c>
       <c r="D277" s="28" t="s">
-        <v>1591</v>
+        <v>1502</v>
       </c>
       <c r="E277" t="s">
-        <v>1294</v>
+        <v>1234</v>
       </c>
       <c r="F277" s="3" t="s">
-        <v>888</v>
+        <v>960</v>
+      </c>
+      <c r="G277" s="3" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
-        <v>717</v>
+        <v>64</v>
       </c>
       <c r="B278" s="3"/>
       <c r="C278" s="3" t="s">
-        <v>882</v>
+        <v>702</v>
       </c>
       <c r="D278" s="28" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="E278" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="F278" s="3" t="s">
-        <v>1043</v>
+        <v>702</v>
+      </c>
+      <c r="G278" s="3" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="B279" s="3"/>
+        <v>891</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>1164</v>
+      </c>
       <c r="C279" s="3" t="s">
-        <v>883</v>
+        <v>1165</v>
       </c>
       <c r="D279" s="28" t="s">
-        <v>1588</v>
-      </c>
-      <c r="E279" t="s">
-        <v>1291</v>
+        <v>1593</v>
+      </c>
+      <c r="E279" s="3" t="s">
+        <v>1296</v>
       </c>
       <c r="F279" s="3" t="s">
-        <v>1044</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
-        <v>884</v>
+        <v>713</v>
       </c>
       <c r="B280" s="3"/>
       <c r="C280" s="3" t="s">
-        <v>885</v>
+        <v>1183</v>
       </c>
       <c r="D280" s="28" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="E280" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>1045</v>
+        <v>888</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
-        <v>886</v>
+        <v>715</v>
       </c>
       <c r="B281" s="3"/>
       <c r="C281" s="3" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D281" s="28" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="E281" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="F281" s="3" t="s">
-        <v>1046</v>
+        <v>888</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>889</v>
+        <v>717</v>
       </c>
       <c r="B282" s="3"/>
       <c r="C282" s="3" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="D282" s="28" t="s">
-        <v>1592</v>
+        <v>1587</v>
       </c>
       <c r="E282" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="F282" s="3" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A283" s="8"/>
-      <c r="B283" s="8"/>
-      <c r="C283" s="8"/>
-      <c r="D283" s="31"/>
+      <c r="A283" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="B283" s="3"/>
+      <c r="C283" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="D283" s="28" t="s">
+        <v>1588</v>
+      </c>
+      <c r="E283" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F283" s="3" t="s">
+        <v>1044</v>
+      </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A284" s="10" t="s">
-        <v>704</v>
-      </c>
-      <c r="B284" s="10"/>
-      <c r="C284" s="3"/>
-      <c r="D284" s="28"/>
-      <c r="G284" s="3"/>
+      <c r="A284" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="B284" s="3"/>
+      <c r="C284" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="D284" s="28" t="s">
+        <v>1589</v>
+      </c>
+      <c r="E284" t="s">
+        <v>1292</v>
+      </c>
+      <c r="F284" s="3" t="s">
+        <v>1045</v>
+      </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
-        <v>0</v>
+        <v>886</v>
       </c>
       <c r="B285" s="3"/>
       <c r="C285" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="D285" s="28" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E285" t="s">
+        <v>1293</v>
+      </c>
+      <c r="F285" s="3" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="B286" s="3"/>
+      <c r="C286" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="D286" s="28" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E286" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F286" s="3" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" s="8"/>
+      <c r="B287" s="8"/>
+      <c r="C287" s="8"/>
+      <c r="D287" s="31"/>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="B288" s="10"/>
+      <c r="C288" s="3"/>
+      <c r="D288" s="28"/>
+      <c r="G288" s="3"/>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B289" s="3"/>
+      <c r="C289" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="D285" s="28" t="s">
+      <c r="D289" s="28" t="s">
         <v>1594</v>
       </c>
-      <c r="E285" t="s">
+      <c r="E289" t="s">
         <v>1298</v>
       </c>
-      <c r="F285" s="3" t="s">
+      <c r="F289" s="3" t="s">
         <v>1048</v>
       </c>
-      <c r="G285" s="3" t="s">
+      <c r="G289" s="3" t="s">
         <v>785</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A286" s="9" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B286" s="9"/>
-      <c r="C286" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D286" s="26" t="s">
-        <v>1423</v>
-      </c>
-      <c r="E286" t="s">
-        <v>10</v>
-      </c>
-      <c r="G286" s="3"/>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A287" s="9" t="s">
-        <v>1338</v>
-      </c>
-      <c r="B287" s="9"/>
-      <c r="C287" s="9" t="s">
-        <v>721</v>
-      </c>
-      <c r="D287" s="26" t="s">
-        <v>1596</v>
-      </c>
-      <c r="E287" t="s">
-        <v>1309</v>
-      </c>
-      <c r="G287" s="3"/>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A288" s="9" t="s">
-        <v>1339</v>
-      </c>
-      <c r="B288" s="9"/>
-      <c r="C288" s="9" t="s">
-        <v>720</v>
-      </c>
-      <c r="D288" s="26" t="s">
-        <v>1597</v>
-      </c>
-      <c r="E288" t="s">
-        <v>1308</v>
-      </c>
-      <c r="G288" s="3"/>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A289" s="9" t="s">
-        <v>834</v>
-      </c>
-      <c r="B289" s="9"/>
-      <c r="C289" s="9" t="s">
-        <v>826</v>
-      </c>
-      <c r="D289" s="26" t="s">
-        <v>1595</v>
-      </c>
-      <c r="E289" t="s">
-        <v>1299</v>
-      </c>
-      <c r="F289" s="3" t="s">
-        <v>1049</v>
-      </c>
-      <c r="G289" s="3" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="9" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="B290" s="9"/>
       <c r="C290" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D290" s="26" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E290" t="s">
+        <v>10</v>
+      </c>
+      <c r="G290" s="3"/>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" s="9" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B291" s="9"/>
+      <c r="C291" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="D291" s="26" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E291" t="s">
+        <v>1309</v>
+      </c>
+      <c r="G291" s="3"/>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" s="9" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B292" s="9"/>
+      <c r="C292" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="D292" s="26" t="s">
+        <v>1597</v>
+      </c>
+      <c r="E292" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G292" s="3"/>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" s="9" t="s">
+        <v>834</v>
+      </c>
+      <c r="B293" s="9"/>
+      <c r="C293" s="9" t="s">
+        <v>826</v>
+      </c>
+      <c r="D293" s="26" t="s">
+        <v>1595</v>
+      </c>
+      <c r="E293" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F293" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G293" s="3" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" s="9" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B294" s="9"/>
+      <c r="C294" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="D290" s="26" t="s">
+      <c r="D294" s="26" t="s">
         <v>1411</v>
       </c>
-      <c r="E290" t="s">
+      <c r="E294" t="s">
         <v>61</v>
       </c>
-      <c r="G290" s="3"/>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A291" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B291" s="3"/>
-      <c r="C291" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="D291" s="28" t="s">
-        <v>1584</v>
-      </c>
-      <c r="E291" t="s">
-        <v>1312</v>
-      </c>
-      <c r="F291" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="G291" s="3" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A292" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B292" s="3"/>
-      <c r="C292" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="D292" s="28" t="s">
-        <v>1471</v>
-      </c>
-      <c r="E292" t="s">
-        <v>1212</v>
-      </c>
-      <c r="F292" s="3" t="s">
-        <v>930</v>
-      </c>
-      <c r="G292" s="3" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A293" s="3" t="s">
-        <v>1341</v>
-      </c>
-      <c r="B293" s="3"/>
-      <c r="C293" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="D293" s="28" t="s">
-        <v>1605</v>
-      </c>
-      <c r="E293" t="s">
-        <v>1307</v>
-      </c>
-      <c r="F293" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="G293" s="3" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A294" s="3" t="s">
-        <v>1342</v>
-      </c>
-      <c r="B294" s="3"/>
-      <c r="C294" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="D294" s="28" t="s">
-        <v>1471</v>
-      </c>
-      <c r="E294" t="s">
-        <v>1212</v>
-      </c>
-      <c r="F294" s="3" t="s">
-        <v>930</v>
-      </c>
-      <c r="G294" s="3" t="s">
-        <v>504</v>
-      </c>
+      <c r="G294" s="3"/>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B295" s="3"/>
       <c r="C295" s="3" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
       <c r="D295" s="28" t="s">
-        <v>1600</v>
+        <v>1584</v>
       </c>
       <c r="E295" t="s">
-        <v>1302</v>
+        <v>1312</v>
       </c>
       <c r="F295" s="3" t="s">
-        <v>1051</v>
+        <v>724</v>
       </c>
       <c r="G295" s="3" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="B296" s="3"/>
       <c r="C296" s="3" t="s">
-        <v>296</v>
+        <v>504</v>
       </c>
       <c r="D296" s="28" t="s">
-        <v>1478</v>
+        <v>1471</v>
       </c>
       <c r="E296" t="s">
-        <v>33</v>
-      </c>
-      <c r="G296" s="3"/>
+        <v>1212</v>
+      </c>
+      <c r="F296" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="G296" s="3" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
-        <v>65</v>
+        <v>1341</v>
       </c>
       <c r="B297" s="3"/>
       <c r="C297" s="3" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="D297" s="28" t="s">
-        <v>1599</v>
+        <v>1605</v>
       </c>
       <c r="E297" t="s">
-        <v>1301</v>
+        <v>1307</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>711</v>
+        <v>1056</v>
       </c>
       <c r="G297" s="3" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
-        <v>67</v>
+        <v>1342</v>
       </c>
       <c r="B298" s="3"/>
       <c r="C298" s="3" t="s">
-        <v>1352</v>
+        <v>504</v>
       </c>
       <c r="D298" s="28" t="s">
-        <v>1601</v>
+        <v>1471</v>
       </c>
       <c r="E298" t="s">
-        <v>1303</v>
+        <v>1212</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>1052</v>
+        <v>930</v>
       </c>
       <c r="G298" s="3" t="s">
-        <v>714</v>
+        <v>504</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
-        <v>1343</v>
+        <v>88</v>
       </c>
       <c r="B299" s="3"/>
       <c r="C299" s="3" t="s">
-        <v>1353</v>
+        <v>712</v>
       </c>
       <c r="D299" s="28" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="E299" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="G299" s="3" t="s">
-        <v>716</v>
+        <v>788</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
-        <v>759</v>
+        <v>64</v>
       </c>
       <c r="B300" s="3"/>
       <c r="C300" s="3" t="s">
-        <v>718</v>
+        <v>296</v>
       </c>
       <c r="D300" s="28" t="s">
-        <v>1604</v>
+        <v>1478</v>
       </c>
       <c r="E300" t="s">
-        <v>1306</v>
-      </c>
-      <c r="F300" s="3" t="s">
-        <v>1055</v>
-      </c>
-      <c r="G300" s="3" t="s">
-        <v>790</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G300" s="3"/>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
-        <v>1344</v>
+        <v>65</v>
       </c>
       <c r="B301" s="3"/>
       <c r="C301" s="3" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="D301" s="28" t="s">
-        <v>1607</v>
+        <v>1599</v>
       </c>
       <c r="E301" t="s">
-        <v>1311</v>
+        <v>1301</v>
       </c>
       <c r="F301" s="3" t="s">
-        <v>1059</v>
+        <v>711</v>
       </c>
       <c r="G301" s="3" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
-        <v>1643</v>
+        <v>67</v>
       </c>
       <c r="B302" s="3"/>
       <c r="C302" s="3" t="s">
-        <v>1644</v>
-      </c>
-      <c r="D302" t="s">
-        <v>1685</v>
-      </c>
-      <c r="G302" s="3"/>
+        <v>1352</v>
+      </c>
+      <c r="D302" s="28" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E302" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F302" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G302" s="3" t="s">
+        <v>714</v>
+      </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
-        <v>710</v>
+        <v>1343</v>
       </c>
       <c r="B303" s="3"/>
       <c r="C303" s="3" t="s">
-        <v>296</v>
+        <v>1353</v>
       </c>
       <c r="D303" s="28" t="s">
-        <v>1686</v>
+        <v>1602</v>
       </c>
       <c r="E303" t="s">
-        <v>33</v>
+        <v>1304</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>939</v>
+        <v>1053</v>
       </c>
       <c r="G303" s="3" t="s">
-        <v>296</v>
+        <v>716</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
-        <v>1345</v>
+        <v>759</v>
       </c>
       <c r="B304" s="3"/>
       <c r="C304" s="3" t="s">
-        <v>262</v>
+        <v>718</v>
       </c>
       <c r="D304" s="28" t="s">
-        <v>1608</v>
-      </c>
-      <c r="G304" s="3"/>
+        <v>1604</v>
+      </c>
+      <c r="E304" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F304" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="G304" s="3" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="B305" s="3"/>
       <c r="C305" s="3" t="s">
-        <v>707</v>
+        <v>723</v>
       </c>
       <c r="D305" s="28" t="s">
-        <v>1598</v>
+        <v>1607</v>
       </c>
       <c r="E305" t="s">
-        <v>1300</v>
+        <v>1311</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>1050</v>
+        <v>1059</v>
       </c>
       <c r="G305" s="3" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
-        <v>1347</v>
+        <v>1643</v>
       </c>
       <c r="B306" s="3"/>
       <c r="C306" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="D306" s="28" t="s">
-        <v>1603</v>
-      </c>
-      <c r="E306" t="s">
-        <v>1305</v>
-      </c>
-      <c r="F306" s="11" t="s">
-        <v>1054</v>
-      </c>
-      <c r="G306" s="3" t="s">
-        <v>789</v>
-      </c>
+        <v>1644</v>
+      </c>
+      <c r="D306" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G306" s="3"/>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
-        <v>1348</v>
+        <v>710</v>
       </c>
       <c r="B307" s="3"/>
       <c r="C307" s="3" t="s">
-        <v>709</v>
+        <v>296</v>
       </c>
       <c r="D307" s="28" t="s">
-        <v>1606</v>
+        <v>1686</v>
       </c>
       <c r="E307" t="s">
-        <v>1310</v>
+        <v>33</v>
       </c>
       <c r="F307" s="3" t="s">
-        <v>709</v>
+        <v>939</v>
       </c>
       <c r="G307" s="3" t="s">
-        <v>792</v>
+        <v>296</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="B308" s="3"/>
       <c r="C308" s="3" t="s">
-        <v>122</v>
+        <v>262</v>
       </c>
       <c r="D308" s="28" t="s">
-        <v>1423</v>
-      </c>
-      <c r="E308" t="s">
-        <v>10</v>
-      </c>
-      <c r="F308" s="3" t="s">
-        <v>907</v>
-      </c>
-      <c r="G308" s="3" t="s">
-        <v>610</v>
-      </c>
+        <v>1608</v>
+      </c>
+      <c r="G308" s="3"/>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="B309" s="3"/>
       <c r="C309" s="3" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="D309" s="28" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="E309" t="s">
-        <v>1309</v>
+        <v>1300</v>
       </c>
       <c r="F309" s="3" t="s">
-        <v>1058</v>
+        <v>1050</v>
       </c>
       <c r="G309" s="3" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="B310" s="3"/>
       <c r="C310" s="3" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="D310" s="28" t="s">
-        <v>1597</v>
+        <v>1603</v>
       </c>
       <c r="E310" t="s">
-        <v>1308</v>
-      </c>
-      <c r="F310" s="3" t="s">
-        <v>1057</v>
+        <v>1305</v>
+      </c>
+      <c r="F310" s="11" t="s">
+        <v>1054</v>
       </c>
       <c r="G310" s="3" t="s">
-        <v>770</v>
+        <v>789</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A311" s="8"/>
-      <c r="B311" s="8"/>
-      <c r="C311" s="8"/>
-      <c r="D311" s="31"/>
+      <c r="A311" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B311" s="3"/>
+      <c r="C311" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="D311" s="28" t="s">
+        <v>1606</v>
+      </c>
+      <c r="E311" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F311" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="G311" s="3" t="s">
+        <v>792</v>
+      </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A312" s="10" t="s">
-        <v>700</v>
-      </c>
-      <c r="B312" s="10"/>
-      <c r="C312" s="3"/>
-      <c r="D312" s="28"/>
-      <c r="G312" s="3"/>
+      <c r="A312" s="3" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B312" s="3"/>
+      <c r="C312" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D312" s="28" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E312" t="s">
+        <v>10</v>
+      </c>
+      <c r="F312" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="G312" s="3" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="B313" s="3"/>
       <c r="C313" s="3" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="D313" s="28" t="s">
-        <v>1609</v>
+        <v>1596</v>
       </c>
       <c r="E313" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="F313" s="3" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="G313" s="3" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
-        <v>9</v>
+        <v>1351</v>
       </c>
       <c r="B314" s="3"/>
       <c r="C314" s="3" t="s">
-        <v>122</v>
+        <v>720</v>
       </c>
       <c r="D314" s="28" t="s">
-        <v>1423</v>
+        <v>1597</v>
       </c>
       <c r="E314" t="s">
-        <v>10</v>
+        <v>1308</v>
       </c>
       <c r="F314" s="3" t="s">
-        <v>907</v>
+        <v>1057</v>
       </c>
       <c r="G314" s="3" t="s">
-        <v>610</v>
+        <v>770</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A315" s="3" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B315" s="3"/>
-      <c r="C315" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="D315" s="28" t="s">
-        <v>1551</v>
-      </c>
-      <c r="E315" t="s">
-        <v>1204</v>
-      </c>
-      <c r="F315" s="3" t="s">
-        <v>1067</v>
-      </c>
-      <c r="G315" s="3" t="s">
-        <v>801</v>
-      </c>
+      <c r="A315" s="8"/>
+      <c r="B315" s="8"/>
+      <c r="C315" s="8"/>
+      <c r="D315" s="31"/>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A316" s="3" t="s">
-        <v>1369</v>
-      </c>
-      <c r="B316" s="3"/>
-      <c r="C316" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="D316" s="28" t="s">
-        <v>1616</v>
-      </c>
-      <c r="E316" t="s">
-        <v>1319</v>
-      </c>
-      <c r="F316" s="3" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G316" s="3" t="s">
-        <v>802</v>
-      </c>
+      <c r="A316" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="B316" s="10"/>
+      <c r="C316" s="3"/>
+      <c r="D316" s="28"/>
+      <c r="G316" s="3"/>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
-        <v>1370</v>
+        <v>0</v>
       </c>
       <c r="B317" s="3"/>
       <c r="C317" s="3" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="D317" s="28" t="s">
-        <v>1615</v>
+        <v>1609</v>
       </c>
       <c r="E317" t="s">
-        <v>1318</v>
+        <v>1313</v>
       </c>
       <c r="F317" s="3" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="G317" s="3" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
-        <v>1362</v>
+        <v>9</v>
       </c>
       <c r="B318" s="3"/>
       <c r="C318" s="3" t="s">
-        <v>729</v>
+        <v>122</v>
       </c>
       <c r="D318" s="28" t="s">
-        <v>1612</v>
+        <v>1423</v>
       </c>
       <c r="E318" t="s">
-        <v>1315</v>
+        <v>10</v>
       </c>
       <c r="F318" s="3" t="s">
-        <v>1063</v>
+        <v>907</v>
       </c>
       <c r="G318" s="3" t="s">
-        <v>797</v>
+        <v>610</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
-        <v>1361</v>
+        <v>1368</v>
       </c>
       <c r="B319" s="3"/>
       <c r="C319" s="3" t="s">
-        <v>296</v>
+        <v>733</v>
       </c>
       <c r="D319" s="28" t="s">
-        <v>1478</v>
+        <v>1551</v>
       </c>
       <c r="E319" t="s">
-        <v>33</v>
+        <v>1204</v>
       </c>
       <c r="F319" s="3" t="s">
-        <v>939</v>
+        <v>1067</v>
       </c>
       <c r="G319" s="3" t="s">
-        <v>296</v>
+        <v>801</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
-        <v>36</v>
+        <v>1369</v>
       </c>
       <c r="B320" s="3"/>
       <c r="C320" s="3" t="s">
-        <v>197</v>
+        <v>734</v>
       </c>
       <c r="D320" s="28" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="E320" t="s">
-        <v>135</v>
+        <v>1319</v>
       </c>
       <c r="F320" s="3" t="s">
-        <v>983</v>
+        <v>1068</v>
       </c>
       <c r="G320" s="3" t="s">
-        <v>658</v>
+        <v>802</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
-        <v>1363</v>
+        <v>1370</v>
       </c>
       <c r="B321" s="3"/>
       <c r="C321" s="3" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="D321" s="28" t="s">
-        <v>1611</v>
+        <v>1615</v>
       </c>
       <c r="E321" t="s">
-        <v>1314</v>
+        <v>1318</v>
       </c>
       <c r="F321" s="3" t="s">
-        <v>1062</v>
+        <v>1066</v>
       </c>
       <c r="G321" s="3" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="B322" s="3"/>
       <c r="C322" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D322" s="28" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="E322" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="F322" s="3" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="G322" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="B323" s="3"/>
       <c r="C323" s="3" t="s">
-        <v>731</v>
+        <v>296</v>
       </c>
       <c r="D323" s="28" t="s">
-        <v>1614</v>
+        <v>1478</v>
       </c>
       <c r="E323" t="s">
-        <v>1317</v>
+        <v>33</v>
       </c>
       <c r="F323" s="3" t="s">
-        <v>1065</v>
+        <v>939</v>
       </c>
       <c r="G323" s="3" t="s">
-        <v>799</v>
+        <v>296</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
-        <v>1366</v>
+        <v>36</v>
       </c>
       <c r="B324" s="3"/>
       <c r="C324" s="3" t="s">
-        <v>727</v>
+        <v>197</v>
       </c>
       <c r="D324" s="28" t="s">
-        <v>1453</v>
+        <v>1617</v>
       </c>
       <c r="E324" t="s">
-        <v>1205</v>
+        <v>135</v>
       </c>
       <c r="F324" s="3" t="s">
-        <v>1061</v>
+        <v>983</v>
       </c>
       <c r="G324" s="3" t="s">
-        <v>292</v>
+        <v>658</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="B325" s="3"/>
       <c r="C325" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="D325" s="28" t="s">
+        <v>1611</v>
+      </c>
+      <c r="E325" t="s">
+        <v>1314</v>
+      </c>
+      <c r="F325" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G325" s="3" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A326" s="3" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B326" s="3"/>
+      <c r="C326" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="D326" s="28" t="s">
+        <v>1613</v>
+      </c>
+      <c r="E326" t="s">
+        <v>1316</v>
+      </c>
+      <c r="F326" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G326" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A327" s="3" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B327" s="3"/>
+      <c r="C327" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="D327" s="28" t="s">
+        <v>1614</v>
+      </c>
+      <c r="E327" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F327" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G327" s="3" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A328" s="3" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B328" s="3"/>
+      <c r="C328" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="D328" s="28" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E328" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F328" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G328" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="D325" s="28" t="s">
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A329" s="3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B329" s="3"/>
+      <c r="C329" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D329" s="28" t="s">
         <v>1610</v>
       </c>
-      <c r="E325" t="s">
+      <c r="E329" t="s">
         <v>1231</v>
       </c>
-      <c r="F325" s="3" t="s">
+      <c r="F329" s="3" t="s">
         <v>926</v>
       </c>
-      <c r="G325" s="3" t="s">
+      <c r="G329" s="3" t="s">
         <v>292</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
-        <v>841</v>
-      </c>
-      <c r="C326" s="3" t="s">
-        <v>843</v>
-      </c>
-      <c r="D326" s="28" t="s">
-        <v>1618</v>
-      </c>
-      <c r="E326" t="s">
-        <v>1320</v>
-      </c>
-      <c r="F326" s="3" t="s">
-        <v>1069</v>
-      </c>
-      <c r="G326" s="3" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
-        <v>1354</v>
-      </c>
-      <c r="C327" t="s">
-        <v>122</v>
-      </c>
-      <c r="D327" s="25" t="s">
-        <v>1423</v>
-      </c>
-      <c r="E327" t="s">
-        <v>10</v>
-      </c>
-      <c r="F327" s="3" t="s">
-        <v>907</v>
-      </c>
-      <c r="G327" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
-        <v>1355</v>
-      </c>
-      <c r="C328" t="s">
-        <v>733</v>
-      </c>
-      <c r="D328" s="25" t="s">
-        <v>1551</v>
-      </c>
-      <c r="E328" t="s">
-        <v>1204</v>
-      </c>
-      <c r="F328" s="3" t="s">
-        <v>1067</v>
-      </c>
-      <c r="G328" s="3" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
-        <v>1356</v>
-      </c>
-      <c r="C329" t="s">
-        <v>734</v>
-      </c>
-      <c r="D329" s="25" t="s">
-        <v>1616</v>
-      </c>
-      <c r="E329" t="s">
-        <v>1319</v>
-      </c>
-      <c r="F329" s="3" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G329" s="3" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>1357</v>
-      </c>
-      <c r="C330" t="s">
-        <v>140</v>
-      </c>
-      <c r="D330" s="25" t="s">
-        <v>1443</v>
+        <v>841</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="D330" s="28" t="s">
+        <v>1618</v>
       </c>
       <c r="E330" t="s">
-        <v>42</v>
+        <v>1320</v>
       </c>
       <c r="F330" s="3" t="s">
-        <v>920</v>
-      </c>
-      <c r="G330" t="s">
-        <v>587</v>
+        <v>1069</v>
+      </c>
+      <c r="G330" s="3" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="C331" t="s">
-        <v>731</v>
+        <v>122</v>
       </c>
       <c r="D331" s="25" t="s">
-        <v>1614</v>
+        <v>1423</v>
       </c>
       <c r="E331" t="s">
-        <v>1317</v>
+        <v>10</v>
       </c>
       <c r="F331" s="3" t="s">
-        <v>1065</v>
+        <v>907</v>
+      </c>
+      <c r="G331" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A332" s="9" t="s">
-        <v>840</v>
-      </c>
-      <c r="B332" s="9"/>
-      <c r="C332" s="9" t="s">
-        <v>828</v>
-      </c>
-      <c r="D332" s="26" t="s">
-        <v>1619</v>
+      <c r="A332" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C332" t="s">
+        <v>733</v>
+      </c>
+      <c r="D332" s="25" t="s">
+        <v>1551</v>
       </c>
       <c r="E332" t="s">
-        <v>1321</v>
+        <v>1204</v>
       </c>
       <c r="F332" s="3" t="s">
-        <v>828</v>
-      </c>
-      <c r="G332" t="s">
-        <v>829</v>
+        <v>1067</v>
+      </c>
+      <c r="G332" s="3" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C333" t="s">
+        <v>734</v>
+      </c>
+      <c r="D333" s="25" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E333" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F333" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G333" s="3" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C334" t="s">
+        <v>140</v>
+      </c>
+      <c r="D334" s="25" t="s">
+        <v>1443</v>
+      </c>
+      <c r="E334" t="s">
+        <v>42</v>
+      </c>
+      <c r="F334" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="G334" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C335" t="s">
+        <v>731</v>
+      </c>
+      <c r="D335" s="25" t="s">
+        <v>1614</v>
+      </c>
+      <c r="E335" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F335" s="3" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A336" s="9" t="s">
+        <v>840</v>
+      </c>
+      <c r="B336" s="9"/>
+      <c r="C336" s="9" t="s">
+        <v>828</v>
+      </c>
+      <c r="D336" s="26" t="s">
+        <v>1619</v>
+      </c>
+      <c r="E336" t="s">
+        <v>1321</v>
+      </c>
+      <c r="F336" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="G336" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
         <v>1359</v>
       </c>
-      <c r="C333" t="s">
+      <c r="C337" t="s">
         <v>709</v>
       </c>
-      <c r="D333" s="25" t="s">
+      <c r="D337" s="25" t="s">
         <v>1606</v>
       </c>
-      <c r="E333" t="s">
+      <c r="E337" t="s">
         <v>1312</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A334" s="3" t="s">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A338" s="3" t="s">
         <v>1360</v>
       </c>
-      <c r="B334" s="3"/>
-      <c r="C334" s="3" t="s">
+      <c r="B338" s="3"/>
+      <c r="C338" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="D334" s="28" t="s">
+      <c r="D338" s="28" t="s">
         <v>1603</v>
       </c>
-      <c r="E334" t="s">
+      <c r="E338" t="s">
         <v>1305</v>
       </c>
-      <c r="F334" s="3" t="s">
+      <c r="F338" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="G334" s="3" t="s">
+      <c r="G338" s="3" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A335" s="3"/>
-      <c r="B335" s="3"/>
-      <c r="C335" s="3"/>
-      <c r="D335" s="28"/>
-      <c r="G335" s="3"/>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A336" s="10" t="s">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A339" s="3"/>
+      <c r="B339" s="3"/>
+      <c r="C339" s="3"/>
+      <c r="D339" s="28"/>
+      <c r="G339" s="3"/>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A340" s="10" t="s">
         <v>725</v>
       </c>
-      <c r="B336" s="10"/>
-      <c r="C336" s="3"/>
-      <c r="D336" s="28"/>
-      <c r="G336" s="3"/>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A337" s="3" t="s">
+      <c r="B340" s="10"/>
+      <c r="C340" s="3"/>
+      <c r="D340" s="28"/>
+      <c r="G340" s="3"/>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A341" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B337" s="3"/>
-      <c r="C337" s="3" t="s">
+      <c r="B341" s="3"/>
+      <c r="C341" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="D337" s="28" t="s">
+      <c r="D341" s="28" t="s">
         <v>1620</v>
       </c>
-      <c r="E337" t="s">
+      <c r="E341" t="s">
         <v>1322</v>
       </c>
-      <c r="F337" s="3" t="s">
+      <c r="F341" s="3" t="s">
         <v>1070</v>
       </c>
-      <c r="G337" s="3" t="s">
+      <c r="G341" s="3" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A338" s="15" t="s">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A342" s="15" t="s">
         <v>1337</v>
       </c>
-      <c r="B338" s="15"/>
-      <c r="C338" s="4" t="s">
+      <c r="B342" s="15"/>
+      <c r="C342" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D338" s="32" t="s">
+      <c r="D342" s="32" t="s">
         <v>1423</v>
       </c>
-      <c r="E338" t="s">
+      <c r="E342" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="339" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="9" t="s">
+    <row r="343" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="9" t="s">
         <v>1338</v>
-      </c>
-      <c r="B339" s="9"/>
-      <c r="C339" s="9" t="s">
-        <v>1371</v>
-      </c>
-      <c r="D339" s="26" t="s">
-        <v>1597</v>
-      </c>
-      <c r="E339" s="14" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
-        <v>60</v>
-      </c>
-      <c r="B340" s="9"/>
-      <c r="C340" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="D340" s="26" t="s">
-        <v>1411</v>
-      </c>
-      <c r="E340" t="s">
-        <v>61</v>
-      </c>
-      <c r="F340" s="3" t="s">
-        <v>894</v>
-      </c>
-      <c r="G340" s="3" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A341" s="9" t="s">
-        <v>738</v>
-      </c>
-      <c r="B341" s="9"/>
-      <c r="C341" s="9" t="s">
-        <v>739</v>
-      </c>
-      <c r="D341" s="26" t="s">
-        <v>1621</v>
-      </c>
-      <c r="E341" t="s">
-        <v>1323</v>
-      </c>
-      <c r="F341" s="3" t="s">
-        <v>1071</v>
-      </c>
-      <c r="G341" s="3" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A342" s="9" t="s">
-        <v>740</v>
-      </c>
-      <c r="B342" s="9"/>
-      <c r="C342" s="9" t="s">
-        <v>741</v>
-      </c>
-      <c r="D342" s="26" t="s">
-        <v>1622</v>
-      </c>
-      <c r="E342" t="s">
-        <v>1324</v>
-      </c>
-      <c r="F342" s="3" t="s">
-        <v>1072</v>
-      </c>
-      <c r="G342" s="3" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A343" s="9" t="s">
-        <v>742</v>
       </c>
       <c r="B343" s="9"/>
       <c r="C343" s="9" t="s">
-        <v>743</v>
+        <v>1371</v>
       </c>
       <c r="D343" s="26" t="s">
-        <v>1623</v>
-      </c>
-      <c r="E343" t="s">
-        <v>1325</v>
-      </c>
-      <c r="F343" s="3" t="s">
-        <v>1073</v>
-      </c>
-      <c r="G343" s="3" t="s">
-        <v>806</v>
+        <v>1597</v>
+      </c>
+      <c r="E343" s="14" t="s">
+        <v>1379</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A344" s="9" t="s">
-        <v>744</v>
+      <c r="A344" t="s">
+        <v>60</v>
       </c>
       <c r="B344" s="9"/>
       <c r="C344" s="9" t="s">
-        <v>745</v>
+        <v>263</v>
       </c>
       <c r="D344" s="26" t="s">
-        <v>1624</v>
+        <v>1411</v>
       </c>
       <c r="E344" t="s">
-        <v>1326</v>
+        <v>61</v>
       </c>
       <c r="F344" s="3" t="s">
-        <v>1074</v>
+        <v>894</v>
       </c>
       <c r="G344" s="3" t="s">
-        <v>807</v>
+        <v>558</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="9" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="B345" s="9"/>
       <c r="C345" s="9" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="D345" s="26" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="E345" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="F345" s="3" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="G345" s="3" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="9" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B346" s="9"/>
       <c r="C346" s="9" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="D346" s="26" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="E346" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="F346" s="3" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="G346" s="3" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="9" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="B347" s="9"/>
       <c r="C347" s="9" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="D347" s="26" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="E347" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="F347" s="3" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="G347" s="3" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="9" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="B348" s="9"/>
       <c r="C348" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="D348" s="26" t="s">
+        <v>1624</v>
+      </c>
+      <c r="E348" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F348" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G348" s="3" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A349" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="B349" s="9"/>
+      <c r="C349" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="D349" s="26" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E349" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F349" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G349" s="3" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A350" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="B350" s="9"/>
+      <c r="C350" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="D350" s="26" t="s">
+        <v>1626</v>
+      </c>
+      <c r="E350" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F350" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G350" s="3" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A351" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="B351" s="9"/>
+      <c r="C351" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="D351" s="26" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E351" t="s">
+        <v>1329</v>
+      </c>
+      <c r="F351" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G351" s="3" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A352" s="9" t="s">
+        <v>752</v>
+      </c>
+      <c r="B352" s="9"/>
+      <c r="C352" s="9" t="s">
         <v>753</v>
       </c>
-      <c r="D348" s="26" t="s">
+      <c r="D352" s="26" t="s">
         <v>1616</v>
       </c>
-      <c r="E348" t="s">
+      <c r="E352" t="s">
         <v>1330</v>
       </c>
-      <c r="F348" s="3" t="s">
+      <c r="F352" s="3" t="s">
         <v>1078</v>
       </c>
-      <c r="G348" s="3" t="s">
+      <c r="G352" s="3" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
         <v>93</v>
       </c>
-      <c r="C349" s="9" t="s">
+      <c r="C353" s="9" t="s">
         <v>724</v>
       </c>
-      <c r="D349" s="26" t="s">
+      <c r="D353" s="26" t="s">
         <v>1606</v>
       </c>
-      <c r="E349" s="14" t="s">
+      <c r="E353" s="14" t="s">
         <v>1312</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
         <v>94</v>
       </c>
-      <c r="C350" s="9" t="s">
+      <c r="C354" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="D350" s="26" t="s">
+      <c r="D354" s="26" t="s">
         <v>1471</v>
       </c>
-      <c r="E350" s="14" t="s">
+      <c r="E354" s="14" t="s">
         <v>1212</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
         <v>1341</v>
       </c>
-      <c r="C351" s="9" t="s">
+      <c r="C355" s="9" t="s">
         <v>719</v>
       </c>
-      <c r="D351" s="26" t="s">
+      <c r="D355" s="26" t="s">
         <v>1603</v>
       </c>
-      <c r="E351" s="14" t="s">
+      <c r="E355" s="14" t="s">
         <v>1307</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
         <v>1342</v>
       </c>
-      <c r="C352" t="s">
+      <c r="C356" t="s">
         <v>504</v>
       </c>
-      <c r="D352" s="25" t="s">
+      <c r="D356" s="25" t="s">
         <v>1471</v>
       </c>
-      <c r="E352" s="14" t="s">
+      <c r="E356" s="14" t="s">
         <v>1212</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A353" s="9" t="s">
-        <v>754</v>
-      </c>
-      <c r="B353" s="9"/>
-      <c r="C353" s="9" t="s">
-        <v>755</v>
-      </c>
-      <c r="D353" s="26" t="s">
-        <v>1628</v>
-      </c>
-      <c r="E353" t="s">
-        <v>1331</v>
-      </c>
-      <c r="F353" s="3" t="s">
-        <v>1079</v>
-      </c>
-      <c r="G353" s="3" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A354" s="9" t="s">
-        <v>756</v>
-      </c>
-      <c r="B354" s="9"/>
-      <c r="C354" s="9" t="s">
-        <v>757</v>
-      </c>
-      <c r="D354" s="26" t="s">
-        <v>1629</v>
-      </c>
-      <c r="E354" t="s">
-        <v>1297</v>
-      </c>
-      <c r="F354" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="G354" s="3" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A355" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B355" s="9"/>
-      <c r="C355" s="9" t="s">
-        <v>758</v>
-      </c>
-      <c r="D355" s="26" t="s">
-        <v>1630</v>
-      </c>
-      <c r="E355" t="s">
-        <v>1332</v>
-      </c>
-      <c r="F355" s="3" t="s">
-        <v>1080</v>
-      </c>
-      <c r="G355" s="3" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A356" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B356" s="9" t="s">
-        <v>1640</v>
-      </c>
-      <c r="C356" s="9" t="s">
-        <v>1374</v>
-      </c>
-      <c r="D356" s="26" t="s">
-        <v>1631</v>
-      </c>
-      <c r="E356" t="s">
-        <v>1376</v>
-      </c>
-      <c r="F356" s="3" t="s">
-        <v>1081</v>
-      </c>
-      <c r="G356" s="3" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="9" t="s">
-        <v>67</v>
+        <v>754</v>
       </c>
       <c r="B357" s="9"/>
       <c r="C357" s="9" t="s">
-        <v>1372</v>
+        <v>755</v>
       </c>
       <c r="D357" s="26" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
       <c r="E357" t="s">
-        <v>1377</v>
-      </c>
-      <c r="G357" s="3"/>
+        <v>1331</v>
+      </c>
+      <c r="F357" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G357" s="3" t="s">
+        <v>812</v>
+      </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="9" t="s">
-        <v>1343</v>
+        <v>756</v>
       </c>
       <c r="B358" s="9"/>
       <c r="C358" s="9" t="s">
-        <v>1373</v>
+        <v>757</v>
       </c>
       <c r="D358" s="26" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="E358" t="s">
-        <v>1378</v>
-      </c>
-      <c r="G358" s="3"/>
+        <v>1297</v>
+      </c>
+      <c r="F358" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G358" s="3" t="s">
+        <v>813</v>
+      </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="9" t="s">
-        <v>759</v>
-      </c>
-      <c r="B359" s="9" t="s">
-        <v>1375</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B359" s="9"/>
       <c r="C359" s="9" t="s">
-        <v>1374</v>
+        <v>758</v>
       </c>
       <c r="D359" s="26" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
       <c r="E359" t="s">
-        <v>1376</v>
+        <v>1332</v>
       </c>
       <c r="F359" s="3" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="G359" s="3" t="s">
-        <v>815</v>
+        <v>758</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B360" s="9"/>
+        <v>65</v>
+      </c>
+      <c r="B360" s="9" t="s">
+        <v>1640</v>
+      </c>
       <c r="C360" s="9" t="s">
-        <v>262</v>
+        <v>1374</v>
       </c>
       <c r="D360" s="26" t="s">
-        <v>1608</v>
+        <v>1631</v>
       </c>
       <c r="E360" t="s">
-        <v>1184</v>
+        <v>1376</v>
       </c>
       <c r="F360" s="3" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="G360" s="3" t="s">
-        <v>262</v>
+        <v>814</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="9" t="s">
-        <v>760</v>
+        <v>67</v>
       </c>
       <c r="B361" s="9"/>
       <c r="C361" s="9" t="s">
-        <v>761</v>
+        <v>1372</v>
       </c>
       <c r="D361" s="26" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="E361" t="s">
-        <v>1333</v>
-      </c>
-      <c r="F361" s="3" t="s">
-        <v>1084</v>
-      </c>
-      <c r="G361" s="3" t="s">
-        <v>816</v>
-      </c>
+        <v>1377</v>
+      </c>
+      <c r="G361" s="3"/>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="9" t="s">
-        <v>762</v>
+        <v>1343</v>
       </c>
       <c r="B362" s="9"/>
       <c r="C362" s="9" t="s">
-        <v>763</v>
+        <v>1373</v>
       </c>
       <c r="D362" s="26" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="E362" t="s">
-        <v>1334</v>
-      </c>
-      <c r="F362" s="3" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G362" s="3" t="s">
-        <v>817</v>
-      </c>
+        <v>1378</v>
+      </c>
+      <c r="G362" s="3"/>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="9" t="s">
-        <v>764</v>
-      </c>
-      <c r="B363" s="9"/>
+        <v>759</v>
+      </c>
+      <c r="B363" s="9" t="s">
+        <v>1375</v>
+      </c>
       <c r="C363" s="9" t="s">
-        <v>765</v>
+        <v>1374</v>
       </c>
       <c r="D363" s="26" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="E363" t="s">
-        <v>1335</v>
+        <v>1376</v>
       </c>
       <c r="F363" s="3" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="G363" s="3" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="9" t="s">
-        <v>766</v>
+        <v>72</v>
       </c>
       <c r="B364" s="9"/>
       <c r="C364" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D364" s="26" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E364" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F364" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G364" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A365" s="9" t="s">
+        <v>760</v>
+      </c>
+      <c r="B365" s="9"/>
+      <c r="C365" s="9" t="s">
+        <v>761</v>
+      </c>
+      <c r="D365" s="26" t="s">
+        <v>1635</v>
+      </c>
+      <c r="E365" t="s">
+        <v>1333</v>
+      </c>
+      <c r="F365" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G365" s="3" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A366" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="B366" s="9"/>
+      <c r="C366" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="D366" s="26" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E366" t="s">
+        <v>1334</v>
+      </c>
+      <c r="F366" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G366" s="3" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A367" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="B367" s="9"/>
+      <c r="C367" s="9" t="s">
+        <v>765</v>
+      </c>
+      <c r="D367" s="26" t="s">
+        <v>1637</v>
+      </c>
+      <c r="E367" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F367" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G367" s="3" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A368" s="9" t="s">
+        <v>766</v>
+      </c>
+      <c r="B368" s="9"/>
+      <c r="C368" s="9" t="s">
         <v>767</v>
       </c>
-      <c r="D364" s="26" t="s">
+      <c r="D368" s="26" t="s">
         <v>1638</v>
       </c>
-      <c r="E364" t="s">
+      <c r="E368" t="s">
         <v>1336</v>
       </c>
-      <c r="F364" s="3" t="s">
+      <c r="F368" s="3" t="s">
         <v>1087</v>
       </c>
-      <c r="G364" s="3" t="s">
+      <c r="G368" s="3" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C365" s="9"/>
-      <c r="D365" s="26"/>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A366" s="22" t="s">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C369" s="9"/>
+      <c r="D369" s="26"/>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370" s="22" t="s">
         <v>1674</v>
-      </c>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
-        <v>0</v>
-      </c>
-      <c r="C367" t="s">
-        <v>1648</v>
-      </c>
-      <c r="D367" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
-        <v>1649</v>
-      </c>
-      <c r="C368" t="s">
-        <v>1407</v>
-      </c>
-      <c r="D368" t="s">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
-        <v>1650</v>
-      </c>
-      <c r="C369" t="s">
-        <v>262</v>
-      </c>
-      <c r="D369" t="s">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
-        <v>1654</v>
-      </c>
-      <c r="C370" t="s">
-        <v>1653</v>
-      </c>
-      <c r="D370" t="s">
-        <v>1688</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>1655</v>
+        <v>0</v>
       </c>
       <c r="C371" t="s">
-        <v>280</v>
+        <v>1648</v>
       </c>
       <c r="D371" t="s">
-        <v>1432</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>1656</v>
+        <v>1649</v>
       </c>
       <c r="C372" t="s">
-        <v>1652</v>
+        <v>1407</v>
       </c>
       <c r="D372" t="s">
-        <v>1689</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>1657</v>
+        <v>1650</v>
       </c>
       <c r="C373" t="s">
-        <v>1651</v>
+        <v>262</v>
       </c>
       <c r="D373" t="s">
-        <v>1690</v>
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C374" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D374" t="s">
+        <v>1688</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A375" s="1" t="s">
-        <v>1675</v>
+      <c r="A375" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C375" t="s">
+        <v>280</v>
+      </c>
+      <c r="D375" t="s">
+        <v>1432</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>0</v>
-      </c>
-      <c r="B376" t="s">
-        <v>1672</v>
+        <v>1656</v>
       </c>
       <c r="C376" t="s">
-        <v>1658</v>
+        <v>1652</v>
       </c>
       <c r="D376" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="C377" t="s">
-        <v>1660</v>
+        <v>1651</v>
       </c>
       <c r="D377" t="s">
-        <v>1692</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A378" t="s">
-        <v>1661</v>
-      </c>
-      <c r="C378" t="s">
-        <v>1662</v>
-      </c>
-      <c r="D378" t="s">
-        <v>1662</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A379" t="s">
-        <v>1663</v>
-      </c>
-      <c r="C379" t="s">
-        <v>296</v>
-      </c>
-      <c r="D379" t="s">
-        <v>1478</v>
+      <c r="A379" s="1" t="s">
+        <v>1675</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>1664</v>
+        <v>0</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1672</v>
       </c>
       <c r="C380" t="s">
-        <v>1665</v>
+        <v>1658</v>
       </c>
       <c r="D380" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>88</v>
+        <v>1659</v>
       </c>
       <c r="C381" t="s">
-        <v>1666</v>
+        <v>1660</v>
       </c>
       <c r="D381" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>64</v>
+        <v>1661</v>
       </c>
       <c r="C382" t="s">
-        <v>1667</v>
+        <v>1662</v>
       </c>
       <c r="D382" t="s">
-        <v>1695</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>1668</v>
+        <v>1663</v>
       </c>
       <c r="C383" t="s">
-        <v>1669</v>
+        <v>296</v>
       </c>
       <c r="D383" t="s">
-        <v>1696</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C384" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D384" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>88</v>
+      </c>
+      <c r="C385" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D385" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>64</v>
+      </c>
+      <c r="C386" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D386" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C387" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D387" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
         <v>1670</v>
       </c>
-      <c r="C384" t="s">
+      <c r="C388" t="s">
         <v>1671</v>
       </c>
-      <c r="D384" t="s">
+      <c r="D388" t="s">
         <v>1697</v>
       </c>
     </row>

--- a/Documentation/translation.xlsx
+++ b/Documentation/translation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2665" uniqueCount="2128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2671" uniqueCount="2134">
   <si>
     <t>$this.Text</t>
   </si>
@@ -6405,6 +6405,24 @@
   </si>
   <si>
     <t>Last update</t>
+  </si>
+  <si>
+    <t>useDefault</t>
+  </si>
+  <si>
+    <t>-- use default --</t>
+  </si>
+  <si>
+    <t>-- alapértelmezett használata --</t>
+  </si>
+  <si>
+    <t>interfaceInfo</t>
+  </si>
+  <si>
+    <t>IPv4 interface information for {0}.{1}</t>
+  </si>
+  <si>
+    <t>IPv4 csatoló információk ({0}.{1})</t>
   </si>
 </sst>
 </file>
@@ -7056,11 +7074,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J425"/>
+  <dimension ref="A1:J427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A345" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D370" sqref="D370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11433,1276 +11451,1242 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C191" t="s">
+        <v>2132</v>
+      </c>
+      <c r="D191" s="23"/>
+      <c r="J191" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>134</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C192" t="s">
         <v>196</v>
       </c>
-      <c r="D191" s="23" t="s">
+      <c r="D192" s="23" t="s">
         <v>1433</v>
       </c>
-      <c r="E191" t="s">
+      <c r="E192" t="s">
         <v>135</v>
       </c>
-      <c r="F191" t="s">
+      <c r="F192" t="s">
         <v>656</v>
       </c>
-      <c r="G191" t="s">
+      <c r="G192" t="s">
         <v>376</v>
       </c>
-      <c r="I191" t="s">
+      <c r="I192" t="s">
         <v>981</v>
       </c>
-      <c r="J191" t="s">
+      <c r="J192" t="s">
         <v>1752</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A192" s="3" t="s">
-        <v>861</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>842</v>
-      </c>
-      <c r="D192" s="27" t="s">
-        <v>1674</v>
-      </c>
-      <c r="I192" t="s">
-        <v>1002</v>
-      </c>
-      <c r="J192" t="s">
-        <v>1858</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>862</v>
-      </c>
-      <c r="B193" s="3"/>
+        <v>861</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>1159</v>
+      </c>
       <c r="C193" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D193" s="27" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="I193" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="J193" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B194" s="3"/>
       <c r="C194" s="3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D194" s="27" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="I194" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="J194" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>852</v>
+        <v>863</v>
       </c>
       <c r="B195" s="3"/>
       <c r="C195" s="3" t="s">
-        <v>845</v>
-      </c>
-      <c r="D195" s="26" t="s">
-        <v>1547</v>
-      </c>
-      <c r="E195" t="s">
-        <v>1258</v>
+        <v>844</v>
+      </c>
+      <c r="D195" s="27" t="s">
+        <v>1676</v>
       </c>
       <c r="I195" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="J195" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>1641</v>
+        <v>852</v>
       </c>
       <c r="B196" s="3"/>
       <c r="C196" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="D196" t="s">
-        <v>1612</v>
+        <v>845</v>
+      </c>
+      <c r="D196" s="26" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E196" t="s">
+        <v>1258</v>
       </c>
       <c r="I196" t="s">
-        <v>1076</v>
+        <v>1005</v>
       </c>
       <c r="J196" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>851</v>
+        <v>1641</v>
       </c>
       <c r="B197" s="3"/>
       <c r="C197" s="3" t="s">
-        <v>849</v>
-      </c>
-      <c r="D197" s="26" t="s">
-        <v>1551</v>
-      </c>
-      <c r="E197" t="s">
-        <v>1262</v>
+        <v>751</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1612</v>
       </c>
       <c r="I197" t="s">
-        <v>1009</v>
+        <v>1076</v>
       </c>
       <c r="J197" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>1642</v>
+        <v>851</v>
       </c>
       <c r="B198" s="3"/>
-      <c r="C198" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D198" t="s">
-        <v>1677</v>
+      <c r="C198" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="D198" s="26" t="s">
+        <v>1551</v>
+      </c>
+      <c r="E198" t="s">
+        <v>1262</v>
       </c>
       <c r="I198" t="s">
-        <v>2087</v>
+        <v>1009</v>
       </c>
       <c r="J198" t="s">
-        <v>1725</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>859</v>
+        <v>1642</v>
       </c>
       <c r="B199" s="3"/>
-      <c r="C199" s="3" t="s">
-        <v>835</v>
-      </c>
-      <c r="D199" s="26" t="s">
-        <v>1544</v>
-      </c>
-      <c r="E199" t="s">
-        <v>1255</v>
+      <c r="C199" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D199" t="s">
+        <v>1677</v>
       </c>
       <c r="I199" t="s">
-        <v>999</v>
+        <v>2087</v>
       </c>
       <c r="J199" t="s">
-        <v>1864</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="B200" s="3"/>
       <c r="C200" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="D200" t="s">
-        <v>1678</v>
+        <v>835</v>
+      </c>
+      <c r="D200" s="26" t="s">
+        <v>1544</v>
       </c>
       <c r="E200" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I200" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="J200" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>857</v>
+        <v>864</v>
       </c>
       <c r="B201" s="3"/>
       <c r="C201" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="D201" s="26" t="s">
-        <v>1546</v>
+        <v>833</v>
+      </c>
+      <c r="D201" t="s">
+        <v>1678</v>
       </c>
       <c r="E201" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="I201" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="J201" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B202" s="3"/>
-      <c r="C202" s="9" t="s">
-        <v>834</v>
+      <c r="C202" s="3" t="s">
+        <v>837</v>
       </c>
       <c r="D202" s="26" t="s">
-        <v>1543</v>
+        <v>1546</v>
       </c>
       <c r="E202" t="s">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="I202" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="J202" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>865</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C203" s="3" t="s">
-        <v>850</v>
-      </c>
-      <c r="D203" s="28"/>
+        <v>858</v>
+      </c>
+      <c r="B203" s="3"/>
+      <c r="C203" s="9" t="s">
+        <v>834</v>
+      </c>
+      <c r="D203" s="26" t="s">
+        <v>1543</v>
+      </c>
+      <c r="E203" t="s">
+        <v>1254</v>
+      </c>
       <c r="I203" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="J203" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="B204" s="3"/>
+        <v>865</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>1173</v>
+      </c>
       <c r="C204" s="3" t="s">
-        <v>836</v>
-      </c>
-      <c r="D204" s="26" t="s">
-        <v>1545</v>
-      </c>
-      <c r="E204" t="s">
-        <v>1256</v>
-      </c>
+        <v>850</v>
+      </c>
+      <c r="D204" s="28"/>
       <c r="I204" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="J204" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="B205" s="3"/>
       <c r="C205" s="3" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="D205" s="26" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="E205" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="I205" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="J205" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="B206" s="3"/>
       <c r="C206" s="3" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D206" s="26" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="E206" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="I206" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="J206" t="s">
-        <v>1847</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B207" s="3"/>
       <c r="C207" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D207" s="26" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="E207" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="I207" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="J207" t="s">
-        <v>1871</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>1643</v>
+        <v>854</v>
       </c>
       <c r="B208" s="3"/>
-      <c r="C208" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="D208" s="26"/>
+      <c r="C208" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="D208" s="26" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E208" t="s">
+        <v>1261</v>
+      </c>
       <c r="I208" t="s">
-        <v>2088</v>
+        <v>1008</v>
       </c>
       <c r="J208" t="s">
-        <v>1724</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B209" s="3"/>
+      <c r="C209" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D209" s="26"/>
+      <c r="I209" t="s">
+        <v>2088</v>
+      </c>
+      <c r="J209" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A210" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="B209" s="3"/>
-      <c r="C209" s="3" t="s">
+      <c r="B210" s="3"/>
+      <c r="C210" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="D209" s="26" t="s">
+      <c r="D210" s="26" t="s">
         <v>1471</v>
       </c>
-      <c r="E209" t="s">
+      <c r="E210" t="s">
         <v>1219</v>
       </c>
-      <c r="I209" t="s">
+      <c r="I210" t="s">
         <v>934</v>
       </c>
-      <c r="J209" t="s">
+      <c r="J210" t="s">
         <v>1788</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>136</v>
-      </c>
-      <c r="C210" t="s">
-        <v>197</v>
-      </c>
-      <c r="D210" s="23" t="s">
-        <v>1525</v>
-      </c>
-      <c r="E210" t="s">
-        <v>1244</v>
-      </c>
-      <c r="F210" t="s">
-        <v>657</v>
-      </c>
-      <c r="G210" t="s">
-        <v>434</v>
-      </c>
-      <c r="I210" t="s">
-        <v>982</v>
-      </c>
-      <c r="J210" t="s">
-        <v>1872</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C211" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D211" s="23" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="E211" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="F211" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G211" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I211" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="J211" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="C212" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D212" s="23" t="s">
-        <v>1480</v>
+        <v>1526</v>
       </c>
       <c r="E212" t="s">
-        <v>200</v>
+        <v>1245</v>
       </c>
       <c r="F212" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G212" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I212" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="J212" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C213" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D213" s="23" t="s">
-        <v>1527</v>
+        <v>1480</v>
       </c>
       <c r="E213" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F213" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G213" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I213" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="J213" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>202</v>
+      </c>
+      <c r="C214" t="s">
+        <v>204</v>
+      </c>
+      <c r="D214" s="23" t="s">
+        <v>1527</v>
+      </c>
+      <c r="E214" t="s">
+        <v>203</v>
+      </c>
+      <c r="F214" t="s">
+        <v>660</v>
+      </c>
+      <c r="G214" t="s">
+        <v>437</v>
+      </c>
+      <c r="I214" t="s">
+        <v>985</v>
+      </c>
+      <c r="J214" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
         <v>138</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C215" t="s">
         <v>205</v>
       </c>
-      <c r="D214" s="23" t="s">
+      <c r="D215" s="23" t="s">
         <v>1528</v>
       </c>
-      <c r="E214" t="s">
+      <c r="E215" t="s">
         <v>139</v>
       </c>
-      <c r="F214" t="s">
+      <c r="F215" t="s">
         <v>661</v>
       </c>
-      <c r="G214" t="s">
+      <c r="G215" t="s">
         <v>438</v>
       </c>
-      <c r="I214" t="s">
+      <c r="I215" t="s">
         <v>986</v>
       </c>
-      <c r="J214" t="s">
+      <c r="J215" t="s">
         <v>1876</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A215" s="6" t="s">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A216" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="B215" s="6"/>
-      <c r="C215" s="6" t="s">
+      <c r="B216" s="6"/>
+      <c r="C216" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="D215" s="26" t="s">
+      <c r="D216" s="26" t="s">
         <v>1529</v>
       </c>
-      <c r="F215" s="6" t="s">
+      <c r="F216" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="G215" s="6" t="s">
+      <c r="G216" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="I215" t="s">
+      <c r="I216" t="s">
         <v>987</v>
       </c>
-      <c r="J215" t="s">
+      <c r="J216" t="s">
         <v>1877</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>140</v>
-      </c>
-      <c r="C216" t="s">
-        <v>206</v>
-      </c>
-      <c r="D216" s="23" t="s">
-        <v>1530</v>
-      </c>
-      <c r="E216" t="s">
-        <v>141</v>
-      </c>
-      <c r="F216" t="s">
-        <v>663</v>
-      </c>
-      <c r="G216" t="s">
-        <v>439</v>
-      </c>
-      <c r="I216" t="s">
-        <v>988</v>
-      </c>
-      <c r="J216" t="s">
-        <v>1878</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>142</v>
-      </c>
-      <c r="B217" t="s">
-        <v>1169</v>
+        <v>140</v>
       </c>
       <c r="C217" t="s">
-        <v>1155</v>
+        <v>206</v>
       </c>
       <c r="D217" s="23" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="E217" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F217" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G217" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I217" t="s">
-        <v>1087</v>
+        <v>988</v>
       </c>
       <c r="J217" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>144</v>
+        <v>142</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1169</v>
       </c>
       <c r="C218" t="s">
-        <v>207</v>
+        <v>1155</v>
       </c>
       <c r="D218" s="23" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="E218" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F218" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G218" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I218" t="s">
-        <v>989</v>
+        <v>1087</v>
       </c>
       <c r="J218" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>146</v>
-      </c>
-      <c r="B219" t="s">
-        <v>1170</v>
+        <v>144</v>
       </c>
       <c r="C219" t="s">
-        <v>1156</v>
+        <v>207</v>
       </c>
       <c r="D219" s="23" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="E219" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F219" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G219" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I219" t="s">
-        <v>1088</v>
+        <v>989</v>
       </c>
       <c r="J219" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B220" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C220" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D220" s="23" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="E220" t="s">
-        <v>1246</v>
+        <v>147</v>
       </c>
       <c r="F220" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G220" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I220" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="J220" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B221" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C221" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D221" s="23" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="E221" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F221" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G221" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I221" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="J221" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>150</v>
+        <v>149</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1172</v>
       </c>
       <c r="C222" t="s">
-        <v>208</v>
+        <v>1158</v>
       </c>
       <c r="D222" s="23" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="E222" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="F222" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G222" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I222" t="s">
-        <v>990</v>
+        <v>1090</v>
       </c>
       <c r="J222" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C223" t="s">
-        <v>490</v>
+        <v>208</v>
       </c>
       <c r="D223" s="23" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="E223" t="s">
-        <v>152</v>
+        <v>1248</v>
       </c>
       <c r="F223" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G223" t="s">
-        <v>491</v>
+        <v>445</v>
       </c>
       <c r="I223" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="J223" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C224" t="s">
-        <v>209</v>
+        <v>490</v>
       </c>
       <c r="D224" s="23" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="E224" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F224" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G224" t="s">
-        <v>446</v>
+        <v>491</v>
       </c>
       <c r="I224" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="J224" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C225" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D225" s="23" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="E225" t="s">
-        <v>1249</v>
+        <v>154</v>
       </c>
       <c r="F225" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G225" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I225" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="J225" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C226" t="s">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="D226" s="23" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="E226" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="F226" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G226" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I226" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="J226" t="s">
-        <v>1847</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C227" t="s">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c r="D227" s="23" t="s">
-        <v>211</v>
+        <v>1540</v>
       </c>
       <c r="E227" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F227" t="s">
-        <v>211</v>
+        <v>673</v>
       </c>
       <c r="G227" t="s">
-        <v>211</v>
+        <v>448</v>
       </c>
       <c r="I227" t="s">
-        <v>211</v>
+        <v>994</v>
       </c>
       <c r="J227" t="s">
-        <v>211</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C228" t="s">
-        <v>766</v>
+        <v>211</v>
       </c>
       <c r="D228" s="23" t="s">
-        <v>1541</v>
+        <v>211</v>
       </c>
       <c r="E228" t="s">
-        <v>160</v>
+        <v>1251</v>
       </c>
       <c r="F228" t="s">
-        <v>766</v>
+        <v>211</v>
       </c>
       <c r="G228" t="s">
-        <v>767</v>
+        <v>211</v>
       </c>
       <c r="I228" t="s">
-        <v>766</v>
+        <v>211</v>
       </c>
       <c r="J228" t="s">
-        <v>1888</v>
+        <v>211</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C229" t="s">
+        <v>2129</v>
+      </c>
+      <c r="D229" s="23"/>
+      <c r="J229" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>159</v>
+      </c>
+      <c r="C230" t="s">
+        <v>766</v>
+      </c>
+      <c r="D230" s="23" t="s">
+        <v>1541</v>
+      </c>
+      <c r="E230" t="s">
+        <v>160</v>
+      </c>
+      <c r="F230" t="s">
+        <v>766</v>
+      </c>
+      <c r="G230" t="s">
+        <v>767</v>
+      </c>
+      <c r="I230" t="s">
+        <v>766</v>
+      </c>
+      <c r="J230" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
         <v>161</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C231" t="s">
         <v>212</v>
       </c>
-      <c r="D229" s="23" t="s">
+      <c r="D231" s="23" t="s">
         <v>1542</v>
       </c>
-      <c r="E229" t="s">
+      <c r="E231" t="s">
         <v>1252</v>
       </c>
-      <c r="F229" t="s">
+      <c r="F231" t="s">
         <v>674</v>
       </c>
-      <c r="G229" t="s">
+      <c r="G231" t="s">
         <v>450</v>
       </c>
-      <c r="I229" t="s">
+      <c r="I231" t="s">
         <v>995</v>
       </c>
-      <c r="J229" t="s">
+      <c r="J231" t="s">
         <v>1889</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A231" s="1" t="s">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B231" s="1"/>
-      <c r="D231" s="15"/>
-    </row>
-    <row r="232" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="6" t="s">
+      <c r="B233" s="1"/>
+      <c r="D233" s="15"/>
+    </row>
+    <row r="234" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="B232" s="6"/>
-      <c r="C232" s="6" t="s">
+      <c r="B234" s="6"/>
+      <c r="C234" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D232" s="26" t="s">
+      <c r="D234" s="26" t="s">
         <v>1557</v>
       </c>
-      <c r="E232" s="3" t="s">
+      <c r="E234" s="3" t="s">
         <v>1269</v>
       </c>
-      <c r="F232" s="6" t="s">
+      <c r="F234" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="G232" s="6" t="s">
+      <c r="G234" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="I232" s="3" t="s">
+      <c r="I234" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="J232" s="3" t="s">
+      <c r="J234" s="3" t="s">
         <v>1890</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A233" s="2" t="s">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="B233" s="2"/>
-      <c r="C233" t="s">
+      <c r="B235" s="2"/>
+      <c r="C235" t="s">
         <v>471</v>
       </c>
-      <c r="D233" s="23" t="s">
+      <c r="D235" s="23" t="s">
         <v>1558</v>
       </c>
-      <c r="E233" t="s">
+      <c r="E235" t="s">
         <v>1270</v>
       </c>
-      <c r="F233" t="s">
+      <c r="F235" t="s">
         <v>675</v>
       </c>
-      <c r="I233" t="s">
+      <c r="I235" t="s">
         <v>1015</v>
       </c>
-      <c r="J233" t="s">
+      <c r="J235" t="s">
         <v>1891</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A234" s="2" t="s">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
         <v>1637</v>
       </c>
-      <c r="B234" s="2"/>
-      <c r="C234" t="s">
+      <c r="B236" s="2"/>
+      <c r="C236" t="s">
         <v>1638</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D236" t="s">
         <v>1679</v>
       </c>
-      <c r="I234" t="s">
+      <c r="I236" t="s">
         <v>2089</v>
       </c>
-      <c r="J234" t="s">
+      <c r="J236" t="s">
         <v>1892</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>213</v>
-      </c>
-      <c r="C235" t="s">
-        <v>201</v>
-      </c>
-      <c r="D235" s="23" t="s">
-        <v>1480</v>
-      </c>
-      <c r="E235" t="s">
-        <v>200</v>
-      </c>
-      <c r="F235" t="s">
-        <v>659</v>
-      </c>
-      <c r="G235" t="s">
-        <v>451</v>
-      </c>
-      <c r="H235" t="s">
-        <v>326</v>
-      </c>
-      <c r="I235" t="s">
-        <v>984</v>
-      </c>
-      <c r="J235" t="s">
-        <v>1874</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>214</v>
-      </c>
-      <c r="C236" t="s">
-        <v>204</v>
-      </c>
-      <c r="D236" s="23" t="s">
-        <v>1527</v>
-      </c>
-      <c r="E236" t="s">
-        <v>203</v>
-      </c>
-      <c r="F236" t="s">
-        <v>676</v>
-      </c>
-      <c r="G236" t="s">
-        <v>437</v>
-      </c>
-      <c r="H236" t="s">
-        <v>327</v>
-      </c>
-      <c r="I236" t="s">
-        <v>985</v>
-      </c>
-      <c r="J236" t="s">
-        <v>1875</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>469</v>
+        <v>213</v>
       </c>
       <c r="C237" t="s">
-        <v>470</v>
+        <v>201</v>
       </c>
       <c r="D237" s="23" t="s">
-        <v>1559</v>
+        <v>1480</v>
       </c>
       <c r="E237" t="s">
-        <v>1271</v>
+        <v>200</v>
       </c>
       <c r="F237" t="s">
-        <v>677</v>
-      </c>
-      <c r="G237" s="6" t="s">
-        <v>524</v>
+        <v>659</v>
+      </c>
+      <c r="G237" t="s">
+        <v>451</v>
+      </c>
+      <c r="H237" t="s">
+        <v>326</v>
       </c>
       <c r="I237" t="s">
-        <v>1016</v>
+        <v>984</v>
       </c>
       <c r="J237" t="s">
-        <v>1893</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C238" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="D238" s="23" t="s">
-        <v>1560</v>
+        <v>1527</v>
       </c>
       <c r="E238" t="s">
-        <v>1272</v>
+        <v>203</v>
       </c>
       <c r="F238" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G238" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="H238" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I238" t="s">
-        <v>1017</v>
+        <v>985</v>
       </c>
       <c r="J238" t="s">
-        <v>1894</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>217</v>
+        <v>469</v>
       </c>
       <c r="C239" t="s">
-        <v>218</v>
+        <v>470</v>
       </c>
       <c r="D239" s="23" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="E239" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="F239" t="s">
-        <v>622</v>
-      </c>
-      <c r="G239" t="s">
-        <v>387</v>
-      </c>
-      <c r="H239" t="s">
-        <v>329</v>
+        <v>677</v>
+      </c>
+      <c r="G239" s="6" t="s">
+        <v>524</v>
       </c>
       <c r="I239" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="J239" t="s">
-        <v>1766</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
+        <v>215</v>
+      </c>
+      <c r="C240" t="s">
+        <v>216</v>
+      </c>
+      <c r="D240" s="23" t="s">
+        <v>1560</v>
+      </c>
+      <c r="E240" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F240" t="s">
+        <v>678</v>
+      </c>
+      <c r="G240" t="s">
+        <v>452</v>
+      </c>
+      <c r="H240" t="s">
+        <v>328</v>
+      </c>
+      <c r="I240" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J240" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>217</v>
+      </c>
+      <c r="C241" t="s">
+        <v>218</v>
+      </c>
+      <c r="D241" s="23" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E241" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F241" t="s">
+        <v>622</v>
+      </c>
+      <c r="G241" t="s">
+        <v>387</v>
+      </c>
+      <c r="H241" t="s">
+        <v>329</v>
+      </c>
+      <c r="I241" t="s">
+        <v>1018</v>
+      </c>
+      <c r="J241" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
         <v>219</v>
       </c>
-      <c r="C240" t="s">
+      <c r="C242" t="s">
         <v>220</v>
       </c>
-      <c r="D240" s="23" t="s">
+      <c r="D242" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="E240" t="s">
+      <c r="E242" t="s">
         <v>220</v>
       </c>
-      <c r="F240" t="s">
+      <c r="F242" t="s">
         <v>220</v>
       </c>
-      <c r="G240" t="s">
+      <c r="G242" t="s">
         <v>220</v>
       </c>
-      <c r="H240" t="s">
+      <c r="H242" t="s">
         <v>330</v>
       </c>
-      <c r="I240" t="s">
+      <c r="I242" t="s">
         <v>220</v>
       </c>
-      <c r="J240" t="s">
+      <c r="J242" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="241" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="6" t="s">
+    <row r="243" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="B241" s="6"/>
-      <c r="C241" s="6" t="s">
+      <c r="B243" s="6"/>
+      <c r="C243" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="D241" s="26" t="s">
+      <c r="D243" s="26" t="s">
         <v>1576</v>
       </c>
-      <c r="E241" s="3" t="s">
+      <c r="E243" s="3" t="s">
         <v>1278</v>
       </c>
-      <c r="F241" s="6" t="s">
+      <c r="F243" s="6" t="s">
         <v>690</v>
       </c>
-      <c r="G241" s="6" t="s">
+      <c r="G243" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="I241" s="3" t="s">
+      <c r="I243" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="J241" s="3" t="s">
+      <c r="J243" s="3" t="s">
         <v>1895</v>
       </c>
     </row>
-    <row r="242" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="3" t="s">
+    <row r="244" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="B242" s="3"/>
-      <c r="C242" s="3" t="s">
+      <c r="B244" s="3"/>
+      <c r="C244" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="D242" s="26" t="s">
+      <c r="D244" s="26" t="s">
         <v>1562</v>
       </c>
-      <c r="E242" t="s">
+      <c r="E244" t="s">
         <v>1274</v>
       </c>
-      <c r="F242" s="3" t="s">
+      <c r="F244" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="I242" s="8" t="s">
+      <c r="I244" s="8" t="s">
         <v>1019</v>
       </c>
-      <c r="J242" s="8" t="s">
+      <c r="J244" s="8" t="s">
         <v>1896</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>221</v>
-      </c>
-      <c r="C243" t="s">
-        <v>223</v>
-      </c>
-      <c r="D243" s="23" t="s">
-        <v>1563</v>
-      </c>
-      <c r="E243" t="s">
-        <v>222</v>
-      </c>
-      <c r="F243" t="s">
-        <v>679</v>
-      </c>
-      <c r="G243" t="s">
-        <v>453</v>
-      </c>
-      <c r="H243" t="s">
-        <v>337</v>
-      </c>
-      <c r="I243" t="s">
-        <v>1020</v>
-      </c>
-      <c r="J243" t="s">
-        <v>1897</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>224</v>
-      </c>
-      <c r="C244" t="s">
-        <v>225</v>
-      </c>
-      <c r="D244" s="23" t="s">
-        <v>1564</v>
-      </c>
-      <c r="E244" t="s">
-        <v>1275</v>
-      </c>
-      <c r="F244" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="G244" t="s">
-        <v>454</v>
-      </c>
-      <c r="H244" t="s">
-        <v>338</v>
-      </c>
-      <c r="I244" t="s">
-        <v>1021</v>
-      </c>
-      <c r="J244" t="s">
-        <v>1898</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C245" t="s">
         <v>223</v>
@@ -12719,7 +12703,7 @@
       <c r="G245" t="s">
         <v>453</v>
       </c>
-      <c r="H245" s="5" t="s">
+      <c r="H245" t="s">
         <v>337</v>
       </c>
       <c r="I245" t="s">
@@ -12731,1269 +12715,1279 @@
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C246" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D246" s="23" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="E246" t="s">
-        <v>228</v>
-      </c>
-      <c r="F246" t="s">
-        <v>680</v>
+        <v>1275</v>
+      </c>
+      <c r="F246" s="3" t="s">
+        <v>778</v>
       </c>
       <c r="G246" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H246" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="I246" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="J246" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="C247" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D247" s="23" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="E247" t="s">
-        <v>1276</v>
+        <v>222</v>
       </c>
       <c r="F247" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="G247" t="s">
-        <v>456</v>
-      </c>
-      <c r="H247" t="s">
-        <v>335</v>
+        <v>453</v>
+      </c>
+      <c r="H247" s="5" t="s">
+        <v>337</v>
       </c>
       <c r="I247" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="J247" t="s">
-        <v>1900</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C248" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D248" s="23" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="E248" t="s">
-        <v>1277</v>
+        <v>228</v>
       </c>
       <c r="F248" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G248" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H248" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I248" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="J248" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>234</v>
+        <v>123</v>
       </c>
       <c r="C249" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D249" s="23" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="E249" t="s">
-        <v>235</v>
+        <v>1276</v>
       </c>
       <c r="F249" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="G249" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H249" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="I249" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="J249" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C250" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D250" s="23" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="E250" t="s">
-        <v>238</v>
+        <v>1277</v>
       </c>
       <c r="F250" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G250" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H250" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="I250" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="J250" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C251" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D251" s="23" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="E251" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F251" t="s">
-        <v>685</v>
-      </c>
-      <c r="G251" s="6" t="s">
-        <v>460</v>
+        <v>683</v>
+      </c>
+      <c r="G251" t="s">
+        <v>458</v>
       </c>
       <c r="H251" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="I251" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="J251" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
+        <v>237</v>
+      </c>
+      <c r="C252" t="s">
+        <v>239</v>
+      </c>
+      <c r="D252" s="23" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E252" t="s">
+        <v>238</v>
+      </c>
+      <c r="F252" t="s">
+        <v>684</v>
+      </c>
+      <c r="G252" t="s">
+        <v>459</v>
+      </c>
+      <c r="H252" t="s">
+        <v>332</v>
+      </c>
+      <c r="I252" t="s">
+        <v>1026</v>
+      </c>
+      <c r="J252" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>240</v>
+      </c>
+      <c r="C253" t="s">
+        <v>242</v>
+      </c>
+      <c r="D253" s="23" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E253" t="s">
+        <v>241</v>
+      </c>
+      <c r="F253" t="s">
+        <v>685</v>
+      </c>
+      <c r="G253" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="H253" t="s">
+        <v>331</v>
+      </c>
+      <c r="I253" t="s">
+        <v>1027</v>
+      </c>
+      <c r="J253" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
         <v>243</v>
       </c>
-      <c r="C252" t="s">
+      <c r="C254" t="s">
         <v>245</v>
       </c>
-      <c r="D252" s="23" t="s">
+      <c r="D254" s="23" t="s">
         <v>1571</v>
       </c>
-      <c r="E252" t="s">
+      <c r="E254" t="s">
         <v>244</v>
       </c>
-      <c r="F252" s="3" t="s">
+      <c r="F254" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="G252" s="6" t="s">
+      <c r="G254" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="H252" t="s">
+      <c r="H254" t="s">
         <v>339</v>
       </c>
-      <c r="I252" t="s">
+      <c r="I254" t="s">
         <v>1028</v>
       </c>
-      <c r="J252" t="s">
+      <c r="J254" t="s">
         <v>1905</v>
       </c>
     </row>
-    <row r="253" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="6" t="s">
+    <row r="255" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="B253" s="6"/>
-      <c r="C253" s="6" t="s">
+      <c r="B255" s="6"/>
+      <c r="C255" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="D253" s="26" t="s">
+      <c r="D255" s="26" t="s">
         <v>1429</v>
       </c>
-      <c r="E253" s="3" t="s">
+      <c r="E255" s="3" t="s">
         <v>1192</v>
       </c>
-      <c r="F253" s="6" t="s">
+      <c r="F255" s="6" t="s">
         <v>691</v>
       </c>
-      <c r="G253" s="6" t="s">
+      <c r="G255" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="I253" s="3" t="s">
+      <c r="I255" s="3" t="s">
         <v>912</v>
       </c>
-      <c r="J253" s="3" t="s">
+      <c r="J255" s="3" t="s">
         <v>1748</v>
       </c>
     </row>
-    <row r="254" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="6" t="s">
+    <row r="256" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="B254" s="6"/>
-      <c r="C254" s="6" t="s">
+      <c r="B256" s="6"/>
+      <c r="C256" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="D254" s="26" t="s">
+      <c r="D256" s="26" t="s">
         <v>1430</v>
       </c>
-      <c r="E254" s="3" t="s">
+      <c r="E256" s="3" t="s">
         <v>1193</v>
       </c>
-      <c r="F254" s="6" t="s">
+      <c r="F256" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="G254" s="6" t="s">
+      <c r="G256" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="I254" s="3" t="s">
+      <c r="I256" s="3" t="s">
         <v>1033</v>
       </c>
-      <c r="J254" s="3" t="s">
+      <c r="J256" s="3" t="s">
         <v>1906</v>
       </c>
     </row>
-    <row r="255" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+    <row r="257" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
         <v>246</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C257" t="s">
         <v>246</v>
       </c>
-      <c r="D255" s="23" t="s">
+      <c r="D257" s="23" t="s">
         <v>1572</v>
       </c>
-      <c r="E255" t="s">
+      <c r="E257" t="s">
         <v>247</v>
       </c>
-      <c r="F255" t="s">
+      <c r="F257" t="s">
         <v>686</v>
       </c>
-      <c r="G255" s="3" t="s">
+      <c r="G257" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="H255" t="s">
+      <c r="H257" t="s">
         <v>340</v>
       </c>
-      <c r="I255" t="s">
+      <c r="I257" t="s">
         <v>957</v>
       </c>
-      <c r="J255" t="s">
+      <c r="J257" t="s">
         <v>1820</v>
       </c>
     </row>
-    <row r="256" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+    <row r="258" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
         <v>248</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C258" t="s">
         <v>250</v>
       </c>
-      <c r="D256" s="23" t="s">
+      <c r="D258" s="23" t="s">
         <v>1573</v>
       </c>
-      <c r="E256" t="s">
+      <c r="E258" t="s">
         <v>249</v>
       </c>
-      <c r="F256" t="s">
+      <c r="F258" t="s">
         <v>687</v>
       </c>
-      <c r="G256" s="3" t="s">
+      <c r="G258" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="H256" t="s">
+      <c r="H258" t="s">
         <v>341</v>
       </c>
-      <c r="I256" t="s">
+      <c r="I258" t="s">
         <v>1029</v>
       </c>
-      <c r="J256" t="s">
+      <c r="J258" t="s">
         <v>1907</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>218</v>
-      </c>
-      <c r="C257" t="s">
-        <v>231</v>
-      </c>
-      <c r="D257" s="23" t="s">
-        <v>1566</v>
-      </c>
-      <c r="E257" t="s">
-        <v>230</v>
-      </c>
-      <c r="F257" t="s">
-        <v>681</v>
-      </c>
-      <c r="G257" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="H257" t="s">
-        <v>335</v>
-      </c>
-      <c r="I257" t="s">
-        <v>1023</v>
-      </c>
-      <c r="J257" t="s">
-        <v>1908</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>251</v>
-      </c>
-      <c r="C258" t="s">
-        <v>253</v>
-      </c>
-      <c r="D258" s="23" t="s">
-        <v>1574</v>
-      </c>
-      <c r="E258" t="s">
-        <v>252</v>
-      </c>
-      <c r="F258" t="s">
-        <v>688</v>
-      </c>
-      <c r="G258" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="H258" t="s">
-        <v>342</v>
-      </c>
-      <c r="I258" t="s">
-        <v>1030</v>
-      </c>
-      <c r="J258" t="s">
-        <v>1909</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="C259" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="D259" s="23" t="s">
-        <v>1479</v>
+        <v>1566</v>
       </c>
       <c r="E259" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="F259" t="s">
-        <v>256</v>
-      </c>
-      <c r="G259" t="s">
-        <v>464</v>
+        <v>681</v>
+      </c>
+      <c r="G259" s="6" t="s">
+        <v>456</v>
       </c>
       <c r="H259" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="I259" t="s">
-        <v>1031</v>
+        <v>1023</v>
       </c>
       <c r="J259" t="s">
-        <v>256</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
+        <v>251</v>
+      </c>
+      <c r="C260" t="s">
+        <v>253</v>
+      </c>
+      <c r="D260" s="23" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E260" t="s">
+        <v>252</v>
+      </c>
+      <c r="F260" t="s">
+        <v>688</v>
+      </c>
+      <c r="G260" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="H260" t="s">
+        <v>342</v>
+      </c>
+      <c r="I260" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J260" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>254</v>
+      </c>
+      <c r="C261" t="s">
+        <v>256</v>
+      </c>
+      <c r="D261" s="23" t="s">
+        <v>1479</v>
+      </c>
+      <c r="E261" t="s">
+        <v>255</v>
+      </c>
+      <c r="F261" t="s">
+        <v>256</v>
+      </c>
+      <c r="G261" t="s">
+        <v>464</v>
+      </c>
+      <c r="H261" t="s">
+        <v>343</v>
+      </c>
+      <c r="I261" t="s">
+        <v>1031</v>
+      </c>
+      <c r="J261" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
         <v>257</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C262" t="s">
         <v>259</v>
       </c>
-      <c r="D260" s="23" t="s">
+      <c r="D262" s="23" t="s">
         <v>1575</v>
       </c>
-      <c r="E260" t="s">
+      <c r="E262" t="s">
         <v>258</v>
       </c>
-      <c r="F260" t="s">
+      <c r="F262" t="s">
         <v>689</v>
       </c>
-      <c r="G260" t="s">
+      <c r="G262" t="s">
         <v>465</v>
       </c>
-      <c r="H260" t="s">
+      <c r="H262" t="s">
         <v>344</v>
       </c>
-      <c r="I260" t="s">
+      <c r="I262" t="s">
         <v>1032</v>
       </c>
-      <c r="J260" t="s">
+      <c r="J262" t="s">
         <v>1910</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B262" s="1"/>
-      <c r="D262" s="15"/>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
+      <c r="B264" s="1"/>
+      <c r="D264" s="15"/>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
         <v>0</v>
       </c>
-      <c r="C263" t="s">
+      <c r="C265" t="s">
         <v>283</v>
       </c>
-      <c r="D263" s="23" t="s">
+      <c r="D265" s="23" t="s">
         <v>1434</v>
       </c>
-      <c r="E263" t="s">
+      <c r="E265" t="s">
         <v>38</v>
       </c>
-      <c r="F263" s="6" t="s">
+      <c r="F265" s="6" t="s">
         <v>693</v>
       </c>
-      <c r="G263" t="s">
+      <c r="G265" t="s">
         <v>377</v>
       </c>
-      <c r="H263" t="s">
+      <c r="H265" t="s">
         <v>345</v>
       </c>
-      <c r="I263" t="s">
+      <c r="I265" t="s">
         <v>283</v>
       </c>
-      <c r="J263" t="s">
+      <c r="J265" t="s">
         <v>1753</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
         <v>260</v>
       </c>
-      <c r="C264" t="s">
+      <c r="C266" t="s">
         <v>325</v>
       </c>
-      <c r="D264" t="s">
+      <c r="D266" t="s">
         <v>1680</v>
       </c>
-      <c r="E264" t="s">
+      <c r="E266" t="s">
         <v>1279</v>
       </c>
-      <c r="F264" s="6" t="s">
+      <c r="F266" s="6" t="s">
         <v>694</v>
       </c>
-      <c r="G264" t="s">
+      <c r="G266" t="s">
         <v>466</v>
       </c>
-      <c r="H264" t="s">
+      <c r="H266" t="s">
         <v>346</v>
       </c>
-      <c r="I264" t="s">
+      <c r="I266" t="s">
         <v>1034</v>
       </c>
-      <c r="J264" t="s">
+      <c r="J266" t="s">
         <v>1911</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A266" s="1" t="s">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B266" s="1"/>
-      <c r="D266" s="15"/>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>478</v>
-      </c>
-      <c r="C267" t="s">
-        <v>293</v>
-      </c>
-      <c r="D267" s="23" t="s">
-        <v>1472</v>
-      </c>
-      <c r="E267" t="s">
-        <v>1280</v>
-      </c>
-      <c r="F267" t="s">
-        <v>607</v>
-      </c>
-      <c r="G267" t="s">
-        <v>394</v>
-      </c>
-      <c r="I267" t="s">
-        <v>1035</v>
-      </c>
-      <c r="J267" t="s">
-        <v>1789</v>
-      </c>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>475</v>
-      </c>
-      <c r="C268" t="s">
-        <v>279</v>
-      </c>
-      <c r="D268" s="23" t="s">
-        <v>1428</v>
-      </c>
-      <c r="E268" t="s">
-        <v>29</v>
-      </c>
-      <c r="F268" t="s">
-        <v>577</v>
-      </c>
-      <c r="G268" t="s">
-        <v>372</v>
-      </c>
-      <c r="I268" t="s">
-        <v>911</v>
-      </c>
-      <c r="J268" t="s">
-        <v>1747</v>
-      </c>
+      <c r="B268" s="1"/>
+      <c r="D268" s="15"/>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C269" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D269" s="23" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="E269" t="s">
-        <v>68</v>
+        <v>1280</v>
       </c>
       <c r="F269" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="G269" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="I269" t="s">
-        <v>939</v>
+        <v>1035</v>
       </c>
       <c r="J269" t="s">
-        <v>1797</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C270" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="D270" s="23" t="s">
-        <v>1474</v>
+        <v>1428</v>
       </c>
       <c r="E270" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F270" t="s">
-        <v>295</v>
+        <v>577</v>
       </c>
       <c r="G270" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="I270" t="s">
-        <v>937</v>
+        <v>911</v>
       </c>
       <c r="J270" t="s">
-        <v>1791</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C271" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="D271" s="23" t="s">
-        <v>1432</v>
+        <v>1476</v>
       </c>
       <c r="E271" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="F271" t="s">
-        <v>580</v>
+        <v>611</v>
       </c>
       <c r="G271" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="I271" t="s">
-        <v>915</v>
+        <v>939</v>
       </c>
       <c r="J271" t="s">
-        <v>1751</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
+        <v>474</v>
+      </c>
+      <c r="C272" t="s">
+        <v>295</v>
+      </c>
+      <c r="D272" s="23" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E272" t="s">
+        <v>33</v>
+      </c>
+      <c r="F272" t="s">
+        <v>295</v>
+      </c>
+      <c r="G272" t="s">
+        <v>396</v>
+      </c>
+      <c r="I272" t="s">
+        <v>937</v>
+      </c>
+      <c r="J272" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>477</v>
+      </c>
+      <c r="C273" t="s">
+        <v>282</v>
+      </c>
+      <c r="D273" s="23" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E273" t="s">
+        <v>35</v>
+      </c>
+      <c r="F273" t="s">
+        <v>580</v>
+      </c>
+      <c r="G273" t="s">
+        <v>375</v>
+      </c>
+      <c r="I273" t="s">
+        <v>915</v>
+      </c>
+      <c r="J273" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
         <v>479</v>
       </c>
-      <c r="C272" t="s">
+      <c r="C274" t="s">
         <v>481</v>
       </c>
-      <c r="D272" s="23" t="s">
+      <c r="D274" s="23" t="s">
         <v>1577</v>
       </c>
-      <c r="E272" t="s">
+      <c r="E274" t="s">
         <v>1281</v>
       </c>
-      <c r="F272" t="s">
+      <c r="F274" t="s">
         <v>695</v>
       </c>
-      <c r="G272" t="s">
+      <c r="G274" t="s">
         <v>480</v>
       </c>
-      <c r="I272" t="s">
+      <c r="I274" t="s">
         <v>1036</v>
       </c>
-      <c r="J272" t="s">
+      <c r="J274" t="s">
         <v>1912</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A274" s="10" t="s">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A276" s="10" t="s">
         <v>697</v>
       </c>
-      <c r="B274" s="10"/>
-      <c r="C274" s="3"/>
-      <c r="D274" s="26"/>
-      <c r="F274" s="3"/>
-    </row>
-    <row r="275" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="3" t="s">
+      <c r="B276" s="10"/>
+      <c r="C276" s="3"/>
+      <c r="D276" s="26"/>
+      <c r="F276" s="3"/>
+    </row>
+    <row r="277" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B275" s="3"/>
-      <c r="C275" s="3" t="s">
+      <c r="B277" s="3"/>
+      <c r="C277" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="D275" s="26" t="s">
+      <c r="D277" s="26" t="s">
         <v>1578</v>
       </c>
-      <c r="F275" s="3" t="s">
+      <c r="F277" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="I275" s="8" t="s">
+      <c r="I277" s="8" t="s">
         <v>1037</v>
       </c>
-      <c r="J275" s="8" t="s">
+      <c r="J277" s="8" t="s">
         <v>1913</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A276" s="8"/>
-      <c r="B276" s="8"/>
-      <c r="C276" s="8"/>
-      <c r="D276" s="29"/>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A277" s="10" t="s">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A278" s="8"/>
+      <c r="B278" s="8"/>
+      <c r="C278" s="8"/>
+      <c r="D278" s="29"/>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A279" s="10" t="s">
         <v>703</v>
       </c>
-      <c r="B277" s="10"/>
-      <c r="C277" s="3"/>
-      <c r="D277" s="26"/>
-      <c r="F277" s="3"/>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A278" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B278" s="3"/>
-      <c r="C278" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="D278" s="26" t="s">
-        <v>1579</v>
-      </c>
-      <c r="E278" t="s">
-        <v>1282</v>
-      </c>
-      <c r="F278" s="3" t="s">
-        <v>819</v>
-      </c>
-      <c r="I278" t="s">
-        <v>1038</v>
-      </c>
-      <c r="J278" t="s">
-        <v>1914</v>
-      </c>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A279" s="3" t="s">
-        <v>890</v>
-      </c>
-      <c r="B279" s="3"/>
-      <c r="C279" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D279" s="26" t="s">
-        <v>1434</v>
-      </c>
-      <c r="E279" t="s">
-        <v>1293</v>
-      </c>
-      <c r="F279" s="6" t="s">
-        <v>693</v>
-      </c>
-      <c r="I279" t="s">
-        <v>283</v>
-      </c>
-      <c r="J279" t="s">
-        <v>1753</v>
-      </c>
+      <c r="B279" s="10"/>
+      <c r="C279" s="3"/>
+      <c r="D279" s="26"/>
+      <c r="F279" s="3"/>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
-        <v>1176</v>
+        <v>0</v>
       </c>
       <c r="B280" s="3"/>
       <c r="C280" s="3" t="s">
-        <v>701</v>
+        <v>818</v>
       </c>
       <c r="D280" s="26" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="E280" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>782</v>
+        <v>819</v>
       </c>
       <c r="I280" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="J280" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
-        <v>878</v>
+        <v>890</v>
       </c>
       <c r="B281" s="3"/>
       <c r="C281" s="3" t="s">
-        <v>879</v>
+        <v>283</v>
       </c>
       <c r="D281" s="26" t="s">
-        <v>1582</v>
+        <v>1434</v>
       </c>
       <c r="E281" t="s">
-        <v>1285</v>
+        <v>1293</v>
+      </c>
+      <c r="F281" s="6" t="s">
+        <v>693</v>
       </c>
       <c r="I281" t="s">
-        <v>1040</v>
+        <v>283</v>
       </c>
       <c r="J281" t="s">
-        <v>1916</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B282" s="3"/>
       <c r="C282" s="3" t="s">
-        <v>240</v>
+        <v>701</v>
       </c>
       <c r="D282" s="26" t="s">
-        <v>1498</v>
+        <v>1581</v>
       </c>
       <c r="E282" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F282" t="s">
-        <v>630</v>
+        <v>1284</v>
+      </c>
+      <c r="F282" s="3" t="s">
+        <v>782</v>
       </c>
       <c r="I282" t="s">
-        <v>958</v>
+        <v>1039</v>
       </c>
       <c r="J282" t="s">
-        <v>1821</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
-        <v>1178</v>
+        <v>878</v>
       </c>
       <c r="B283" s="3"/>
       <c r="C283" s="3" t="s">
-        <v>240</v>
+        <v>879</v>
       </c>
       <c r="D283" s="26" t="s">
-        <v>1498</v>
+        <v>1582</v>
       </c>
       <c r="E283" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F283" s="3" t="s">
-        <v>630</v>
+        <v>1285</v>
       </c>
       <c r="I283" t="s">
-        <v>958</v>
+        <v>1040</v>
       </c>
       <c r="J283" t="s">
-        <v>1821</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
-        <v>64</v>
+        <v>1177</v>
       </c>
       <c r="B284" s="3"/>
       <c r="C284" s="3" t="s">
-        <v>700</v>
+        <v>240</v>
       </c>
       <c r="D284" s="26" t="s">
-        <v>1580</v>
+        <v>1498</v>
       </c>
       <c r="E284" t="s">
-        <v>1283</v>
-      </c>
-      <c r="F284" s="3" t="s">
-        <v>781</v>
+        <v>1230</v>
+      </c>
+      <c r="F284" t="s">
+        <v>630</v>
       </c>
       <c r="I284" t="s">
-        <v>700</v>
+        <v>958</v>
       </c>
       <c r="J284" t="s">
-        <v>1917</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
-        <v>889</v>
-      </c>
-      <c r="B285" s="3" t="s">
-        <v>1160</v>
-      </c>
+        <v>1178</v>
+      </c>
+      <c r="B285" s="3"/>
       <c r="C285" s="3" t="s">
-        <v>1161</v>
+        <v>240</v>
       </c>
       <c r="D285" s="26" t="s">
-        <v>1589</v>
-      </c>
-      <c r="E285" s="3" t="s">
-        <v>1292</v>
+        <v>1498</v>
+      </c>
+      <c r="E285" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F285" s="3" t="s">
+        <v>630</v>
       </c>
       <c r="I285" t="s">
-        <v>1108</v>
+        <v>958</v>
       </c>
       <c r="J285" t="s">
-        <v>1918</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
-        <v>711</v>
+        <v>64</v>
       </c>
       <c r="B286" s="3"/>
       <c r="C286" s="3" t="s">
-        <v>1179</v>
+        <v>700</v>
       </c>
       <c r="D286" s="26" t="s">
-        <v>1587</v>
+        <v>1580</v>
       </c>
       <c r="E286" t="s">
-        <v>1290</v>
+        <v>1283</v>
+      </c>
+      <c r="F286" s="3" t="s">
+        <v>781</v>
       </c>
       <c r="I286" t="s">
-        <v>886</v>
+        <v>700</v>
       </c>
       <c r="J286" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="B287" s="3"/>
+        <v>889</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>1160</v>
+      </c>
       <c r="C287" s="3" t="s">
-        <v>886</v>
+        <v>1161</v>
       </c>
       <c r="D287" s="26" t="s">
-        <v>1587</v>
-      </c>
-      <c r="E287" t="s">
-        <v>1290</v>
+        <v>1589</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>1292</v>
       </c>
       <c r="I287" t="s">
-        <v>886</v>
+        <v>1108</v>
       </c>
       <c r="J287" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B288" s="3"/>
       <c r="C288" s="3" t="s">
-        <v>880</v>
+        <v>1179</v>
       </c>
       <c r="D288" s="26" t="s">
-        <v>1583</v>
+        <v>1587</v>
       </c>
       <c r="E288" t="s">
-        <v>1286</v>
+        <v>1290</v>
       </c>
       <c r="I288" t="s">
-        <v>1041</v>
+        <v>886</v>
       </c>
       <c r="J288" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="B289" s="3"/>
       <c r="C289" s="3" t="s">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="D289" s="26" t="s">
-        <v>1584</v>
+        <v>1587</v>
       </c>
       <c r="E289" t="s">
-        <v>1287</v>
+        <v>1290</v>
       </c>
       <c r="I289" t="s">
-        <v>1042</v>
+        <v>886</v>
       </c>
       <c r="J289" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
-        <v>882</v>
+        <v>715</v>
       </c>
       <c r="B290" s="3"/>
       <c r="C290" s="3" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="D290" s="26" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="E290" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="I290" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="J290" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
-        <v>884</v>
+        <v>720</v>
       </c>
       <c r="B291" s="3"/>
       <c r="C291" s="3" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="D291" s="26" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="E291" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="I291" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="J291" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="B292" s="3"/>
       <c r="C292" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="D292" s="26" t="s">
+        <v>1585</v>
+      </c>
+      <c r="E292" t="s">
+        <v>1288</v>
+      </c>
+      <c r="I292" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J292" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A293" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="B293" s="3"/>
+      <c r="C293" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="D293" s="26" t="s">
+        <v>1586</v>
+      </c>
+      <c r="E293" t="s">
+        <v>1289</v>
+      </c>
+      <c r="I293" t="s">
+        <v>1044</v>
+      </c>
+      <c r="J293" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A294" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="B294" s="3"/>
+      <c r="C294" s="3" t="s">
         <v>888</v>
       </c>
-      <c r="D292" s="26" t="s">
+      <c r="D294" s="26" t="s">
         <v>1588</v>
       </c>
-      <c r="E292" t="s">
+      <c r="E294" t="s">
         <v>1291</v>
       </c>
-      <c r="I292" t="s">
+      <c r="I294" t="s">
         <v>1045</v>
       </c>
-      <c r="J292" t="s">
+      <c r="J294" t="s">
         <v>1925</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A293" s="8"/>
-      <c r="B293" s="8"/>
-      <c r="C293" s="8"/>
-      <c r="D293" s="29"/>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A294" s="10" t="s">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A295" s="8"/>
+      <c r="B295" s="8"/>
+      <c r="C295" s="8"/>
+      <c r="D295" s="29"/>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A296" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="B294" s="10"/>
-      <c r="C294" s="3"/>
-      <c r="D294" s="26"/>
-      <c r="F294" s="3"/>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A295" s="3" t="s">
+      <c r="B296" s="10"/>
+      <c r="C296" s="3"/>
+      <c r="D296" s="26"/>
+      <c r="F296" s="3"/>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A297" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B295" s="3"/>
-      <c r="C295" s="3" t="s">
+      <c r="B297" s="3"/>
+      <c r="C297" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="D295" s="26" t="s">
+      <c r="D297" s="26" t="s">
         <v>1590</v>
       </c>
-      <c r="E295" t="s">
+      <c r="E297" t="s">
         <v>1294</v>
       </c>
-      <c r="F295" s="3" t="s">
+      <c r="F297" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="I295" t="s">
+      <c r="I297" t="s">
         <v>1046</v>
       </c>
-      <c r="J295" t="s">
+      <c r="J297" t="s">
         <v>1914</v>
-      </c>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A296" s="9" t="s">
-        <v>1333</v>
-      </c>
-      <c r="B296" s="9"/>
-      <c r="C296" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D296" s="24" t="s">
-        <v>1419</v>
-      </c>
-      <c r="E296" t="s">
-        <v>10</v>
-      </c>
-      <c r="F296" s="3"/>
-      <c r="I296" t="s">
-        <v>905</v>
-      </c>
-      <c r="J296" t="s">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A297" s="9" t="s">
-        <v>1334</v>
-      </c>
-      <c r="B297" s="9"/>
-      <c r="C297" s="9" t="s">
-        <v>719</v>
-      </c>
-      <c r="D297" s="24" t="s">
-        <v>1592</v>
-      </c>
-      <c r="E297" t="s">
-        <v>1305</v>
-      </c>
-      <c r="F297" s="3"/>
-      <c r="I297" t="s">
-        <v>2090</v>
-      </c>
-      <c r="J297" t="s">
-        <v>1926</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" s="9" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="B298" s="9"/>
       <c r="C298" s="9" t="s">
-        <v>718</v>
+        <v>122</v>
       </c>
       <c r="D298" s="24" t="s">
-        <v>1593</v>
+        <v>1419</v>
       </c>
       <c r="E298" t="s">
-        <v>1304</v>
+        <v>10</v>
       </c>
       <c r="F298" s="3"/>
       <c r="I298" t="s">
-        <v>2091</v>
+        <v>905</v>
       </c>
       <c r="J298" t="s">
-        <v>1927</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" s="9" t="s">
-        <v>832</v>
+        <v>1334</v>
       </c>
       <c r="B299" s="9"/>
       <c r="C299" s="9" t="s">
-        <v>824</v>
+        <v>719</v>
       </c>
       <c r="D299" s="24" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="E299" t="s">
-        <v>1295</v>
-      </c>
-      <c r="F299" s="3" t="s">
-        <v>825</v>
-      </c>
+        <v>1305</v>
+      </c>
+      <c r="F299" s="3"/>
       <c r="I299" t="s">
-        <v>1047</v>
+        <v>2090</v>
       </c>
       <c r="J299" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" s="9" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B300" s="9"/>
       <c r="C300" s="9" t="s">
-        <v>262</v>
+        <v>718</v>
       </c>
       <c r="D300" s="24" t="s">
-        <v>1407</v>
+        <v>1593</v>
       </c>
       <c r="E300" t="s">
-        <v>61</v>
+        <v>1304</v>
       </c>
       <c r="F300" s="3"/>
       <c r="I300" t="s">
+        <v>2091</v>
+      </c>
+      <c r="J300" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A301" s="9" t="s">
+        <v>832</v>
+      </c>
+      <c r="B301" s="9"/>
+      <c r="C301" s="9" t="s">
+        <v>824</v>
+      </c>
+      <c r="D301" s="24" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E301" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F301" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="I301" t="s">
+        <v>1047</v>
+      </c>
+      <c r="J301" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A302" s="9" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B302" s="9"/>
+      <c r="C302" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D302" s="24" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E302" t="s">
+        <v>61</v>
+      </c>
+      <c r="F302" s="3"/>
+      <c r="I302" t="s">
         <v>892</v>
       </c>
-      <c r="J300" t="s">
+      <c r="J302" t="s">
         <v>1721</v>
-      </c>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A301" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B301" s="3"/>
-      <c r="C301" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="D301" s="26" t="s">
-        <v>1580</v>
-      </c>
-      <c r="E301" t="s">
-        <v>1308</v>
-      </c>
-      <c r="F301" s="3" t="s">
-        <v>792</v>
-      </c>
-      <c r="I301" t="s">
-        <v>722</v>
-      </c>
-      <c r="J301" t="s">
-        <v>1929</v>
-      </c>
-    </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A302" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B302" s="3"/>
-      <c r="C302" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="D302" s="26" t="s">
-        <v>1467</v>
-      </c>
-      <c r="E302" t="s">
-        <v>1208</v>
-      </c>
-      <c r="F302" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="I302" t="s">
-        <v>928</v>
-      </c>
-      <c r="J302" t="s">
-        <v>1776</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
-        <v>1337</v>
+        <v>93</v>
       </c>
       <c r="B303" s="3"/>
       <c r="C303" s="3" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="D303" s="26" t="s">
-        <v>1601</v>
+        <v>1580</v>
       </c>
       <c r="E303" t="s">
-        <v>1303</v>
+        <v>1308</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="I303" t="s">
-        <v>1054</v>
+        <v>722</v>
       </c>
       <c r="J303" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
-        <v>1338</v>
+        <v>94</v>
       </c>
       <c r="B304" s="3"/>
       <c r="C304" s="3" t="s">
@@ -14017,2210 +14011,2258 @@
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
-        <v>88</v>
+        <v>1337</v>
       </c>
       <c r="B305" s="3"/>
       <c r="C305" s="3" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="D305" s="26" t="s">
-        <v>1596</v>
+        <v>1601</v>
       </c>
       <c r="E305" t="s">
-        <v>1298</v>
+        <v>1303</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="I305" t="s">
-        <v>1049</v>
+        <v>1054</v>
       </c>
       <c r="J305" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
-        <v>64</v>
+        <v>1338</v>
       </c>
       <c r="B306" s="3"/>
       <c r="C306" s="3" t="s">
-        <v>295</v>
+        <v>502</v>
       </c>
       <c r="D306" s="26" t="s">
-        <v>1474</v>
+        <v>1467</v>
       </c>
       <c r="E306" t="s">
-        <v>33</v>
-      </c>
-      <c r="F306" s="3"/>
+        <v>1208</v>
+      </c>
+      <c r="F306" s="3" t="s">
+        <v>502</v>
+      </c>
       <c r="I306" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
       <c r="J306" t="s">
-        <v>1791</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="B307" s="3"/>
       <c r="C307" s="3" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D307" s="26" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="E307" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="F307" s="3" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="I307" t="s">
-        <v>709</v>
+        <v>1049</v>
       </c>
       <c r="J307" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B308" s="3"/>
       <c r="C308" s="3" t="s">
-        <v>1348</v>
+        <v>295</v>
       </c>
       <c r="D308" s="26" t="s">
-        <v>1597</v>
+        <v>1474</v>
       </c>
       <c r="E308" t="s">
-        <v>1299</v>
-      </c>
-      <c r="F308" s="3" t="s">
-        <v>712</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F308" s="3"/>
       <c r="I308" t="s">
-        <v>1050</v>
+        <v>937</v>
       </c>
       <c r="J308" t="s">
-        <v>1933</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
-        <v>1339</v>
+        <v>65</v>
       </c>
       <c r="B309" s="3"/>
       <c r="C309" s="3" t="s">
-        <v>1349</v>
+        <v>709</v>
       </c>
       <c r="D309" s="26" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="E309" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="F309" s="3" t="s">
-        <v>714</v>
+        <v>785</v>
       </c>
       <c r="I309" t="s">
-        <v>1051</v>
+        <v>709</v>
       </c>
       <c r="J309" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
-        <v>757</v>
+        <v>67</v>
       </c>
       <c r="B310" s="3"/>
       <c r="C310" s="3" t="s">
-        <v>716</v>
+        <v>1348</v>
       </c>
       <c r="D310" s="26" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="E310" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="F310" s="3" t="s">
-        <v>788</v>
+        <v>712</v>
       </c>
       <c r="I310" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="J310" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B311" s="3"/>
       <c r="C311" s="3" t="s">
-        <v>721</v>
+        <v>1349</v>
       </c>
       <c r="D311" s="26" t="s">
-        <v>1603</v>
+        <v>1598</v>
       </c>
       <c r="E311" t="s">
-        <v>1307</v>
+        <v>1300</v>
       </c>
       <c r="F311" s="3" t="s">
-        <v>791</v>
+        <v>714</v>
       </c>
       <c r="I311" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="J311" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
-        <v>1639</v>
+        <v>757</v>
       </c>
       <c r="B312" s="3"/>
       <c r="C312" s="3" t="s">
-        <v>1640</v>
-      </c>
-      <c r="D312" t="s">
-        <v>1681</v>
-      </c>
-      <c r="F312" s="3"/>
+        <v>716</v>
+      </c>
+      <c r="D312" s="26" t="s">
+        <v>1600</v>
+      </c>
+      <c r="E312" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F312" s="3" t="s">
+        <v>788</v>
+      </c>
       <c r="I312" t="s">
-        <v>1640</v>
+        <v>1053</v>
       </c>
       <c r="J312" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
-        <v>708</v>
+        <v>1340</v>
       </c>
       <c r="B313" s="3"/>
       <c r="C313" s="3" t="s">
-        <v>295</v>
+        <v>721</v>
       </c>
       <c r="D313" s="26" t="s">
-        <v>1682</v>
+        <v>1603</v>
       </c>
       <c r="E313" t="s">
-        <v>33</v>
+        <v>1307</v>
       </c>
       <c r="F313" s="3" t="s">
-        <v>295</v>
+        <v>791</v>
       </c>
       <c r="I313" t="s">
-        <v>937</v>
+        <v>1057</v>
       </c>
       <c r="J313" t="s">
-        <v>1791</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
-        <v>1341</v>
+        <v>1639</v>
       </c>
       <c r="B314" s="3"/>
       <c r="C314" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D314" s="26" t="s">
-        <v>1604</v>
+        <v>1640</v>
+      </c>
+      <c r="D314" t="s">
+        <v>1681</v>
       </c>
       <c r="F314" s="3"/>
       <c r="I314" t="s">
-        <v>261</v>
+        <v>1640</v>
       </c>
       <c r="J314" t="s">
-        <v>1720</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
-        <v>1342</v>
+        <v>708</v>
       </c>
       <c r="B315" s="3"/>
       <c r="C315" s="3" t="s">
-        <v>705</v>
+        <v>295</v>
       </c>
       <c r="D315" s="26" t="s">
-        <v>1594</v>
+        <v>1682</v>
       </c>
       <c r="E315" t="s">
-        <v>1296</v>
+        <v>33</v>
       </c>
       <c r="F315" s="3" t="s">
-        <v>784</v>
+        <v>295</v>
       </c>
       <c r="I315" t="s">
-        <v>1048</v>
+        <v>937</v>
       </c>
       <c r="J315" t="s">
-        <v>1938</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="B316" s="3"/>
       <c r="C316" s="3" t="s">
-        <v>706</v>
+        <v>261</v>
       </c>
       <c r="D316" s="26" t="s">
-        <v>1599</v>
-      </c>
-      <c r="E316" t="s">
-        <v>1301</v>
-      </c>
-      <c r="F316" s="3" t="s">
-        <v>787</v>
-      </c>
+        <v>1604</v>
+      </c>
+      <c r="F316" s="3"/>
       <c r="I316" t="s">
-        <v>1052</v>
+        <v>261</v>
       </c>
       <c r="J316" t="s">
-        <v>1939</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="B317" s="3"/>
       <c r="C317" s="3" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D317" s="26" t="s">
-        <v>1602</v>
+        <v>1594</v>
       </c>
       <c r="E317" t="s">
-        <v>1306</v>
+        <v>1296</v>
       </c>
       <c r="F317" s="3" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="I317" t="s">
-        <v>707</v>
+        <v>1048</v>
       </c>
       <c r="J317" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="B318" s="3"/>
       <c r="C318" s="3" t="s">
-        <v>122</v>
+        <v>706</v>
       </c>
       <c r="D318" s="26" t="s">
-        <v>1419</v>
+        <v>1599</v>
       </c>
       <c r="E318" t="s">
-        <v>10</v>
+        <v>1301</v>
       </c>
       <c r="F318" s="3" t="s">
-        <v>608</v>
+        <v>787</v>
       </c>
       <c r="I318" t="s">
-        <v>905</v>
+        <v>1052</v>
       </c>
       <c r="J318" t="s">
-        <v>1737</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="B319" s="3"/>
       <c r="C319" s="3" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="D319" s="26" t="s">
-        <v>1592</v>
+        <v>1602</v>
       </c>
       <c r="E319" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="F319" s="3" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="I319" t="s">
-        <v>1056</v>
+        <v>707</v>
       </c>
       <c r="J319" t="s">
-        <v>1926</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="B320" s="3"/>
       <c r="C320" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D320" s="26" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E320" t="s">
+        <v>10</v>
+      </c>
+      <c r="F320" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="I320" t="s">
+        <v>905</v>
+      </c>
+      <c r="J320" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A321" s="3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B321" s="3"/>
+      <c r="C321" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="D321" s="26" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E321" t="s">
+        <v>1305</v>
+      </c>
+      <c r="F321" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="I321" t="s">
+        <v>1056</v>
+      </c>
+      <c r="J321" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A322" s="3" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B322" s="3"/>
+      <c r="C322" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="D320" s="26" t="s">
+      <c r="D322" s="26" t="s">
         <v>1593</v>
       </c>
-      <c r="E320" t="s">
+      <c r="E322" t="s">
         <v>1304</v>
       </c>
-      <c r="F320" s="3" t="s">
+      <c r="F322" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="I320" t="s">
+      <c r="I322" t="s">
         <v>1055</v>
       </c>
-      <c r="J320" t="s">
+      <c r="J322" t="s">
         <v>1927</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A321" s="8"/>
-      <c r="B321" s="8"/>
-      <c r="C321" s="8"/>
-      <c r="D321" s="29"/>
-    </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A322" s="10" t="s">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A323" s="8"/>
+      <c r="B323" s="8"/>
+      <c r="C323" s="8"/>
+      <c r="D323" s="29"/>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A324" s="10" t="s">
         <v>698</v>
       </c>
-      <c r="B322" s="10"/>
-      <c r="C322" s="3"/>
-      <c r="D322" s="26"/>
-      <c r="F322" s="3"/>
-    </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A323" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B323" s="3"/>
-      <c r="C323" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="D323" s="26" t="s">
-        <v>1605</v>
-      </c>
-      <c r="E323" t="s">
-        <v>1309</v>
-      </c>
-      <c r="F323" s="3" t="s">
-        <v>793</v>
-      </c>
-      <c r="I323" t="s">
-        <v>1058</v>
-      </c>
-      <c r="J323" t="s">
-        <v>1941</v>
-      </c>
-    </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A324" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B324" s="3"/>
-      <c r="C324" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D324" s="26" t="s">
-        <v>1419</v>
-      </c>
-      <c r="E324" t="s">
-        <v>10</v>
-      </c>
-      <c r="F324" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="I324" t="s">
-        <v>905</v>
-      </c>
-      <c r="J324" t="s">
-        <v>1737</v>
-      </c>
+      <c r="B324" s="10"/>
+      <c r="C324" s="3"/>
+      <c r="D324" s="26"/>
+      <c r="F324" s="3"/>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
-        <v>1364</v>
+        <v>0</v>
       </c>
       <c r="B325" s="3"/>
       <c r="C325" s="3" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="D325" s="26" t="s">
-        <v>1547</v>
+        <v>1605</v>
       </c>
       <c r="E325" t="s">
-        <v>1200</v>
+        <v>1309</v>
       </c>
       <c r="F325" s="3" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="I325" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
       <c r="J325" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
-        <v>1365</v>
+        <v>9</v>
       </c>
       <c r="B326" s="3"/>
       <c r="C326" s="3" t="s">
-        <v>732</v>
+        <v>122</v>
       </c>
       <c r="D326" s="26" t="s">
-        <v>1612</v>
+        <v>1419</v>
       </c>
       <c r="E326" t="s">
-        <v>1315</v>
+        <v>10</v>
       </c>
       <c r="F326" s="3" t="s">
-        <v>800</v>
+        <v>608</v>
       </c>
       <c r="I326" t="s">
-        <v>1066</v>
+        <v>905</v>
       </c>
       <c r="J326" t="s">
-        <v>1943</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="B327" s="3"/>
       <c r="C327" s="3" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D327" s="26" t="s">
-        <v>1611</v>
+        <v>1547</v>
       </c>
       <c r="E327" t="s">
-        <v>1314</v>
+        <v>1200</v>
       </c>
       <c r="F327" s="3" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="I327" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="J327" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
-        <v>1358</v>
+        <v>1365</v>
       </c>
       <c r="B328" s="3"/>
       <c r="C328" s="3" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="D328" s="26" t="s">
-        <v>1608</v>
+        <v>1612</v>
       </c>
       <c r="E328" t="s">
-        <v>1311</v>
+        <v>1315</v>
       </c>
       <c r="F328" s="3" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="I328" t="s">
-        <v>1061</v>
+        <v>1066</v>
       </c>
       <c r="J328" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
-        <v>1357</v>
+        <v>1366</v>
       </c>
       <c r="B329" s="3"/>
       <c r="C329" s="3" t="s">
-        <v>295</v>
+        <v>730</v>
       </c>
       <c r="D329" s="26" t="s">
-        <v>1474</v>
+        <v>1611</v>
       </c>
       <c r="E329" t="s">
-        <v>33</v>
+        <v>1314</v>
       </c>
       <c r="F329" s="3" t="s">
-        <v>295</v>
+        <v>798</v>
       </c>
       <c r="I329" t="s">
-        <v>937</v>
+        <v>1064</v>
       </c>
       <c r="J329" t="s">
-        <v>1791</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
-        <v>36</v>
+        <v>1358</v>
       </c>
       <c r="B330" s="3"/>
       <c r="C330" s="3" t="s">
-        <v>196</v>
+        <v>727</v>
       </c>
       <c r="D330" s="26" t="s">
-        <v>1613</v>
+        <v>1608</v>
       </c>
       <c r="E330" t="s">
-        <v>135</v>
+        <v>1311</v>
       </c>
       <c r="F330" s="3" t="s">
-        <v>656</v>
+        <v>795</v>
       </c>
       <c r="I330" t="s">
-        <v>981</v>
+        <v>1061</v>
       </c>
       <c r="J330" t="s">
-        <v>1752</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="B331" s="3"/>
       <c r="C331" s="3" t="s">
-        <v>726</v>
+        <v>295</v>
       </c>
       <c r="D331" s="26" t="s">
-        <v>1607</v>
+        <v>1474</v>
       </c>
       <c r="E331" t="s">
-        <v>1310</v>
+        <v>33</v>
       </c>
       <c r="F331" s="3" t="s">
-        <v>794</v>
+        <v>295</v>
       </c>
       <c r="I331" t="s">
-        <v>1060</v>
+        <v>937</v>
       </c>
       <c r="J331" t="s">
-        <v>1946</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
-        <v>1360</v>
+        <v>36</v>
       </c>
       <c r="B332" s="3"/>
       <c r="C332" s="3" t="s">
-        <v>728</v>
+        <v>196</v>
       </c>
       <c r="D332" s="26" t="s">
-        <v>1609</v>
+        <v>1613</v>
       </c>
       <c r="E332" t="s">
-        <v>1312</v>
+        <v>135</v>
       </c>
       <c r="F332" s="3" t="s">
-        <v>796</v>
+        <v>656</v>
       </c>
       <c r="I332" t="s">
-        <v>1062</v>
+        <v>981</v>
       </c>
       <c r="J332" t="s">
-        <v>1947</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="B333" s="3"/>
       <c r="C333" s="3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D333" s="26" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="E333" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="F333" s="3" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="I333" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="J333" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="B334" s="3"/>
       <c r="C334" s="3" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="D334" s="26" t="s">
-        <v>1449</v>
+        <v>1609</v>
       </c>
       <c r="E334" t="s">
-        <v>1201</v>
+        <v>1312</v>
       </c>
       <c r="F334" s="3" t="s">
-        <v>291</v>
+        <v>796</v>
       </c>
       <c r="I334" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="J334" t="s">
-        <v>1767</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="B335" s="3"/>
       <c r="C335" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="D335" s="26" t="s">
+        <v>1610</v>
+      </c>
+      <c r="E335" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F335" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="I335" t="s">
+        <v>1063</v>
+      </c>
+      <c r="J335" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A336" s="3" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B336" s="3"/>
+      <c r="C336" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="D336" s="26" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E336" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F336" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="D335" s="26" t="s">
+      <c r="I336" t="s">
+        <v>1059</v>
+      </c>
+      <c r="J336" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A337" s="3" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B337" s="3"/>
+      <c r="C337" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D337" s="26" t="s">
         <v>1606</v>
       </c>
-      <c r="E335" t="s">
+      <c r="E337" t="s">
         <v>1227</v>
       </c>
-      <c r="F335" s="3" t="s">
+      <c r="F337" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="I335" t="s">
+      <c r="I337" t="s">
         <v>924</v>
       </c>
-      <c r="J335" t="s">
+      <c r="J337" t="s">
         <v>1767</v>
-      </c>
-    </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
-        <v>839</v>
-      </c>
-      <c r="C336" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="D336" s="26" t="s">
-        <v>1614</v>
-      </c>
-      <c r="E336" t="s">
-        <v>1316</v>
-      </c>
-      <c r="F336" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="I336" t="s">
-        <v>1067</v>
-      </c>
-      <c r="J336" t="s">
-        <v>1949</v>
-      </c>
-    </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
-        <v>1350</v>
-      </c>
-      <c r="C337" t="s">
-        <v>122</v>
-      </c>
-      <c r="D337" s="23" t="s">
-        <v>1419</v>
-      </c>
-      <c r="E337" t="s">
-        <v>10</v>
-      </c>
-      <c r="F337" t="s">
-        <v>608</v>
-      </c>
-      <c r="I337" t="s">
-        <v>905</v>
-      </c>
-      <c r="J337" t="s">
-        <v>1737</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C338" t="s">
-        <v>731</v>
-      </c>
-      <c r="D338" s="23" t="s">
-        <v>1547</v>
+        <v>839</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="D338" s="26" t="s">
+        <v>1614</v>
       </c>
       <c r="E338" t="s">
-        <v>1200</v>
+        <v>1316</v>
       </c>
       <c r="F338" s="3" t="s">
-        <v>799</v>
+        <v>840</v>
       </c>
       <c r="I338" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="J338" t="s">
-        <v>1942</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="C339" t="s">
-        <v>732</v>
+        <v>122</v>
       </c>
       <c r="D339" s="23" t="s">
-        <v>1612</v>
+        <v>1419</v>
       </c>
       <c r="E339" t="s">
-        <v>1315</v>
-      </c>
-      <c r="F339" s="3" t="s">
-        <v>800</v>
+        <v>10</v>
+      </c>
+      <c r="F339" t="s">
+        <v>608</v>
       </c>
       <c r="I339" t="s">
-        <v>1066</v>
+        <v>905</v>
       </c>
       <c r="J339" t="s">
-        <v>1943</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C340" t="s">
-        <v>140</v>
+        <v>731</v>
       </c>
       <c r="D340" s="23" t="s">
-        <v>1439</v>
+        <v>1547</v>
       </c>
       <c r="E340" t="s">
-        <v>42</v>
-      </c>
-      <c r="F340" t="s">
-        <v>585</v>
+        <v>1200</v>
+      </c>
+      <c r="F340" s="3" t="s">
+        <v>799</v>
       </c>
       <c r="I340" t="s">
-        <v>918</v>
+        <v>1065</v>
       </c>
       <c r="J340" t="s">
-        <v>1758</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C341" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="D341" s="23" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="E341" t="s">
-        <v>1313</v>
+        <v>1315</v>
+      </c>
+      <c r="F341" s="3" t="s">
+        <v>800</v>
       </c>
       <c r="I341" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="J341" t="s">
-        <v>1948</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A342" s="9" t="s">
-        <v>838</v>
-      </c>
-      <c r="B342" s="9"/>
-      <c r="C342" s="9" t="s">
-        <v>826</v>
-      </c>
-      <c r="D342" s="24" t="s">
-        <v>1615</v>
+      <c r="A342" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C342" t="s">
+        <v>140</v>
+      </c>
+      <c r="D342" s="23" t="s">
+        <v>1439</v>
       </c>
       <c r="E342" t="s">
-        <v>1317</v>
+        <v>42</v>
       </c>
       <c r="F342" t="s">
-        <v>827</v>
+        <v>585</v>
       </c>
       <c r="I342" t="s">
-        <v>826</v>
+        <v>918</v>
       </c>
       <c r="J342" t="s">
-        <v>1950</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C343" t="s">
+        <v>729</v>
+      </c>
+      <c r="D343" s="23" t="s">
+        <v>1610</v>
+      </c>
+      <c r="E343" t="s">
+        <v>1313</v>
+      </c>
+      <c r="I343" t="s">
+        <v>1063</v>
+      </c>
+      <c r="J343" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A344" s="9" t="s">
+        <v>838</v>
+      </c>
+      <c r="B344" s="9"/>
+      <c r="C344" s="9" t="s">
+        <v>826</v>
+      </c>
+      <c r="D344" s="24" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E344" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F344" t="s">
+        <v>827</v>
+      </c>
+      <c r="I344" t="s">
+        <v>826</v>
+      </c>
+      <c r="J344" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
         <v>1355</v>
       </c>
-      <c r="C343" t="s">
+      <c r="C345" t="s">
         <v>707</v>
       </c>
-      <c r="D343" s="23" t="s">
+      <c r="D345" s="23" t="s">
         <v>1602</v>
       </c>
-      <c r="E343" t="s">
+      <c r="E345" t="s">
         <v>1308</v>
       </c>
-      <c r="I343" t="s">
+      <c r="I345" t="s">
         <v>707</v>
       </c>
-      <c r="J343" t="s">
+      <c r="J345" t="s">
         <v>1940</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A344" s="3" t="s">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A346" s="3" t="s">
         <v>1356</v>
       </c>
-      <c r="B344" s="3"/>
-      <c r="C344" s="3" t="s">
+      <c r="B346" s="3"/>
+      <c r="C346" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="D344" s="26" t="s">
+      <c r="D346" s="26" t="s">
         <v>1599</v>
       </c>
-      <c r="E344" t="s">
+      <c r="E346" t="s">
         <v>1301</v>
       </c>
-      <c r="F344" s="3" t="s">
+      <c r="F346" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="I344" t="s">
+      <c r="I346" t="s">
         <v>1052</v>
       </c>
-      <c r="J344" t="s">
+      <c r="J346" t="s">
         <v>1951</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A345" s="3"/>
-      <c r="B345" s="3"/>
-      <c r="C345" s="3"/>
-      <c r="D345" s="26"/>
-      <c r="F345" s="3"/>
-    </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A346" s="10" t="s">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A347" s="3"/>
+      <c r="B347" s="3"/>
+      <c r="C347" s="3"/>
+      <c r="D347" s="26"/>
+      <c r="F347" s="3"/>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A348" s="10" t="s">
         <v>723</v>
       </c>
-      <c r="B346" s="10"/>
-      <c r="C346" s="3"/>
-      <c r="D346" s="26"/>
-      <c r="F346" s="3"/>
-    </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A347" s="3" t="s">
+      <c r="B348" s="10"/>
+      <c r="C348" s="3"/>
+      <c r="D348" s="26"/>
+      <c r="F348" s="3"/>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A349" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B347" s="3"/>
-      <c r="C347" s="3" t="s">
+      <c r="B349" s="3"/>
+      <c r="C349" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="D347" s="26" t="s">
+      <c r="D349" s="26" t="s">
         <v>1616</v>
       </c>
-      <c r="E347" t="s">
+      <c r="E349" t="s">
         <v>1318</v>
       </c>
-      <c r="F347" s="3" t="s">
+      <c r="F349" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="I347" t="s">
+      <c r="I349" t="s">
         <v>1068</v>
       </c>
-      <c r="J347" t="s">
+      <c r="J349" t="s">
         <v>1952</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A348" s="14" t="s">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A350" s="14" t="s">
         <v>1333</v>
       </c>
-      <c r="B348" s="14"/>
-      <c r="C348" s="4" t="s">
+      <c r="B350" s="14"/>
+      <c r="C350" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D348" s="30" t="s">
+      <c r="D350" s="30" t="s">
         <v>1419</v>
       </c>
-      <c r="E348" t="s">
+      <c r="E350" t="s">
         <v>10</v>
       </c>
-      <c r="I348" t="s">
+      <c r="I350" t="s">
         <v>905</v>
       </c>
-      <c r="J348" t="s">
+      <c r="J350" t="s">
         <v>1737</v>
       </c>
     </row>
-    <row r="349" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="9" t="s">
+    <row r="351" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="9" t="s">
         <v>1334</v>
-      </c>
-      <c r="B349" s="9"/>
-      <c r="C349" s="9" t="s">
-        <v>1367</v>
-      </c>
-      <c r="D349" s="24" t="s">
-        <v>1593</v>
-      </c>
-      <c r="E349" s="13" t="s">
-        <v>1375</v>
-      </c>
-      <c r="I349" s="3" t="s">
-        <v>2091</v>
-      </c>
-      <c r="J349" s="3" t="s">
-        <v>1953</v>
-      </c>
-    </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
-        <v>60</v>
-      </c>
-      <c r="B350" s="9"/>
-      <c r="C350" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="D350" s="24" t="s">
-        <v>1407</v>
-      </c>
-      <c r="E350" t="s">
-        <v>61</v>
-      </c>
-      <c r="F350" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="I350" t="s">
-        <v>892</v>
-      </c>
-      <c r="J350" t="s">
-        <v>1721</v>
-      </c>
-    </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A351" s="9" t="s">
-        <v>736</v>
       </c>
       <c r="B351" s="9"/>
       <c r="C351" s="9" t="s">
-        <v>737</v>
+        <v>1367</v>
       </c>
       <c r="D351" s="24" t="s">
-        <v>1617</v>
-      </c>
-      <c r="E351" t="s">
-        <v>1319</v>
-      </c>
-      <c r="F351" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="I351" t="s">
-        <v>1069</v>
-      </c>
-      <c r="J351" t="s">
-        <v>1954</v>
+        <v>1593</v>
+      </c>
+      <c r="E351" s="13" t="s">
+        <v>1375</v>
+      </c>
+      <c r="I351" s="3" t="s">
+        <v>2091</v>
+      </c>
+      <c r="J351" s="3" t="s">
+        <v>1953</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A352" s="9" t="s">
-        <v>738</v>
+      <c r="A352" t="s">
+        <v>60</v>
       </c>
       <c r="B352" s="9"/>
       <c r="C352" s="9" t="s">
-        <v>739</v>
+        <v>262</v>
       </c>
       <c r="D352" s="24" t="s">
-        <v>1618</v>
+        <v>1407</v>
       </c>
       <c r="E352" t="s">
-        <v>1320</v>
+        <v>61</v>
       </c>
       <c r="F352" s="3" t="s">
-        <v>803</v>
+        <v>556</v>
       </c>
       <c r="I352" t="s">
-        <v>1070</v>
+        <v>892</v>
       </c>
       <c r="J352" t="s">
-        <v>1955</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353" s="9" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="B353" s="9"/>
       <c r="C353" s="9" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="D353" s="24" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="E353" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="F353" s="3" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="I353" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="J353" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" s="9" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="B354" s="9"/>
       <c r="C354" s="9" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="D354" s="24" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="E354" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="F354" s="3" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="I354" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="J354" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355" s="9" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="B355" s="9"/>
       <c r="C355" s="9" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="D355" s="24" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="E355" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="F355" s="3" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="I355" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="J355" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356" s="9" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="B356" s="9"/>
       <c r="C356" s="9" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="D356" s="24" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="E356" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="F356" s="3" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="I356" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="J356" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357" s="9" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="B357" s="9"/>
       <c r="C357" s="9" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="D357" s="24" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="E357" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="F357" s="3" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="I357" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="J357" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358" s="9" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="B358" s="9"/>
       <c r="C358" s="9" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="D358" s="24" t="s">
-        <v>1612</v>
+        <v>1622</v>
       </c>
       <c r="E358" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="F358" s="3" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="I358" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="J358" t="s">
-        <v>1943</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359" s="9" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B359" s="9"/>
       <c r="C359" s="9" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="D359" s="24" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="E359" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="F359" s="3" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I359" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="J359" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360" s="9" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="B360" s="9"/>
       <c r="C360" s="9" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="D360" s="24" t="s">
-        <v>1625</v>
+        <v>1612</v>
       </c>
       <c r="E360" t="s">
-        <v>1293</v>
+        <v>1326</v>
       </c>
       <c r="F360" s="3" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="I360" t="s">
-        <v>283</v>
+        <v>1076</v>
       </c>
       <c r="J360" t="s">
-        <v>1753</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361" s="9" t="s">
-        <v>64</v>
+        <v>752</v>
       </c>
       <c r="B361" s="9"/>
       <c r="C361" s="9" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D361" s="24" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="E361" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F361" s="3" t="s">
-        <v>756</v>
+        <v>810</v>
       </c>
       <c r="I361" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="J361" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B362" s="9" t="s">
-        <v>1636</v>
-      </c>
+        <v>754</v>
+      </c>
+      <c r="B362" s="9"/>
       <c r="C362" s="9" t="s">
-        <v>1370</v>
+        <v>755</v>
       </c>
       <c r="D362" s="24" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="E362" t="s">
-        <v>1372</v>
+        <v>1293</v>
       </c>
       <c r="F362" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I362" t="s">
-        <v>1079</v>
+        <v>283</v>
       </c>
       <c r="J362" t="s">
-        <v>1963</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B363" s="9"/>
       <c r="C363" s="9" t="s">
-        <v>1368</v>
+        <v>756</v>
       </c>
       <c r="D363" s="24" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="E363" t="s">
-        <v>1373</v>
-      </c>
-      <c r="F363" s="3"/>
+        <v>1328</v>
+      </c>
+      <c r="F363" s="3" t="s">
+        <v>756</v>
+      </c>
       <c r="I363" t="s">
-        <v>2092</v>
+        <v>1078</v>
       </c>
       <c r="J363" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364" s="9" t="s">
-        <v>1339</v>
-      </c>
-      <c r="B364" s="9"/>
+        <v>65</v>
+      </c>
+      <c r="B364" s="9" t="s">
+        <v>1636</v>
+      </c>
       <c r="C364" s="9" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="D364" s="24" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="E364" t="s">
-        <v>1374</v>
-      </c>
-      <c r="F364" s="3"/>
+        <v>1372</v>
+      </c>
+      <c r="F364" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="I364" t="s">
+        <v>1079</v>
+      </c>
       <c r="J364" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365" s="9" t="s">
-        <v>757</v>
-      </c>
-      <c r="B365" s="9" t="s">
-        <v>1371</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B365" s="9"/>
       <c r="C365" s="9" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="D365" s="24" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="E365" t="s">
-        <v>1372</v>
-      </c>
-      <c r="F365" s="3" t="s">
-        <v>813</v>
-      </c>
+        <v>1373</v>
+      </c>
+      <c r="F365" s="3"/>
       <c r="I365" t="s">
-        <v>1080</v>
+        <v>2092</v>
       </c>
       <c r="J365" t="s">
-        <v>1963</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366" s="9" t="s">
-        <v>72</v>
+        <v>1339</v>
       </c>
       <c r="B366" s="9"/>
       <c r="C366" s="9" t="s">
-        <v>261</v>
+        <v>1369</v>
       </c>
       <c r="D366" s="24" t="s">
-        <v>1604</v>
+        <v>1629</v>
       </c>
       <c r="E366" t="s">
-        <v>1180</v>
-      </c>
-      <c r="F366" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="I366" t="s">
-        <v>1081</v>
-      </c>
+        <v>1374</v>
+      </c>
+      <c r="F366" s="3"/>
       <c r="J366" t="s">
-        <v>1720</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367" s="9" t="s">
-        <v>758</v>
-      </c>
-      <c r="B367" s="9"/>
+        <v>757</v>
+      </c>
+      <c r="B367" s="9" t="s">
+        <v>1371</v>
+      </c>
       <c r="C367" s="9" t="s">
-        <v>759</v>
+        <v>1370</v>
       </c>
       <c r="D367" s="24" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="E367" t="s">
-        <v>1329</v>
+        <v>1372</v>
       </c>
       <c r="F367" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I367" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="J367" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368" s="9" t="s">
-        <v>760</v>
+        <v>72</v>
       </c>
       <c r="B368" s="9"/>
       <c r="C368" s="9" t="s">
-        <v>761</v>
+        <v>261</v>
       </c>
       <c r="D368" s="24" t="s">
-        <v>1632</v>
+        <v>1604</v>
       </c>
       <c r="E368" t="s">
-        <v>1330</v>
+        <v>1180</v>
       </c>
       <c r="F368" s="3" t="s">
-        <v>815</v>
+        <v>261</v>
       </c>
       <c r="I368" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="J368" t="s">
-        <v>1967</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369" s="9" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="B369" s="9"/>
       <c r="C369" s="9" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="D369" s="24" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="E369" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="F369" s="3" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="I369" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="J369" t="s">
-        <v>1968</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370" s="9" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="B370" s="9"/>
       <c r="C370" s="9" t="s">
+        <v>761</v>
+      </c>
+      <c r="D370" s="24" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E370" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F370" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="I370" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J370" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A371" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="B371" s="9"/>
+      <c r="C371" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="D371" s="24" t="s">
+        <v>1633</v>
+      </c>
+      <c r="E371" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F371" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="I371" t="s">
+        <v>1084</v>
+      </c>
+      <c r="J371" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A372" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="B372" s="9"/>
+      <c r="C372" s="9" t="s">
         <v>765</v>
       </c>
-      <c r="D370" s="24" t="s">
+      <c r="D372" s="24" t="s">
         <v>1634</v>
       </c>
-      <c r="E370" t="s">
+      <c r="E372" t="s">
         <v>1332</v>
       </c>
-      <c r="F370" s="3" t="s">
+      <c r="F372" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="I370" t="s">
+      <c r="I372" t="s">
         <v>1085</v>
       </c>
-      <c r="J370" t="s">
+      <c r="J372" t="s">
         <v>1969</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C371" s="9"/>
-      <c r="D371" s="24"/>
-    </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A372" s="20" t="s">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C373" s="9"/>
+      <c r="D373" s="24"/>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A374" s="20" t="s">
         <v>1670</v>
-      </c>
-    </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A373" t="s">
-        <v>0</v>
-      </c>
-      <c r="C373" t="s">
-        <v>1644</v>
-      </c>
-      <c r="D373" t="s">
-        <v>1683</v>
-      </c>
-      <c r="I373" t="s">
-        <v>2093</v>
-      </c>
-      <c r="J373" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
-        <v>1645</v>
-      </c>
-      <c r="C374" t="s">
-        <v>1403</v>
-      </c>
-      <c r="D374" t="s">
-        <v>1482</v>
-      </c>
-      <c r="I374" t="s">
-        <v>2079</v>
-      </c>
-      <c r="J374" t="s">
-        <v>1801</v>
       </c>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>1646</v>
+        <v>0</v>
       </c>
       <c r="C375" t="s">
-        <v>261</v>
+        <v>1644</v>
       </c>
       <c r="D375" t="s">
-        <v>1604</v>
+        <v>1683</v>
       </c>
       <c r="I375" t="s">
-        <v>261</v>
+        <v>2093</v>
       </c>
       <c r="J375" t="s">
-        <v>1720</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>1650</v>
+        <v>1645</v>
       </c>
       <c r="C376" t="s">
-        <v>1649</v>
+        <v>1403</v>
       </c>
       <c r="D376" t="s">
-        <v>1684</v>
+        <v>1482</v>
       </c>
       <c r="I376" t="s">
-        <v>2094</v>
+        <v>2079</v>
       </c>
       <c r="J376" t="s">
-        <v>1971</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="C377" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="D377" t="s">
-        <v>1428</v>
+        <v>1604</v>
       </c>
       <c r="I377" t="s">
-        <v>911</v>
+        <v>261</v>
       </c>
       <c r="J377" t="s">
-        <v>1747</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="C378" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="D378" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="I378" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="J378" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C379" t="s">
+        <v>279</v>
+      </c>
+      <c r="D379" t="s">
+        <v>1428</v>
+      </c>
+      <c r="I379" t="s">
+        <v>911</v>
+      </c>
+      <c r="J379" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C380" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D380" t="s">
+        <v>1685</v>
+      </c>
+      <c r="I380" t="s">
+        <v>2095</v>
+      </c>
+      <c r="J380" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
         <v>1653</v>
       </c>
-      <c r="C379" t="s">
+      <c r="C381" t="s">
         <v>1647</v>
       </c>
-      <c r="D379" t="s">
+      <c r="D381" t="s">
         <v>1686</v>
       </c>
-      <c r="I379" t="s">
+      <c r="I381" t="s">
         <v>2096</v>
       </c>
-      <c r="J379" t="s">
+      <c r="J381" t="s">
         <v>1973</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A381" s="1" t="s">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
         <v>1671</v>
-      </c>
-    </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A382" t="s">
-        <v>0</v>
-      </c>
-      <c r="B382" t="s">
-        <v>1668</v>
-      </c>
-      <c r="C382" t="s">
-        <v>1654</v>
-      </c>
-      <c r="D382" t="s">
-        <v>1687</v>
-      </c>
-      <c r="J382" t="s">
-        <v>1974</v>
-      </c>
-    </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A383" t="s">
-        <v>1655</v>
-      </c>
-      <c r="C383" t="s">
-        <v>1656</v>
-      </c>
-      <c r="D383" t="s">
-        <v>1688</v>
-      </c>
-      <c r="J383" t="s">
-        <v>1737</v>
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>1657</v>
+        <v>0</v>
+      </c>
+      <c r="B384" t="s">
+        <v>1668</v>
       </c>
       <c r="C384" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D384" t="s">
-        <v>1658</v>
-      </c>
-      <c r="I384" t="s">
-        <v>1658</v>
+        <v>1687</v>
       </c>
       <c r="J384" t="s">
-        <v>1658</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="C385" t="s">
-        <v>295</v>
+        <v>1656</v>
       </c>
       <c r="D385" t="s">
-        <v>1474</v>
-      </c>
-      <c r="I385" t="s">
-        <v>937</v>
+        <v>1688</v>
       </c>
       <c r="J385" t="s">
-        <v>1791</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="C386" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="D386" t="s">
-        <v>1689</v>
+        <v>1658</v>
       </c>
       <c r="I386" t="s">
-        <v>2097</v>
+        <v>1658</v>
       </c>
       <c r="J386" t="s">
-        <v>1975</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>88</v>
+        <v>1659</v>
       </c>
       <c r="C387" t="s">
-        <v>1662</v>
+        <v>295</v>
       </c>
       <c r="D387" t="s">
-        <v>1690</v>
+        <v>1474</v>
       </c>
       <c r="I387" t="s">
-        <v>2098</v>
+        <v>937</v>
       </c>
       <c r="J387" t="s">
-        <v>1976</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>64</v>
+        <v>1660</v>
       </c>
       <c r="C388" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="D388" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="I388" t="s">
-        <v>1663</v>
+        <v>2097</v>
       </c>
       <c r="J388" t="s">
-        <v>1663</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>1664</v>
+        <v>88</v>
       </c>
       <c r="C389" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="D389" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="I389" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="J389" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
+        <v>64</v>
+      </c>
+      <c r="C390" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D390" t="s">
+        <v>1691</v>
+      </c>
+      <c r="I390" t="s">
+        <v>1663</v>
+      </c>
+      <c r="J390" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C391" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D391" t="s">
+        <v>1692</v>
+      </c>
+      <c r="I391" t="s">
+        <v>2099</v>
+      </c>
+      <c r="J391" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
         <v>1666</v>
       </c>
-      <c r="C390" t="s">
+      <c r="C392" t="s">
         <v>1667</v>
       </c>
-      <c r="D390" t="s">
+      <c r="D392" t="s">
         <v>1693</v>
       </c>
-      <c r="I390" t="s">
+      <c r="I392" t="s">
         <v>2100</v>
       </c>
-      <c r="J390" t="s">
+      <c r="J392" t="s">
         <v>1978</v>
       </c>
     </row>
-    <row r="391" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="392" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A392" s="35" t="s">
+    <row r="393" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="394" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A394" s="35" t="s">
         <v>1992</v>
       </c>
     </row>
-    <row r="393" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A393" s="34" t="s">
+    <row r="395" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A395" s="34" t="s">
         <v>2005</v>
       </c>
-      <c r="B393" s="33" t="s">
+      <c r="B395" s="33" t="s">
         <v>2006</v>
       </c>
-      <c r="C393" s="34" t="s">
+      <c r="C395" s="34" t="s">
         <v>2007</v>
       </c>
-      <c r="I393" t="s">
+      <c r="I395" t="s">
         <v>2101</v>
       </c>
-      <c r="J393" t="s">
+      <c r="J395" t="s">
         <v>2008</v>
-      </c>
-    </row>
-    <row r="394" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A394" s="36" t="s">
-        <v>1993</v>
-      </c>
-      <c r="C394" s="37" t="s">
-        <v>1997</v>
-      </c>
-      <c r="I394" t="s">
-        <v>2102</v>
-      </c>
-      <c r="J394" t="s">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="395" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A395" s="36" t="s">
-        <v>1994</v>
-      </c>
-      <c r="C395" s="36" t="s">
-        <v>1998</v>
-      </c>
-      <c r="I395" t="s">
-        <v>2103</v>
-      </c>
-      <c r="J395" t="s">
-        <v>2002</v>
       </c>
     </row>
     <row r="396" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A396" s="36" t="s">
-        <v>1995</v>
-      </c>
-      <c r="C396" s="36" t="s">
-        <v>1999</v>
+        <v>1993</v>
+      </c>
+      <c r="C396" s="37" t="s">
+        <v>1997</v>
       </c>
       <c r="I396" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="J396" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="397" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A397" s="36" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C397" s="36" t="s">
+        <v>1998</v>
+      </c>
+      <c r="I397" t="s">
+        <v>2103</v>
+      </c>
+      <c r="J397" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A398" s="36" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C398" s="36" t="s">
+        <v>1999</v>
+      </c>
+      <c r="I398" t="s">
+        <v>2104</v>
+      </c>
+      <c r="J398" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A399" s="36" t="s">
         <v>1996</v>
       </c>
-      <c r="C397" s="36" t="s">
+      <c r="C399" s="36" t="s">
         <v>2000</v>
       </c>
-      <c r="I397" t="s">
+      <c r="I399" t="s">
         <v>2105</v>
       </c>
-      <c r="J397" t="s">
+      <c r="J399" t="s">
         <v>2004</v>
       </c>
     </row>
-    <row r="398" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="399" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A399" s="35" t="s">
+    <row r="400" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="401" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A401" s="35" t="s">
         <v>2009</v>
       </c>
-      <c r="B399" s="38"/>
-      <c r="C399" s="39"/>
-    </row>
-    <row r="400" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A400" s="36" t="s">
+      <c r="B401" s="38"/>
+      <c r="C401" s="39"/>
+    </row>
+    <row r="402" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A402" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B400" s="40"/>
-      <c r="C400" s="41" t="s">
+      <c r="B402" s="40"/>
+      <c r="C402" s="41" t="s">
         <v>2010</v>
       </c>
-      <c r="I400" t="s">
+      <c r="I402" t="s">
         <v>2106</v>
       </c>
-      <c r="J400" t="s">
+      <c r="J402" t="s">
         <v>2011</v>
       </c>
     </row>
-    <row r="401" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A401" s="36" t="s">
+    <row r="403" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A403" s="36" t="s">
         <v>2012</v>
       </c>
-      <c r="B401" s="40"/>
-      <c r="C401" s="41" t="s">
+      <c r="B403" s="40"/>
+      <c r="C403" s="41" t="s">
         <v>2013</v>
       </c>
-      <c r="I401" t="s">
+      <c r="I403" t="s">
         <v>2107</v>
       </c>
-      <c r="J401" t="s">
+      <c r="J403" t="s">
         <v>2014</v>
       </c>
     </row>
-    <row r="402" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A402" s="42"/>
-      <c r="B402" s="40"/>
-      <c r="C402" s="43"/>
-    </row>
-    <row r="403" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A403" s="44" t="s">
+    <row r="404" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A404" s="42"/>
+      <c r="B404" s="40"/>
+      <c r="C404" s="43"/>
+    </row>
+    <row r="405" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A405" s="44" t="s">
         <v>2015</v>
       </c>
-      <c r="B403" s="40"/>
-      <c r="C403" s="43"/>
-    </row>
-    <row r="404" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A404" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B404" s="45"/>
-      <c r="C404" s="41" t="s">
-        <v>2016</v>
-      </c>
-      <c r="I404" t="s">
-        <v>2108</v>
-      </c>
-      <c r="J404" t="s">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="405" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A405" s="36" t="s">
-        <v>2018</v>
-      </c>
-      <c r="B405" s="45"/>
-      <c r="C405" s="41" t="s">
-        <v>261</v>
-      </c>
-      <c r="I405" t="s">
-        <v>261</v>
-      </c>
-      <c r="J405" t="s">
-        <v>1720</v>
-      </c>
+      <c r="B405" s="40"/>
+      <c r="C405" s="43"/>
     </row>
     <row r="406" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A406" s="36" t="s">
-        <v>2019</v>
+        <v>0</v>
       </c>
       <c r="B406" s="45"/>
       <c r="C406" s="41" t="s">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="I406" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="J406" t="s">
-        <v>2021</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="407" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A407" s="36" t="s">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B407" s="45"/>
       <c r="C407" s="41" t="s">
-        <v>2023</v>
+        <v>261</v>
       </c>
       <c r="I407" t="s">
-        <v>2110</v>
+        <v>261</v>
       </c>
       <c r="J407" t="s">
-        <v>2024</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="408" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A408" s="36" t="s">
-        <v>2025</v>
+        <v>2019</v>
       </c>
       <c r="B408" s="45"/>
       <c r="C408" s="41" t="s">
-        <v>2026</v>
+        <v>2020</v>
       </c>
       <c r="I408" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="J408" t="s">
-        <v>2027</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="409" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A409" s="36" t="s">
-        <v>2028</v>
+        <v>2022</v>
       </c>
       <c r="B409" s="45"/>
       <c r="C409" s="41" t="s">
-        <v>2029</v>
+        <v>2023</v>
       </c>
       <c r="I409" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="J409" t="s">
-        <v>2030</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="410" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A410" s="36" t="s">
-        <v>2031</v>
+        <v>2025</v>
       </c>
       <c r="B410" s="45"/>
       <c r="C410" s="41" t="s">
-        <v>2032</v>
+        <v>2026</v>
       </c>
       <c r="I410" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="J410" t="s">
-        <v>2033</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="411" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A411" s="36" t="s">
-        <v>2034</v>
+        <v>2028</v>
       </c>
       <c r="B411" s="45"/>
       <c r="C411" s="41" t="s">
-        <v>2035</v>
+        <v>2029</v>
       </c>
       <c r="I411" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="J411" t="s">
-        <v>2036</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="412" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A412" s="36" t="s">
-        <v>2037</v>
+        <v>2031</v>
       </c>
       <c r="B412" s="45"/>
       <c r="C412" s="41" t="s">
-        <v>2038</v>
+        <v>2032</v>
       </c>
       <c r="I412" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="J412" t="s">
-        <v>2039</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="413" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A413" s="36" t="s">
-        <v>2040</v>
+        <v>2034</v>
       </c>
       <c r="B413" s="45"/>
       <c r="C413" s="41" t="s">
-        <v>2041</v>
+        <v>2035</v>
       </c>
       <c r="I413" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="J413" t="s">
-        <v>2042</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="414" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A414" s="36" t="s">
-        <v>2043</v>
+        <v>2037</v>
       </c>
       <c r="B414" s="45"/>
       <c r="C414" s="41" t="s">
-        <v>2044</v>
+        <v>2038</v>
       </c>
       <c r="I414" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="J414" t="s">
-        <v>2045</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="415" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A415" s="36" t="s">
-        <v>2046</v>
+        <v>2040</v>
       </c>
       <c r="B415" s="45"/>
       <c r="C415" s="41" t="s">
-        <v>2047</v>
+        <v>2041</v>
       </c>
       <c r="I415" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="J415" t="s">
-        <v>2048</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="416" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A416" s="36" t="s">
-        <v>2049</v>
+        <v>2043</v>
       </c>
       <c r="B416" s="45"/>
       <c r="C416" s="41" t="s">
+        <v>2044</v>
+      </c>
+      <c r="I416" t="s">
+        <v>2117</v>
+      </c>
+      <c r="J416" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A417" s="36" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B417" s="45"/>
+      <c r="C417" s="41" t="s">
+        <v>2047</v>
+      </c>
+      <c r="I417" t="s">
+        <v>2118</v>
+      </c>
+      <c r="J417" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A418" s="36" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B418" s="45"/>
+      <c r="C418" s="41" t="s">
         <v>2050</v>
       </c>
-      <c r="I416" t="s">
+      <c r="I418" t="s">
         <v>2119</v>
       </c>
-      <c r="J416" t="s">
+      <c r="J418" t="s">
         <v>2051</v>
       </c>
     </row>
-    <row r="417" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A417" s="42"/>
-      <c r="B417" s="40"/>
-      <c r="C417" s="43"/>
-    </row>
-    <row r="418" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A418" s="44" t="s">
+    <row r="419" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A419" s="42"/>
+      <c r="B419" s="40"/>
+      <c r="C419" s="43"/>
+    </row>
+    <row r="420" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A420" s="44" t="s">
         <v>2052</v>
       </c>
-      <c r="B418" s="40"/>
-      <c r="C418" s="43"/>
-    </row>
-    <row r="419" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A419" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B419" s="45"/>
-      <c r="C419" s="41" t="s">
-        <v>2010</v>
-      </c>
-      <c r="I419" t="s">
-        <v>2120</v>
-      </c>
-      <c r="J419" t="s">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="420" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A420" s="36" t="s">
-        <v>2053</v>
-      </c>
-      <c r="B420" s="45"/>
-      <c r="C420" s="41" t="s">
-        <v>2054</v>
-      </c>
-      <c r="I420" t="s">
-        <v>2121</v>
-      </c>
-      <c r="J420" t="s">
-        <v>2055</v>
-      </c>
+      <c r="B420" s="40"/>
+      <c r="C420" s="43"/>
     </row>
     <row r="421" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A421" s="36" t="s">
-        <v>2056</v>
+        <v>0</v>
       </c>
       <c r="B421" s="45"/>
       <c r="C421" s="41" t="s">
-        <v>2057</v>
+        <v>2010</v>
       </c>
       <c r="I421" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="J421" t="s">
-        <v>2058</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="422" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A422" s="36" t="s">
-        <v>2059</v>
+        <v>2053</v>
       </c>
       <c r="B422" s="45"/>
       <c r="C422" s="41" t="s">
-        <v>2060</v>
+        <v>2054</v>
       </c>
       <c r="I422" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="J422" t="s">
-        <v>2061</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="423" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A423" s="36" t="s">
-        <v>2040</v>
+        <v>2056</v>
       </c>
       <c r="B423" s="45"/>
       <c r="C423" s="41" t="s">
-        <v>2062</v>
+        <v>2057</v>
       </c>
       <c r="I423" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="J423" t="s">
-        <v>2069</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="424" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A424" s="36" t="s">
-        <v>2063</v>
+        <v>2059</v>
       </c>
       <c r="B424" s="45"/>
       <c r="C424" s="41" t="s">
-        <v>2064</v>
+        <v>2060</v>
       </c>
       <c r="I424" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="J424" t="s">
-        <v>2065</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="425" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A425" s="36" t="s">
-        <v>2066</v>
+        <v>2040</v>
       </c>
       <c r="B425" s="45"/>
       <c r="C425" s="41" t="s">
+        <v>2062</v>
+      </c>
+      <c r="I425" t="s">
+        <v>2124</v>
+      </c>
+      <c r="J425" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A426" s="36" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B426" s="45"/>
+      <c r="C426" s="41" t="s">
+        <v>2064</v>
+      </c>
+      <c r="I426" t="s">
+        <v>2125</v>
+      </c>
+      <c r="J426" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A427" s="36" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B427" s="45"/>
+      <c r="C427" s="41" t="s">
         <v>2067</v>
       </c>
-      <c r="I425" t="s">
+      <c r="I427" t="s">
         <v>2126</v>
       </c>
-      <c r="J425" t="s">
+      <c r="J427" t="s">
         <v>2068</v>
       </c>
     </row>

--- a/Documentation/translation.xlsx
+++ b/Documentation/translation.xlsx
@@ -13,13 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="Matrix" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2667" uniqueCount="2133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2732" uniqueCount="2165">
   <si>
     <t>$this.Text</t>
   </si>
@@ -6420,13 +6421,109 @@
   </si>
   <si>
     <t>IPv4 csatoló információk ({0}.{1})</t>
+  </si>
+  <si>
+    <t>errGreaterThan1</t>
+  </si>
+  <si>
+    <t>Must be greater than 1.</t>
+  </si>
+  <si>
+    <t>errWeeks</t>
+  </si>
+  <si>
+    <t>Must be greater than 1 and less than 52.</t>
+  </si>
+  <si>
+    <t>triggerOneTime</t>
+  </si>
+  <si>
+    <t>One Time</t>
+  </si>
+  <si>
+    <t>triggerDaily</t>
+  </si>
+  <si>
+    <t>triggerWeekly</t>
+  </si>
+  <si>
+    <t>triggerMonthly</t>
+  </si>
+  <si>
+    <t>Dutch</t>
+  </si>
+  <si>
+    <t>Een keer</t>
+  </si>
+  <si>
+    <t>dagelijks</t>
+  </si>
+  <si>
+    <t>wekelijks</t>
+  </si>
+  <si>
+    <t>English (United States) (en-US)</t>
+  </si>
+  <si>
+    <t>Dutch (nl)</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>French (fr)</t>
+  </si>
+  <si>
+    <t>Hungarian (hu)</t>
+  </si>
+  <si>
+    <t>Russian (ru)</t>
+  </si>
+  <si>
+    <t>Softwareupdate</t>
+  </si>
+  <si>
+    <t>Обновление программы</t>
+  </si>
+  <si>
+    <t>Herinner mij later</t>
+  </si>
+  <si>
+    <t>Напомнить позже</t>
+  </si>
+  <si>
+    <t>Sla deze versie over</t>
+  </si>
+  <si>
+    <t>Не устанавливать</t>
+  </si>
+  <si>
+    <t>Установить</t>
+  </si>
+  <si>
+    <t>{0} {1} is nu beschikbaar. Je hebt versie {2} geinstalleerd. Wil je deze nu downloaden?</t>
+  </si>
+  <si>
+    <t>Доступна версия {1} программы {0}. Вы используете версию {2}. Загрузить обновление?</t>
+  </si>
+  <si>
+    <t>Uitlevernotities:</t>
+  </si>
+  <si>
+    <t>Информация о выпуске:</t>
+  </si>
+  <si>
+    <t>Er is een nieuwe versie van {0} beschiknaar!</t>
+  </si>
+  <si>
+    <t>Доступна новая версия {0}!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6566,6 +6663,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -6674,7 +6777,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6761,6 +6864,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Excel Built-in Bad" xfId="6"/>
@@ -7071,11 +7175,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J426"/>
+  <dimension ref="A1:K432"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K232" sqref="K232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7088,9 +7192,10 @@
     <col min="6" max="8" width="36.7109375" customWidth="1"/>
     <col min="9" max="9" width="46.85546875" customWidth="1"/>
     <col min="10" max="10" width="49.140625" customWidth="1"/>
+    <col min="11" max="11" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>162</v>
       </c>
@@ -7121,8 +7226,11 @@
       <c r="J1" s="1" t="s">
         <v>1717</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1174</v>
       </c>
@@ -7131,7 +7239,7 @@
       </c>
       <c r="D2" s="15"/>
     </row>
-    <row r="3" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2126</v>
       </c>
@@ -7143,7 +7251,7 @@
         <v>41683</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>525</v>
       </c>
@@ -7172,17 +7280,17 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D5" s="22"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>308</v>
       </c>
       <c r="B6" s="1"/>
       <c r="D6" s="15"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -7211,7 +7319,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -7240,7 +7348,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>280</v>
       </c>
@@ -7264,7 +7372,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1669</v>
       </c>
@@ -7288,7 +7396,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="b">
         <v>1</v>
       </c>
@@ -7308,7 +7416,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="b">
         <v>0</v>
       </c>
@@ -7328,12 +7436,12 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="D13" s="15"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>309</v>
       </c>
@@ -7343,7 +7451,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -7369,7 +7477,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -11201,3257 +11309,3209 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>483</v>
+        <v>2133</v>
       </c>
       <c r="C181" t="s">
-        <v>488</v>
-      </c>
-      <c r="D181" s="23" t="s">
-        <v>1517</v>
-      </c>
-      <c r="E181" t="s">
-        <v>1240</v>
-      </c>
-      <c r="F181" t="s">
-        <v>648</v>
-      </c>
-      <c r="G181" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="I181" t="s">
-        <v>974</v>
-      </c>
-      <c r="J181" t="s">
-        <v>1848</v>
-      </c>
+        <v>2134</v>
+      </c>
+      <c r="D181" s="23"/>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>486</v>
+        <v>2135</v>
       </c>
       <c r="C182" t="s">
-        <v>487</v>
-      </c>
-      <c r="D182" s="23" t="s">
-        <v>1518</v>
-      </c>
-      <c r="E182" t="s">
-        <v>1241</v>
-      </c>
-      <c r="F182" t="s">
-        <v>649</v>
-      </c>
-      <c r="G182" s="6" t="s">
-        <v>511</v>
-      </c>
-      <c r="I182" t="s">
-        <v>975</v>
-      </c>
-      <c r="J182" t="s">
-        <v>1849</v>
-      </c>
+        <v>2136</v>
+      </c>
+      <c r="D182" s="23"/>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C183" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="D183" s="23" t="s">
-        <v>1519</v>
+        <v>1517</v>
+      </c>
+      <c r="E183" t="s">
+        <v>1240</v>
       </c>
       <c r="F183" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="I183" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="J183" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>124</v>
+        <v>486</v>
       </c>
       <c r="C184" t="s">
-        <v>191</v>
+        <v>487</v>
       </c>
       <c r="D184" s="23" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="E184" t="s">
-        <v>125</v>
+        <v>1241</v>
       </c>
       <c r="F184" t="s">
-        <v>647</v>
-      </c>
-      <c r="G184" t="s">
-        <v>428</v>
+        <v>649</v>
+      </c>
+      <c r="G184" s="6" t="s">
+        <v>511</v>
       </c>
       <c r="I184" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="J184" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>126</v>
+        <v>484</v>
       </c>
       <c r="C185" t="s">
-        <v>192</v>
+        <v>485</v>
       </c>
       <c r="D185" s="23" t="s">
-        <v>1520</v>
-      </c>
-      <c r="E185" t="s">
-        <v>127</v>
+        <v>1519</v>
       </c>
       <c r="F185" t="s">
-        <v>651</v>
-      </c>
-      <c r="G185" t="s">
-        <v>429</v>
+        <v>650</v>
+      </c>
+      <c r="G185" s="6" t="s">
+        <v>510</v>
       </c>
       <c r="I185" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="J185" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C186" t="s">
-        <v>1124</v>
+        <v>191</v>
       </c>
       <c r="D186" s="23" t="s">
-        <v>1521</v>
+        <v>1516</v>
       </c>
       <c r="E186" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F186" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="G186" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I186" t="s">
-        <v>1125</v>
+        <v>973</v>
       </c>
       <c r="J186" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C187" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D187" s="23" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="E187" t="s">
-        <v>1242</v>
+        <v>127</v>
       </c>
       <c r="F187" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="G187" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I187" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="J187" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C188" t="s">
-        <v>194</v>
+        <v>1124</v>
       </c>
       <c r="D188" s="23" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="E188" t="s">
-        <v>1243</v>
+        <v>129</v>
       </c>
       <c r="F188" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G188" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I188" t="s">
-        <v>979</v>
+        <v>1125</v>
       </c>
       <c r="J188" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C189" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D189" s="23" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="E189" t="s">
-        <v>133</v>
+        <v>1242</v>
       </c>
       <c r="F189" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="G189" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I189" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="J189" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>2130</v>
+        <v>131</v>
       </c>
       <c r="C190" t="s">
-        <v>2131</v>
-      </c>
-      <c r="D190" s="23"/>
+        <v>194</v>
+      </c>
+      <c r="D190" s="23" t="s">
+        <v>1523</v>
+      </c>
+      <c r="E190" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F190" t="s">
+        <v>654</v>
+      </c>
+      <c r="G190" t="s">
+        <v>432</v>
+      </c>
+      <c r="I190" t="s">
+        <v>979</v>
+      </c>
       <c r="J190" t="s">
-        <v>2132</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>132</v>
+      </c>
+      <c r="C191" t="s">
+        <v>195</v>
+      </c>
+      <c r="D191" s="23" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E191" t="s">
+        <v>133</v>
+      </c>
+      <c r="F191" t="s">
+        <v>655</v>
+      </c>
+      <c r="G191" t="s">
+        <v>433</v>
+      </c>
+      <c r="I191" t="s">
+        <v>980</v>
+      </c>
+      <c r="J191" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C192" t="s">
+        <v>2131</v>
+      </c>
+      <c r="D192" s="23"/>
+      <c r="J192" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
         <v>134</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C193" t="s">
         <v>196</v>
       </c>
-      <c r="D191" s="23" t="s">
+      <c r="D193" s="23" t="s">
         <v>1433</v>
       </c>
-      <c r="E191" t="s">
+      <c r="E193" t="s">
         <v>135</v>
       </c>
-      <c r="F191" t="s">
+      <c r="F193" t="s">
         <v>656</v>
       </c>
-      <c r="G191" t="s">
+      <c r="G193" t="s">
         <v>376</v>
       </c>
-      <c r="I191" t="s">
+      <c r="I193" t="s">
         <v>981</v>
       </c>
-      <c r="J191" t="s">
+      <c r="J193" t="s">
         <v>1751</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A192" s="3" t="s">
-        <v>861</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>842</v>
-      </c>
-      <c r="D192" s="27" t="s">
-        <v>1674</v>
-      </c>
-      <c r="I192" t="s">
-        <v>1002</v>
-      </c>
-      <c r="J192" t="s">
-        <v>1857</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A193" s="3" t="s">
-        <v>862</v>
-      </c>
-      <c r="B193" s="3"/>
-      <c r="C193" s="3" t="s">
-        <v>843</v>
-      </c>
-      <c r="D193" s="27" t="s">
-        <v>1675</v>
-      </c>
-      <c r="I193" t="s">
-        <v>1003</v>
-      </c>
-      <c r="J193" t="s">
-        <v>1858</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>863</v>
-      </c>
-      <c r="B194" s="3"/>
+        <v>861</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>1159</v>
+      </c>
       <c r="C194" s="3" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D194" s="27" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="I194" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="J194" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>852</v>
+        <v>862</v>
       </c>
       <c r="B195" s="3"/>
       <c r="C195" s="3" t="s">
-        <v>845</v>
-      </c>
-      <c r="D195" s="26" t="s">
-        <v>1547</v>
-      </c>
-      <c r="E195" t="s">
-        <v>1258</v>
+        <v>843</v>
+      </c>
+      <c r="D195" s="27" t="s">
+        <v>1675</v>
       </c>
       <c r="I195" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="J195" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>1641</v>
+        <v>863</v>
       </c>
       <c r="B196" s="3"/>
       <c r="C196" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="D196" t="s">
-        <v>1612</v>
+        <v>844</v>
+      </c>
+      <c r="D196" s="27" t="s">
+        <v>1676</v>
       </c>
       <c r="I196" t="s">
-        <v>1076</v>
+        <v>1004</v>
       </c>
       <c r="J196" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B197" s="3"/>
       <c r="C197" s="3" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="D197" s="26" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="E197" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="I197" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="J197" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="B198" s="3"/>
-      <c r="C198" s="18" t="b">
-        <v>0</v>
+      <c r="C198" s="3" t="s">
+        <v>751</v>
       </c>
       <c r="D198" t="s">
-        <v>1677</v>
+        <v>1612</v>
       </c>
       <c r="I198" t="s">
-        <v>2086</v>
+        <v>1076</v>
       </c>
       <c r="J198" t="s">
-        <v>1724</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="B199" s="3"/>
       <c r="C199" s="3" t="s">
-        <v>835</v>
+        <v>849</v>
       </c>
       <c r="D199" s="26" t="s">
-        <v>1544</v>
+        <v>1551</v>
       </c>
       <c r="E199" t="s">
-        <v>1255</v>
+        <v>1262</v>
       </c>
       <c r="I199" t="s">
-        <v>999</v>
+        <v>1009</v>
       </c>
       <c r="J199" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>864</v>
+        <v>1642</v>
       </c>
       <c r="B200" s="3"/>
-      <c r="C200" s="3" t="s">
-        <v>833</v>
+      <c r="C200" s="18" t="b">
+        <v>0</v>
       </c>
       <c r="D200" t="s">
-        <v>1678</v>
-      </c>
-      <c r="E200" t="s">
-        <v>1253</v>
+        <v>1677</v>
       </c>
       <c r="I200" t="s">
-        <v>997</v>
+        <v>2086</v>
       </c>
       <c r="J200" t="s">
-        <v>1864</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B201" s="3"/>
       <c r="C201" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D201" s="26" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="E201" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="I201" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="J201" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="B202" s="3"/>
-      <c r="C202" s="9" t="s">
-        <v>834</v>
-      </c>
-      <c r="D202" s="26" t="s">
-        <v>1543</v>
+      <c r="C202" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="D202" t="s">
+        <v>1678</v>
       </c>
       <c r="E202" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="I202" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="J202" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>865</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>1173</v>
-      </c>
+        <v>857</v>
+      </c>
+      <c r="B203" s="3"/>
       <c r="C203" s="3" t="s">
-        <v>850</v>
-      </c>
-      <c r="D203" s="28"/>
+        <v>837</v>
+      </c>
+      <c r="D203" s="26" t="s">
+        <v>1546</v>
+      </c>
+      <c r="E203" t="s">
+        <v>1257</v>
+      </c>
       <c r="I203" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
       <c r="J203" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B204" s="3"/>
-      <c r="C204" s="3" t="s">
-        <v>836</v>
+      <c r="C204" s="9" t="s">
+        <v>834</v>
       </c>
       <c r="D204" s="26" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="E204" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="I204" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="J204" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="B205" s="3"/>
+        <v>865</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>1173</v>
+      </c>
       <c r="C205" s="3" t="s">
-        <v>846</v>
-      </c>
-      <c r="D205" s="26" t="s">
-        <v>1548</v>
-      </c>
-      <c r="E205" t="s">
-        <v>1259</v>
-      </c>
+        <v>850</v>
+      </c>
+      <c r="D205" s="28"/>
       <c r="I205" t="s">
-        <v>1006</v>
+        <v>996</v>
       </c>
       <c r="J205" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>853</v>
+        <v>860</v>
       </c>
       <c r="B206" s="3"/>
       <c r="C206" s="3" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="D206" s="26" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="E206" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="I206" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="J206" t="s">
-        <v>1846</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B207" s="3"/>
       <c r="C207" s="3" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D207" s="26" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="E207" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="I207" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="J207" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>1643</v>
+        <v>853</v>
       </c>
       <c r="B208" s="3"/>
-      <c r="C208" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="D208" s="26"/>
+      <c r="C208" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="D208" s="26" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E208" t="s">
+        <v>1260</v>
+      </c>
       <c r="I208" t="s">
-        <v>2087</v>
+        <v>1007</v>
       </c>
       <c r="J208" t="s">
-        <v>1723</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B209" s="3"/>
       <c r="C209" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="D209" s="26" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E209" t="s">
+        <v>1261</v>
+      </c>
+      <c r="I209" t="s">
+        <v>1008</v>
+      </c>
+      <c r="J209" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A210" s="3" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B210" s="3"/>
+      <c r="C210" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D210" s="26"/>
+      <c r="I210" t="s">
+        <v>2087</v>
+      </c>
+      <c r="J210" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A211" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="B211" s="3"/>
+      <c r="C211" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="D209" s="26" t="s">
+      <c r="D211" s="26" t="s">
         <v>1471</v>
       </c>
-      <c r="E209" t="s">
+      <c r="E211" t="s">
         <v>1219</v>
       </c>
-      <c r="I209" t="s">
+      <c r="I211" t="s">
         <v>934</v>
       </c>
-      <c r="J209" t="s">
+      <c r="J211" t="s">
         <v>1787</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>136</v>
-      </c>
-      <c r="C210" t="s">
-        <v>197</v>
-      </c>
-      <c r="D210" s="23" t="s">
-        <v>1525</v>
-      </c>
-      <c r="E210" t="s">
-        <v>1244</v>
-      </c>
-      <c r="F210" t="s">
-        <v>657</v>
-      </c>
-      <c r="G210" t="s">
-        <v>434</v>
-      </c>
-      <c r="I210" t="s">
-        <v>982</v>
-      </c>
-      <c r="J210" t="s">
-        <v>1871</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>137</v>
-      </c>
-      <c r="C211" t="s">
-        <v>198</v>
-      </c>
-      <c r="D211" s="23" t="s">
-        <v>1526</v>
-      </c>
-      <c r="E211" t="s">
-        <v>1245</v>
-      </c>
-      <c r="F211" t="s">
-        <v>658</v>
-      </c>
-      <c r="G211" t="s">
-        <v>435</v>
-      </c>
-      <c r="I211" t="s">
-        <v>983</v>
-      </c>
-      <c r="J211" t="s">
-        <v>1872</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>199</v>
+        <v>136</v>
       </c>
       <c r="C212" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D212" s="23" t="s">
-        <v>1480</v>
+        <v>1525</v>
       </c>
       <c r="E212" t="s">
-        <v>200</v>
+        <v>1244</v>
       </c>
       <c r="F212" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G212" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="I212" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="J212" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="C213" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D213" s="23" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="E213" t="s">
-        <v>203</v>
+        <v>1245</v>
       </c>
       <c r="F213" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G213" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I213" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="J213" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="C214" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D214" s="23" t="s">
-        <v>1528</v>
+        <v>1480</v>
       </c>
       <c r="E214" t="s">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="F214" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G214" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="I214" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="J214" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A215" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="B215" s="6"/>
-      <c r="C215" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="D215" s="26" t="s">
-        <v>1529</v>
-      </c>
-      <c r="F215" s="6" t="s">
-        <v>662</v>
-      </c>
-      <c r="G215" s="6" t="s">
-        <v>523</v>
+      <c r="A215" t="s">
+        <v>202</v>
+      </c>
+      <c r="C215" t="s">
+        <v>204</v>
+      </c>
+      <c r="D215" s="23" t="s">
+        <v>1527</v>
+      </c>
+      <c r="E215" t="s">
+        <v>203</v>
+      </c>
+      <c r="F215" t="s">
+        <v>660</v>
+      </c>
+      <c r="G215" t="s">
+        <v>437</v>
       </c>
       <c r="I215" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="J215" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C216" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D216" s="23" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="E216" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F216" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="G216" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I216" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="J216" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>142</v>
-      </c>
-      <c r="B217" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C217" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D217" s="23" t="s">
-        <v>1531</v>
-      </c>
-      <c r="E217" t="s">
-        <v>143</v>
-      </c>
-      <c r="F217" t="s">
-        <v>664</v>
-      </c>
-      <c r="G217" t="s">
-        <v>440</v>
+      <c r="A217" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="B217" s="6"/>
+      <c r="C217" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="D217" s="26" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F217" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="G217" s="6" t="s">
+        <v>523</v>
       </c>
       <c r="I217" t="s">
-        <v>1087</v>
+        <v>987</v>
       </c>
       <c r="J217" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C218" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D218" s="23" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="E218" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F218" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G218" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I218" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="J218" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B219" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C219" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D219" s="23" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="E219" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F219" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G219" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I219" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="J219" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>148</v>
-      </c>
-      <c r="B220" t="s">
-        <v>1171</v>
+        <v>144</v>
       </c>
       <c r="C220" t="s">
-        <v>1157</v>
+        <v>207</v>
       </c>
       <c r="D220" s="23" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="E220" t="s">
-        <v>1246</v>
+        <v>145</v>
       </c>
       <c r="F220" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="G220" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="I220" t="s">
-        <v>1089</v>
+        <v>989</v>
       </c>
       <c r="J220" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B221" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C221" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="D221" s="23" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="E221" t="s">
-        <v>1247</v>
+        <v>147</v>
       </c>
       <c r="F221" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G221" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I221" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="J221" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>150</v>
+        <v>148</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1171</v>
       </c>
       <c r="C222" t="s">
-        <v>208</v>
+        <v>1157</v>
       </c>
       <c r="D222" s="23" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="E222" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="F222" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G222" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="I222" t="s">
-        <v>990</v>
+        <v>1089</v>
       </c>
       <c r="J222" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>151</v>
+        <v>149</v>
+      </c>
+      <c r="B223" t="s">
+        <v>1172</v>
       </c>
       <c r="C223" t="s">
-        <v>490</v>
+        <v>1158</v>
       </c>
       <c r="D223" s="23" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="E223" t="s">
-        <v>152</v>
+        <v>1247</v>
       </c>
       <c r="F223" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G223" t="s">
-        <v>491</v>
+        <v>444</v>
       </c>
       <c r="I223" t="s">
-        <v>991</v>
+        <v>1090</v>
       </c>
       <c r="J223" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
+        <v>150</v>
+      </c>
+      <c r="C224" t="s">
+        <v>208</v>
+      </c>
+      <c r="D224" s="23" t="s">
+        <v>1536</v>
+      </c>
+      <c r="E224" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F224" t="s">
+        <v>669</v>
+      </c>
+      <c r="G224" t="s">
+        <v>445</v>
+      </c>
+      <c r="I224" t="s">
+        <v>990</v>
+      </c>
+      <c r="J224" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>151</v>
+      </c>
+      <c r="C225" t="s">
+        <v>490</v>
+      </c>
+      <c r="D225" s="23" t="s">
+        <v>1537</v>
+      </c>
+      <c r="E225" t="s">
+        <v>152</v>
+      </c>
+      <c r="F225" t="s">
+        <v>670</v>
+      </c>
+      <c r="G225" t="s">
+        <v>491</v>
+      </c>
+      <c r="I225" t="s">
+        <v>991</v>
+      </c>
+      <c r="J225" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
         <v>153</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C226" t="s">
         <v>209</v>
       </c>
-      <c r="D224" s="23" t="s">
+      <c r="D226" s="23" t="s">
         <v>1538</v>
       </c>
-      <c r="E224" t="s">
+      <c r="E226" t="s">
         <v>154</v>
       </c>
-      <c r="F224" t="s">
+      <c r="F226" t="s">
         <v>671</v>
       </c>
-      <c r="G224" t="s">
+      <c r="G226" t="s">
         <v>446</v>
       </c>
-      <c r="I224" t="s">
+      <c r="I226" t="s">
         <v>992</v>
       </c>
-      <c r="J224" t="s">
+      <c r="J226" t="s">
         <v>1885</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
         <v>155</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C227" t="s">
         <v>210</v>
       </c>
-      <c r="D225" s="23" t="s">
+      <c r="D227" s="23" t="s">
         <v>1539</v>
       </c>
-      <c r="E225" t="s">
+      <c r="E227" t="s">
         <v>1249</v>
       </c>
-      <c r="F225" t="s">
+      <c r="F227" t="s">
         <v>672</v>
       </c>
-      <c r="G225" t="s">
+      <c r="G227" t="s">
         <v>447</v>
       </c>
-      <c r="I225" t="s">
+      <c r="I227" t="s">
         <v>993</v>
       </c>
-      <c r="J225" t="s">
+      <c r="J227" t="s">
         <v>1886</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
         <v>156</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C228" t="s">
         <v>156</v>
       </c>
-      <c r="D226" s="23" t="s">
+      <c r="D228" s="23" t="s">
         <v>1540</v>
       </c>
-      <c r="E226" t="s">
+      <c r="E228" t="s">
         <v>1250</v>
       </c>
-      <c r="F226" t="s">
+      <c r="F228" t="s">
         <v>673</v>
       </c>
-      <c r="G226" t="s">
+      <c r="G228" t="s">
         <v>448</v>
       </c>
-      <c r="I226" t="s">
+      <c r="I228" t="s">
         <v>994</v>
       </c>
-      <c r="J226" t="s">
+      <c r="J228" t="s">
         <v>1846</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
         <v>158</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C229" t="s">
         <v>211</v>
       </c>
-      <c r="D227" s="23" t="s">
+      <c r="D229" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="E227" t="s">
+      <c r="E229" t="s">
         <v>1251</v>
       </c>
-      <c r="F227" t="s">
+      <c r="F229" t="s">
         <v>211</v>
       </c>
-      <c r="G227" t="s">
+      <c r="G229" t="s">
         <v>211</v>
       </c>
-      <c r="I227" t="s">
+      <c r="I229" t="s">
         <v>211</v>
       </c>
-      <c r="J227" t="s">
+      <c r="J229" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C230" t="s">
+        <v>2138</v>
+      </c>
+      <c r="D230" s="23"/>
+      <c r="K230" s="48" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C231" t="s">
+        <v>759</v>
+      </c>
+      <c r="D231" s="23"/>
+      <c r="K231" s="48" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>2140</v>
+      </c>
+      <c r="C232" t="s">
+        <v>765</v>
+      </c>
+      <c r="D232" s="23"/>
+      <c r="K232" s="48" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C233" t="s">
+        <v>761</v>
+      </c>
+      <c r="D233" s="23"/>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
         <v>2127</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C234" t="s">
         <v>2128</v>
       </c>
-      <c r="D228" s="23"/>
-      <c r="J228" t="s">
+      <c r="D234" s="23"/>
+      <c r="J234" t="s">
         <v>2129</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
         <v>159</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C235" t="s">
         <v>766</v>
       </c>
-      <c r="D229" s="23" t="s">
+      <c r="D235" s="23" t="s">
         <v>1541</v>
       </c>
-      <c r="E229" t="s">
+      <c r="E235" t="s">
         <v>160</v>
       </c>
-      <c r="F229" t="s">
+      <c r="F235" t="s">
         <v>766</v>
       </c>
-      <c r="G229" t="s">
+      <c r="G235" t="s">
         <v>767</v>
       </c>
-      <c r="I229" t="s">
+      <c r="I235" t="s">
         <v>766</v>
       </c>
-      <c r="J229" t="s">
+      <c r="J235" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
         <v>161</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C236" t="s">
         <v>212</v>
       </c>
-      <c r="D230" s="23" t="s">
+      <c r="D236" s="23" t="s">
         <v>1542</v>
       </c>
-      <c r="E230" t="s">
+      <c r="E236" t="s">
         <v>1252</v>
       </c>
-      <c r="F230" t="s">
+      <c r="F236" t="s">
         <v>674</v>
       </c>
-      <c r="G230" t="s">
+      <c r="G236" t="s">
         <v>450</v>
       </c>
-      <c r="I230" t="s">
+      <c r="I236" t="s">
         <v>995</v>
       </c>
-      <c r="J230" t="s">
+      <c r="J236" t="s">
         <v>1888</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B232" s="1"/>
-      <c r="D232" s="15"/>
-    </row>
-    <row r="233" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="6" t="s">
+      <c r="B238" s="1"/>
+      <c r="D238" s="15"/>
+    </row>
+    <row r="239" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="B233" s="6"/>
-      <c r="C233" s="6" t="s">
+      <c r="B239" s="6"/>
+      <c r="C239" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D233" s="26" t="s">
+      <c r="D239" s="26" t="s">
         <v>1557</v>
       </c>
-      <c r="E233" s="3" t="s">
+      <c r="E239" s="3" t="s">
         <v>1269</v>
       </c>
-      <c r="F233" s="6" t="s">
+      <c r="F239" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="G233" s="6" t="s">
+      <c r="G239" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="I233" s="3" t="s">
+      <c r="I239" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="J233" s="3" t="s">
+      <c r="J239" s="3" t="s">
         <v>1889</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A234" s="2" t="s">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="B234" s="2"/>
-      <c r="C234" t="s">
+      <c r="B240" s="2"/>
+      <c r="C240" t="s">
         <v>471</v>
       </c>
-      <c r="D234" s="23" t="s">
+      <c r="D240" s="23" t="s">
         <v>1558</v>
       </c>
-      <c r="E234" t="s">
+      <c r="E240" t="s">
         <v>1270</v>
       </c>
-      <c r="F234" t="s">
+      <c r="F240" t="s">
         <v>675</v>
       </c>
-      <c r="I234" t="s">
+      <c r="I240" t="s">
         <v>1015</v>
       </c>
-      <c r="J234" t="s">
+      <c r="J240" t="s">
         <v>1890</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A235" s="2" t="s">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
         <v>1637</v>
       </c>
-      <c r="B235" s="2"/>
-      <c r="C235" t="s">
+      <c r="B241" s="2"/>
+      <c r="C241" t="s">
         <v>1638</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D241" t="s">
         <v>1679</v>
       </c>
-      <c r="I235" t="s">
+      <c r="I241" t="s">
         <v>2088</v>
       </c>
-      <c r="J235" t="s">
+      <c r="J241" t="s">
         <v>1891</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
         <v>213</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C242" t="s">
         <v>201</v>
       </c>
-      <c r="D236" s="23" t="s">
+      <c r="D242" s="23" t="s">
         <v>1480</v>
       </c>
-      <c r="E236" t="s">
+      <c r="E242" t="s">
         <v>200</v>
       </c>
-      <c r="F236" t="s">
+      <c r="F242" t="s">
         <v>659</v>
       </c>
-      <c r="G236" t="s">
+      <c r="G242" t="s">
         <v>451</v>
       </c>
-      <c r="H236" t="s">
+      <c r="H242" t="s">
         <v>326</v>
       </c>
-      <c r="I236" t="s">
+      <c r="I242" t="s">
         <v>984</v>
       </c>
-      <c r="J236" t="s">
+      <c r="J242" t="s">
         <v>1873</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
         <v>214</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C243" t="s">
         <v>204</v>
       </c>
-      <c r="D237" s="23" t="s">
+      <c r="D243" s="23" t="s">
         <v>1527</v>
       </c>
-      <c r="E237" t="s">
+      <c r="E243" t="s">
         <v>203</v>
       </c>
-      <c r="F237" t="s">
+      <c r="F243" t="s">
         <v>676</v>
       </c>
-      <c r="G237" t="s">
+      <c r="G243" t="s">
         <v>437</v>
       </c>
-      <c r="H237" t="s">
+      <c r="H243" t="s">
         <v>327</v>
       </c>
-      <c r="I237" t="s">
+      <c r="I243" t="s">
         <v>985</v>
       </c>
-      <c r="J237" t="s">
+      <c r="J243" t="s">
         <v>1874</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>469</v>
-      </c>
-      <c r="C238" t="s">
-        <v>470</v>
-      </c>
-      <c r="D238" s="23" t="s">
-        <v>1559</v>
-      </c>
-      <c r="E238" t="s">
-        <v>1271</v>
-      </c>
-      <c r="F238" t="s">
-        <v>677</v>
-      </c>
-      <c r="G238" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="I238" t="s">
-        <v>1016</v>
-      </c>
-      <c r="J238" t="s">
-        <v>1892</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>215</v>
-      </c>
-      <c r="C239" t="s">
-        <v>216</v>
-      </c>
-      <c r="D239" s="23" t="s">
-        <v>1560</v>
-      </c>
-      <c r="E239" t="s">
-        <v>1272</v>
-      </c>
-      <c r="F239" t="s">
-        <v>678</v>
-      </c>
-      <c r="G239" t="s">
-        <v>452</v>
-      </c>
-      <c r="H239" t="s">
-        <v>328</v>
-      </c>
-      <c r="I239" t="s">
-        <v>1017</v>
-      </c>
-      <c r="J239" t="s">
-        <v>1893</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>217</v>
-      </c>
-      <c r="C240" t="s">
-        <v>218</v>
-      </c>
-      <c r="D240" s="23" t="s">
-        <v>1561</v>
-      </c>
-      <c r="E240" t="s">
-        <v>1273</v>
-      </c>
-      <c r="F240" t="s">
-        <v>622</v>
-      </c>
-      <c r="G240" t="s">
-        <v>387</v>
-      </c>
-      <c r="H240" t="s">
-        <v>329</v>
-      </c>
-      <c r="I240" t="s">
-        <v>1018</v>
-      </c>
-      <c r="J240" t="s">
-        <v>1765</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>219</v>
-      </c>
-      <c r="C241" t="s">
-        <v>220</v>
-      </c>
-      <c r="D241" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="E241" t="s">
-        <v>220</v>
-      </c>
-      <c r="F241" t="s">
-        <v>220</v>
-      </c>
-      <c r="G241" t="s">
-        <v>220</v>
-      </c>
-      <c r="H241" t="s">
-        <v>330</v>
-      </c>
-      <c r="I241" t="s">
-        <v>220</v>
-      </c>
-      <c r="J241" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="B242" s="6"/>
-      <c r="C242" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="D242" s="26" t="s">
-        <v>1576</v>
-      </c>
-      <c r="E242" s="3" t="s">
-        <v>1278</v>
-      </c>
-      <c r="F242" s="6" t="s">
-        <v>690</v>
-      </c>
-      <c r="G242" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="I242" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="J242" s="3" t="s">
-        <v>1894</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="B243" s="3"/>
-      <c r="C243" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="D243" s="26" t="s">
-        <v>1562</v>
-      </c>
-      <c r="E243" t="s">
-        <v>1274</v>
-      </c>
-      <c r="F243" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="I243" s="8" t="s">
-        <v>1019</v>
-      </c>
-      <c r="J243" s="8" t="s">
-        <v>1895</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>221</v>
+        <v>469</v>
       </c>
       <c r="C244" t="s">
-        <v>223</v>
+        <v>470</v>
       </c>
       <c r="D244" s="23" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="E244" t="s">
-        <v>222</v>
+        <v>1271</v>
       </c>
       <c r="F244" t="s">
-        <v>679</v>
-      </c>
-      <c r="G244" t="s">
-        <v>453</v>
-      </c>
-      <c r="H244" t="s">
-        <v>337</v>
+        <v>677</v>
+      </c>
+      <c r="G244" s="6" t="s">
+        <v>524</v>
       </c>
       <c r="I244" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="J244" t="s">
-        <v>1896</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C245" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="D245" s="23" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="E245" t="s">
-        <v>1275</v>
-      </c>
-      <c r="F245" s="3" t="s">
-        <v>778</v>
+        <v>1272</v>
+      </c>
+      <c r="F245" t="s">
+        <v>678</v>
       </c>
       <c r="G245" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H245" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="I245" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="J245" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C246" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D246" s="23" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="E246" t="s">
-        <v>222</v>
+        <v>1273</v>
       </c>
       <c r="F246" t="s">
-        <v>679</v>
+        <v>622</v>
       </c>
       <c r="G246" t="s">
-        <v>453</v>
-      </c>
-      <c r="H246" s="5" t="s">
-        <v>337</v>
+        <v>387</v>
+      </c>
+      <c r="H246" t="s">
+        <v>329</v>
       </c>
       <c r="I246" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="J246" t="s">
-        <v>1896</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C247" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D247" s="23" t="s">
-        <v>1565</v>
+        <v>220</v>
       </c>
       <c r="E247" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="F247" t="s">
-        <v>680</v>
+        <v>220</v>
       </c>
       <c r="G247" t="s">
-        <v>455</v>
+        <v>220</v>
       </c>
       <c r="H247" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="I247" t="s">
-        <v>1022</v>
+        <v>220</v>
       </c>
       <c r="J247" t="s">
-        <v>1898</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>123</v>
-      </c>
-      <c r="C248" t="s">
-        <v>231</v>
-      </c>
-      <c r="D248" s="23" t="s">
-        <v>1566</v>
-      </c>
-      <c r="E248" t="s">
-        <v>1276</v>
-      </c>
-      <c r="F248" t="s">
-        <v>681</v>
-      </c>
-      <c r="G248" t="s">
-        <v>456</v>
-      </c>
-      <c r="H248" t="s">
-        <v>335</v>
-      </c>
-      <c r="I248" t="s">
-        <v>1023</v>
-      </c>
-      <c r="J248" t="s">
-        <v>1899</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>232</v>
-      </c>
-      <c r="C249" t="s">
-        <v>233</v>
-      </c>
-      <c r="D249" s="23" t="s">
-        <v>1567</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="B248" s="6"/>
+      <c r="C248" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="D248" s="26" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F248" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="G248" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="I248" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="J248" s="3" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="B249" s="3"/>
+      <c r="C249" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="D249" s="26" t="s">
+        <v>1562</v>
       </c>
       <c r="E249" t="s">
-        <v>1277</v>
-      </c>
-      <c r="F249" t="s">
-        <v>682</v>
-      </c>
-      <c r="G249" t="s">
-        <v>457</v>
-      </c>
-      <c r="H249" t="s">
-        <v>334</v>
-      </c>
-      <c r="I249" t="s">
-        <v>1024</v>
-      </c>
-      <c r="J249" t="s">
-        <v>1900</v>
+        <v>1274</v>
+      </c>
+      <c r="F249" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="I249" s="8" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J249" s="8" t="s">
+        <v>1895</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="C250" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="D250" s="23" t="s">
-        <v>1568</v>
+        <v>1563</v>
       </c>
       <c r="E250" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="F250" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="G250" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="H250" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="I250" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="J250" t="s">
-        <v>1901</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="C251" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="D251" s="23" t="s">
-        <v>1569</v>
+        <v>1564</v>
       </c>
       <c r="E251" t="s">
-        <v>238</v>
-      </c>
-      <c r="F251" t="s">
-        <v>684</v>
+        <v>1275</v>
+      </c>
+      <c r="F251" s="3" t="s">
+        <v>778</v>
       </c>
       <c r="G251" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="H251" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="I251" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="J251" t="s">
-        <v>1902</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="C252" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="D252" s="23" t="s">
-        <v>1570</v>
+        <v>1563</v>
       </c>
       <c r="E252" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="F252" t="s">
-        <v>685</v>
-      </c>
-      <c r="G252" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="H252" t="s">
-        <v>331</v>
+        <v>679</v>
+      </c>
+      <c r="G252" t="s">
+        <v>453</v>
+      </c>
+      <c r="H252" s="5" t="s">
+        <v>337</v>
       </c>
       <c r="I252" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="J252" t="s">
-        <v>1903</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="C253" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="D253" s="23" t="s">
-        <v>1571</v>
+        <v>1565</v>
       </c>
       <c r="E253" t="s">
-        <v>244</v>
-      </c>
-      <c r="F253" s="3" t="s">
-        <v>779</v>
-      </c>
-      <c r="G253" s="6" t="s">
-        <v>461</v>
+        <v>228</v>
+      </c>
+      <c r="F253" t="s">
+        <v>680</v>
+      </c>
+      <c r="G253" t="s">
+        <v>455</v>
       </c>
       <c r="H253" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="I253" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="J253" t="s">
-        <v>1904</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="B254" s="6"/>
-      <c r="C254" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="D254" s="26" t="s">
-        <v>1429</v>
-      </c>
-      <c r="E254" s="3" t="s">
-        <v>1192</v>
-      </c>
-      <c r="F254" s="6" t="s">
-        <v>691</v>
-      </c>
-      <c r="G254" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="I254" s="3" t="s">
-        <v>912</v>
-      </c>
-      <c r="J254" s="3" t="s">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="B255" s="6"/>
-      <c r="C255" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="D255" s="26" t="s">
-        <v>1430</v>
-      </c>
-      <c r="E255" s="3" t="s">
-        <v>1193</v>
-      </c>
-      <c r="F255" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="G255" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="I255" s="3" t="s">
-        <v>1033</v>
-      </c>
-      <c r="J255" s="3" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>123</v>
+      </c>
+      <c r="C254" t="s">
+        <v>231</v>
+      </c>
+      <c r="D254" s="23" t="s">
+        <v>1566</v>
+      </c>
+      <c r="E254" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F254" t="s">
+        <v>681</v>
+      </c>
+      <c r="G254" t="s">
+        <v>456</v>
+      </c>
+      <c r="H254" t="s">
+        <v>335</v>
+      </c>
+      <c r="I254" t="s">
+        <v>1023</v>
+      </c>
+      <c r="J254" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>232</v>
+      </c>
+      <c r="C255" t="s">
+        <v>233</v>
+      </c>
+      <c r="D255" s="23" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E255" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F255" t="s">
+        <v>682</v>
+      </c>
+      <c r="G255" t="s">
+        <v>457</v>
+      </c>
+      <c r="H255" t="s">
+        <v>334</v>
+      </c>
+      <c r="I255" t="s">
+        <v>1024</v>
+      </c>
+      <c r="J255" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C256" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D256" s="23" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="E256" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="F256" t="s">
-        <v>686</v>
-      </c>
-      <c r="G256" s="3" t="s">
-        <v>413</v>
+        <v>683</v>
+      </c>
+      <c r="G256" t="s">
+        <v>458</v>
       </c>
       <c r="H256" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="I256" t="s">
-        <v>957</v>
+        <v>1025</v>
       </c>
       <c r="J256" t="s">
-        <v>1819</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C257" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="D257" s="23" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="E257" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="F257" t="s">
-        <v>687</v>
-      </c>
-      <c r="G257" s="3" t="s">
-        <v>462</v>
+        <v>684</v>
+      </c>
+      <c r="G257" t="s">
+        <v>459</v>
       </c>
       <c r="H257" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="I257" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="J257" t="s">
-        <v>1906</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="C258" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="D258" s="23" t="s">
-        <v>1566</v>
+        <v>1570</v>
       </c>
       <c r="E258" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="F258" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="G258" s="6" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="H258" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I258" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="J258" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C259" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D259" s="23" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="E259" t="s">
-        <v>252</v>
-      </c>
-      <c r="F259" t="s">
-        <v>688</v>
+        <v>244</v>
+      </c>
+      <c r="F259" s="3" t="s">
+        <v>779</v>
       </c>
       <c r="G259" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H259" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="I259" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="J259" t="s">
-        <v>1908</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>254</v>
-      </c>
-      <c r="C260" t="s">
-        <v>256</v>
-      </c>
-      <c r="D260" s="23" t="s">
-        <v>1479</v>
-      </c>
-      <c r="E260" t="s">
-        <v>255</v>
-      </c>
-      <c r="F260" t="s">
-        <v>256</v>
-      </c>
-      <c r="G260" t="s">
-        <v>464</v>
-      </c>
-      <c r="H260" t="s">
-        <v>343</v>
-      </c>
-      <c r="I260" t="s">
-        <v>1031</v>
-      </c>
-      <c r="J260" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>257</v>
-      </c>
-      <c r="C261" t="s">
-        <v>259</v>
-      </c>
-      <c r="D261" s="23" t="s">
-        <v>1575</v>
-      </c>
-      <c r="E261" t="s">
-        <v>258</v>
-      </c>
-      <c r="F261" t="s">
-        <v>689</v>
-      </c>
-      <c r="G261" t="s">
-        <v>465</v>
-      </c>
-      <c r="H261" t="s">
-        <v>344</v>
-      </c>
-      <c r="I261" t="s">
-        <v>1032</v>
-      </c>
-      <c r="J261" t="s">
-        <v>1909</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B263" s="1"/>
-      <c r="D263" s="15"/>
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B260" s="6"/>
+      <c r="C260" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D260" s="26" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F260" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="G260" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="I260" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="J260" s="3" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="B261" s="6"/>
+      <c r="C261" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="D261" s="26" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F261" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="G261" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="I261" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="J261" s="3" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>246</v>
+      </c>
+      <c r="C262" t="s">
+        <v>246</v>
+      </c>
+      <c r="D262" s="23" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E262" t="s">
+        <v>247</v>
+      </c>
+      <c r="F262" t="s">
+        <v>686</v>
+      </c>
+      <c r="G262" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="H262" t="s">
+        <v>340</v>
+      </c>
+      <c r="I262" t="s">
+        <v>957</v>
+      </c>
+      <c r="J262" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>248</v>
+      </c>
+      <c r="C263" t="s">
+        <v>250</v>
+      </c>
+      <c r="D263" s="23" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E263" t="s">
+        <v>249</v>
+      </c>
+      <c r="F263" t="s">
+        <v>687</v>
+      </c>
+      <c r="G263" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="H263" t="s">
+        <v>341</v>
+      </c>
+      <c r="I263" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J263" t="s">
+        <v>1906</v>
+      </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="C264" t="s">
-        <v>283</v>
+        <v>231</v>
       </c>
       <c r="D264" s="23" t="s">
-        <v>1434</v>
+        <v>1566</v>
       </c>
       <c r="E264" t="s">
-        <v>38</v>
-      </c>
-      <c r="F264" s="6" t="s">
-        <v>693</v>
-      </c>
-      <c r="G264" t="s">
-        <v>377</v>
+        <v>230</v>
+      </c>
+      <c r="F264" t="s">
+        <v>681</v>
+      </c>
+      <c r="G264" s="6" t="s">
+        <v>456</v>
       </c>
       <c r="H264" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="I264" t="s">
-        <v>283</v>
+        <v>1023</v>
       </c>
       <c r="J264" t="s">
-        <v>1752</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C265" t="s">
-        <v>325</v>
-      </c>
-      <c r="D265" t="s">
-        <v>1680</v>
+        <v>253</v>
+      </c>
+      <c r="D265" s="23" t="s">
+        <v>1574</v>
       </c>
       <c r="E265" t="s">
-        <v>1279</v>
-      </c>
-      <c r="F265" s="6" t="s">
-        <v>694</v>
-      </c>
-      <c r="G265" t="s">
-        <v>466</v>
+        <v>252</v>
+      </c>
+      <c r="F265" t="s">
+        <v>688</v>
+      </c>
+      <c r="G265" s="6" t="s">
+        <v>463</v>
       </c>
       <c r="H265" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="I265" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="J265" t="s">
-        <v>1910</v>
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>254</v>
+      </c>
+      <c r="C266" t="s">
+        <v>256</v>
+      </c>
+      <c r="D266" s="23" t="s">
+        <v>1479</v>
+      </c>
+      <c r="E266" t="s">
+        <v>255</v>
+      </c>
+      <c r="F266" t="s">
+        <v>256</v>
+      </c>
+      <c r="G266" t="s">
+        <v>464</v>
+      </c>
+      <c r="H266" t="s">
+        <v>343</v>
+      </c>
+      <c r="I266" t="s">
+        <v>1031</v>
+      </c>
+      <c r="J266" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A267" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B267" s="1"/>
-      <c r="D267" s="15"/>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>478</v>
-      </c>
-      <c r="C268" t="s">
-        <v>293</v>
-      </c>
-      <c r="D268" s="23" t="s">
-        <v>1472</v>
-      </c>
-      <c r="E268" t="s">
-        <v>1280</v>
-      </c>
-      <c r="F268" t="s">
-        <v>607</v>
-      </c>
-      <c r="G268" t="s">
-        <v>394</v>
-      </c>
-      <c r="I268" t="s">
-        <v>1035</v>
-      </c>
-      <c r="J268" t="s">
-        <v>1788</v>
+      <c r="A267" t="s">
+        <v>257</v>
+      </c>
+      <c r="C267" t="s">
+        <v>259</v>
+      </c>
+      <c r="D267" s="23" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E267" t="s">
+        <v>258</v>
+      </c>
+      <c r="F267" t="s">
+        <v>689</v>
+      </c>
+      <c r="G267" t="s">
+        <v>465</v>
+      </c>
+      <c r="H267" t="s">
+        <v>344</v>
+      </c>
+      <c r="I267" t="s">
+        <v>1032</v>
+      </c>
+      <c r="J267" t="s">
+        <v>1909</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>475</v>
-      </c>
-      <c r="C269" t="s">
-        <v>279</v>
-      </c>
-      <c r="D269" s="23" t="s">
-        <v>1428</v>
-      </c>
-      <c r="E269" t="s">
-        <v>29</v>
-      </c>
-      <c r="F269" t="s">
-        <v>577</v>
-      </c>
-      <c r="G269" t="s">
-        <v>372</v>
-      </c>
-      <c r="I269" t="s">
-        <v>911</v>
-      </c>
-      <c r="J269" t="s">
-        <v>1746</v>
-      </c>
+      <c r="A269" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B269" s="1"/>
+      <c r="D269" s="15"/>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>476</v>
+        <v>0</v>
       </c>
       <c r="C270" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="D270" s="23" t="s">
-        <v>1476</v>
+        <v>1434</v>
       </c>
       <c r="E270" t="s">
-        <v>68</v>
-      </c>
-      <c r="F270" t="s">
-        <v>611</v>
+        <v>38</v>
+      </c>
+      <c r="F270" s="6" t="s">
+        <v>693</v>
       </c>
       <c r="G270" t="s">
-        <v>398</v>
+        <v>377</v>
+      </c>
+      <c r="H270" t="s">
+        <v>345</v>
       </c>
       <c r="I270" t="s">
-        <v>939</v>
+        <v>283</v>
       </c>
       <c r="J270" t="s">
-        <v>1796</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
+        <v>260</v>
+      </c>
+      <c r="C271" t="s">
+        <v>325</v>
+      </c>
+      <c r="D271" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E271" t="s">
+        <v>1279</v>
+      </c>
+      <c r="F271" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="G271" t="s">
+        <v>466</v>
+      </c>
+      <c r="H271" t="s">
+        <v>346</v>
+      </c>
+      <c r="I271" t="s">
+        <v>1034</v>
+      </c>
+      <c r="J271" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B273" s="1"/>
+      <c r="D273" s="15"/>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>478</v>
+      </c>
+      <c r="C274" t="s">
+        <v>293</v>
+      </c>
+      <c r="D274" s="23" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E274" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F274" t="s">
+        <v>607</v>
+      </c>
+      <c r="G274" t="s">
+        <v>394</v>
+      </c>
+      <c r="I274" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J274" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>475</v>
+      </c>
+      <c r="C275" t="s">
+        <v>279</v>
+      </c>
+      <c r="D275" s="23" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E275" t="s">
+        <v>29</v>
+      </c>
+      <c r="F275" t="s">
+        <v>577</v>
+      </c>
+      <c r="G275" t="s">
+        <v>372</v>
+      </c>
+      <c r="I275" t="s">
+        <v>911</v>
+      </c>
+      <c r="J275" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>476</v>
+      </c>
+      <c r="C276" t="s">
+        <v>297</v>
+      </c>
+      <c r="D276" s="23" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E276" t="s">
+        <v>68</v>
+      </c>
+      <c r="F276" t="s">
+        <v>611</v>
+      </c>
+      <c r="G276" t="s">
+        <v>398</v>
+      </c>
+      <c r="I276" t="s">
+        <v>939</v>
+      </c>
+      <c r="J276" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
         <v>474</v>
       </c>
-      <c r="C271" t="s">
+      <c r="C277" t="s">
         <v>295</v>
       </c>
-      <c r="D271" s="23" t="s">
+      <c r="D277" s="23" t="s">
         <v>1474</v>
       </c>
-      <c r="E271" t="s">
+      <c r="E277" t="s">
         <v>33</v>
       </c>
-      <c r="F271" t="s">
+      <c r="F277" t="s">
         <v>295</v>
       </c>
-      <c r="G271" t="s">
+      <c r="G277" t="s">
         <v>396</v>
       </c>
-      <c r="I271" t="s">
+      <c r="I277" t="s">
         <v>937</v>
       </c>
-      <c r="J271" t="s">
+      <c r="J277" t="s">
         <v>1790</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
         <v>477</v>
       </c>
-      <c r="C272" t="s">
+      <c r="C278" t="s">
         <v>282</v>
       </c>
-      <c r="D272" s="23" t="s">
+      <c r="D278" s="23" t="s">
         <v>1432</v>
       </c>
-      <c r="E272" t="s">
+      <c r="E278" t="s">
         <v>35</v>
       </c>
-      <c r="F272" t="s">
+      <c r="F278" t="s">
         <v>580</v>
       </c>
-      <c r="G272" t="s">
+      <c r="G278" t="s">
         <v>375</v>
       </c>
-      <c r="I272" t="s">
+      <c r="I278" t="s">
         <v>915</v>
       </c>
-      <c r="J272" t="s">
+      <c r="J278" t="s">
         <v>1750</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
         <v>479</v>
       </c>
-      <c r="C273" t="s">
+      <c r="C279" t="s">
         <v>481</v>
       </c>
-      <c r="D273" s="23" t="s">
+      <c r="D279" s="23" t="s">
         <v>1577</v>
       </c>
-      <c r="E273" t="s">
+      <c r="E279" t="s">
         <v>1281</v>
       </c>
-      <c r="F273" t="s">
+      <c r="F279" t="s">
         <v>695</v>
       </c>
-      <c r="G273" t="s">
+      <c r="G279" t="s">
         <v>480</v>
       </c>
-      <c r="I273" t="s">
+      <c r="I279" t="s">
         <v>1036</v>
       </c>
-      <c r="J273" t="s">
+      <c r="J279" t="s">
         <v>1911</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A275" s="10" t="s">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A281" s="10" t="s">
         <v>697</v>
       </c>
-      <c r="B275" s="10"/>
-      <c r="C275" s="3"/>
-      <c r="D275" s="26"/>
-      <c r="F275" s="3"/>
-    </row>
-    <row r="276" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="3" t="s">
+      <c r="B281" s="10"/>
+      <c r="C281" s="3"/>
+      <c r="D281" s="26"/>
+      <c r="F281" s="3"/>
+    </row>
+    <row r="282" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="B276" s="3"/>
-      <c r="C276" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="D276" s="26" t="s">
-        <v>1578</v>
-      </c>
-      <c r="F276" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="I276" s="8" t="s">
-        <v>1037</v>
-      </c>
-      <c r="J276" s="8" t="s">
-        <v>1912</v>
-      </c>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A277" s="8"/>
-      <c r="B277" s="8"/>
-      <c r="C277" s="8"/>
-      <c r="D277" s="29"/>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A278" s="10" t="s">
-        <v>703</v>
-      </c>
-      <c r="B278" s="10"/>
-      <c r="C278" s="3"/>
-      <c r="D278" s="26"/>
-      <c r="F278" s="3"/>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A279" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B279" s="3"/>
-      <c r="C279" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="D279" s="26" t="s">
-        <v>1579</v>
-      </c>
-      <c r="E279" t="s">
-        <v>1282</v>
-      </c>
-      <c r="F279" s="3" t="s">
-        <v>819</v>
-      </c>
-      <c r="I279" t="s">
-        <v>1038</v>
-      </c>
-      <c r="J279" t="s">
-        <v>1913</v>
-      </c>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A280" s="3" t="s">
-        <v>890</v>
-      </c>
-      <c r="B280" s="3"/>
-      <c r="C280" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D280" s="26" t="s">
-        <v>1434</v>
-      </c>
-      <c r="E280" t="s">
-        <v>1293</v>
-      </c>
-      <c r="F280" s="6" t="s">
-        <v>693</v>
-      </c>
-      <c r="I280" t="s">
-        <v>283</v>
-      </c>
-      <c r="J280" t="s">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A281" s="3" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B281" s="3"/>
-      <c r="C281" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="D281" s="26" t="s">
-        <v>1581</v>
-      </c>
-      <c r="E281" t="s">
-        <v>1284</v>
-      </c>
-      <c r="F281" s="3" t="s">
-        <v>782</v>
-      </c>
-      <c r="I281" t="s">
-        <v>1039</v>
-      </c>
-      <c r="J281" t="s">
-        <v>1914</v>
-      </c>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A282" s="3" t="s">
-        <v>878</v>
       </c>
       <c r="B282" s="3"/>
       <c r="C282" s="3" t="s">
-        <v>879</v>
+        <v>696</v>
       </c>
       <c r="D282" s="26" t="s">
-        <v>1582</v>
-      </c>
-      <c r="E282" t="s">
-        <v>1285</v>
-      </c>
-      <c r="I282" t="s">
-        <v>1040</v>
-      </c>
-      <c r="J282" t="s">
-        <v>1915</v>
+        <v>1578</v>
+      </c>
+      <c r="F282" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="I282" s="8" t="s">
+        <v>1037</v>
+      </c>
+      <c r="J282" s="8" t="s">
+        <v>1912</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A283" s="3" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B283" s="3"/>
-      <c r="C283" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D283" s="26" t="s">
-        <v>1498</v>
-      </c>
-      <c r="E283" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F283" t="s">
-        <v>630</v>
-      </c>
-      <c r="I283" t="s">
-        <v>958</v>
-      </c>
-      <c r="J283" t="s">
-        <v>1820</v>
-      </c>
+      <c r="A283" s="8"/>
+      <c r="B283" s="8"/>
+      <c r="C283" s="8"/>
+      <c r="D283" s="29"/>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A284" s="3" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B284" s="3"/>
-      <c r="C284" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D284" s="26" t="s">
-        <v>1498</v>
-      </c>
-      <c r="E284" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F284" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="I284" t="s">
-        <v>958</v>
-      </c>
-      <c r="J284" t="s">
-        <v>1820</v>
-      </c>
+      <c r="A284" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="B284" s="10"/>
+      <c r="C284" s="3"/>
+      <c r="D284" s="26"/>
+      <c r="F284" s="3"/>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="B285" s="3"/>
       <c r="C285" s="3" t="s">
-        <v>700</v>
+        <v>818</v>
       </c>
       <c r="D285" s="26" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="E285" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>781</v>
+        <v>819</v>
       </c>
       <c r="I285" t="s">
-        <v>700</v>
+        <v>1038</v>
       </c>
       <c r="J285" t="s">
-        <v>1916</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
-        <v>889</v>
-      </c>
-      <c r="B286" s="3" t="s">
-        <v>1160</v>
-      </c>
+        <v>890</v>
+      </c>
+      <c r="B286" s="3"/>
       <c r="C286" s="3" t="s">
-        <v>1161</v>
+        <v>283</v>
       </c>
       <c r="D286" s="26" t="s">
-        <v>1589</v>
-      </c>
-      <c r="E286" s="3" t="s">
-        <v>1292</v>
+        <v>1434</v>
+      </c>
+      <c r="E286" t="s">
+        <v>1293</v>
+      </c>
+      <c r="F286" s="6" t="s">
+        <v>693</v>
       </c>
       <c r="I286" t="s">
-        <v>1108</v>
+        <v>283</v>
       </c>
       <c r="J286" t="s">
-        <v>1917</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
-        <v>711</v>
+        <v>1176</v>
       </c>
       <c r="B287" s="3"/>
       <c r="C287" s="3" t="s">
-        <v>1179</v>
+        <v>701</v>
       </c>
       <c r="D287" s="26" t="s">
-        <v>1587</v>
+        <v>1581</v>
       </c>
       <c r="E287" t="s">
-        <v>1290</v>
+        <v>1284</v>
+      </c>
+      <c r="F287" s="3" t="s">
+        <v>782</v>
       </c>
       <c r="I287" t="s">
-        <v>886</v>
+        <v>1039</v>
       </c>
       <c r="J287" t="s">
-        <v>1918</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
-        <v>713</v>
+        <v>878</v>
       </c>
       <c r="B288" s="3"/>
       <c r="C288" s="3" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="D288" s="26" t="s">
-        <v>1587</v>
+        <v>1582</v>
       </c>
       <c r="E288" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="I288" t="s">
-        <v>886</v>
+        <v>1040</v>
       </c>
       <c r="J288" t="s">
-        <v>1919</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
-        <v>715</v>
+        <v>1177</v>
       </c>
       <c r="B289" s="3"/>
       <c r="C289" s="3" t="s">
-        <v>880</v>
+        <v>240</v>
       </c>
       <c r="D289" s="26" t="s">
-        <v>1583</v>
+        <v>1498</v>
       </c>
       <c r="E289" t="s">
-        <v>1286</v>
+        <v>1230</v>
+      </c>
+      <c r="F289" t="s">
+        <v>630</v>
       </c>
       <c r="I289" t="s">
-        <v>1041</v>
+        <v>958</v>
       </c>
       <c r="J289" t="s">
-        <v>1920</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
-        <v>720</v>
+        <v>1178</v>
       </c>
       <c r="B290" s="3"/>
       <c r="C290" s="3" t="s">
-        <v>881</v>
+        <v>240</v>
       </c>
       <c r="D290" s="26" t="s">
-        <v>1584</v>
+        <v>1498</v>
       </c>
       <c r="E290" t="s">
-        <v>1287</v>
+        <v>1230</v>
+      </c>
+      <c r="F290" s="3" t="s">
+        <v>630</v>
       </c>
       <c r="I290" t="s">
-        <v>1042</v>
+        <v>958</v>
       </c>
       <c r="J290" t="s">
-        <v>1921</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
-        <v>882</v>
+        <v>64</v>
       </c>
       <c r="B291" s="3"/>
       <c r="C291" s="3" t="s">
-        <v>883</v>
+        <v>700</v>
       </c>
       <c r="D291" s="26" t="s">
-        <v>1585</v>
+        <v>1580</v>
       </c>
       <c r="E291" t="s">
-        <v>1288</v>
+        <v>1283</v>
+      </c>
+      <c r="F291" s="3" t="s">
+        <v>781</v>
       </c>
       <c r="I291" t="s">
-        <v>1043</v>
+        <v>700</v>
       </c>
       <c r="J291" t="s">
-        <v>1922</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
-        <v>884</v>
-      </c>
-      <c r="B292" s="3"/>
+        <v>889</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>1160</v>
+      </c>
       <c r="C292" s="3" t="s">
-        <v>885</v>
+        <v>1161</v>
       </c>
       <c r="D292" s="26" t="s">
-        <v>1586</v>
-      </c>
-      <c r="E292" t="s">
-        <v>1289</v>
+        <v>1589</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>1292</v>
       </c>
       <c r="I292" t="s">
-        <v>1044</v>
+        <v>1108</v>
       </c>
       <c r="J292" t="s">
-        <v>1923</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
-        <v>887</v>
+        <v>711</v>
       </c>
       <c r="B293" s="3"/>
       <c r="C293" s="3" t="s">
-        <v>888</v>
+        <v>1179</v>
       </c>
       <c r="D293" s="26" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="E293" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="I293" t="s">
-        <v>1045</v>
+        <v>886</v>
       </c>
       <c r="J293" t="s">
-        <v>1924</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A294" s="8"/>
-      <c r="B294" s="8"/>
-      <c r="C294" s="8"/>
-      <c r="D294" s="29"/>
+      <c r="A294" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="B294" s="3"/>
+      <c r="C294" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="D294" s="26" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E294" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I294" t="s">
+        <v>886</v>
+      </c>
+      <c r="J294" t="s">
+        <v>1919</v>
+      </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A295" s="10" t="s">
-        <v>702</v>
-      </c>
-      <c r="B295" s="10"/>
-      <c r="C295" s="3"/>
-      <c r="D295" s="26"/>
-      <c r="F295" s="3"/>
+      <c r="A295" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="B295" s="3"/>
+      <c r="C295" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="D295" s="26" t="s">
+        <v>1583</v>
+      </c>
+      <c r="E295" t="s">
+        <v>1286</v>
+      </c>
+      <c r="I295" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J295" t="s">
+        <v>1920</v>
+      </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="B296" s="3"/>
       <c r="C296" s="3" t="s">
-        <v>704</v>
+        <v>881</v>
       </c>
       <c r="D296" s="26" t="s">
-        <v>1590</v>
+        <v>1584</v>
       </c>
       <c r="E296" t="s">
-        <v>1294</v>
-      </c>
-      <c r="F296" s="3" t="s">
-        <v>783</v>
+        <v>1287</v>
       </c>
       <c r="I296" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="J296" t="s">
-        <v>1913</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A297" s="9" t="s">
-        <v>1333</v>
-      </c>
-      <c r="B297" s="9"/>
-      <c r="C297" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D297" s="24" t="s">
-        <v>1419</v>
+      <c r="A297" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="B297" s="3"/>
+      <c r="C297" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="D297" s="26" t="s">
+        <v>1585</v>
       </c>
       <c r="E297" t="s">
-        <v>10</v>
-      </c>
-      <c r="F297" s="3"/>
+        <v>1288</v>
+      </c>
       <c r="I297" t="s">
-        <v>905</v>
+        <v>1043</v>
       </c>
       <c r="J297" t="s">
-        <v>1736</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A298" s="9" t="s">
-        <v>1334</v>
-      </c>
-      <c r="B298" s="9"/>
-      <c r="C298" s="9" t="s">
-        <v>719</v>
-      </c>
-      <c r="D298" s="24" t="s">
-        <v>1592</v>
+      <c r="A298" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="B298" s="3"/>
+      <c r="C298" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="D298" s="26" t="s">
+        <v>1586</v>
       </c>
       <c r="E298" t="s">
-        <v>1305</v>
-      </c>
-      <c r="F298" s="3"/>
+        <v>1289</v>
+      </c>
       <c r="I298" t="s">
-        <v>2089</v>
+        <v>1044</v>
       </c>
       <c r="J298" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A299" s="9" t="s">
-        <v>1335</v>
-      </c>
-      <c r="B299" s="9"/>
-      <c r="C299" s="9" t="s">
-        <v>718</v>
-      </c>
-      <c r="D299" s="24" t="s">
-        <v>1593</v>
+      <c r="A299" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="B299" s="3"/>
+      <c r="C299" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="D299" s="26" t="s">
+        <v>1588</v>
       </c>
       <c r="E299" t="s">
-        <v>1304</v>
-      </c>
-      <c r="F299" s="3"/>
+        <v>1291</v>
+      </c>
       <c r="I299" t="s">
-        <v>2090</v>
+        <v>1045</v>
       </c>
       <c r="J299" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A300" s="9" t="s">
-        <v>832</v>
-      </c>
-      <c r="B300" s="9"/>
-      <c r="C300" s="9" t="s">
-        <v>824</v>
-      </c>
-      <c r="D300" s="24" t="s">
-        <v>1591</v>
-      </c>
-      <c r="E300" t="s">
-        <v>1295</v>
-      </c>
-      <c r="F300" s="3" t="s">
-        <v>825</v>
-      </c>
-      <c r="I300" t="s">
-        <v>1047</v>
-      </c>
-      <c r="J300" t="s">
-        <v>1927</v>
-      </c>
+      <c r="A300" s="8"/>
+      <c r="B300" s="8"/>
+      <c r="C300" s="8"/>
+      <c r="D300" s="29"/>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A301" s="9" t="s">
-        <v>1336</v>
-      </c>
-      <c r="B301" s="9"/>
-      <c r="C301" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="D301" s="24" t="s">
-        <v>1407</v>
-      </c>
-      <c r="E301" t="s">
-        <v>61</v>
-      </c>
+      <c r="A301" s="10" t="s">
+        <v>702</v>
+      </c>
+      <c r="B301" s="10"/>
+      <c r="C301" s="3"/>
+      <c r="D301" s="26"/>
       <c r="F301" s="3"/>
-      <c r="I301" t="s">
-        <v>892</v>
-      </c>
-      <c r="J301" t="s">
-        <v>1720</v>
-      </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="B302" s="3"/>
       <c r="C302" s="3" t="s">
-        <v>722</v>
+        <v>704</v>
       </c>
       <c r="D302" s="26" t="s">
-        <v>1580</v>
+        <v>1590</v>
       </c>
       <c r="E302" t="s">
-        <v>1308</v>
+        <v>1294</v>
       </c>
       <c r="F302" s="3" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="I302" t="s">
-        <v>722</v>
+        <v>1046</v>
       </c>
       <c r="J302" t="s">
-        <v>1928</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A303" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B303" s="3"/>
-      <c r="C303" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="D303" s="26" t="s">
-        <v>1467</v>
+      <c r="A303" s="9" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B303" s="9"/>
+      <c r="C303" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D303" s="24" t="s">
+        <v>1419</v>
       </c>
       <c r="E303" t="s">
-        <v>1208</v>
-      </c>
-      <c r="F303" s="3" t="s">
-        <v>502</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F303" s="3"/>
       <c r="I303" t="s">
-        <v>928</v>
+        <v>905</v>
       </c>
       <c r="J303" t="s">
-        <v>1775</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A304" s="3" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B304" s="3"/>
-      <c r="C304" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="D304" s="26" t="s">
-        <v>1601</v>
+      <c r="A304" s="9" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B304" s="9"/>
+      <c r="C304" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="D304" s="24" t="s">
+        <v>1592</v>
       </c>
       <c r="E304" t="s">
-        <v>1303</v>
-      </c>
-      <c r="F304" s="3" t="s">
-        <v>787</v>
-      </c>
+        <v>1305</v>
+      </c>
+      <c r="F304" s="3"/>
       <c r="I304" t="s">
-        <v>1054</v>
+        <v>2089</v>
       </c>
       <c r="J304" t="s">
-        <v>1929</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A305" s="3" t="s">
-        <v>1338</v>
-      </c>
-      <c r="B305" s="3"/>
-      <c r="C305" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="D305" s="26" t="s">
-        <v>1467</v>
+      <c r="A305" s="9" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B305" s="9"/>
+      <c r="C305" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="D305" s="24" t="s">
+        <v>1593</v>
       </c>
       <c r="E305" t="s">
-        <v>1208</v>
-      </c>
-      <c r="F305" s="3" t="s">
-        <v>502</v>
-      </c>
+        <v>1304</v>
+      </c>
+      <c r="F305" s="3"/>
       <c r="I305" t="s">
-        <v>928</v>
+        <v>2090</v>
       </c>
       <c r="J305" t="s">
-        <v>1775</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A306" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B306" s="3"/>
-      <c r="C306" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="D306" s="26" t="s">
-        <v>1596</v>
+      <c r="A306" s="9" t="s">
+        <v>832</v>
+      </c>
+      <c r="B306" s="9"/>
+      <c r="C306" s="9" t="s">
+        <v>824</v>
+      </c>
+      <c r="D306" s="24" t="s">
+        <v>1591</v>
       </c>
       <c r="E306" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>786</v>
+        <v>825</v>
       </c>
       <c r="I306" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="J306" t="s">
-        <v>1930</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A307" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B307" s="3"/>
-      <c r="C307" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D307" s="26" t="s">
-        <v>1474</v>
+      <c r="A307" s="9" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B307" s="9"/>
+      <c r="C307" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D307" s="24" t="s">
+        <v>1407</v>
       </c>
       <c r="E307" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="F307" s="3"/>
       <c r="I307" t="s">
-        <v>937</v>
+        <v>892</v>
       </c>
       <c r="J307" t="s">
-        <v>1790</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="B308" s="3"/>
       <c r="C308" s="3" t="s">
-        <v>709</v>
+        <v>722</v>
       </c>
       <c r="D308" s="26" t="s">
-        <v>1595</v>
+        <v>1580</v>
       </c>
       <c r="E308" t="s">
-        <v>1297</v>
+        <v>1308</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="I308" t="s">
-        <v>709</v>
+        <v>722</v>
       </c>
       <c r="J308" t="s">
-        <v>1931</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="B309" s="3"/>
       <c r="C309" s="3" t="s">
-        <v>1348</v>
+        <v>502</v>
       </c>
       <c r="D309" s="26" t="s">
-        <v>1597</v>
+        <v>1467</v>
       </c>
       <c r="E309" t="s">
-        <v>1299</v>
+        <v>1208</v>
       </c>
       <c r="F309" s="3" t="s">
-        <v>712</v>
+        <v>502</v>
       </c>
       <c r="I309" t="s">
-        <v>1050</v>
+        <v>928</v>
       </c>
       <c r="J309" t="s">
-        <v>1932</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="B310" s="3"/>
       <c r="C310" s="3" t="s">
-        <v>1349</v>
+        <v>717</v>
       </c>
       <c r="D310" s="26" t="s">
-        <v>1598</v>
+        <v>1601</v>
       </c>
       <c r="E310" t="s">
-        <v>1300</v>
+        <v>1303</v>
       </c>
       <c r="F310" s="3" t="s">
-        <v>714</v>
+        <v>787</v>
       </c>
       <c r="I310" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="J310" t="s">
-        <v>1933</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
-        <v>757</v>
+        <v>1338</v>
       </c>
       <c r="B311" s="3"/>
       <c r="C311" s="3" t="s">
-        <v>716</v>
+        <v>502</v>
       </c>
       <c r="D311" s="26" t="s">
-        <v>1600</v>
+        <v>1467</v>
       </c>
       <c r="E311" t="s">
-        <v>1302</v>
+        <v>1208</v>
       </c>
       <c r="F311" s="3" t="s">
-        <v>788</v>
+        <v>502</v>
       </c>
       <c r="I311" t="s">
-        <v>1053</v>
+        <v>928</v>
       </c>
       <c r="J311" t="s">
-        <v>1934</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
-        <v>1340</v>
+        <v>88</v>
       </c>
       <c r="B312" s="3"/>
       <c r="C312" s="3" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="D312" s="26" t="s">
-        <v>1603</v>
+        <v>1596</v>
       </c>
       <c r="E312" t="s">
-        <v>1307</v>
+        <v>1298</v>
       </c>
       <c r="F312" s="3" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="I312" t="s">
-        <v>1057</v>
+        <v>1049</v>
       </c>
       <c r="J312" t="s">
-        <v>1935</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
-        <v>1639</v>
+        <v>64</v>
       </c>
       <c r="B313" s="3"/>
       <c r="C313" s="3" t="s">
-        <v>1640</v>
-      </c>
-      <c r="D313" t="s">
-        <v>1681</v>
+        <v>295</v>
+      </c>
+      <c r="D313" s="26" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E313" t="s">
+        <v>33</v>
       </c>
       <c r="F313" s="3"/>
       <c r="I313" t="s">
-        <v>1640</v>
+        <v>937</v>
       </c>
       <c r="J313" t="s">
-        <v>1936</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
-        <v>708</v>
+        <v>65</v>
       </c>
       <c r="B314" s="3"/>
       <c r="C314" s="3" t="s">
-        <v>295</v>
+        <v>709</v>
       </c>
       <c r="D314" s="26" t="s">
-        <v>1682</v>
+        <v>1595</v>
       </c>
       <c r="E314" t="s">
-        <v>33</v>
+        <v>1297</v>
       </c>
       <c r="F314" s="3" t="s">
-        <v>295</v>
+        <v>785</v>
       </c>
       <c r="I314" t="s">
-        <v>937</v>
+        <v>709</v>
       </c>
       <c r="J314" t="s">
-        <v>1790</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
-        <v>1341</v>
+        <v>67</v>
       </c>
       <c r="B315" s="3"/>
       <c r="C315" s="3" t="s">
-        <v>261</v>
+        <v>1348</v>
       </c>
       <c r="D315" s="26" t="s">
-        <v>1604</v>
-      </c>
-      <c r="F315" s="3"/>
+        <v>1597</v>
+      </c>
+      <c r="E315" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F315" s="3" t="s">
+        <v>712</v>
+      </c>
       <c r="I315" t="s">
-        <v>261</v>
+        <v>1050</v>
       </c>
       <c r="J315" t="s">
-        <v>1719</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B316" s="3"/>
       <c r="C316" s="3" t="s">
-        <v>705</v>
+        <v>1349</v>
       </c>
       <c r="D316" s="26" t="s">
-        <v>1594</v>
+        <v>1598</v>
       </c>
       <c r="E316" t="s">
-        <v>1296</v>
+        <v>1300</v>
       </c>
       <c r="F316" s="3" t="s">
-        <v>784</v>
+        <v>714</v>
       </c>
       <c r="I316" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="J316" t="s">
-        <v>1937</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
-        <v>1343</v>
+        <v>757</v>
       </c>
       <c r="B317" s="3"/>
       <c r="C317" s="3" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
       <c r="D317" s="26" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="E317" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="F317" s="3" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="I317" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="J317" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="B318" s="3"/>
       <c r="C318" s="3" t="s">
-        <v>707</v>
+        <v>721</v>
       </c>
       <c r="D318" s="26" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="E318" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="F318" s="3" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="I318" t="s">
-        <v>707</v>
+        <v>1057</v>
       </c>
       <c r="J318" t="s">
-        <v>1939</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
-        <v>1345</v>
+        <v>1639</v>
       </c>
       <c r="B319" s="3"/>
       <c r="C319" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D319" s="26" t="s">
-        <v>1419</v>
-      </c>
-      <c r="E319" t="s">
-        <v>10</v>
-      </c>
-      <c r="F319" s="3" t="s">
-        <v>608</v>
-      </c>
+        <v>1640</v>
+      </c>
+      <c r="D319" t="s">
+        <v>1681</v>
+      </c>
+      <c r="F319" s="3"/>
       <c r="I319" t="s">
-        <v>905</v>
+        <v>1640</v>
       </c>
       <c r="J319" t="s">
-        <v>1736</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
-        <v>1346</v>
+        <v>708</v>
       </c>
       <c r="B320" s="3"/>
       <c r="C320" s="3" t="s">
-        <v>719</v>
+        <v>295</v>
       </c>
       <c r="D320" s="26" t="s">
-        <v>1592</v>
+        <v>1682</v>
       </c>
       <c r="E320" t="s">
-        <v>1305</v>
+        <v>33</v>
       </c>
       <c r="F320" s="3" t="s">
-        <v>789</v>
+        <v>295</v>
       </c>
       <c r="I320" t="s">
-        <v>1056</v>
+        <v>937</v>
       </c>
       <c r="J320" t="s">
-        <v>1925</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
       <c r="B321" s="3"/>
       <c r="C321" s="3" t="s">
-        <v>718</v>
+        <v>261</v>
       </c>
       <c r="D321" s="26" t="s">
-        <v>1593</v>
-      </c>
-      <c r="E321" t="s">
-        <v>1304</v>
-      </c>
-      <c r="F321" s="3" t="s">
-        <v>768</v>
-      </c>
+        <v>1604</v>
+      </c>
+      <c r="F321" s="3"/>
       <c r="I321" t="s">
-        <v>1055</v>
+        <v>261</v>
       </c>
       <c r="J321" t="s">
-        <v>1926</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A322" s="8"/>
-      <c r="B322" s="8"/>
-      <c r="C322" s="8"/>
-      <c r="D322" s="29"/>
+      <c r="A322" s="3" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B322" s="3"/>
+      <c r="C322" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="D322" s="26" t="s">
+        <v>1594</v>
+      </c>
+      <c r="E322" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F322" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="I322" t="s">
+        <v>1048</v>
+      </c>
+      <c r="J322" t="s">
+        <v>1937</v>
+      </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A323" s="10" t="s">
-        <v>698</v>
-      </c>
-      <c r="B323" s="10"/>
-      <c r="C323" s="3"/>
-      <c r="D323" s="26"/>
-      <c r="F323" s="3"/>
+      <c r="A323" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B323" s="3"/>
+      <c r="C323" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="D323" s="26" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E323" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F323" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="I323" t="s">
+        <v>1052</v>
+      </c>
+      <c r="J323" t="s">
+        <v>1938</v>
+      </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
-        <v>0</v>
+        <v>1344</v>
       </c>
       <c r="B324" s="3"/>
       <c r="C324" s="3" t="s">
-        <v>724</v>
+        <v>707</v>
       </c>
       <c r="D324" s="26" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="E324" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="F324" s="3" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="I324" t="s">
-        <v>1058</v>
+        <v>707</v>
       </c>
       <c r="J324" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
-        <v>9</v>
+        <v>1345</v>
       </c>
       <c r="B325" s="3"/>
       <c r="C325" s="3" t="s">
@@ -14475,1775 +14535,1886 @@
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
-        <v>1364</v>
+        <v>1346</v>
       </c>
       <c r="B326" s="3"/>
       <c r="C326" s="3" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="D326" s="26" t="s">
-        <v>1547</v>
+        <v>1592</v>
       </c>
       <c r="E326" t="s">
-        <v>1200</v>
+        <v>1305</v>
       </c>
       <c r="F326" s="3" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="I326" t="s">
-        <v>1065</v>
+        <v>1056</v>
       </c>
       <c r="J326" t="s">
-        <v>1941</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
-        <v>1365</v>
+        <v>1347</v>
       </c>
       <c r="B327" s="3"/>
       <c r="C327" s="3" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
       <c r="D327" s="26" t="s">
-        <v>1612</v>
+        <v>1593</v>
       </c>
       <c r="E327" t="s">
-        <v>1315</v>
+        <v>1304</v>
       </c>
       <c r="F327" s="3" t="s">
-        <v>800</v>
+        <v>768</v>
       </c>
       <c r="I327" t="s">
-        <v>1066</v>
+        <v>1055</v>
       </c>
       <c r="J327" t="s">
-        <v>1942</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A328" s="3" t="s">
-        <v>1366</v>
-      </c>
-      <c r="B328" s="3"/>
-      <c r="C328" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="D328" s="26" t="s">
-        <v>1611</v>
-      </c>
-      <c r="E328" t="s">
-        <v>1314</v>
-      </c>
-      <c r="F328" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="I328" t="s">
-        <v>1064</v>
-      </c>
-      <c r="J328" t="s">
-        <v>1943</v>
-      </c>
+      <c r="A328" s="8"/>
+      <c r="B328" s="8"/>
+      <c r="C328" s="8"/>
+      <c r="D328" s="29"/>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A329" s="3" t="s">
-        <v>1358</v>
-      </c>
-      <c r="B329" s="3"/>
-      <c r="C329" s="3" t="s">
-        <v>727</v>
-      </c>
-      <c r="D329" s="26" t="s">
-        <v>1608</v>
-      </c>
-      <c r="E329" t="s">
-        <v>1311</v>
-      </c>
-      <c r="F329" s="3" t="s">
-        <v>795</v>
-      </c>
-      <c r="I329" t="s">
-        <v>1061</v>
-      </c>
-      <c r="J329" t="s">
-        <v>1944</v>
-      </c>
+      <c r="A329" s="10" t="s">
+        <v>698</v>
+      </c>
+      <c r="B329" s="10"/>
+      <c r="C329" s="3"/>
+      <c r="D329" s="26"/>
+      <c r="F329" s="3"/>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
-        <v>1357</v>
+        <v>0</v>
       </c>
       <c r="B330" s="3"/>
       <c r="C330" s="3" t="s">
-        <v>295</v>
+        <v>724</v>
       </c>
       <c r="D330" s="26" t="s">
-        <v>1474</v>
+        <v>1605</v>
       </c>
       <c r="E330" t="s">
-        <v>33</v>
+        <v>1309</v>
       </c>
       <c r="F330" s="3" t="s">
-        <v>295</v>
+        <v>793</v>
       </c>
       <c r="I330" t="s">
-        <v>937</v>
+        <v>1058</v>
       </c>
       <c r="J330" t="s">
-        <v>1790</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B331" s="3"/>
       <c r="C331" s="3" t="s">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c r="D331" s="26" t="s">
-        <v>1613</v>
+        <v>1419</v>
       </c>
       <c r="E331" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="F331" s="3" t="s">
-        <v>656</v>
+        <v>608</v>
       </c>
       <c r="I331" t="s">
-        <v>981</v>
+        <v>905</v>
       </c>
       <c r="J331" t="s">
-        <v>1751</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
-        <v>1359</v>
+        <v>1364</v>
       </c>
       <c r="B332" s="3"/>
       <c r="C332" s="3" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D332" s="26" t="s">
-        <v>1607</v>
+        <v>1547</v>
       </c>
       <c r="E332" t="s">
-        <v>1310</v>
+        <v>1200</v>
       </c>
       <c r="F332" s="3" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="I332" t="s">
-        <v>1060</v>
+        <v>1065</v>
       </c>
       <c r="J332" t="s">
-        <v>1945</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
-        <v>1360</v>
+        <v>1365</v>
       </c>
       <c r="B333" s="3"/>
       <c r="C333" s="3" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="D333" s="26" t="s">
-        <v>1609</v>
+        <v>1612</v>
       </c>
       <c r="E333" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="F333" s="3" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="I333" t="s">
-        <v>1062</v>
+        <v>1066</v>
       </c>
       <c r="J333" t="s">
-        <v>1946</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
-        <v>1361</v>
+        <v>1366</v>
       </c>
       <c r="B334" s="3"/>
       <c r="C334" s="3" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D334" s="26" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="E334" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="F334" s="3" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="I334" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="J334" t="s">
-        <v>1947</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="B335" s="3"/>
       <c r="C335" s="3" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="D335" s="26" t="s">
-        <v>1449</v>
+        <v>1608</v>
       </c>
       <c r="E335" t="s">
-        <v>1201</v>
+        <v>1311</v>
       </c>
       <c r="F335" s="3" t="s">
-        <v>291</v>
+        <v>795</v>
       </c>
       <c r="I335" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="J335" t="s">
-        <v>1766</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
       <c r="B336" s="3"/>
       <c r="C336" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D336" s="26" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E336" t="s">
+        <v>33</v>
+      </c>
+      <c r="F336" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="I336" t="s">
+        <v>937</v>
+      </c>
+      <c r="J336" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A337" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B337" s="3"/>
+      <c r="C337" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D337" s="26" t="s">
+        <v>1613</v>
+      </c>
+      <c r="E337" t="s">
+        <v>135</v>
+      </c>
+      <c r="F337" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="I337" t="s">
+        <v>981</v>
+      </c>
+      <c r="J337" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A338" s="3" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B338" s="3"/>
+      <c r="C338" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="D338" s="26" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E338" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F338" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="I338" t="s">
+        <v>1060</v>
+      </c>
+      <c r="J338" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A339" s="3" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B339" s="3"/>
+      <c r="C339" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="D339" s="26" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E339" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F339" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="I339" t="s">
+        <v>1062</v>
+      </c>
+      <c r="J339" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A340" s="3" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B340" s="3"/>
+      <c r="C340" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="D340" s="26" t="s">
+        <v>1610</v>
+      </c>
+      <c r="E340" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F340" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="I340" t="s">
+        <v>1063</v>
+      </c>
+      <c r="J340" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A341" s="3" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B341" s="3"/>
+      <c r="C341" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="D341" s="26" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E341" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F341" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="D336" s="26" t="s">
+      <c r="I341" t="s">
+        <v>1059</v>
+      </c>
+      <c r="J341" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A342" s="3" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B342" s="3"/>
+      <c r="C342" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D342" s="26" t="s">
         <v>1606</v>
       </c>
-      <c r="E336" t="s">
+      <c r="E342" t="s">
         <v>1227</v>
       </c>
-      <c r="F336" s="3" t="s">
+      <c r="F342" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="I336" t="s">
+      <c r="I342" t="s">
         <v>924</v>
       </c>
-      <c r="J336" t="s">
+      <c r="J342" t="s">
         <v>1766</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
         <v>839</v>
       </c>
-      <c r="C337" s="3" t="s">
+      <c r="C343" s="3" t="s">
         <v>841</v>
       </c>
-      <c r="D337" s="26" t="s">
+      <c r="D343" s="26" t="s">
         <v>1614</v>
       </c>
-      <c r="E337" t="s">
+      <c r="E343" t="s">
         <v>1316</v>
       </c>
-      <c r="F337" s="3" t="s">
+      <c r="F343" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="I337" t="s">
+      <c r="I343" t="s">
         <v>1067</v>
       </c>
-      <c r="J337" t="s">
+      <c r="J343" t="s">
         <v>1948</v>
-      </c>
-    </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A338" t="s">
-        <v>1350</v>
-      </c>
-      <c r="C338" t="s">
-        <v>122</v>
-      </c>
-      <c r="D338" s="23" t="s">
-        <v>1419</v>
-      </c>
-      <c r="E338" t="s">
-        <v>10</v>
-      </c>
-      <c r="F338" t="s">
-        <v>608</v>
-      </c>
-      <c r="I338" t="s">
-        <v>905</v>
-      </c>
-      <c r="J338" t="s">
-        <v>1736</v>
-      </c>
-    </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C339" t="s">
-        <v>731</v>
-      </c>
-      <c r="D339" s="23" t="s">
-        <v>1547</v>
-      </c>
-      <c r="E339" t="s">
-        <v>1200</v>
-      </c>
-      <c r="F339" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="I339" t="s">
-        <v>1065</v>
-      </c>
-      <c r="J339" t="s">
-        <v>1941</v>
-      </c>
-    </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
-        <v>1352</v>
-      </c>
-      <c r="C340" t="s">
-        <v>732</v>
-      </c>
-      <c r="D340" s="23" t="s">
-        <v>1612</v>
-      </c>
-      <c r="E340" t="s">
-        <v>1315</v>
-      </c>
-      <c r="F340" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="I340" t="s">
-        <v>1066</v>
-      </c>
-      <c r="J340" t="s">
-        <v>1942</v>
-      </c>
-    </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C341" t="s">
-        <v>140</v>
-      </c>
-      <c r="D341" s="23" t="s">
-        <v>1439</v>
-      </c>
-      <c r="E341" t="s">
-        <v>42</v>
-      </c>
-      <c r="F341" t="s">
-        <v>585</v>
-      </c>
-      <c r="I341" t="s">
-        <v>918</v>
-      </c>
-      <c r="J341" t="s">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
-        <v>1354</v>
-      </c>
-      <c r="C342" t="s">
-        <v>729</v>
-      </c>
-      <c r="D342" s="23" t="s">
-        <v>1610</v>
-      </c>
-      <c r="E342" t="s">
-        <v>1313</v>
-      </c>
-      <c r="I342" t="s">
-        <v>1063</v>
-      </c>
-      <c r="J342" t="s">
-        <v>1947</v>
-      </c>
-    </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A343" s="9" t="s">
-        <v>838</v>
-      </c>
-      <c r="B343" s="9"/>
-      <c r="C343" s="9" t="s">
-        <v>826</v>
-      </c>
-      <c r="D343" s="24" t="s">
-        <v>1615</v>
-      </c>
-      <c r="E343" t="s">
-        <v>1317</v>
-      </c>
-      <c r="F343" t="s">
-        <v>827</v>
-      </c>
-      <c r="I343" t="s">
-        <v>826</v>
-      </c>
-      <c r="J343" t="s">
-        <v>1949</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C344" t="s">
+        <v>122</v>
+      </c>
+      <c r="D344" s="23" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E344" t="s">
+        <v>10</v>
+      </c>
+      <c r="F344" t="s">
+        <v>608</v>
+      </c>
+      <c r="I344" t="s">
+        <v>905</v>
+      </c>
+      <c r="J344" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C345" t="s">
+        <v>731</v>
+      </c>
+      <c r="D345" s="23" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E345" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F345" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="I345" t="s">
+        <v>1065</v>
+      </c>
+      <c r="J345" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C346" t="s">
+        <v>732</v>
+      </c>
+      <c r="D346" s="23" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E346" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F346" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="I346" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J346" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C347" t="s">
+        <v>140</v>
+      </c>
+      <c r="D347" s="23" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E347" t="s">
+        <v>42</v>
+      </c>
+      <c r="F347" t="s">
+        <v>585</v>
+      </c>
+      <c r="I347" t="s">
+        <v>918</v>
+      </c>
+      <c r="J347" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C348" t="s">
+        <v>729</v>
+      </c>
+      <c r="D348" s="23" t="s">
+        <v>1610</v>
+      </c>
+      <c r="E348" t="s">
+        <v>1313</v>
+      </c>
+      <c r="I348" t="s">
+        <v>1063</v>
+      </c>
+      <c r="J348" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A349" s="9" t="s">
+        <v>838</v>
+      </c>
+      <c r="B349" s="9"/>
+      <c r="C349" s="9" t="s">
+        <v>826</v>
+      </c>
+      <c r="D349" s="24" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E349" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F349" t="s">
+        <v>827</v>
+      </c>
+      <c r="I349" t="s">
+        <v>826</v>
+      </c>
+      <c r="J349" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
         <v>1355</v>
       </c>
-      <c r="C344" t="s">
+      <c r="C350" t="s">
         <v>707</v>
       </c>
-      <c r="D344" s="23" t="s">
+      <c r="D350" s="23" t="s">
         <v>1602</v>
       </c>
-      <c r="E344" t="s">
+      <c r="E350" t="s">
         <v>1308</v>
       </c>
-      <c r="I344" t="s">
+      <c r="I350" t="s">
         <v>707</v>
       </c>
-      <c r="J344" t="s">
+      <c r="J350" t="s">
         <v>1939</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A345" s="3" t="s">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A351" s="3" t="s">
         <v>1356</v>
       </c>
-      <c r="B345" s="3"/>
-      <c r="C345" s="3" t="s">
+      <c r="B351" s="3"/>
+      <c r="C351" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="D345" s="26" t="s">
+      <c r="D351" s="26" t="s">
         <v>1599</v>
       </c>
-      <c r="E345" t="s">
+      <c r="E351" t="s">
         <v>1301</v>
       </c>
-      <c r="F345" s="3" t="s">
+      <c r="F351" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="I345" t="s">
+      <c r="I351" t="s">
         <v>1052</v>
       </c>
-      <c r="J345" t="s">
+      <c r="J351" t="s">
         <v>1950</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A346" s="3"/>
-      <c r="B346" s="3"/>
-      <c r="C346" s="3"/>
-      <c r="D346" s="26"/>
-      <c r="F346" s="3"/>
-    </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A347" s="10" t="s">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A352" s="3"/>
+      <c r="B352" s="3"/>
+      <c r="C352" s="3"/>
+      <c r="D352" s="26"/>
+      <c r="F352" s="3"/>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A353" s="10" t="s">
         <v>723</v>
       </c>
-      <c r="B347" s="10"/>
-      <c r="C347" s="3"/>
-      <c r="D347" s="26"/>
-      <c r="F347" s="3"/>
-    </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A348" s="3" t="s">
+      <c r="B353" s="10"/>
+      <c r="C353" s="3"/>
+      <c r="D353" s="26"/>
+      <c r="F353" s="3"/>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A354" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B348" s="3"/>
-      <c r="C348" s="3" t="s">
+      <c r="B354" s="3"/>
+      <c r="C354" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="D348" s="26" t="s">
+      <c r="D354" s="26" t="s">
         <v>1616</v>
       </c>
-      <c r="E348" t="s">
+      <c r="E354" t="s">
         <v>1318</v>
       </c>
-      <c r="F348" s="3" t="s">
+      <c r="F354" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="I348" t="s">
+      <c r="I354" t="s">
         <v>1068</v>
       </c>
-      <c r="J348" t="s">
+      <c r="J354" t="s">
         <v>1951</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A349" s="14" t="s">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A355" s="14" t="s">
         <v>1333</v>
       </c>
-      <c r="B349" s="14"/>
-      <c r="C349" s="4" t="s">
+      <c r="B355" s="14"/>
+      <c r="C355" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D349" s="30" t="s">
+      <c r="D355" s="30" t="s">
         <v>1419</v>
       </c>
-      <c r="E349" t="s">
+      <c r="E355" t="s">
         <v>10</v>
       </c>
-      <c r="I349" t="s">
+      <c r="I355" t="s">
         <v>905</v>
       </c>
-      <c r="J349" t="s">
+      <c r="J355" t="s">
         <v>1736</v>
       </c>
     </row>
-    <row r="350" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="9" t="s">
+    <row r="356" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="9" t="s">
         <v>1334</v>
-      </c>
-      <c r="B350" s="9"/>
-      <c r="C350" s="9" t="s">
-        <v>1367</v>
-      </c>
-      <c r="D350" s="24" t="s">
-        <v>1593</v>
-      </c>
-      <c r="E350" s="13" t="s">
-        <v>1375</v>
-      </c>
-      <c r="I350" s="3" t="s">
-        <v>2090</v>
-      </c>
-      <c r="J350" s="3" t="s">
-        <v>1952</v>
-      </c>
-    </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
-        <v>60</v>
-      </c>
-      <c r="B351" s="9"/>
-      <c r="C351" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="D351" s="24" t="s">
-        <v>1407</v>
-      </c>
-      <c r="E351" t="s">
-        <v>61</v>
-      </c>
-      <c r="F351" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="I351" t="s">
-        <v>892</v>
-      </c>
-      <c r="J351" t="s">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A352" s="9" t="s">
-        <v>736</v>
-      </c>
-      <c r="B352" s="9"/>
-      <c r="C352" s="9" t="s">
-        <v>737</v>
-      </c>
-      <c r="D352" s="24" t="s">
-        <v>1617</v>
-      </c>
-      <c r="E352" t="s">
-        <v>1319</v>
-      </c>
-      <c r="F352" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="I352" t="s">
-        <v>1069</v>
-      </c>
-      <c r="J352" t="s">
-        <v>1953</v>
-      </c>
-    </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A353" s="9" t="s">
-        <v>738</v>
-      </c>
-      <c r="B353" s="9"/>
-      <c r="C353" s="9" t="s">
-        <v>739</v>
-      </c>
-      <c r="D353" s="24" t="s">
-        <v>1618</v>
-      </c>
-      <c r="E353" t="s">
-        <v>1320</v>
-      </c>
-      <c r="F353" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="I353" t="s">
-        <v>1070</v>
-      </c>
-      <c r="J353" t="s">
-        <v>1954</v>
-      </c>
-    </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A354" s="9" t="s">
-        <v>740</v>
-      </c>
-      <c r="B354" s="9"/>
-      <c r="C354" s="9" t="s">
-        <v>741</v>
-      </c>
-      <c r="D354" s="24" t="s">
-        <v>1619</v>
-      </c>
-      <c r="E354" t="s">
-        <v>1321</v>
-      </c>
-      <c r="F354" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="I354" t="s">
-        <v>1071</v>
-      </c>
-      <c r="J354" t="s">
-        <v>1955</v>
-      </c>
-    </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A355" s="9" t="s">
-        <v>742</v>
-      </c>
-      <c r="B355" s="9"/>
-      <c r="C355" s="9" t="s">
-        <v>743</v>
-      </c>
-      <c r="D355" s="24" t="s">
-        <v>1620</v>
-      </c>
-      <c r="E355" t="s">
-        <v>1322</v>
-      </c>
-      <c r="F355" s="3" t="s">
-        <v>805</v>
-      </c>
-      <c r="I355" t="s">
-        <v>1072</v>
-      </c>
-      <c r="J355" t="s">
-        <v>1956</v>
-      </c>
-    </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A356" s="9" t="s">
-        <v>744</v>
       </c>
       <c r="B356" s="9"/>
       <c r="C356" s="9" t="s">
-        <v>745</v>
+        <v>1367</v>
       </c>
       <c r="D356" s="24" t="s">
-        <v>1621</v>
-      </c>
-      <c r="E356" t="s">
-        <v>1323</v>
-      </c>
-      <c r="F356" s="3" t="s">
-        <v>806</v>
-      </c>
-      <c r="I356" t="s">
-        <v>1073</v>
-      </c>
-      <c r="J356" t="s">
-        <v>1957</v>
+        <v>1593</v>
+      </c>
+      <c r="E356" s="13" t="s">
+        <v>1375</v>
+      </c>
+      <c r="I356" s="3" t="s">
+        <v>2090</v>
+      </c>
+      <c r="J356" s="3" t="s">
+        <v>1952</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A357" s="9" t="s">
-        <v>746</v>
+      <c r="A357" t="s">
+        <v>60</v>
       </c>
       <c r="B357" s="9"/>
       <c r="C357" s="9" t="s">
-        <v>747</v>
+        <v>262</v>
       </c>
       <c r="D357" s="24" t="s">
-        <v>1622</v>
+        <v>1407</v>
       </c>
       <c r="E357" t="s">
-        <v>1324</v>
+        <v>61</v>
       </c>
       <c r="F357" s="3" t="s">
-        <v>807</v>
+        <v>556</v>
       </c>
       <c r="I357" t="s">
-        <v>1074</v>
+        <v>892</v>
       </c>
       <c r="J357" t="s">
-        <v>1958</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358" s="9" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="B358" s="9"/>
       <c r="C358" s="9" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="D358" s="24" t="s">
-        <v>1623</v>
+        <v>1617</v>
       </c>
       <c r="E358" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
       <c r="F358" s="3" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="I358" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="J358" t="s">
-        <v>1959</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359" s="9" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
       <c r="B359" s="9"/>
       <c r="C359" s="9" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="D359" s="24" t="s">
-        <v>1612</v>
+        <v>1618</v>
       </c>
       <c r="E359" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="F359" s="3" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="I359" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="J359" t="s">
-        <v>1942</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360" s="9" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="B360" s="9"/>
       <c r="C360" s="9" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="D360" s="24" t="s">
-        <v>1624</v>
+        <v>1619</v>
       </c>
       <c r="E360" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="F360" s="3" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="I360" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="J360" t="s">
-        <v>1960</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361" s="9" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="B361" s="9"/>
       <c r="C361" s="9" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="D361" s="24" t="s">
-        <v>1625</v>
+        <v>1620</v>
       </c>
       <c r="E361" t="s">
-        <v>1293</v>
+        <v>1322</v>
       </c>
       <c r="F361" s="3" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="I361" t="s">
-        <v>283</v>
+        <v>1072</v>
       </c>
       <c r="J361" t="s">
-        <v>1752</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" s="9" t="s">
-        <v>64</v>
+        <v>744</v>
       </c>
       <c r="B362" s="9"/>
       <c r="C362" s="9" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="D362" s="24" t="s">
-        <v>1626</v>
+        <v>1621</v>
       </c>
       <c r="E362" t="s">
-        <v>1328</v>
+        <v>1323</v>
       </c>
       <c r="F362" s="3" t="s">
-        <v>756</v>
+        <v>806</v>
       </c>
       <c r="I362" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="J362" t="s">
-        <v>1961</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B363" s="9" t="s">
-        <v>1636</v>
-      </c>
+        <v>746</v>
+      </c>
+      <c r="B363" s="9"/>
       <c r="C363" s="9" t="s">
-        <v>1370</v>
+        <v>747</v>
       </c>
       <c r="D363" s="24" t="s">
-        <v>1627</v>
+        <v>1622</v>
       </c>
       <c r="E363" t="s">
-        <v>1372</v>
+        <v>1324</v>
       </c>
       <c r="F363" s="3" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="I363" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="J363" t="s">
-        <v>1962</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364" s="9" t="s">
-        <v>67</v>
+        <v>748</v>
       </c>
       <c r="B364" s="9"/>
       <c r="C364" s="9" t="s">
-        <v>1368</v>
+        <v>749</v>
       </c>
       <c r="D364" s="24" t="s">
-        <v>1628</v>
+        <v>1623</v>
       </c>
       <c r="E364" t="s">
-        <v>1373</v>
-      </c>
-      <c r="F364" s="3"/>
+        <v>1325</v>
+      </c>
+      <c r="F364" s="3" t="s">
+        <v>808</v>
+      </c>
       <c r="I364" t="s">
-        <v>2091</v>
+        <v>1075</v>
       </c>
       <c r="J364" t="s">
-        <v>1965</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365" s="9" t="s">
-        <v>1339</v>
+        <v>750</v>
       </c>
       <c r="B365" s="9"/>
       <c r="C365" s="9" t="s">
-        <v>1369</v>
+        <v>751</v>
       </c>
       <c r="D365" s="24" t="s">
-        <v>1629</v>
+        <v>1612</v>
       </c>
       <c r="E365" t="s">
-        <v>1374</v>
-      </c>
-      <c r="F365" s="3"/>
+        <v>1326</v>
+      </c>
+      <c r="F365" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="I365" t="s">
+        <v>1076</v>
+      </c>
       <c r="J365" t="s">
-        <v>1964</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366" s="9" t="s">
-        <v>757</v>
-      </c>
-      <c r="B366" s="9" t="s">
-        <v>1371</v>
-      </c>
+        <v>752</v>
+      </c>
+      <c r="B366" s="9"/>
       <c r="C366" s="9" t="s">
-        <v>1370</v>
+        <v>753</v>
       </c>
       <c r="D366" s="24" t="s">
-        <v>1630</v>
+        <v>1624</v>
       </c>
       <c r="E366" t="s">
-        <v>1372</v>
+        <v>1327</v>
       </c>
       <c r="F366" s="3" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="I366" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="J366" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367" s="9" t="s">
-        <v>72</v>
+        <v>754</v>
       </c>
       <c r="B367" s="9"/>
       <c r="C367" s="9" t="s">
-        <v>261</v>
+        <v>755</v>
       </c>
       <c r="D367" s="24" t="s">
-        <v>1604</v>
+        <v>1625</v>
       </c>
       <c r="E367" t="s">
-        <v>1180</v>
+        <v>1293</v>
       </c>
       <c r="F367" s="3" t="s">
-        <v>261</v>
+        <v>811</v>
       </c>
       <c r="I367" t="s">
-        <v>1081</v>
+        <v>283</v>
       </c>
       <c r="J367" t="s">
-        <v>1719</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368" s="9" t="s">
-        <v>758</v>
+        <v>64</v>
       </c>
       <c r="B368" s="9"/>
       <c r="C368" s="9" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D368" s="24" t="s">
-        <v>1631</v>
+        <v>1626</v>
       </c>
       <c r="E368" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="F368" s="3" t="s">
-        <v>814</v>
+        <v>756</v>
       </c>
       <c r="I368" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="J368" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369" s="9" t="s">
-        <v>760</v>
-      </c>
-      <c r="B369" s="9"/>
+        <v>65</v>
+      </c>
+      <c r="B369" s="9" t="s">
+        <v>1636</v>
+      </c>
       <c r="C369" s="9" t="s">
-        <v>761</v>
+        <v>1370</v>
       </c>
       <c r="D369" s="24" t="s">
-        <v>1632</v>
+        <v>1627</v>
       </c>
       <c r="E369" t="s">
-        <v>1330</v>
+        <v>1372</v>
       </c>
       <c r="F369" s="3" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="I369" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="J369" t="s">
-        <v>1966</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370" s="9" t="s">
-        <v>762</v>
+        <v>67</v>
       </c>
       <c r="B370" s="9"/>
       <c r="C370" s="9" t="s">
-        <v>763</v>
+        <v>1368</v>
       </c>
       <c r="D370" s="24" t="s">
-        <v>1633</v>
+        <v>1628</v>
       </c>
       <c r="E370" t="s">
-        <v>1331</v>
-      </c>
-      <c r="F370" s="3" t="s">
-        <v>816</v>
-      </c>
+        <v>1373</v>
+      </c>
+      <c r="F370" s="3"/>
       <c r="I370" t="s">
-        <v>1084</v>
+        <v>2091</v>
       </c>
       <c r="J370" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371" s="9" t="s">
-        <v>764</v>
+        <v>1339</v>
       </c>
       <c r="B371" s="9"/>
       <c r="C371" s="9" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D371" s="24" t="s">
+        <v>1629</v>
+      </c>
+      <c r="E371" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F371" s="3"/>
+      <c r="J371" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A372" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="B372" s="9" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C372" s="9" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D372" s="24" t="s">
+        <v>1630</v>
+      </c>
+      <c r="E372" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F372" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="I372" t="s">
+        <v>1080</v>
+      </c>
+      <c r="J372" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A373" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B373" s="9"/>
+      <c r="C373" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D373" s="24" t="s">
+        <v>1604</v>
+      </c>
+      <c r="E373" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F373" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="I373" t="s">
+        <v>1081</v>
+      </c>
+      <c r="J373" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A374" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="B374" s="9"/>
+      <c r="C374" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="D374" s="24" t="s">
+        <v>1631</v>
+      </c>
+      <c r="E374" t="s">
+        <v>1329</v>
+      </c>
+      <c r="F374" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="I374" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J374" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A375" s="9" t="s">
+        <v>760</v>
+      </c>
+      <c r="B375" s="9"/>
+      <c r="C375" s="9" t="s">
+        <v>761</v>
+      </c>
+      <c r="D375" s="24" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E375" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F375" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="I375" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J375" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A376" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="B376" s="9"/>
+      <c r="C376" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="D376" s="24" t="s">
+        <v>1633</v>
+      </c>
+      <c r="E376" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F376" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="I376" t="s">
+        <v>1084</v>
+      </c>
+      <c r="J376" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A377" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="B377" s="9"/>
+      <c r="C377" s="9" t="s">
         <v>765</v>
       </c>
-      <c r="D371" s="24" t="s">
+      <c r="D377" s="24" t="s">
         <v>1634</v>
       </c>
-      <c r="E371" t="s">
+      <c r="E377" t="s">
         <v>1332</v>
       </c>
-      <c r="F371" s="3" t="s">
+      <c r="F377" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="I371" t="s">
+      <c r="I377" t="s">
         <v>1085</v>
       </c>
-      <c r="J371" t="s">
+      <c r="J377" t="s">
         <v>1968</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C372" s="9"/>
-      <c r="D372" s="24"/>
-    </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A373" s="20" t="s">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C378" s="9"/>
+      <c r="D378" s="24"/>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A379" s="20" t="s">
         <v>1670</v>
-      </c>
-    </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
-        <v>0</v>
-      </c>
-      <c r="C374" t="s">
-        <v>1644</v>
-      </c>
-      <c r="D374" t="s">
-        <v>1683</v>
-      </c>
-      <c r="I374" t="s">
-        <v>2092</v>
-      </c>
-      <c r="J374" t="s">
-        <v>1969</v>
-      </c>
-    </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A375" t="s">
-        <v>1645</v>
-      </c>
-      <c r="C375" t="s">
-        <v>1403</v>
-      </c>
-      <c r="D375" t="s">
-        <v>1482</v>
-      </c>
-      <c r="I375" t="s">
-        <v>2078</v>
-      </c>
-      <c r="J375" t="s">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A376" t="s">
-        <v>1646</v>
-      </c>
-      <c r="C376" t="s">
-        <v>261</v>
-      </c>
-      <c r="D376" t="s">
-        <v>1604</v>
-      </c>
-      <c r="I376" t="s">
-        <v>261</v>
-      </c>
-      <c r="J376" t="s">
-        <v>1719</v>
-      </c>
-    </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A377" t="s">
-        <v>1650</v>
-      </c>
-      <c r="C377" t="s">
-        <v>1649</v>
-      </c>
-      <c r="D377" t="s">
-        <v>1684</v>
-      </c>
-      <c r="I377" t="s">
-        <v>2093</v>
-      </c>
-      <c r="J377" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A378" t="s">
-        <v>1651</v>
-      </c>
-      <c r="C378" t="s">
-        <v>279</v>
-      </c>
-      <c r="D378" t="s">
-        <v>1428</v>
-      </c>
-      <c r="I378" t="s">
-        <v>911</v>
-      </c>
-      <c r="J378" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A379" t="s">
-        <v>1652</v>
-      </c>
-      <c r="C379" t="s">
-        <v>1648</v>
-      </c>
-      <c r="D379" t="s">
-        <v>1685</v>
-      </c>
-      <c r="I379" t="s">
-        <v>2094</v>
-      </c>
-      <c r="J379" t="s">
-        <v>1971</v>
       </c>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>1653</v>
+        <v>0</v>
       </c>
       <c r="C380" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="D380" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="I380" t="s">
-        <v>2095</v>
+        <v>2092</v>
       </c>
       <c r="J380" t="s">
-        <v>1972</v>
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C381" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D381" t="s">
+        <v>1482</v>
+      </c>
+      <c r="I381" t="s">
+        <v>2078</v>
+      </c>
+      <c r="J381" t="s">
+        <v>1800</v>
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A382" s="1" t="s">
-        <v>1671</v>
+      <c r="A382" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C382" t="s">
+        <v>261</v>
+      </c>
+      <c r="D382" t="s">
+        <v>1604</v>
+      </c>
+      <c r="I382" t="s">
+        <v>261</v>
+      </c>
+      <c r="J382" t="s">
+        <v>1719</v>
       </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>0</v>
-      </c>
-      <c r="B383" t="s">
-        <v>1668</v>
+        <v>1650</v>
       </c>
       <c r="C383" t="s">
-        <v>1654</v>
+        <v>1649</v>
       </c>
       <c r="D383" t="s">
-        <v>1687</v>
+        <v>1684</v>
+      </c>
+      <c r="I383" t="s">
+        <v>2093</v>
       </c>
       <c r="J383" t="s">
-        <v>1973</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
       <c r="C384" t="s">
-        <v>1656</v>
+        <v>279</v>
       </c>
       <c r="D384" t="s">
-        <v>1688</v>
+        <v>1428</v>
+      </c>
+      <c r="I384" t="s">
+        <v>911</v>
       </c>
       <c r="J384" t="s">
-        <v>1736</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>1657</v>
+        <v>1652</v>
       </c>
       <c r="C385" t="s">
-        <v>1658</v>
+        <v>1648</v>
       </c>
       <c r="D385" t="s">
-        <v>1658</v>
+        <v>1685</v>
       </c>
       <c r="I385" t="s">
-        <v>1658</v>
+        <v>2094</v>
       </c>
       <c r="J385" t="s">
-        <v>1658</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>1659</v>
+        <v>1653</v>
       </c>
       <c r="C386" t="s">
-        <v>295</v>
+        <v>1647</v>
       </c>
       <c r="D386" t="s">
-        <v>1474</v>
+        <v>1686</v>
       </c>
       <c r="I386" t="s">
-        <v>937</v>
+        <v>2095</v>
       </c>
       <c r="J386" t="s">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
-        <v>1660</v>
-      </c>
-      <c r="C387" t="s">
-        <v>1661</v>
-      </c>
-      <c r="D387" t="s">
-        <v>1689</v>
-      </c>
-      <c r="I387" t="s">
-        <v>2096</v>
-      </c>
-      <c r="J387" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
-        <v>88</v>
-      </c>
-      <c r="C388" t="s">
-        <v>1662</v>
-      </c>
-      <c r="D388" t="s">
-        <v>1690</v>
-      </c>
-      <c r="I388" t="s">
-        <v>2097</v>
-      </c>
-      <c r="J388" t="s">
-        <v>1975</v>
+      <c r="A388" s="1" t="s">
+        <v>1671</v>
       </c>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>64</v>
+        <v>0</v>
+      </c>
+      <c r="B389" t="s">
+        <v>1668</v>
       </c>
       <c r="C389" t="s">
-        <v>1663</v>
+        <v>1654</v>
       </c>
       <c r="D389" t="s">
-        <v>1691</v>
-      </c>
-      <c r="I389" t="s">
-        <v>1663</v>
+        <v>1687</v>
       </c>
       <c r="J389" t="s">
-        <v>1663</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>1664</v>
+        <v>1655</v>
       </c>
       <c r="C390" t="s">
-        <v>1665</v>
+        <v>1656</v>
       </c>
       <c r="D390" t="s">
-        <v>1692</v>
-      </c>
-      <c r="I390" t="s">
-        <v>2098</v>
+        <v>1688</v>
       </c>
       <c r="J390" t="s">
-        <v>1976</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C391" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D391" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I391" t="s">
+        <v>1658</v>
+      </c>
+      <c r="J391" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C392" t="s">
+        <v>295</v>
+      </c>
+      <c r="D392" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I392" t="s">
+        <v>937</v>
+      </c>
+      <c r="J392" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C393" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D393" t="s">
+        <v>1689</v>
+      </c>
+      <c r="I393" t="s">
+        <v>2096</v>
+      </c>
+      <c r="J393" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>88</v>
+      </c>
+      <c r="C394" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D394" t="s">
+        <v>1690</v>
+      </c>
+      <c r="I394" t="s">
+        <v>2097</v>
+      </c>
+      <c r="J394" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>64</v>
+      </c>
+      <c r="C395" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D395" t="s">
+        <v>1691</v>
+      </c>
+      <c r="I395" t="s">
+        <v>1663</v>
+      </c>
+      <c r="J395" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C396" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D396" t="s">
+        <v>1692</v>
+      </c>
+      <c r="I396" t="s">
+        <v>2098</v>
+      </c>
+      <c r="J396" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
         <v>1666</v>
       </c>
-      <c r="C391" t="s">
+      <c r="C397" t="s">
         <v>1667</v>
       </c>
-      <c r="D391" t="s">
+      <c r="D397" t="s">
         <v>1693</v>
       </c>
-      <c r="I391" t="s">
+      <c r="I397" t="s">
         <v>2099</v>
       </c>
-      <c r="J391" t="s">
+      <c r="J397" t="s">
         <v>1977</v>
       </c>
     </row>
-    <row r="392" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="393" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A393" s="35" t="s">
+    <row r="398" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="399" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A399" s="35" t="s">
         <v>1991</v>
       </c>
     </row>
-    <row r="394" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A394" s="34" t="s">
+    <row r="400" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A400" s="34" t="s">
         <v>2004</v>
       </c>
-      <c r="B394" s="33" t="s">
+      <c r="B400" s="33" t="s">
         <v>2005</v>
       </c>
-      <c r="C394" s="34" t="s">
+      <c r="C400" s="34" t="s">
         <v>2006</v>
       </c>
-      <c r="I394" t="s">
+      <c r="I400" t="s">
         <v>2100</v>
       </c>
-      <c r="J394" t="s">
+      <c r="J400" t="s">
         <v>2007</v>
       </c>
-    </row>
-    <row r="395" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A395" s="36" t="s">
-        <v>1992</v>
-      </c>
-      <c r="C395" s="37" t="s">
-        <v>1996</v>
-      </c>
-      <c r="I395" t="s">
-        <v>2101</v>
-      </c>
-      <c r="J395" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="396" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A396" s="36" t="s">
-        <v>1993</v>
-      </c>
-      <c r="C396" s="36" t="s">
-        <v>1997</v>
-      </c>
-      <c r="I396" t="s">
-        <v>2102</v>
-      </c>
-      <c r="J396" t="s">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="397" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A397" s="36" t="s">
-        <v>1994</v>
-      </c>
-      <c r="C397" s="36" t="s">
-        <v>1998</v>
-      </c>
-      <c r="I397" t="s">
-        <v>2103</v>
-      </c>
-      <c r="J397" t="s">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="398" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A398" s="36" t="s">
-        <v>1995</v>
-      </c>
-      <c r="C398" s="36" t="s">
-        <v>1999</v>
-      </c>
-      <c r="I398" t="s">
-        <v>2104</v>
-      </c>
-      <c r="J398" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="399" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="400" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A400" s="35" t="s">
-        <v>2008</v>
-      </c>
-      <c r="B400" s="38"/>
-      <c r="C400" s="39"/>
     </row>
     <row r="401" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A401" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B401" s="40"/>
-      <c r="C401" s="41" t="s">
-        <v>2009</v>
+        <v>1992</v>
+      </c>
+      <c r="C401" s="37" t="s">
+        <v>1996</v>
       </c>
       <c r="I401" t="s">
-        <v>2105</v>
+        <v>2101</v>
       </c>
       <c r="J401" t="s">
-        <v>2010</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="402" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A402" s="36" t="s">
-        <v>2011</v>
-      </c>
-      <c r="B402" s="40"/>
-      <c r="C402" s="41" t="s">
-        <v>2012</v>
+        <v>1993</v>
+      </c>
+      <c r="C402" s="36" t="s">
+        <v>1997</v>
       </c>
       <c r="I402" t="s">
-        <v>2106</v>
+        <v>2102</v>
       </c>
       <c r="J402" t="s">
-        <v>2013</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="403" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A403" s="42"/>
-      <c r="B403" s="40"/>
-      <c r="C403" s="43"/>
+      <c r="A403" s="36" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C403" s="36" t="s">
+        <v>1998</v>
+      </c>
+      <c r="I403" t="s">
+        <v>2103</v>
+      </c>
+      <c r="J403" t="s">
+        <v>2002</v>
+      </c>
     </row>
     <row r="404" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A404" s="44" t="s">
-        <v>2014</v>
-      </c>
-      <c r="B404" s="40"/>
-      <c r="C404" s="43"/>
-    </row>
-    <row r="405" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A405" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B405" s="45"/>
-      <c r="C405" s="41" t="s">
-        <v>2015</v>
-      </c>
-      <c r="I405" t="s">
-        <v>2107</v>
-      </c>
-      <c r="J405" t="s">
-        <v>2016</v>
-      </c>
-    </row>
+      <c r="A404" s="36" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C404" s="36" t="s">
+        <v>1999</v>
+      </c>
+      <c r="I404" t="s">
+        <v>2104</v>
+      </c>
+      <c r="J404" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="406" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A406" s="36" t="s">
-        <v>2017</v>
-      </c>
-      <c r="B406" s="45"/>
-      <c r="C406" s="41" t="s">
-        <v>261</v>
-      </c>
-      <c r="I406" t="s">
-        <v>261</v>
-      </c>
-      <c r="J406" t="s">
-        <v>1719</v>
-      </c>
+      <c r="A406" s="35" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B406" s="38"/>
+      <c r="C406" s="39"/>
     </row>
     <row r="407" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A407" s="36" t="s">
-        <v>2018</v>
-      </c>
-      <c r="B407" s="45"/>
+        <v>0</v>
+      </c>
+      <c r="B407" s="40"/>
       <c r="C407" s="41" t="s">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="I407" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="J407" t="s">
-        <v>2020</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="408" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A408" s="36" t="s">
-        <v>2021</v>
-      </c>
-      <c r="B408" s="45"/>
+        <v>2011</v>
+      </c>
+      <c r="B408" s="40"/>
       <c r="C408" s="41" t="s">
-        <v>2022</v>
+        <v>2012</v>
       </c>
       <c r="I408" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="J408" t="s">
-        <v>2023</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="409" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A409" s="36" t="s">
-        <v>2024</v>
-      </c>
-      <c r="B409" s="45"/>
-      <c r="C409" s="41" t="s">
-        <v>2025</v>
-      </c>
-      <c r="I409" t="s">
-        <v>2110</v>
-      </c>
-      <c r="J409" t="s">
-        <v>2026</v>
-      </c>
+      <c r="A409" s="42"/>
+      <c r="B409" s="40"/>
+      <c r="C409" s="43"/>
     </row>
     <row r="410" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A410" s="36" t="s">
-        <v>2027</v>
-      </c>
-      <c r="B410" s="45"/>
-      <c r="C410" s="41" t="s">
-        <v>2028</v>
-      </c>
-      <c r="I410" t="s">
-        <v>2111</v>
-      </c>
-      <c r="J410" t="s">
-        <v>2029</v>
-      </c>
+      <c r="A410" s="44" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B410" s="40"/>
+      <c r="C410" s="43"/>
     </row>
     <row r="411" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A411" s="36" t="s">
-        <v>2030</v>
+        <v>0</v>
       </c>
       <c r="B411" s="45"/>
       <c r="C411" s="41" t="s">
-        <v>2031</v>
+        <v>2015</v>
       </c>
       <c r="I411" t="s">
-        <v>2112</v>
+        <v>2107</v>
       </c>
       <c r="J411" t="s">
-        <v>2032</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="412" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A412" s="36" t="s">
-        <v>2033</v>
+        <v>2017</v>
       </c>
       <c r="B412" s="45"/>
       <c r="C412" s="41" t="s">
-        <v>2034</v>
+        <v>261</v>
       </c>
       <c r="I412" t="s">
-        <v>2113</v>
+        <v>261</v>
       </c>
       <c r="J412" t="s">
-        <v>2035</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="413" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A413" s="36" t="s">
-        <v>2036</v>
+        <v>2018</v>
       </c>
       <c r="B413" s="45"/>
       <c r="C413" s="41" t="s">
-        <v>2037</v>
+        <v>2019</v>
       </c>
       <c r="I413" t="s">
-        <v>2114</v>
+        <v>2108</v>
       </c>
       <c r="J413" t="s">
-        <v>2038</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="414" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A414" s="36" t="s">
-        <v>2039</v>
+        <v>2021</v>
       </c>
       <c r="B414" s="45"/>
       <c r="C414" s="41" t="s">
-        <v>2040</v>
+        <v>2022</v>
       </c>
       <c r="I414" t="s">
-        <v>2115</v>
+        <v>2109</v>
       </c>
       <c r="J414" t="s">
-        <v>2041</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="415" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A415" s="36" t="s">
-        <v>2042</v>
+        <v>2024</v>
       </c>
       <c r="B415" s="45"/>
       <c r="C415" s="41" t="s">
-        <v>2043</v>
+        <v>2025</v>
       </c>
       <c r="I415" t="s">
-        <v>2116</v>
+        <v>2110</v>
       </c>
       <c r="J415" t="s">
-        <v>2044</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="416" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A416" s="36" t="s">
-        <v>2045</v>
+        <v>2027</v>
       </c>
       <c r="B416" s="45"/>
       <c r="C416" s="41" t="s">
-        <v>2046</v>
+        <v>2028</v>
       </c>
       <c r="I416" t="s">
-        <v>2117</v>
+        <v>2111</v>
       </c>
       <c r="J416" t="s">
-        <v>2047</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="417" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A417" s="36" t="s">
-        <v>2048</v>
+        <v>2030</v>
       </c>
       <c r="B417" s="45"/>
       <c r="C417" s="41" t="s">
-        <v>2049</v>
+        <v>2031</v>
       </c>
       <c r="I417" t="s">
-        <v>2118</v>
+        <v>2112</v>
       </c>
       <c r="J417" t="s">
-        <v>2050</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="418" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A418" s="42"/>
-      <c r="B418" s="40"/>
-      <c r="C418" s="43"/>
+      <c r="A418" s="36" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B418" s="45"/>
+      <c r="C418" s="41" t="s">
+        <v>2034</v>
+      </c>
+      <c r="I418" t="s">
+        <v>2113</v>
+      </c>
+      <c r="J418" t="s">
+        <v>2035</v>
+      </c>
     </row>
     <row r="419" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A419" s="44" t="s">
-        <v>2051</v>
-      </c>
-      <c r="B419" s="40"/>
-      <c r="C419" s="43"/>
+      <c r="A419" s="36" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B419" s="45"/>
+      <c r="C419" s="41" t="s">
+        <v>2037</v>
+      </c>
+      <c r="I419" t="s">
+        <v>2114</v>
+      </c>
+      <c r="J419" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="420" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A420" s="36" t="s">
-        <v>0</v>
+        <v>2039</v>
       </c>
       <c r="B420" s="45"/>
       <c r="C420" s="41" t="s">
-        <v>2009</v>
+        <v>2040</v>
       </c>
       <c r="I420" t="s">
-        <v>2119</v>
+        <v>2115</v>
       </c>
       <c r="J420" t="s">
-        <v>2010</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="421" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A421" s="36" t="s">
-        <v>2052</v>
+        <v>2042</v>
       </c>
       <c r="B421" s="45"/>
       <c r="C421" s="41" t="s">
-        <v>2053</v>
+        <v>2043</v>
       </c>
       <c r="I421" t="s">
-        <v>2120</v>
+        <v>2116</v>
       </c>
       <c r="J421" t="s">
-        <v>2054</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="422" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A422" s="36" t="s">
-        <v>2055</v>
+        <v>2045</v>
       </c>
       <c r="B422" s="45"/>
       <c r="C422" s="41" t="s">
-        <v>2056</v>
+        <v>2046</v>
       </c>
       <c r="I422" t="s">
-        <v>2121</v>
+        <v>2117</v>
       </c>
       <c r="J422" t="s">
-        <v>2057</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="423" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A423" s="36" t="s">
-        <v>2058</v>
+        <v>2048</v>
       </c>
       <c r="B423" s="45"/>
       <c r="C423" s="41" t="s">
-        <v>2059</v>
+        <v>2049</v>
       </c>
       <c r="I423" t="s">
-        <v>2122</v>
+        <v>2118</v>
       </c>
       <c r="J423" t="s">
-        <v>2060</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="424" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A424" s="36" t="s">
-        <v>2039</v>
-      </c>
-      <c r="B424" s="45"/>
-      <c r="C424" s="41" t="s">
-        <v>2061</v>
-      </c>
-      <c r="I424" t="s">
-        <v>2123</v>
-      </c>
-      <c r="J424" t="s">
-        <v>2068</v>
-      </c>
+      <c r="A424" s="42"/>
+      <c r="B424" s="40"/>
+      <c r="C424" s="43"/>
     </row>
     <row r="425" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A425" s="36" t="s">
-        <v>2062</v>
-      </c>
-      <c r="B425" s="45"/>
-      <c r="C425" s="41" t="s">
-        <v>2063</v>
-      </c>
-      <c r="I425" t="s">
-        <v>2124</v>
-      </c>
-      <c r="J425" t="s">
-        <v>2064</v>
-      </c>
+      <c r="A425" s="44" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B425" s="40"/>
+      <c r="C425" s="43"/>
     </row>
     <row r="426" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A426" s="36" t="s">
-        <v>2065</v>
+        <v>0</v>
       </c>
       <c r="B426" s="45"/>
       <c r="C426" s="41" t="s">
+        <v>2009</v>
+      </c>
+      <c r="I426" t="s">
+        <v>2119</v>
+      </c>
+      <c r="J426" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A427" s="36" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B427" s="45"/>
+      <c r="C427" s="41" t="s">
+        <v>2053</v>
+      </c>
+      <c r="I427" t="s">
+        <v>2120</v>
+      </c>
+      <c r="J427" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A428" s="36" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B428" s="45"/>
+      <c r="C428" s="41" t="s">
+        <v>2056</v>
+      </c>
+      <c r="I428" t="s">
+        <v>2121</v>
+      </c>
+      <c r="J428" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A429" s="36" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B429" s="45"/>
+      <c r="C429" s="41" t="s">
+        <v>2059</v>
+      </c>
+      <c r="I429" t="s">
+        <v>2122</v>
+      </c>
+      <c r="J429" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A430" s="36" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B430" s="45"/>
+      <c r="C430" s="41" t="s">
+        <v>2061</v>
+      </c>
+      <c r="I430" t="s">
+        <v>2123</v>
+      </c>
+      <c r="J430" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A431" s="36" t="s">
+        <v>2062</v>
+      </c>
+      <c r="B431" s="45"/>
+      <c r="C431" s="41" t="s">
+        <v>2063</v>
+      </c>
+      <c r="I431" t="s">
+        <v>2124</v>
+      </c>
+      <c r="J431" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A432" s="36" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B432" s="45"/>
+      <c r="C432" s="41" t="s">
         <v>2066</v>
       </c>
-      <c r="I426" t="s">
+      <c r="I432" t="s">
         <v>2125</v>
       </c>
-      <c r="J426" t="s">
+      <c r="J432" t="s">
         <v>2067</v>
       </c>
     </row>
@@ -16254,4 +16425,188 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2149</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2150</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2147</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2009</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2119</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2152</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2053</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2120</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2054</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2154</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2121</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2057</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2156</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2122</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2060</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2059</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2159</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2062</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2124</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2064</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2161</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2066</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2125</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2067</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2163</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>